--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033B6DE4-1D7F-124E-8406-5DE21D4679F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF50F76D-5A84-F044-A1F6-6B6BDC8D8AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14560" yWindow="920" windowWidth="15520" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="205">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,509 @@
   </si>
   <si>
     <t>MacBook Pro 16' 2024款（M4Pro/M4Max）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 10.5' 2017（A10X）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 12.9' 2017（A10X）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 11' 2018（A12X）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 12.9' 2018（A12X）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 11' 2020（A12Z）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 12.9' 2020（A12Z）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 11' 2021（M1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 12.9' 2021（M1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 11' 2022（M2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 12.9' 2022（M2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 11' 2024（M4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Pro 12.9' 2024（M4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad mini 4 2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad mini 5 2019</t>
+  </si>
+  <si>
+    <t>iPad mini 5 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad mini 6 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad mini 7 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 11' 2024（M2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 13' 2024（M2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 11' 2025（M3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 13' 2025（M3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 3 2019（A12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 4 2020（A14）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 5 2022（M1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 5 2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 6 2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 7 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 8 2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 9 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 10 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 11 2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44毫米/40毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 5（GPS）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 5（GPS+蜂窝）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 5（GPS+蜂窝）不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series SE（GPS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series SE（GPS+蜂窝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 6（GPS）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 6（GPS+蜂窝）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 6（GPS+蜂窝）不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 7（GPS）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 7（GPS+蜂窝）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 7（GPS+蜂窝）不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45毫米/41毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series SE 2（GPS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series SE 2（GPS+蜂窝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 8（GPS）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 8（GPS+蜂窝）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 8（GPS+蜂窝）不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 9（GPS）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 9（GPS+蜂窝）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 9（GPS+蜂窝）不锈钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Ultra 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 10（GPS）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 10（GPS+蜂窝）铝金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 10（GPS+蜂窝）钛金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46毫米/42毫米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirPods 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电充电盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线充电盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirPods 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirPods Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagSafe 充电盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirPods Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirPods 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirPods Pro 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirPods 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirPods 4（主动降噪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagSafe 充电盒（闪电）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagSafe 充电盒（USB-C）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB-C 充电盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB-C 接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find X7 Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find X7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find X6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reno 12 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reno 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K12x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K12 Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pad 3 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pad Air 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch 4 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">平板 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+256G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极夜黑 氟橡胶表带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破晓棕 真皮表带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy S25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy S25+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy S25 Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy S24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy S24+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy S24 Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy Z Flip 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy Z Flip 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy Z Flip 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maison Margiela 限量版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy Z Fold 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy Z Fold 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galaxy Z Fold 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thom Browne 限量版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab S10+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab S10 Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab S9 FE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab S9 FE+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+128G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab A9+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+64G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,12 +876,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFE394DC"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -420,20 +917,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C402" sqref="C402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -786,19 +1280,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -946,7 +1440,7 @@
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -960,7 +1454,7 @@
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -974,7 +1468,7 @@
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1170,7 +1664,7 @@
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1184,7 +1678,7 @@
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1198,7 +1692,7 @@
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1366,7 +1860,7 @@
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1380,7 +1874,7 @@
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1394,7 +1888,7 @@
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1562,7 +2056,7 @@
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -1576,7 +2070,7 @@
       <c r="B57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -1590,7 +2084,7 @@
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -1730,7 +2224,7 @@
       <c r="B68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -1744,7 +2238,7 @@
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -1758,7 +2252,7 @@
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -3210,20 +3704,3141 @@
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="2"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="2"/>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="2"/>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="2"/>
+    <row r="174" spans="2:5">
+      <c r="B174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="B214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5">
+      <c r="B215" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5">
+      <c r="B217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5">
+      <c r="B219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5">
+      <c r="B220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5">
+      <c r="B221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5">
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5">
+      <c r="B224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5">
+      <c r="B225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5">
+      <c r="B226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5">
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5">
+      <c r="B228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="B229" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5">
+      <c r="B230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5">
+      <c r="B231" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5">
+      <c r="B232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5">
+      <c r="B233" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="B234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="B235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5">
+      <c r="B236" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5">
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5">
+      <c r="B238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5">
+      <c r="B239" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5">
+      <c r="B240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="B275" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="B276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="B279" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="B283" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5">
+      <c r="B284" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="B285" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="B286" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="B287" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="B288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5">
+      <c r="B289" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5">
+      <c r="B290" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5">
+      <c r="B291" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5">
+      <c r="B292" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5">
+      <c r="B293" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5">
+      <c r="B294" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5">
+      <c r="B295" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5">
+      <c r="B296" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5">
+      <c r="B297" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5">
+      <c r="B298" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5">
+      <c r="B299" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5">
+      <c r="B300" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5">
+      <c r="B301" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5">
+      <c r="B302" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5">
+      <c r="B303" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5">
+      <c r="B304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="B305" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="B306" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="B307" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="B308" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="B309" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5">
+      <c r="B310" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5">
+      <c r="B311" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5">
+      <c r="B312" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5">
+      <c r="B313" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5">
+      <c r="B314" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5">
+      <c r="B315" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5">
+      <c r="B316" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5">
+      <c r="B317" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5">
+      <c r="B318" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5">
+      <c r="B319" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5">
+      <c r="B320" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5">
+      <c r="B321" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5">
+      <c r="B322" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5">
+      <c r="B323" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5">
+      <c r="B324" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5">
+      <c r="B325" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5">
+      <c r="B326" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5">
+      <c r="B327" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5">
+      <c r="B328" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5">
+      <c r="B329" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5">
+      <c r="B330" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5">
+      <c r="B331" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5">
+      <c r="B332" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5">
+      <c r="B333" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5">
+      <c r="B334" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5">
+      <c r="B335" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5">
+      <c r="B336" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5">
+      <c r="B337" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5">
+      <c r="B338" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5">
+      <c r="B339" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5">
+      <c r="B340" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5">
+      <c r="B341" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5">
+      <c r="B342" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5">
+      <c r="B343" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5">
+      <c r="B344" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5">
+      <c r="B345" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5">
+      <c r="B346" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5">
+      <c r="B347" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5">
+      <c r="B348" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5">
+      <c r="B349" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5">
+      <c r="B350" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5">
+      <c r="B351" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5">
+      <c r="B352" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5">
+      <c r="B353" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5">
+      <c r="B354" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5">
+      <c r="B355" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5">
+      <c r="B356" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="357" spans="2:5">
+      <c r="B357" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="2:5">
+      <c r="B358" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359" spans="2:5">
+      <c r="B359" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="360" spans="2:5">
+      <c r="B360" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5">
+      <c r="B361" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5">
+      <c r="B362" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5">
+      <c r="B363" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5">
+      <c r="B364" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5">
+      <c r="B365" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5">
+      <c r="B366" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5">
+      <c r="B367" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5">
+      <c r="B368" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5">
+      <c r="B369" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5">
+      <c r="B370" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5">
+      <c r="B371" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5">
+      <c r="B372" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5">
+      <c r="B373" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5">
+      <c r="B374" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5">
+      <c r="B375" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5">
+      <c r="B376" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5">
+      <c r="B377" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5">
+      <c r="B378" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5">
+      <c r="B379" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5">
+      <c r="B380" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5">
+      <c r="B381" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5">
+      <c r="B382" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5">
+      <c r="B383" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5">
+      <c r="B384" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5">
+      <c r="B385" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5">
+      <c r="B386" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5">
+      <c r="B387" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5">
+      <c r="B388" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5">
+      <c r="B389" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5">
+      <c r="B390" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5">
+      <c r="B391" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5">
+      <c r="B392" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5">
+      <c r="B393" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="394" spans="2:5">
+      <c r="B394" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5">
+      <c r="B395" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5">
+      <c r="B396" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5">
+      <c r="B397" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF50F76D-5A84-F044-A1F6-6B6BDC8D8AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6D4CB0-2421-314D-A57C-7523058DD6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="15180" yWindow="920" windowWidth="15420" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="251">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,16 @@
   </si>
   <si>
     <t>16+512G</t>
+  </si>
+  <si>
+    <t>16+512G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16+1T</t>
+  </si>
+  <si>
+    <t>16+1T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -854,6 +860,182 @@
   </si>
   <si>
     <t>4+64G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100 Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100s Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X200 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X200 Pro mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星通信版 16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPDDR5T 限量版 16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X90 Pro+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X90 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X80 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Fold 3 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Fold 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Fold 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Flip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骁龙版 8+256G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骁龙版 12+256G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骁龙版 12+512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天玑版 12+256G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天玑版 12+512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S19 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S18 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S18e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO 12 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO 11 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO 10 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO Neo 10 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO Neo 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO Neo 9 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO Neo 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO Neo 9s Pro+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:E397"/>
+  <dimension ref="A1:E526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C402" sqref="C402"/>
+    <sheetView tabSelected="1" topLeftCell="A495" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D524" sqref="D524:D526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2519,13 +2701,13 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="2:5">
@@ -2533,13 +2715,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="2:5">
@@ -2547,13 +2729,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="2:5">
@@ -2561,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="2:5">
@@ -2575,13 +2757,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="2:5">
@@ -2589,13 +2771,13 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="2:5">
@@ -2603,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="2:5">
@@ -2617,13 +2799,13 @@
         <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="2:5">
@@ -2631,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="2:5">
@@ -2645,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="2:5">
@@ -2659,13 +2841,13 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="2:5">
@@ -2673,13 +2855,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -2687,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="2:5">
@@ -2701,13 +2883,13 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="2:5">
@@ -2715,13 +2897,13 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="2:5">
@@ -2729,13 +2911,13 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="2:5">
@@ -2743,13 +2925,13 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="2:5">
@@ -2757,13 +2939,13 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="2:5">
@@ -2771,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="2:5">
@@ -2785,13 +2967,13 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="2:5">
@@ -2799,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="2:5">
@@ -2813,13 +2995,13 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="2:5">
@@ -2827,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="2:5">
@@ -2841,13 +3023,13 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="2:5">
@@ -2855,13 +3037,13 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="114" spans="2:5">
@@ -2869,13 +3051,13 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="2:5">
@@ -2883,13 +3065,13 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="2:5">
@@ -2897,13 +3079,13 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="2:5">
@@ -2911,13 +3093,13 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="2:5">
@@ -2925,13 +3107,13 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="2:5">
@@ -2939,13 +3121,13 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="2:5">
@@ -2953,13 +3135,13 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="2:5">
@@ -2967,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="2:5">
@@ -2981,13 +3163,13 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="2:5">
@@ -2995,13 +3177,13 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="2:5">
@@ -3009,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="2:5">
@@ -3023,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="126" spans="2:5">
@@ -3037,13 +3219,13 @@
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="2:5">
@@ -3051,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="2:5">
@@ -3065,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="2:5">
@@ -3079,13 +3261,13 @@
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="2:5">
@@ -3093,13 +3275,13 @@
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="2:5">
@@ -3107,13 +3289,13 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="2:5">
@@ -3121,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="2:5">
@@ -3135,13 +3317,13 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="134" spans="2:5">
@@ -3149,13 +3331,13 @@
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="2:5">
@@ -3163,13 +3345,13 @@
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="2:5">
@@ -3177,13 +3359,13 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="2:5">
@@ -3191,13 +3373,13 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="2:5">
@@ -3205,13 +3387,13 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="2:5">
@@ -3219,13 +3401,13 @@
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="2:5">
@@ -3233,13 +3415,13 @@
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="2:5">
@@ -3247,13 +3429,13 @@
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="142" spans="2:5">
@@ -3261,13 +3443,13 @@
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="2:5">
@@ -3275,13 +3457,13 @@
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="2:5">
@@ -3289,13 +3471,13 @@
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="2:5">
@@ -3303,13 +3485,13 @@
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="2:5">
@@ -3317,13 +3499,13 @@
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="2:5">
@@ -3331,13 +3513,13 @@
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="2:5">
@@ -3345,13 +3527,13 @@
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="2:5">
@@ -3359,13 +3541,13 @@
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="2:5">
@@ -3373,13 +3555,13 @@
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="2:5">
@@ -3387,13 +3569,13 @@
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="2:5">
@@ -3401,13 +3583,13 @@
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="2:5">
@@ -3415,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="2:5">
@@ -3429,13 +3611,13 @@
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="2:5">
@@ -3443,13 +3625,13 @@
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="2:5">
@@ -3457,13 +3639,13 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="2:5">
@@ -3471,13 +3653,13 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="2:5">
@@ -3485,13 +3667,13 @@
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="2:5">
@@ -3499,13 +3681,13 @@
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="2:5">
@@ -3513,13 +3695,13 @@
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="2:5">
@@ -3527,13 +3709,13 @@
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="162" spans="2:5">
@@ -3541,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="2:5">
@@ -3555,13 +3737,13 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="2:5">
@@ -3569,13 +3751,13 @@
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="2:5">
@@ -3583,13 +3765,13 @@
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="2:5">
@@ -3597,13 +3779,13 @@
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="2:5">
@@ -3611,13 +3793,13 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="2:5">
@@ -3625,13 +3807,13 @@
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="2:5">
@@ -3639,13 +3821,13 @@
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="2:5">
@@ -3653,13 +3835,13 @@
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="2:5">
@@ -3667,13 +3849,13 @@
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="2:5">
@@ -3681,13 +3863,13 @@
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="2:5">
@@ -3695,13 +3877,13 @@
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="2:5">
@@ -3709,13 +3891,13 @@
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175" spans="2:5">
@@ -3723,13 +3905,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="176" spans="2:5">
@@ -3737,13 +3919,13 @@
         <v>1</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="177" spans="2:5">
@@ -3751,13 +3933,13 @@
         <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="2:5">
@@ -3765,13 +3947,13 @@
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179" spans="2:5">
@@ -3779,13 +3961,13 @@
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="180" spans="2:5">
@@ -3793,13 +3975,13 @@
         <v>1</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="181" spans="2:5">
@@ -3807,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="2:5">
@@ -3821,13 +4003,13 @@
         <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="183" spans="2:5">
@@ -3835,13 +4017,13 @@
         <v>1</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="184" spans="2:5">
@@ -3849,13 +4031,13 @@
         <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="185" spans="2:5">
@@ -3863,13 +4045,13 @@
         <v>1</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="2:5">
@@ -3877,13 +4059,13 @@
         <v>1</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="2:5">
@@ -3891,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="2:5">
@@ -3905,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="189" spans="2:5">
@@ -3919,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="190" spans="2:5">
@@ -3933,13 +4115,13 @@
         <v>1</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="191" spans="2:5">
@@ -3947,13 +4129,13 @@
         <v>1</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="192" spans="2:5">
@@ -3961,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="2:5">
@@ -3975,13 +4157,13 @@
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="194" spans="2:5">
@@ -3989,13 +4171,13 @@
         <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195" spans="2:5">
@@ -4003,13 +4185,13 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196" spans="2:5">
@@ -4017,13 +4199,13 @@
         <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="197" spans="2:5">
@@ -4031,13 +4213,13 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="198" spans="2:5">
@@ -4045,13 +4227,13 @@
         <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="199" spans="2:5">
@@ -4059,13 +4241,13 @@
         <v>1</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" spans="2:5">
@@ -4073,13 +4255,13 @@
         <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="201" spans="2:5">
@@ -4087,13 +4269,13 @@
         <v>1</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="202" spans="2:5">
@@ -4101,13 +4283,13 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="203" spans="2:5">
@@ -4115,13 +4297,13 @@
         <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="204" spans="2:5">
@@ -4129,13 +4311,13 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="205" spans="2:5">
@@ -4143,13 +4325,13 @@
         <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="206" spans="2:5">
@@ -4157,13 +4339,13 @@
         <v>1</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="207" spans="2:5">
@@ -4171,13 +4353,13 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208" spans="2:5">
@@ -4185,13 +4367,13 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="209" spans="2:5">
@@ -4199,13 +4381,13 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="210" spans="2:5">
@@ -4213,13 +4395,13 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="2:5">
@@ -4227,13 +4409,13 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="212" spans="2:5">
@@ -4241,13 +4423,13 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="213" spans="2:5">
@@ -4255,13 +4437,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="214" spans="2:5">
@@ -4269,13 +4451,13 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="2:5">
@@ -4283,13 +4465,13 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="216" spans="2:5">
@@ -4297,13 +4479,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="2:5">
@@ -4311,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="218" spans="2:5">
@@ -4325,13 +4507,13 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219" spans="2:5">
@@ -4339,13 +4521,13 @@
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220" spans="2:5">
@@ -4353,13 +4535,13 @@
         <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221" spans="2:5">
@@ -4367,13 +4549,13 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="222" spans="2:5">
@@ -4381,13 +4563,13 @@
         <v>1</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="223" spans="2:5">
@@ -4395,13 +4577,13 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="2:5">
@@ -4409,13 +4591,13 @@
         <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225" spans="2:5">
@@ -4423,13 +4605,13 @@
         <v>1</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226" spans="2:5">
@@ -4437,13 +4619,13 @@
         <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="2:5">
@@ -4451,13 +4633,13 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228" spans="2:5">
@@ -4465,13 +4647,13 @@
         <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229" spans="2:5">
@@ -4479,13 +4661,13 @@
         <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230" spans="2:5">
@@ -4493,13 +4675,13 @@
         <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231" spans="2:5">
@@ -4507,13 +4689,13 @@
         <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="232" spans="2:5">
@@ -4521,13 +4703,13 @@
         <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233" spans="2:5">
@@ -4535,13 +4717,13 @@
         <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234" spans="2:5">
@@ -4549,13 +4731,13 @@
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235" spans="2:5">
@@ -4563,13 +4745,13 @@
         <v>1</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="2:5">
@@ -4577,13 +4759,13 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237" spans="2:5">
@@ -4591,13 +4773,13 @@
         <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238" spans="2:5">
@@ -4605,13 +4787,13 @@
         <v>1</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="2:5">
@@ -4619,13 +4801,13 @@
         <v>1</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="2:5">
@@ -4633,13 +4815,13 @@
         <v>1</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241" spans="2:5">
@@ -4647,13 +4829,13 @@
         <v>1</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="2:5">
@@ -4661,13 +4843,13 @@
         <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="2:5">
@@ -4675,13 +4857,13 @@
         <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="2:5">
@@ -4689,13 +4871,13 @@
         <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="245" spans="2:5">
@@ -4703,13 +4885,13 @@
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="246" spans="2:5">
@@ -4717,13 +4899,13 @@
         <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="247" spans="2:5">
@@ -4731,13 +4913,13 @@
         <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248" spans="2:5">
@@ -4745,13 +4927,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="2:5">
@@ -4759,13 +4941,13 @@
         <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="2:5">
@@ -4773,13 +4955,13 @@
         <v>1</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="2:5">
@@ -4787,13 +4969,13 @@
         <v>1</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="2:5">
@@ -4801,13 +4983,13 @@
         <v>1</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="2:5">
@@ -4815,13 +4997,13 @@
         <v>1</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="2:5">
@@ -4829,13 +5011,13 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="2:5">
@@ -4843,13 +5025,13 @@
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="2:5">
@@ -4857,13 +5039,13 @@
         <v>1</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="2:5">
@@ -4871,13 +5053,13 @@
         <v>1</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="2:5">
@@ -4885,13 +5067,13 @@
         <v>1</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="2:5">
@@ -4899,13 +5081,13 @@
         <v>1</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260" spans="2:5">
@@ -4913,13 +5095,13 @@
         <v>1</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="2:5">
@@ -4927,13 +5109,13 @@
         <v>1</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262" spans="2:5">
@@ -4941,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="2:5">
@@ -4955,13 +5137,13 @@
         <v>1</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="264" spans="2:5">
@@ -4969,13 +5151,13 @@
         <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="265" spans="2:5">
@@ -4983,13 +5165,13 @@
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="266" spans="2:5">
@@ -4997,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267" spans="2:5">
@@ -5011,13 +5193,13 @@
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="268" spans="2:5">
@@ -5025,13 +5207,13 @@
         <v>1</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269" spans="2:5">
@@ -5039,13 +5221,13 @@
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="270" spans="2:5">
@@ -5053,13 +5235,13 @@
         <v>1</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="271" spans="2:5">
@@ -5067,13 +5249,13 @@
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="272" spans="2:5">
@@ -5081,13 +5263,13 @@
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="273" spans="2:5">
@@ -5095,13 +5277,13 @@
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E273" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="274" spans="2:5">
@@ -5109,13 +5291,13 @@
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="275" spans="2:5">
@@ -5123,13 +5305,13 @@
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="276" spans="2:5">
@@ -5137,13 +5319,13 @@
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="277" spans="2:5">
@@ -5151,13 +5333,13 @@
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="278" spans="2:5">
@@ -5165,13 +5347,13 @@
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="279" spans="2:5">
@@ -5179,13 +5361,13 @@
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="280" spans="2:5">
@@ -5193,13 +5375,13 @@
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="281" spans="2:5">
@@ -5207,13 +5389,13 @@
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="282" spans="2:5">
@@ -5221,13 +5403,13 @@
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="283" spans="2:5">
@@ -5235,13 +5417,13 @@
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="284" spans="2:5">
@@ -5249,13 +5431,13 @@
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="285" spans="2:5">
@@ -5263,13 +5445,13 @@
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="286" spans="2:5">
@@ -5277,13 +5459,13 @@
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="287" spans="2:5">
@@ -5291,13 +5473,13 @@
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="288" spans="2:5">
@@ -5305,13 +5487,13 @@
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="289" spans="2:5">
@@ -5319,13 +5501,13 @@
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="290" spans="2:5">
@@ -5333,13 +5515,13 @@
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="291" spans="2:5">
@@ -5347,13 +5529,13 @@
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="292" spans="2:5">
@@ -5361,13 +5543,13 @@
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="293" spans="2:5">
@@ -5375,13 +5557,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="294" spans="2:5">
@@ -5389,13 +5571,13 @@
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="295" spans="2:5">
@@ -5403,13 +5585,13 @@
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="296" spans="2:5">
@@ -5417,13 +5599,13 @@
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D296" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="297" spans="2:5">
@@ -5431,13 +5613,13 @@
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="298" spans="2:5">
@@ -5445,13 +5627,13 @@
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="E298" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="299" spans="2:5">
@@ -5459,13 +5641,13 @@
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="300" spans="2:5">
@@ -5473,13 +5655,13 @@
         <v>1</v>
       </c>
       <c r="C300" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D300" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E300" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="301" spans="2:5">
@@ -5487,13 +5669,13 @@
         <v>1</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="302" spans="2:5">
@@ -5501,13 +5683,13 @@
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="303" spans="2:5">
@@ -5515,13 +5697,13 @@
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D303" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="304" spans="2:5">
@@ -5529,13 +5711,13 @@
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="305" spans="2:5">
@@ -5543,13 +5725,13 @@
         <v>1</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="306" spans="2:5">
@@ -5557,13 +5739,13 @@
         <v>1</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="307" spans="2:5">
@@ -5571,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="308" spans="2:5">
@@ -5585,13 +5767,13 @@
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="309" spans="2:5">
@@ -5599,13 +5781,13 @@
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="310" spans="2:5">
@@ -5613,13 +5795,13 @@
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="311" spans="2:5">
@@ -5627,24 +5809,24 @@
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="312" spans="2:5">
       <c r="B312" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>16</v>
@@ -5652,10 +5834,10 @@
     </row>
     <row r="313" spans="2:5">
       <c r="B313" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>45</v>
@@ -5666,13 +5848,13 @@
     </row>
     <row r="314" spans="2:5">
       <c r="B314" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>16</v>
@@ -5680,13 +5862,13 @@
     </row>
     <row r="315" spans="2:5">
       <c r="B315" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>16</v>
@@ -5694,10 +5876,10 @@
     </row>
     <row r="316" spans="2:5">
       <c r="B316" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>45</v>
@@ -5708,13 +5890,13 @@
     </row>
     <row r="317" spans="2:5">
       <c r="B317" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>16</v>
@@ -5722,13 +5904,13 @@
     </row>
     <row r="318" spans="2:5">
       <c r="B318" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>16</v>
@@ -5736,13 +5918,13 @@
     </row>
     <row r="319" spans="2:5">
       <c r="B319" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>16</v>
@@ -5750,13 +5932,13 @@
     </row>
     <row r="320" spans="2:5">
       <c r="B320" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>16</v>
@@ -5764,13 +5946,13 @@
     </row>
     <row r="321" spans="2:5">
       <c r="B321" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>16</v>
@@ -5778,10 +5960,10 @@
     </row>
     <row r="322" spans="2:5">
       <c r="B322" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>45</v>
@@ -5792,13 +5974,13 @@
     </row>
     <row r="323" spans="2:5">
       <c r="B323" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>16</v>
@@ -5806,13 +5988,13 @@
     </row>
     <row r="324" spans="2:5">
       <c r="B324" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>16</v>
@@ -5820,13 +6002,13 @@
     </row>
     <row r="325" spans="2:5">
       <c r="B325" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>16</v>
@@ -5834,10 +6016,10 @@
     </row>
     <row r="326" spans="2:5">
       <c r="B326" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>45</v>
@@ -5848,13 +6030,13 @@
     </row>
     <row r="327" spans="2:5">
       <c r="B327" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>16</v>
@@ -5862,10 +6044,10 @@
     </row>
     <row r="328" spans="2:5">
       <c r="B328" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>41</v>
@@ -5876,13 +6058,13 @@
     </row>
     <row r="329" spans="2:5">
       <c r="B329" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>16</v>
@@ -5890,13 +6072,13 @@
     </row>
     <row r="330" spans="2:5">
       <c r="B330" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>16</v>
@@ -5904,10 +6086,10 @@
     </row>
     <row r="331" spans="2:5">
       <c r="B331" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>40</v>
@@ -5918,10 +6100,10 @@
     </row>
     <row r="332" spans="2:5">
       <c r="B332" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>41</v>
@@ -5932,13 +6114,13 @@
     </row>
     <row r="333" spans="2:5">
       <c r="B333" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>16</v>
@@ -5946,13 +6128,13 @@
     </row>
     <row r="334" spans="2:5">
       <c r="B334" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>16</v>
@@ -5960,10 +6142,10 @@
     </row>
     <row r="335" spans="2:5">
       <c r="B335" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>41</v>
@@ -5974,13 +6156,13 @@
     </row>
     <row r="336" spans="2:5">
       <c r="B336" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>16</v>
@@ -5988,13 +6170,13 @@
     </row>
     <row r="337" spans="2:5">
       <c r="B337" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>16</v>
@@ -6002,10 +6184,10 @@
     </row>
     <row r="338" spans="2:5">
       <c r="B338" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>41</v>
@@ -6016,13 +6198,13 @@
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>16</v>
@@ -6030,13 +6212,13 @@
     </row>
     <row r="340" spans="2:5">
       <c r="B340" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>16</v>
@@ -6044,10 +6226,10 @@
     </row>
     <row r="341" spans="2:5">
       <c r="B341" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>41</v>
@@ -6058,13 +6240,13 @@
     </row>
     <row r="342" spans="2:5">
       <c r="B342" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>16</v>
@@ -6072,13 +6254,13 @@
     </row>
     <row r="343" spans="2:5">
       <c r="B343" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>16</v>
@@ -6086,10 +6268,10 @@
     </row>
     <row r="344" spans="2:5">
       <c r="B344" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>41</v>
@@ -6100,10 +6282,10 @@
     </row>
     <row r="345" spans="2:5">
       <c r="B345" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>42</v>
@@ -6114,13 +6296,13 @@
     </row>
     <row r="346" spans="2:5">
       <c r="B346" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>16</v>
@@ -6128,13 +6310,13 @@
     </row>
     <row r="347" spans="2:5">
       <c r="B347" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>16</v>
@@ -6142,139 +6324,139 @@
     </row>
     <row r="348" spans="2:5">
       <c r="B348" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="349" spans="2:5">
       <c r="B349" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="350" spans="2:5">
       <c r="B350" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="352" spans="2:5">
       <c r="B352" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="353" spans="2:5">
       <c r="B353" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="354" spans="2:5">
       <c r="B354" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="355" spans="2:5">
       <c r="B355" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="356" spans="2:5">
       <c r="B356" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="357" spans="2:5">
       <c r="B357" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>16</v>
@@ -6282,13 +6464,13 @@
     </row>
     <row r="358" spans="2:5">
       <c r="B358" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>16</v>
@@ -6296,13 +6478,13 @@
     </row>
     <row r="359" spans="2:5">
       <c r="B359" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>16</v>
@@ -6310,13 +6492,13 @@
     </row>
     <row r="360" spans="2:5">
       <c r="B360" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>16</v>
@@ -6324,13 +6506,13 @@
     </row>
     <row r="361" spans="2:5">
       <c r="B361" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>16</v>
@@ -6338,13 +6520,13 @@
     </row>
     <row r="362" spans="2:5">
       <c r="B362" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>16</v>
@@ -6352,13 +6534,13 @@
     </row>
     <row r="363" spans="2:5">
       <c r="B363" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>16</v>
@@ -6366,10 +6548,10 @@
     </row>
     <row r="364" spans="2:5">
       <c r="B364" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>41</v>
@@ -6380,13 +6562,13 @@
     </row>
     <row r="365" spans="2:5">
       <c r="B365" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>16</v>
@@ -6394,10 +6576,10 @@
     </row>
     <row r="366" spans="2:5">
       <c r="B366" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>42</v>
@@ -6408,13 +6590,13 @@
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>16</v>
@@ -6422,13 +6604,13 @@
     </row>
     <row r="368" spans="2:5">
       <c r="B368" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>16</v>
@@ -6436,13 +6618,13 @@
     </row>
     <row r="369" spans="2:5">
       <c r="B369" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>16</v>
@@ -6450,13 +6632,13 @@
     </row>
     <row r="370" spans="2:5">
       <c r="B370" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>16</v>
@@ -6464,13 +6646,13 @@
     </row>
     <row r="371" spans="2:5">
       <c r="B371" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>16</v>
@@ -6478,13 +6660,13 @@
     </row>
     <row r="372" spans="2:5">
       <c r="B372" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>16</v>
@@ -6492,13 +6674,13 @@
     </row>
     <row r="373" spans="2:5">
       <c r="B373" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>16</v>
@@ -6506,10 +6688,10 @@
     </row>
     <row r="374" spans="2:5">
       <c r="B374" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>41</v>
@@ -6520,10 +6702,10 @@
     </row>
     <row r="375" spans="2:5">
       <c r="B375" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>42</v>
@@ -6534,13 +6716,13 @@
     </row>
     <row r="376" spans="2:5">
       <c r="B376" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>16</v>
@@ -6548,10 +6730,10 @@
     </row>
     <row r="377" spans="2:5">
       <c r="B377" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>42</v>
@@ -6562,13 +6744,13 @@
     </row>
     <row r="378" spans="2:5">
       <c r="B378" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>16</v>
@@ -6576,13 +6758,13 @@
     </row>
     <row r="379" spans="2:5">
       <c r="B379" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>16</v>
@@ -6590,13 +6772,13 @@
     </row>
     <row r="380" spans="2:5">
       <c r="B380" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>16</v>
@@ -6604,13 +6786,13 @@
     </row>
     <row r="381" spans="2:5">
       <c r="B381" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>16</v>
@@ -6618,13 +6800,13 @@
     </row>
     <row r="382" spans="2:5">
       <c r="B382" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>16</v>
@@ -6632,13 +6814,13 @@
     </row>
     <row r="383" spans="2:5">
       <c r="B383" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>16</v>
@@ -6646,13 +6828,13 @@
     </row>
     <row r="384" spans="2:5">
       <c r="B384" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>16</v>
@@ -6660,13 +6842,13 @@
     </row>
     <row r="385" spans="2:5">
       <c r="B385" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>16</v>
@@ -6674,13 +6856,13 @@
     </row>
     <row r="386" spans="2:5">
       <c r="B386" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>16</v>
@@ -6688,156 +6870,1959 @@
     </row>
     <row r="387" spans="2:5">
       <c r="B387" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="388" spans="2:5">
       <c r="B388" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="389" spans="2:5">
       <c r="B389" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="390" spans="2:5">
       <c r="B390" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="391" spans="2:5">
       <c r="B391" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="392" spans="2:5">
       <c r="B392" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="393" spans="2:5">
       <c r="B393" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="394" spans="2:5">
       <c r="B394" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="395" spans="2:5">
       <c r="B395" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5">
+      <c r="B398" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5">
+      <c r="B399" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5">
+      <c r="B400" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5">
+      <c r="B401" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5">
+      <c r="B402" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5">
+      <c r="B403" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404" spans="2:5">
+      <c r="B404" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5">
+      <c r="B405" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406" spans="2:5">
+      <c r="B406" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5">
+      <c r="B407" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5">
+      <c r="B408" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409" spans="2:5">
+      <c r="B409" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5">
+      <c r="B410" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="2:5">
+      <c r="B411" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="2:5">
+      <c r="B412" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5">
+      <c r="B413" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5">
+      <c r="B414" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="2:5">
+      <c r="B415" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="2:5">
+      <c r="B416" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5">
+      <c r="B417" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5">
+      <c r="B418" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5">
+      <c r="B419" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="420" spans="2:5">
+      <c r="B420" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="421" spans="2:5">
+      <c r="B421" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5">
+      <c r="B422" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423" spans="2:5">
+      <c r="B423" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5">
+      <c r="B424" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="425" spans="2:5">
+      <c r="B425" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426" spans="2:5">
+      <c r="B426" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="427" spans="2:5">
+      <c r="B427" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="2:5">
+      <c r="B428" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5">
+      <c r="B429" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="430" spans="2:5">
+      <c r="B430" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="431" spans="2:5">
+      <c r="B431" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="2:5">
+      <c r="B432" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5">
+      <c r="B433" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5">
+      <c r="B434" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5">
+      <c r="B435" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5">
+      <c r="B436" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5">
+      <c r="B437" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5">
+      <c r="B438" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5">
+      <c r="B439" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5">
+      <c r="B440" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5">
+      <c r="B441" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5">
+      <c r="B442" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5">
+      <c r="B443" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5">
+      <c r="B444" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5">
+      <c r="B445" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5">
+      <c r="B446" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5">
+      <c r="C447" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="448" spans="2:5">
+      <c r="B448" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5">
+      <c r="B449" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5">
+      <c r="B450" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5">
+      <c r="B451" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5">
+      <c r="B452" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5">
+      <c r="B453" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5">
+      <c r="B454" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5">
+      <c r="B455" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5">
+      <c r="B456" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5">
+      <c r="B457" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458" spans="2:5">
+      <c r="B458" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5">
+      <c r="B459" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5">
+      <c r="B460" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="461" spans="2:5">
+      <c r="B461" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="462" spans="2:5">
+      <c r="B462" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="463" spans="2:5">
+      <c r="B463" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="464" spans="2:5">
+      <c r="B464" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5">
+      <c r="B465" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="466" spans="2:5">
+      <c r="B466" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="467" spans="2:5">
+      <c r="B467" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5">
+      <c r="B468" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="469" spans="2:5">
+      <c r="B469" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="470" spans="2:5">
+      <c r="B470" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="471" spans="2:5">
+      <c r="B471" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="472" spans="2:5">
+      <c r="B472" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="473" spans="2:5">
+      <c r="B473" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5">
+      <c r="B474" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="475" spans="2:5">
+      <c r="B475" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5">
+      <c r="B476" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="477" spans="2:5">
+      <c r="B477" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5">
+      <c r="B478" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5">
+      <c r="B479" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5">
+      <c r="B480" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="481" spans="2:5">
+      <c r="B481" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="482" spans="2:5">
+      <c r="B482" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="483" spans="2:5">
+      <c r="B483" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="484" spans="2:5">
+      <c r="B484" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="485" spans="2:5">
+      <c r="B485" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="486" spans="2:5">
+      <c r="B486" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="487" spans="2:5">
+      <c r="B487" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="488" spans="2:5">
+      <c r="B488" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="489" spans="2:5">
+      <c r="B489" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="490" spans="2:5">
+      <c r="B490" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="491" spans="2:5">
+      <c r="B491" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="492" spans="2:5">
+      <c r="B492" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="493" spans="2:5">
+      <c r="B493" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="494" spans="2:5">
+      <c r="B494" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="495" spans="2:5">
+      <c r="B495" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="496" spans="2:5">
+      <c r="B496" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="497" spans="2:5">
+      <c r="B497" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="498" spans="2:5">
+      <c r="B498" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="499" spans="2:5">
+      <c r="B499" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="500" spans="2:5">
+      <c r="B500" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="501" spans="2:5">
+      <c r="B501" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="502" spans="2:5">
+      <c r="B502" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="503" spans="2:5">
+      <c r="B503" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="504" spans="2:5">
+      <c r="B504" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="505" spans="2:5">
+      <c r="B505" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="506" spans="2:5">
+      <c r="B506" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="507" spans="2:5">
+      <c r="B507" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="508" spans="2:5">
+      <c r="B508" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="509" spans="2:5">
+      <c r="B509" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="510" spans="2:5">
+      <c r="B510" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511" spans="2:5">
+      <c r="B511" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512" spans="2:5">
+      <c r="B512" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5">
+      <c r="B513" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5">
+      <c r="B514" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5">
+      <c r="B515" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5">
+      <c r="B516" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5">
+      <c r="B517" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5">
+      <c r="B518" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="519" spans="2:5">
+      <c r="B519" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5">
+      <c r="B520" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5">
+      <c r="B521" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5">
+      <c r="B522" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5">
+      <c r="B523" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5">
+      <c r="B524" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5">
+      <c r="B525" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5">
+      <c r="B526" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6D4CB0-2421-314D-A57C-7523058DD6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908AA003-D18B-8540-8652-E885F49F1949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15180" yWindow="920" windowWidth="15420" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="260">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,6 +1036,42 @@
   </si>
   <si>
     <t>iQOO Neo 9s Pro+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO Z9 Turbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO Z9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iQOO Z9x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y300 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y200i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pad 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pad 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1446,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:E526"/>
+  <dimension ref="A1:E564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D524" sqref="D524:D526"/>
+    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="D563" sqref="D563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8825,6 +8861,538 @@
         <v>16</v>
       </c>
     </row>
+    <row r="527" spans="2:5">
+      <c r="B527" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5">
+      <c r="B528" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5">
+      <c r="B529" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="530" spans="2:5">
+      <c r="B530" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="531" spans="2:5">
+      <c r="B531" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5">
+      <c r="B532" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533" spans="2:5">
+      <c r="B533" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5">
+      <c r="B534" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5">
+      <c r="B535" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5">
+      <c r="B536" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5">
+      <c r="B537" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5">
+      <c r="B538" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5">
+      <c r="B539" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5">
+      <c r="B540" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="541" spans="2:5">
+      <c r="B541" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="542" spans="2:5">
+      <c r="B542" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="543" spans="2:5">
+      <c r="B543" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="544" spans="2:5">
+      <c r="B544" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="545" spans="2:5">
+      <c r="B545" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="546" spans="2:5">
+      <c r="B546" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="547" spans="2:5">
+      <c r="B547" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="548" spans="2:5">
+      <c r="B548" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="549" spans="2:5">
+      <c r="B549" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="550" spans="2:5">
+      <c r="B550" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551" spans="2:5">
+      <c r="B551" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="552" spans="2:5">
+      <c r="B552" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553" spans="2:5">
+      <c r="B553" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="554" spans="2:5">
+      <c r="B554" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="555" spans="2:5">
+      <c r="B555" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="556" spans="2:5">
+      <c r="B556" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="557" spans="2:5">
+      <c r="B557" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="558" spans="2:5">
+      <c r="B558" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="559" spans="2:5">
+      <c r="B559" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="560" spans="2:5">
+      <c r="B560" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="561" spans="2:5">
+      <c r="B561" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="562" spans="2:5">
+      <c r="B562" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="563" spans="2:5">
+      <c r="B563" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="564" spans="2:5">
+      <c r="B564" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FEAA3F-B849-D54D-B6B6-34A59398EC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6607393A-CAC4-4A45-9698-14AB2C15F97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="920" windowWidth="15420" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="300">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,6 +1180,58 @@
   </si>
   <si>
     <t>黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K70 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K70E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K70 至尊版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K80 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note 14 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note 13 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbo 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbo 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1591,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:E626"/>
+  <dimension ref="A1:E677"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="D626" sqref="D626"/>
+    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="D672" sqref="D672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10938,7 +10990,9 @@
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="2"/>
-      <c r="B623" s="2"/>
+      <c r="B623" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="C623" s="2" t="s">
         <v>269</v>
       </c>
@@ -10992,6 +11046,766 @@
       </c>
       <c r="E626" s="2" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="2"/>
+      <c r="B627" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="2"/>
+      <c r="B628" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="2"/>
+      <c r="B629" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="2"/>
+      <c r="B630" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="2"/>
+      <c r="B631" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="2"/>
+      <c r="B632" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="2"/>
+      <c r="B633" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="2"/>
+      <c r="B634" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="2"/>
+      <c r="B635" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="2"/>
+      <c r="B636" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="2"/>
+      <c r="B637" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E637" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" s="2"/>
+      <c r="B638" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="2"/>
+      <c r="B639" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="2"/>
+      <c r="B640" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" s="2"/>
+      <c r="B641" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="2"/>
+      <c r="B642" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="2"/>
+      <c r="B643" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="2"/>
+      <c r="B644" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" s="2"/>
+      <c r="B645" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E645" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="2"/>
+      <c r="B646" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="2"/>
+      <c r="B647" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E647" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="2"/>
+      <c r="B648" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="2"/>
+      <c r="B649" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="2"/>
+      <c r="B650" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="2"/>
+      <c r="B651" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="2"/>
+      <c r="B652" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="2"/>
+      <c r="B653" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E653" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="2"/>
+      <c r="B654" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="2"/>
+      <c r="B655" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E655" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="2"/>
+      <c r="B656" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E656" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="2"/>
+      <c r="B657" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E657" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="2"/>
+      <c r="B658" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="2"/>
+      <c r="B659" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="2"/>
+      <c r="B660" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E660" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="2"/>
+      <c r="B661" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E661" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="2"/>
+      <c r="B662" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E662" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="2"/>
+      <c r="B663" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="2"/>
+      <c r="B664" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E664" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="2"/>
+      <c r="B665" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E665" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="2"/>
+      <c r="B666" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E666" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="2"/>
+      <c r="B667" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E667" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="2"/>
+      <c r="B668" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E668" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="2"/>
+      <c r="B669" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E669" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="2"/>
+      <c r="B670" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E670" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="2"/>
+      <c r="B671" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E671" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="2"/>
+      <c r="B672" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E672" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="673" spans="2:5">
+      <c r="B673" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E673" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="674" spans="2:5">
+      <c r="B674" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E674" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="675" spans="2:5">
+      <c r="B675" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E675" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="676" spans="2:5">
+      <c r="B676" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E676" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="677" spans="2:5">
+      <c r="B677" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E677" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70CB38-99AE-B748-BFC3-6954664BF44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041EF040-1D44-194A-9B7F-3859B2D03AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="15180" yWindow="920" windowWidth="15420" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="492">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1423,6 +1423,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8+256G</t>
+  </si>
+  <si>
+    <t>8+128G</t>
+  </si>
+  <si>
     <t>12代酷睿 i5/16G/512G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1571,6 +1577,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>曜石黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>曜石黑/雪域白/云杉绿/蛇年典藏版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1584,6 +1594,404 @@
   </si>
   <si>
     <t>星空黑/流光紫/暖星云/玫瑰金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic 6 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X50 GT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Vs2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic 5 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X40 GT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play 7T Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play 7T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play 6T Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play 6T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 V8 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 V7 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 V8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 V7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 MagicPad 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 MagicPad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表 GS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手表 GS Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+128G 全网通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+128G 全网通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+256G 全网通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+256G 全网通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+256G 移动版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至臻版 16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环球远航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流光经典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞速先锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色夏日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰蓝色迷彩尼龙表带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂色氟橡胶表带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙砾色迷彩尼龙表带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨辉金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云水蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天选 5 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天选 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天选 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天选 Air 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROG 枪神 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏 Pro 15 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵耀 14 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拯救者 Y9000P 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拯救者 Y9000X 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拯救者 Y7000P 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拯救者 R9000P 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拯救者 R7000 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拯救者 Y9000P 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新笔记本 Pro 16 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新笔记本 16 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新笔记本 16 2023 锐龙版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新笔记本 Pro 14 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新 Pad Pro 2025 舒视版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新 Pad 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThinkBook 16+ 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThinkBook 16 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThinkBook 15 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星Book Pro 14 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械革命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛟龙 16 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX607JI</t>
+  </si>
+  <si>
+    <t>FX607JV</t>
+  </si>
+  <si>
+    <t>FX607JU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX607JIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX607JVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA507UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA507UU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神 911MT 2023</t>
+  </si>
+  <si>
+    <t>雷神 猎刃15 2024款</t>
+  </si>
+  <si>
+    <t>雷神 猎刃16 2024款</t>
+  </si>
+  <si>
+    <t>曙光16 2023款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">机械师 </t>
+  </si>
+  <si>
+    <t>曙光16 Air 2024款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无界14 2023款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世16 Super 2024款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世G15 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世G16 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世G16 Pro 2024款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼龙15 Pro 2024款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无界14Pro/14X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛟龙15K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1992,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:E791"/>
+  <dimension ref="A1:E944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A760" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C786" sqref="C786"/>
+    <sheetView tabSelected="1" topLeftCell="A915" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D932" sqref="D932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2007,7 +2415,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="31" customHeight="1">
+    <row r="1" spans="1:5" ht="31" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1">
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1">
+    <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2052,7 +2460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1">
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +2474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1">
+    <row r="5" spans="1:5">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2080,7 +2488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1">
+    <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2094,7 +2502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1">
+    <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -2108,7 +2516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1">
+    <row r="8" spans="1:5">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2122,7 +2530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1">
+    <row r="9" spans="1:5">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2136,7 +2544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1">
+    <row r="10" spans="1:5">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1">
+    <row r="11" spans="1:5">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2164,7 +2572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1">
+    <row r="12" spans="1:5">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1">
+    <row r="13" spans="1:5">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -2192,7 +2600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1">
+    <row r="14" spans="1:5">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2206,7 +2614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1">
+    <row r="15" spans="1:5">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -2220,7 +2628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1">
+    <row r="16" spans="1:5">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2234,7 +2642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1">
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +2656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1">
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2262,7 +2670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1">
+    <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2276,7 +2684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="1" customFormat="1">
+    <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2290,7 +2698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="1" customFormat="1">
+    <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2304,7 +2712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="1" customFormat="1">
+    <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="1" customFormat="1">
+    <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2332,7 +2740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="1" customFormat="1">
+    <row r="24" spans="2:5">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="1" customFormat="1">
+    <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2360,7 +2768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="1" customFormat="1">
+    <row r="26" spans="2:5">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2374,7 +2782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="1" customFormat="1">
+    <row r="27" spans="2:5">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="1" customFormat="1">
+    <row r="28" spans="2:5">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2402,7 +2810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="1" customFormat="1">
+    <row r="29" spans="2:5">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2416,7 +2824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="1" customFormat="1">
+    <row r="30" spans="2:5">
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="1" customFormat="1">
+    <row r="31" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2444,7 +2852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="1" customFormat="1">
+    <row r="32" spans="2:5">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="1" customFormat="1">
+    <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="1" customFormat="1">
+    <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
@@ -2486,7 +2894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:5" s="1" customFormat="1">
+    <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2500,7 +2908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:5" s="1" customFormat="1">
+    <row r="36" spans="2:5">
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +2922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="1" customFormat="1">
+    <row r="37" spans="2:5">
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:5" s="1" customFormat="1">
+    <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="1" customFormat="1">
+    <row r="39" spans="2:5">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:5" s="1" customFormat="1">
+    <row r="40" spans="2:5">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
@@ -2570,7 +2978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="1" customFormat="1">
+    <row r="41" spans="2:5">
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
@@ -2584,7 +2992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="1" customFormat="1">
+    <row r="42" spans="2:5">
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +3006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="1" customFormat="1">
+    <row r="43" spans="2:5">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -2612,7 +3020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="1" customFormat="1">
+    <row r="44" spans="2:5">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +3034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="1" customFormat="1">
+    <row r="45" spans="2:5">
       <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +3048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="1" customFormat="1">
+    <row r="46" spans="2:5">
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +3062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:5" s="1" customFormat="1">
+    <row r="47" spans="2:5">
       <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
@@ -2668,7 +3076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="2:5" s="1" customFormat="1">
+    <row r="48" spans="2:5">
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2682,7 +3090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:5" s="1" customFormat="1">
+    <row r="49" spans="2:5">
       <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
@@ -2696,7 +3104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="2:5" s="1" customFormat="1">
+    <row r="50" spans="2:5">
       <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
@@ -2710,7 +3118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:5" s="1" customFormat="1">
+    <row r="51" spans="2:5">
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
@@ -2724,7 +3132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:5" s="1" customFormat="1">
+    <row r="52" spans="2:5">
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
@@ -2738,7 +3146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:5" s="1" customFormat="1">
+    <row r="53" spans="2:5">
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
@@ -2752,7 +3160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:5" s="1" customFormat="1">
+    <row r="54" spans="2:5">
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
@@ -2766,7 +3174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:5" s="1" customFormat="1">
+    <row r="55" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
@@ -2780,7 +3188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:5" s="1" customFormat="1">
+    <row r="56" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
@@ -2794,7 +3202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="2:5" s="1" customFormat="1">
+    <row r="57" spans="2:5">
       <c r="B57" s="1" t="s">
         <v>1</v>
       </c>
@@ -2808,7 +3216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:5" s="1" customFormat="1">
+    <row r="58" spans="2:5">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
@@ -2822,7 +3230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:5" s="1" customFormat="1">
+    <row r="59" spans="2:5">
       <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
@@ -2836,7 +3244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:5" s="1" customFormat="1">
+    <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
@@ -2850,7 +3258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="2:5" s="1" customFormat="1">
+    <row r="61" spans="2:5">
       <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +3272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:5" s="1" customFormat="1">
+    <row r="62" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
@@ -2878,7 +3286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="2:5" s="1" customFormat="1">
+    <row r="63" spans="2:5">
       <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
@@ -2892,7 +3300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="1" customFormat="1">
+    <row r="64" spans="2:5">
       <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
@@ -2906,7 +3314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="1" customFormat="1">
+    <row r="65" spans="2:5">
       <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
@@ -2920,7 +3328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="2:5" s="1" customFormat="1">
+    <row r="66" spans="2:5">
       <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +3342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="2:5" s="1" customFormat="1">
+    <row r="67" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
@@ -2948,7 +3356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:5" s="1" customFormat="1">
+    <row r="68" spans="2:5">
       <c r="B68" s="1" t="s">
         <v>1</v>
       </c>
@@ -2962,7 +3370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="2:5" s="1" customFormat="1">
+    <row r="69" spans="2:5">
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +3384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="2:5" s="1" customFormat="1">
+    <row r="70" spans="2:5">
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
@@ -2990,7 +3398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="2:5" s="1" customFormat="1">
+    <row r="71" spans="2:5">
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
@@ -3004,7 +3412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="1" customFormat="1">
+    <row r="72" spans="2:5">
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
@@ -3018,7 +3426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:5" s="1" customFormat="1">
+    <row r="73" spans="2:5">
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="2:5" s="1" customFormat="1">
+    <row r="74" spans="2:5">
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
@@ -3046,7 +3454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="2:5" s="1" customFormat="1">
+    <row r="75" spans="2:5">
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
@@ -3060,7 +3468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="2:5" s="1" customFormat="1">
+    <row r="76" spans="2:5">
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
@@ -3074,7 +3482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="2:5" s="1" customFormat="1">
+    <row r="77" spans="2:5">
       <c r="B77" s="1" t="s">
         <v>1</v>
       </c>
@@ -3088,7 +3496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:5" s="1" customFormat="1">
+    <row r="78" spans="2:5">
       <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
@@ -3102,7 +3510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="2:5" s="1" customFormat="1">
+    <row r="79" spans="2:5">
       <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
@@ -3116,7 +3524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="2:5" s="1" customFormat="1">
+    <row r="80" spans="2:5">
       <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
@@ -3130,7 +3538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="2:5" s="1" customFormat="1">
+    <row r="81" spans="2:5">
       <c r="B81" s="1" t="s">
         <v>1</v>
       </c>
@@ -3144,7 +3552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="2:5" s="1" customFormat="1">
+    <row r="82" spans="2:5">
       <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
@@ -3158,7 +3566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="2:5" s="1" customFormat="1">
+    <row r="83" spans="2:5">
       <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +3580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="2:5" s="1" customFormat="1">
+    <row r="84" spans="2:5">
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
@@ -3186,7 +3594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="2:5" s="1" customFormat="1">
+    <row r="85" spans="2:5">
       <c r="B85" s="1" t="s">
         <v>1</v>
       </c>
@@ -3200,7 +3608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="2:5" s="1" customFormat="1">
+    <row r="86" spans="2:5">
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
@@ -3214,7 +3622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="2:5" s="1" customFormat="1">
+    <row r="87" spans="2:5">
       <c r="B87" s="1" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="2:5" s="1" customFormat="1">
+    <row r="88" spans="2:5">
       <c r="B88" s="1" t="s">
         <v>1</v>
       </c>
@@ -3242,7 +3650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="2:5" s="1" customFormat="1">
+    <row r="89" spans="2:5">
       <c r="B89" s="1" t="s">
         <v>1</v>
       </c>
@@ -3256,7 +3664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="2:5" s="1" customFormat="1">
+    <row r="90" spans="2:5">
       <c r="B90" s="1" t="s">
         <v>1</v>
       </c>
@@ -3270,7 +3678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="2:5" s="1" customFormat="1">
+    <row r="91" spans="2:5">
       <c r="B91" s="1" t="s">
         <v>1</v>
       </c>
@@ -3284,7 +3692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="2:5" s="1" customFormat="1">
+    <row r="92" spans="2:5">
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
@@ -3298,7 +3706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:5" s="1" customFormat="1">
+    <row r="93" spans="2:5">
       <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
@@ -3312,7 +3720,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="2:5" s="1" customFormat="1">
+    <row r="94" spans="2:5">
       <c r="B94" s="1" t="s">
         <v>1</v>
       </c>
@@ -3326,7 +3734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="2:5" s="1" customFormat="1">
+    <row r="95" spans="2:5">
       <c r="B95" s="1" t="s">
         <v>1</v>
       </c>
@@ -3340,7 +3748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="2:5" s="1" customFormat="1">
+    <row r="96" spans="2:5">
       <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
@@ -3354,7 +3762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="2:5" s="1" customFormat="1">
+    <row r="97" spans="2:5">
       <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
@@ -3368,7 +3776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="2:5" s="1" customFormat="1">
+    <row r="98" spans="2:5">
       <c r="B98" s="1" t="s">
         <v>1</v>
       </c>
@@ -3382,7 +3790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="2:5" s="1" customFormat="1">
+    <row r="99" spans="2:5">
       <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
@@ -3396,7 +3804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="2:5" s="1" customFormat="1">
+    <row r="100" spans="2:5">
       <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
@@ -3410,7 +3818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:5" s="1" customFormat="1">
+    <row r="101" spans="2:5">
       <c r="B101" s="1" t="s">
         <v>1</v>
       </c>
@@ -3424,7 +3832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="2:5" s="1" customFormat="1">
+    <row r="102" spans="2:5">
       <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="2:5" s="1" customFormat="1">
+    <row r="103" spans="2:5">
       <c r="B103" s="1" t="s">
         <v>1</v>
       </c>
@@ -3452,7 +3860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="2:5" s="1" customFormat="1">
+    <row r="104" spans="2:5">
       <c r="B104" s="1" t="s">
         <v>1</v>
       </c>
@@ -3466,7 +3874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="2:5" s="1" customFormat="1">
+    <row r="105" spans="2:5">
       <c r="B105" s="1" t="s">
         <v>1</v>
       </c>
@@ -3480,7 +3888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="2:5" s="1" customFormat="1">
+    <row r="106" spans="2:5">
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
@@ -3494,7 +3902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="2:5" s="1" customFormat="1">
+    <row r="107" spans="2:5">
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
@@ -3508,7 +3916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="2:5" s="1" customFormat="1">
+    <row r="108" spans="2:5">
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
@@ -3522,7 +3930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="2:5" s="1" customFormat="1">
+    <row r="109" spans="2:5">
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
@@ -3536,7 +3944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="2:5" s="1" customFormat="1">
+    <row r="110" spans="2:5">
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
@@ -3550,7 +3958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="2:5" s="1" customFormat="1">
+    <row r="111" spans="2:5">
       <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
@@ -3564,7 +3972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="2:5" s="1" customFormat="1">
+    <row r="112" spans="2:5">
       <c r="B112" s="1" t="s">
         <v>1</v>
       </c>
@@ -3578,7 +3986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="2:5" s="1" customFormat="1">
+    <row r="113" spans="2:5">
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
@@ -3592,7 +4000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="2:5" s="1" customFormat="1">
+    <row r="114" spans="2:5">
       <c r="B114" s="1" t="s">
         <v>1</v>
       </c>
@@ -3606,7 +4014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="2:5" s="1" customFormat="1">
+    <row r="115" spans="2:5">
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
@@ -3620,7 +4028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="2:5" s="1" customFormat="1">
+    <row r="116" spans="2:5">
       <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
@@ -3634,7 +4042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="2:5" s="1" customFormat="1">
+    <row r="117" spans="2:5">
       <c r="B117" s="1" t="s">
         <v>1</v>
       </c>
@@ -3648,7 +4056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="2:5" s="1" customFormat="1">
+    <row r="118" spans="2:5">
       <c r="B118" s="1" t="s">
         <v>1</v>
       </c>
@@ -3662,7 +4070,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="2:5" s="1" customFormat="1">
+    <row r="119" spans="2:5">
       <c r="B119" s="1" t="s">
         <v>1</v>
       </c>
@@ -3676,7 +4084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="2:5" s="1" customFormat="1">
+    <row r="120" spans="2:5">
       <c r="B120" s="1" t="s">
         <v>1</v>
       </c>
@@ -3690,7 +4098,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="2:5" s="1" customFormat="1">
+    <row r="121" spans="2:5">
       <c r="B121" s="1" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +4112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="2:5" s="1" customFormat="1">
+    <row r="122" spans="2:5">
       <c r="B122" s="1" t="s">
         <v>1</v>
       </c>
@@ -3718,7 +4126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:5" s="1" customFormat="1">
+    <row r="123" spans="2:5">
       <c r="B123" s="1" t="s">
         <v>1</v>
       </c>
@@ -3732,7 +4140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="2:5" s="1" customFormat="1">
+    <row r="124" spans="2:5">
       <c r="B124" s="1" t="s">
         <v>1</v>
       </c>
@@ -3746,7 +4154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="2:5" s="1" customFormat="1">
+    <row r="125" spans="2:5">
       <c r="B125" s="1" t="s">
         <v>1</v>
       </c>
@@ -3760,7 +4168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="2:5" s="1" customFormat="1">
+    <row r="126" spans="2:5">
       <c r="B126" s="1" t="s">
         <v>1</v>
       </c>
@@ -3774,7 +4182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:5" s="1" customFormat="1">
+    <row r="127" spans="2:5">
       <c r="B127" s="1" t="s">
         <v>1</v>
       </c>
@@ -3788,7 +4196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="2:5" s="1" customFormat="1">
+    <row r="128" spans="2:5">
       <c r="B128" s="1" t="s">
         <v>1</v>
       </c>
@@ -3802,7 +4210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="2:5" s="1" customFormat="1">
+    <row r="129" spans="2:5">
       <c r="B129" s="1" t="s">
         <v>1</v>
       </c>
@@ -3816,7 +4224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="2:5" s="1" customFormat="1">
+    <row r="130" spans="2:5">
       <c r="B130" s="1" t="s">
         <v>1</v>
       </c>
@@ -3830,7 +4238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="2:5" s="1" customFormat="1">
+    <row r="131" spans="2:5">
       <c r="B131" s="1" t="s">
         <v>1</v>
       </c>
@@ -3844,7 +4252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:5" s="1" customFormat="1">
+    <row r="132" spans="2:5">
       <c r="B132" s="1" t="s">
         <v>1</v>
       </c>
@@ -3858,7 +4266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="2:5" s="1" customFormat="1">
+    <row r="133" spans="2:5">
       <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
@@ -3872,7 +4280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="2:5" s="1" customFormat="1">
+    <row r="134" spans="2:5">
       <c r="B134" s="1" t="s">
         <v>1</v>
       </c>
@@ -3886,7 +4294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="2:5" s="1" customFormat="1">
+    <row r="135" spans="2:5">
       <c r="B135" s="1" t="s">
         <v>1</v>
       </c>
@@ -3900,7 +4308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="2:5" s="1" customFormat="1">
+    <row r="136" spans="2:5">
       <c r="B136" s="1" t="s">
         <v>1</v>
       </c>
@@ -3914,7 +4322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="2:5" s="1" customFormat="1">
+    <row r="137" spans="2:5">
       <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
@@ -3928,7 +4336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="2:5" s="1" customFormat="1">
+    <row r="138" spans="2:5">
       <c r="B138" s="1" t="s">
         <v>1</v>
       </c>
@@ -3942,7 +4350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="2:5" s="1" customFormat="1">
+    <row r="139" spans="2:5">
       <c r="B139" s="1" t="s">
         <v>1</v>
       </c>
@@ -3956,7 +4364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="2:5" s="1" customFormat="1">
+    <row r="140" spans="2:5">
       <c r="B140" s="1" t="s">
         <v>1</v>
       </c>
@@ -3970,7 +4378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="2:5" s="1" customFormat="1">
+    <row r="141" spans="2:5">
       <c r="B141" s="1" t="s">
         <v>1</v>
       </c>
@@ -3984,7 +4392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="2:5" s="1" customFormat="1">
+    <row r="142" spans="2:5">
       <c r="B142" s="1" t="s">
         <v>1</v>
       </c>
@@ -3998,7 +4406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="2:5" s="1" customFormat="1">
+    <row r="143" spans="2:5">
       <c r="B143" s="1" t="s">
         <v>1</v>
       </c>
@@ -4012,7 +4420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="2:5" s="1" customFormat="1">
+    <row r="144" spans="2:5">
       <c r="B144" s="1" t="s">
         <v>1</v>
       </c>
@@ -4026,7 +4434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="2:5" s="1" customFormat="1">
+    <row r="145" spans="2:5">
       <c r="B145" s="1" t="s">
         <v>1</v>
       </c>
@@ -4040,7 +4448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="2:5" s="1" customFormat="1">
+    <row r="146" spans="2:5">
       <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
@@ -4054,7 +4462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="2:5" s="1" customFormat="1">
+    <row r="147" spans="2:5">
       <c r="B147" s="1" t="s">
         <v>1</v>
       </c>
@@ -4068,7 +4476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="2:5" s="1" customFormat="1">
+    <row r="148" spans="2:5">
       <c r="B148" s="1" t="s">
         <v>1</v>
       </c>
@@ -4082,7 +4490,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="2:5" s="1" customFormat="1">
+    <row r="149" spans="2:5">
       <c r="B149" s="1" t="s">
         <v>1</v>
       </c>
@@ -4096,7 +4504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="150" spans="2:5" s="1" customFormat="1">
+    <row r="150" spans="2:5">
       <c r="B150" s="1" t="s">
         <v>1</v>
       </c>
@@ -4110,7 +4518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="2:5" s="1" customFormat="1">
+    <row r="151" spans="2:5">
       <c r="B151" s="1" t="s">
         <v>1</v>
       </c>
@@ -4124,7 +4532,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="2:5" s="1" customFormat="1">
+    <row r="152" spans="2:5">
       <c r="B152" s="1" t="s">
         <v>1</v>
       </c>
@@ -4138,7 +4546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="2:5" s="1" customFormat="1">
+    <row r="153" spans="2:5">
       <c r="B153" s="1" t="s">
         <v>1</v>
       </c>
@@ -4152,7 +4560,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="1" customFormat="1">
+    <row r="154" spans="2:5">
       <c r="B154" s="1" t="s">
         <v>1</v>
       </c>
@@ -4166,7 +4574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="2:5" s="1" customFormat="1">
+    <row r="155" spans="2:5">
       <c r="B155" s="1" t="s">
         <v>1</v>
       </c>
@@ -4180,7 +4588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="2:5" s="1" customFormat="1">
+    <row r="156" spans="2:5">
       <c r="B156" s="1" t="s">
         <v>1</v>
       </c>
@@ -4194,7 +4602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="2:5" s="1" customFormat="1">
+    <row r="157" spans="2:5">
       <c r="B157" s="1" t="s">
         <v>1</v>
       </c>
@@ -4208,7 +4616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="2:5" s="1" customFormat="1">
+    <row r="158" spans="2:5">
       <c r="B158" s="1" t="s">
         <v>1</v>
       </c>
@@ -4222,7 +4630,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="2:5" s="1" customFormat="1">
+    <row r="159" spans="2:5">
       <c r="B159" s="1" t="s">
         <v>1</v>
       </c>
@@ -4236,7 +4644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="2:5" s="1" customFormat="1">
+    <row r="160" spans="2:5">
       <c r="B160" s="1" t="s">
         <v>1</v>
       </c>
@@ -4250,7 +4658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="2:5" s="1" customFormat="1">
+    <row r="161" spans="2:5">
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
@@ -4264,7 +4672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="2:5" s="1" customFormat="1">
+    <row r="162" spans="2:5">
       <c r="B162" s="1" t="s">
         <v>1</v>
       </c>
@@ -4278,7 +4686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="2:5" s="1" customFormat="1">
+    <row r="163" spans="2:5">
       <c r="B163" s="1" t="s">
         <v>1</v>
       </c>
@@ -4292,7 +4700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="2:5" s="1" customFormat="1">
+    <row r="164" spans="2:5">
       <c r="B164" s="1" t="s">
         <v>1</v>
       </c>
@@ -4306,7 +4714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="2:5" s="1" customFormat="1">
+    <row r="165" spans="2:5">
       <c r="B165" s="1" t="s">
         <v>1</v>
       </c>
@@ -4320,7 +4728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="2:5" s="1" customFormat="1">
+    <row r="166" spans="2:5">
       <c r="B166" s="1" t="s">
         <v>1</v>
       </c>
@@ -4334,7 +4742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="2:5" s="1" customFormat="1">
+    <row r="167" spans="2:5">
       <c r="B167" s="1" t="s">
         <v>1</v>
       </c>
@@ -4348,7 +4756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="2:5" s="1" customFormat="1">
+    <row r="168" spans="2:5">
       <c r="B168" s="1" t="s">
         <v>1</v>
       </c>
@@ -4362,7 +4770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="2:5" s="1" customFormat="1">
+    <row r="169" spans="2:5">
       <c r="B169" s="1" t="s">
         <v>1</v>
       </c>
@@ -4376,7 +4784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="2:5" s="1" customFormat="1">
+    <row r="170" spans="2:5">
       <c r="B170" s="1" t="s">
         <v>1</v>
       </c>
@@ -4390,7 +4798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="2:5" s="1" customFormat="1">
+    <row r="171" spans="2:5">
       <c r="B171" s="1" t="s">
         <v>1</v>
       </c>
@@ -4404,7 +4812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="2:5" s="1" customFormat="1">
+    <row r="172" spans="2:5">
       <c r="B172" s="1" t="s">
         <v>1</v>
       </c>
@@ -4418,7 +4826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="2:5" s="1" customFormat="1">
+    <row r="173" spans="2:5">
       <c r="B173" s="1" t="s">
         <v>1</v>
       </c>
@@ -4432,7 +4840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="2:5" s="1" customFormat="1">
+    <row r="174" spans="2:5">
       <c r="B174" s="1" t="s">
         <v>1</v>
       </c>
@@ -4446,7 +4854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="2:5" s="1" customFormat="1">
+    <row r="175" spans="2:5">
       <c r="B175" s="1" t="s">
         <v>1</v>
       </c>
@@ -4460,7 +4868,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="2:5" s="1" customFormat="1">
+    <row r="176" spans="2:5">
       <c r="B176" s="1" t="s">
         <v>1</v>
       </c>
@@ -4474,7 +4882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="177" spans="2:5" s="1" customFormat="1">
+    <row r="177" spans="2:5">
       <c r="B177" s="1" t="s">
         <v>1</v>
       </c>
@@ -4488,7 +4896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="2:5" s="1" customFormat="1">
+    <row r="178" spans="2:5">
       <c r="B178" s="1" t="s">
         <v>1</v>
       </c>
@@ -4502,7 +4910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="2:5" s="1" customFormat="1">
+    <row r="179" spans="2:5">
       <c r="B179" s="1" t="s">
         <v>1</v>
       </c>
@@ -4516,7 +4924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="180" spans="2:5" s="1" customFormat="1">
+    <row r="180" spans="2:5">
       <c r="B180" s="1" t="s">
         <v>1</v>
       </c>
@@ -4530,7 +4938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="181" spans="2:5" s="1" customFormat="1">
+    <row r="181" spans="2:5">
       <c r="B181" s="1" t="s">
         <v>1</v>
       </c>
@@ -4544,7 +4952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="2:5" s="1" customFormat="1">
+    <row r="182" spans="2:5">
       <c r="B182" s="1" t="s">
         <v>1</v>
       </c>
@@ -4558,7 +4966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="183" spans="2:5" s="1" customFormat="1">
+    <row r="183" spans="2:5">
       <c r="B183" s="1" t="s">
         <v>1</v>
       </c>
@@ -4572,7 +4980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="184" spans="2:5" s="1" customFormat="1">
+    <row r="184" spans="2:5">
       <c r="B184" s="1" t="s">
         <v>1</v>
       </c>
@@ -4586,7 +4994,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="2:5" s="1" customFormat="1">
+    <row r="185" spans="2:5">
       <c r="B185" s="1" t="s">
         <v>1</v>
       </c>
@@ -4600,7 +5008,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="186" spans="2:5" s="1" customFormat="1">
+    <row r="186" spans="2:5">
       <c r="B186" s="1" t="s">
         <v>1</v>
       </c>
@@ -4614,7 +5022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="2:5" s="1" customFormat="1">
+    <row r="187" spans="2:5">
       <c r="B187" s="1" t="s">
         <v>1</v>
       </c>
@@ -4628,7 +5036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="2:5" s="1" customFormat="1">
+    <row r="188" spans="2:5">
       <c r="B188" s="1" t="s">
         <v>1</v>
       </c>
@@ -4642,7 +5050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="189" spans="2:5" s="1" customFormat="1">
+    <row r="189" spans="2:5">
       <c r="B189" s="1" t="s">
         <v>1</v>
       </c>
@@ -4656,7 +5064,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="2:5" s="1" customFormat="1">
+    <row r="190" spans="2:5">
       <c r="B190" s="1" t="s">
         <v>1</v>
       </c>
@@ -4670,7 +5078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="2:5" s="1" customFormat="1">
+    <row r="191" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>1</v>
       </c>
@@ -4684,7 +5092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="192" spans="2:5" s="1" customFormat="1">
+    <row r="192" spans="2:5">
       <c r="B192" s="1" t="s">
         <v>1</v>
       </c>
@@ -4698,7 +5106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="193" spans="2:5" s="1" customFormat="1">
+    <row r="193" spans="2:5">
       <c r="B193" s="1" t="s">
         <v>1</v>
       </c>
@@ -4712,7 +5120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="194" spans="2:5" s="1" customFormat="1">
+    <row r="194" spans="2:5">
       <c r="B194" s="1" t="s">
         <v>1</v>
       </c>
@@ -4726,7 +5134,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="195" spans="2:5" s="1" customFormat="1">
+    <row r="195" spans="2:5">
       <c r="B195" s="1" t="s">
         <v>1</v>
       </c>
@@ -4740,7 +5148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="2:5" s="1" customFormat="1">
+    <row r="196" spans="2:5">
       <c r="B196" s="1" t="s">
         <v>1</v>
       </c>
@@ -4754,7 +5162,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="197" spans="2:5" s="1" customFormat="1">
+    <row r="197" spans="2:5">
       <c r="B197" s="1" t="s">
         <v>1</v>
       </c>
@@ -4768,7 +5176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="198" spans="2:5" s="1" customFormat="1">
+    <row r="198" spans="2:5">
       <c r="B198" s="1" t="s">
         <v>1</v>
       </c>
@@ -4782,7 +5190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="2:5" s="1" customFormat="1">
+    <row r="199" spans="2:5">
       <c r="B199" s="1" t="s">
         <v>1</v>
       </c>
@@ -4796,7 +5204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="200" spans="2:5" s="1" customFormat="1">
+    <row r="200" spans="2:5">
       <c r="B200" s="1" t="s">
         <v>1</v>
       </c>
@@ -4810,7 +5218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="201" spans="2:5" s="1" customFormat="1">
+    <row r="201" spans="2:5">
       <c r="B201" s="1" t="s">
         <v>1</v>
       </c>
@@ -4824,7 +5232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="202" spans="2:5" s="1" customFormat="1">
+    <row r="202" spans="2:5">
       <c r="B202" s="1" t="s">
         <v>1</v>
       </c>
@@ -4838,7 +5246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="203" spans="2:5" s="1" customFormat="1">
+    <row r="203" spans="2:5">
       <c r="B203" s="1" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +5260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="204" spans="2:5" s="1" customFormat="1">
+    <row r="204" spans="2:5">
       <c r="B204" s="1" t="s">
         <v>1</v>
       </c>
@@ -4866,7 +5274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="2:5" s="1" customFormat="1">
+    <row r="205" spans="2:5">
       <c r="B205" s="1" t="s">
         <v>1</v>
       </c>
@@ -4880,7 +5288,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="206" spans="2:5" s="1" customFormat="1">
+    <row r="206" spans="2:5">
       <c r="B206" s="1" t="s">
         <v>1</v>
       </c>
@@ -4894,7 +5302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="207" spans="2:5" s="1" customFormat="1">
+    <row r="207" spans="2:5">
       <c r="B207" s="1" t="s">
         <v>1</v>
       </c>
@@ -4908,7 +5316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="208" spans="2:5" s="1" customFormat="1">
+    <row r="208" spans="2:5">
       <c r="B208" s="1" t="s">
         <v>1</v>
       </c>
@@ -4922,7 +5330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="2:5" s="1" customFormat="1">
+    <row r="209" spans="2:5">
       <c r="B209" s="1" t="s">
         <v>1</v>
       </c>
@@ -4936,7 +5344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="2:5" s="1" customFormat="1">
+    <row r="210" spans="2:5">
       <c r="B210" s="1" t="s">
         <v>1</v>
       </c>
@@ -4950,7 +5358,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="211" spans="2:5" s="1" customFormat="1">
+    <row r="211" spans="2:5">
       <c r="B211" s="1" t="s">
         <v>1</v>
       </c>
@@ -4964,7 +5372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="2:5" s="1" customFormat="1">
+    <row r="212" spans="2:5">
       <c r="B212" s="1" t="s">
         <v>1</v>
       </c>
@@ -4978,7 +5386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="2:5" s="1" customFormat="1">
+    <row r="213" spans="2:5">
       <c r="B213" s="1" t="s">
         <v>1</v>
       </c>
@@ -4992,7 +5400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="2:5" s="1" customFormat="1">
+    <row r="214" spans="2:5">
       <c r="B214" s="1" t="s">
         <v>1</v>
       </c>
@@ -5006,7 +5414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="2:5" s="1" customFormat="1">
+    <row r="215" spans="2:5">
       <c r="B215" s="1" t="s">
         <v>1</v>
       </c>
@@ -5020,7 +5428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="2:5" s="1" customFormat="1">
+    <row r="216" spans="2:5">
       <c r="B216" s="1" t="s">
         <v>1</v>
       </c>
@@ -5034,7 +5442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="217" spans="2:5" s="1" customFormat="1">
+    <row r="217" spans="2:5">
       <c r="B217" s="1" t="s">
         <v>1</v>
       </c>
@@ -5048,7 +5456,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="218" spans="2:5" s="1" customFormat="1">
+    <row r="218" spans="2:5">
       <c r="B218" s="1" t="s">
         <v>1</v>
       </c>
@@ -5062,7 +5470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="219" spans="2:5" s="1" customFormat="1">
+    <row r="219" spans="2:5">
       <c r="B219" s="1" t="s">
         <v>1</v>
       </c>
@@ -5076,7 +5484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="220" spans="2:5" s="1" customFormat="1">
+    <row r="220" spans="2:5">
       <c r="B220" s="1" t="s">
         <v>1</v>
       </c>
@@ -5090,7 +5498,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="2:5" s="1" customFormat="1">
+    <row r="221" spans="2:5">
       <c r="B221" s="1" t="s">
         <v>1</v>
       </c>
@@ -5104,7 +5512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="222" spans="2:5" s="1" customFormat="1">
+    <row r="222" spans="2:5">
       <c r="B222" s="1" t="s">
         <v>1</v>
       </c>
@@ -5118,7 +5526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="2:5" s="1" customFormat="1">
+    <row r="223" spans="2:5">
       <c r="B223" s="1" t="s">
         <v>1</v>
       </c>
@@ -5132,7 +5540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="2:5" s="1" customFormat="1">
+    <row r="224" spans="2:5">
       <c r="B224" s="1" t="s">
         <v>1</v>
       </c>
@@ -5146,7 +5554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="2:5" s="1" customFormat="1">
+    <row r="225" spans="2:5">
       <c r="B225" s="1" t="s">
         <v>1</v>
       </c>
@@ -5160,7 +5568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="2:5" s="1" customFormat="1">
+    <row r="226" spans="2:5">
       <c r="B226" s="1" t="s">
         <v>1</v>
       </c>
@@ -5174,7 +5582,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="2:5" s="1" customFormat="1">
+    <row r="227" spans="2:5">
       <c r="B227" s="1" t="s">
         <v>1</v>
       </c>
@@ -5188,7 +5596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="2:5" s="1" customFormat="1">
+    <row r="228" spans="2:5">
       <c r="B228" s="1" t="s">
         <v>1</v>
       </c>
@@ -5202,7 +5610,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="229" spans="2:5" s="1" customFormat="1">
+    <row r="229" spans="2:5">
       <c r="B229" s="1" t="s">
         <v>1</v>
       </c>
@@ -5216,7 +5624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="230" spans="2:5" s="1" customFormat="1">
+    <row r="230" spans="2:5">
       <c r="B230" s="1" t="s">
         <v>1</v>
       </c>
@@ -5230,7 +5638,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="231" spans="2:5" s="1" customFormat="1">
+    <row r="231" spans="2:5">
       <c r="B231" s="1" t="s">
         <v>1</v>
       </c>
@@ -5244,7 +5652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="2:5" s="1" customFormat="1">
+    <row r="232" spans="2:5">
       <c r="B232" s="1" t="s">
         <v>1</v>
       </c>
@@ -5258,7 +5666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="233" spans="2:5" s="1" customFormat="1">
+    <row r="233" spans="2:5">
       <c r="B233" s="1" t="s">
         <v>1</v>
       </c>
@@ -5272,7 +5680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="234" spans="2:5" s="1" customFormat="1">
+    <row r="234" spans="2:5">
       <c r="B234" s="1" t="s">
         <v>1</v>
       </c>
@@ -5286,7 +5694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="235" spans="2:5" s="1" customFormat="1">
+    <row r="235" spans="2:5">
       <c r="B235" s="1" t="s">
         <v>1</v>
       </c>
@@ -5300,7 +5708,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="236" spans="2:5" s="1" customFormat="1">
+    <row r="236" spans="2:5">
       <c r="B236" s="1" t="s">
         <v>1</v>
       </c>
@@ -5314,7 +5722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="2:5" s="1" customFormat="1">
+    <row r="237" spans="2:5">
       <c r="B237" s="1" t="s">
         <v>1</v>
       </c>
@@ -5328,7 +5736,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="238" spans="2:5" s="1" customFormat="1">
+    <row r="238" spans="2:5">
       <c r="B238" s="1" t="s">
         <v>1</v>
       </c>
@@ -5342,7 +5750,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="239" spans="2:5" s="1" customFormat="1">
+    <row r="239" spans="2:5">
       <c r="B239" s="1" t="s">
         <v>1</v>
       </c>
@@ -5356,7 +5764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="240" spans="2:5" s="1" customFormat="1">
+    <row r="240" spans="2:5">
       <c r="B240" s="1" t="s">
         <v>1</v>
       </c>
@@ -5370,7 +5778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="241" spans="2:5" s="1" customFormat="1">
+    <row r="241" spans="2:5">
       <c r="B241" s="1" t="s">
         <v>1</v>
       </c>
@@ -5384,7 +5792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="242" spans="2:5" s="1" customFormat="1">
+    <row r="242" spans="2:5">
       <c r="B242" s="1" t="s">
         <v>1</v>
       </c>
@@ -5398,7 +5806,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="243" spans="2:5" s="1" customFormat="1">
+    <row r="243" spans="2:5">
       <c r="B243" s="1" t="s">
         <v>1</v>
       </c>
@@ -5412,7 +5820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="244" spans="2:5" s="1" customFormat="1">
+    <row r="244" spans="2:5">
       <c r="B244" s="1" t="s">
         <v>1</v>
       </c>
@@ -5426,7 +5834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="2:5" s="1" customFormat="1">
+    <row r="245" spans="2:5">
       <c r="B245" s="1" t="s">
         <v>1</v>
       </c>
@@ -5440,7 +5848,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="246" spans="2:5" s="1" customFormat="1">
+    <row r="246" spans="2:5">
       <c r="B246" s="1" t="s">
         <v>1</v>
       </c>
@@ -5454,7 +5862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="247" spans="2:5" s="1" customFormat="1">
+    <row r="247" spans="2:5">
       <c r="B247" s="1" t="s">
         <v>1</v>
       </c>
@@ -5468,7 +5876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="248" spans="2:5" s="1" customFormat="1">
+    <row r="248" spans="2:5">
       <c r="B248" s="1" t="s">
         <v>1</v>
       </c>
@@ -5482,7 +5890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="2:5" s="1" customFormat="1">
+    <row r="249" spans="2:5">
       <c r="B249" s="1" t="s">
         <v>1</v>
       </c>
@@ -5496,7 +5904,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="250" spans="2:5" s="1" customFormat="1">
+    <row r="250" spans="2:5">
       <c r="B250" s="1" t="s">
         <v>1</v>
       </c>
@@ -5510,7 +5918,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="251" spans="2:5" s="1" customFormat="1">
+    <row r="251" spans="2:5">
       <c r="B251" s="1" t="s">
         <v>1</v>
       </c>
@@ -5524,7 +5932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="252" spans="2:5" s="1" customFormat="1">
+    <row r="252" spans="2:5">
       <c r="B252" s="1" t="s">
         <v>1</v>
       </c>
@@ -5538,7 +5946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="2:5" s="1" customFormat="1">
+    <row r="253" spans="2:5">
       <c r="B253" s="1" t="s">
         <v>1</v>
       </c>
@@ -5552,7 +5960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="254" spans="2:5" s="1" customFormat="1">
+    <row r="254" spans="2:5">
       <c r="B254" s="1" t="s">
         <v>1</v>
       </c>
@@ -5566,7 +5974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="255" spans="2:5" s="1" customFormat="1">
+    <row r="255" spans="2:5">
       <c r="B255" s="1" t="s">
         <v>1</v>
       </c>
@@ -5580,7 +5988,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="256" spans="2:5" s="1" customFormat="1">
+    <row r="256" spans="2:5">
       <c r="B256" s="1" t="s">
         <v>1</v>
       </c>
@@ -5594,7 +6002,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="257" spans="2:5" s="1" customFormat="1">
+    <row r="257" spans="2:5">
       <c r="B257" s="1" t="s">
         <v>1</v>
       </c>
@@ -5608,7 +6016,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="258" spans="2:5" s="1" customFormat="1">
+    <row r="258" spans="2:5">
       <c r="B258" s="1" t="s">
         <v>1</v>
       </c>
@@ -5622,7 +6030,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="2:5" s="1" customFormat="1">
+    <row r="259" spans="2:5">
       <c r="B259" s="1" t="s">
         <v>1</v>
       </c>
@@ -5636,7 +6044,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="260" spans="2:5" s="1" customFormat="1">
+    <row r="260" spans="2:5">
       <c r="B260" s="1" t="s">
         <v>1</v>
       </c>
@@ -5650,7 +6058,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="261" spans="2:5" s="1" customFormat="1">
+    <row r="261" spans="2:5">
       <c r="B261" s="1" t="s">
         <v>1</v>
       </c>
@@ -5664,7 +6072,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="262" spans="2:5" s="1" customFormat="1">
+    <row r="262" spans="2:5">
       <c r="B262" s="1" t="s">
         <v>1</v>
       </c>
@@ -5678,7 +6086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="263" spans="2:5" s="1" customFormat="1">
+    <row r="263" spans="2:5">
       <c r="B263" s="1" t="s">
         <v>1</v>
       </c>
@@ -5692,7 +6100,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="264" spans="2:5" s="1" customFormat="1">
+    <row r="264" spans="2:5">
       <c r="B264" s="1" t="s">
         <v>1</v>
       </c>
@@ -5706,7 +6114,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="2:5" s="1" customFormat="1">
+    <row r="265" spans="2:5">
       <c r="B265" s="1" t="s">
         <v>1</v>
       </c>
@@ -5720,7 +6128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="266" spans="2:5" s="1" customFormat="1">
+    <row r="266" spans="2:5">
       <c r="B266" s="1" t="s">
         <v>1</v>
       </c>
@@ -5734,7 +6142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="267" spans="2:5" s="1" customFormat="1">
+    <row r="267" spans="2:5">
       <c r="B267" s="1" t="s">
         <v>1</v>
       </c>
@@ -5748,7 +6156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="268" spans="2:5" s="1" customFormat="1">
+    <row r="268" spans="2:5">
       <c r="B268" s="1" t="s">
         <v>1</v>
       </c>
@@ -5762,7 +6170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="269" spans="2:5" s="1" customFormat="1">
+    <row r="269" spans="2:5">
       <c r="B269" s="1" t="s">
         <v>1</v>
       </c>
@@ -5776,7 +6184,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="270" spans="2:5" s="1" customFormat="1">
+    <row r="270" spans="2:5">
       <c r="B270" s="1" t="s">
         <v>1</v>
       </c>
@@ -5790,7 +6198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="271" spans="2:5" s="1" customFormat="1">
+    <row r="271" spans="2:5">
       <c r="B271" s="1" t="s">
         <v>1</v>
       </c>
@@ -5804,7 +6212,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="272" spans="2:5" s="1" customFormat="1">
+    <row r="272" spans="2:5">
       <c r="B272" s="1" t="s">
         <v>1</v>
       </c>
@@ -5818,7 +6226,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="273" spans="2:5" s="1" customFormat="1">
+    <row r="273" spans="2:5">
       <c r="B273" s="1" t="s">
         <v>1</v>
       </c>
@@ -5832,7 +6240,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="274" spans="2:5" s="1" customFormat="1">
+    <row r="274" spans="2:5">
       <c r="B274" s="1" t="s">
         <v>1</v>
       </c>
@@ -5846,7 +6254,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="275" spans="2:5" s="1" customFormat="1">
+    <row r="275" spans="2:5">
       <c r="B275" s="1" t="s">
         <v>1</v>
       </c>
@@ -5860,7 +6268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="276" spans="2:5" s="1" customFormat="1">
+    <row r="276" spans="2:5">
       <c r="B276" s="1" t="s">
         <v>1</v>
       </c>
@@ -5874,7 +6282,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="277" spans="2:5" s="1" customFormat="1">
+    <row r="277" spans="2:5">
       <c r="B277" s="1" t="s">
         <v>1</v>
       </c>
@@ -5888,7 +6296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="278" spans="2:5" s="1" customFormat="1">
+    <row r="278" spans="2:5">
       <c r="B278" s="1" t="s">
         <v>1</v>
       </c>
@@ -5902,7 +6310,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="279" spans="2:5" s="1" customFormat="1">
+    <row r="279" spans="2:5">
       <c r="B279" s="1" t="s">
         <v>1</v>
       </c>
@@ -5916,7 +6324,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="280" spans="2:5" s="1" customFormat="1">
+    <row r="280" spans="2:5">
       <c r="B280" s="1" t="s">
         <v>1</v>
       </c>
@@ -5930,7 +6338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="281" spans="2:5" s="1" customFormat="1">
+    <row r="281" spans="2:5">
       <c r="B281" s="1" t="s">
         <v>1</v>
       </c>
@@ -5944,7 +6352,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="282" spans="2:5" s="1" customFormat="1">
+    <row r="282" spans="2:5">
       <c r="B282" s="1" t="s">
         <v>1</v>
       </c>
@@ -5958,7 +6366,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="283" spans="2:5" s="1" customFormat="1">
+    <row r="283" spans="2:5">
       <c r="B283" s="1" t="s">
         <v>1</v>
       </c>
@@ -5972,7 +6380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="284" spans="2:5" s="1" customFormat="1">
+    <row r="284" spans="2:5">
       <c r="B284" s="1" t="s">
         <v>1</v>
       </c>
@@ -5986,7 +6394,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="285" spans="2:5" s="1" customFormat="1">
+    <row r="285" spans="2:5">
       <c r="B285" s="1" t="s">
         <v>1</v>
       </c>
@@ -6000,7 +6408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="286" spans="2:5" s="1" customFormat="1">
+    <row r="286" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>1</v>
       </c>
@@ -6014,7 +6422,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="287" spans="2:5" s="1" customFormat="1">
+    <row r="287" spans="2:5">
       <c r="B287" s="1" t="s">
         <v>1</v>
       </c>
@@ -6028,7 +6436,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="288" spans="2:5" s="1" customFormat="1">
+    <row r="288" spans="2:5">
       <c r="B288" s="1" t="s">
         <v>1</v>
       </c>
@@ -6042,7 +6450,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="289" spans="2:5" s="1" customFormat="1">
+    <row r="289" spans="2:5">
       <c r="B289" s="1" t="s">
         <v>1</v>
       </c>
@@ -6056,7 +6464,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="290" spans="2:5" s="1" customFormat="1">
+    <row r="290" spans="2:5">
       <c r="B290" s="1" t="s">
         <v>1</v>
       </c>
@@ -6070,7 +6478,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="291" spans="2:5" s="1" customFormat="1">
+    <row r="291" spans="2:5">
       <c r="B291" s="1" t="s">
         <v>1</v>
       </c>
@@ -6084,7 +6492,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="292" spans="2:5" s="1" customFormat="1">
+    <row r="292" spans="2:5">
       <c r="B292" s="1" t="s">
         <v>1</v>
       </c>
@@ -6098,7 +6506,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="293" spans="2:5" s="1" customFormat="1">
+    <row r="293" spans="2:5">
       <c r="B293" s="1" t="s">
         <v>1</v>
       </c>
@@ -6112,7 +6520,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="294" spans="2:5" s="1" customFormat="1">
+    <row r="294" spans="2:5">
       <c r="B294" s="1" t="s">
         <v>1</v>
       </c>
@@ -6126,7 +6534,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="295" spans="2:5" s="1" customFormat="1">
+    <row r="295" spans="2:5">
       <c r="B295" s="1" t="s">
         <v>1</v>
       </c>
@@ -6140,7 +6548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="296" spans="2:5" s="1" customFormat="1">
+    <row r="296" spans="2:5">
       <c r="B296" s="1" t="s">
         <v>1</v>
       </c>
@@ -6154,7 +6562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="297" spans="2:5" s="1" customFormat="1">
+    <row r="297" spans="2:5">
       <c r="B297" s="1" t="s">
         <v>1</v>
       </c>
@@ -6168,7 +6576,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="298" spans="2:5" s="1" customFormat="1">
+    <row r="298" spans="2:5">
       <c r="B298" s="1" t="s">
         <v>1</v>
       </c>
@@ -6182,7 +6590,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="299" spans="2:5" s="1" customFormat="1">
+    <row r="299" spans="2:5">
       <c r="B299" s="1" t="s">
         <v>1</v>
       </c>
@@ -6196,7 +6604,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="300" spans="2:5" s="1" customFormat="1">
+    <row r="300" spans="2:5">
       <c r="B300" s="1" t="s">
         <v>1</v>
       </c>
@@ -6210,7 +6618,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="301" spans="2:5" s="1" customFormat="1">
+    <row r="301" spans="2:5">
       <c r="B301" s="1" t="s">
         <v>1</v>
       </c>
@@ -6224,7 +6632,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="302" spans="2:5" s="1" customFormat="1">
+    <row r="302" spans="2:5">
       <c r="B302" s="1" t="s">
         <v>1</v>
       </c>
@@ -6238,7 +6646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="303" spans="2:5" s="1" customFormat="1">
+    <row r="303" spans="2:5">
       <c r="B303" s="1" t="s">
         <v>1</v>
       </c>
@@ -6252,7 +6660,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="304" spans="2:5" s="1" customFormat="1">
+    <row r="304" spans="2:5">
       <c r="B304" s="1" t="s">
         <v>1</v>
       </c>
@@ -6266,7 +6674,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="305" spans="2:5" s="1" customFormat="1">
+    <row r="305" spans="2:5">
       <c r="B305" s="1" t="s">
         <v>1</v>
       </c>
@@ -6280,7 +6688,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="306" spans="2:5" s="1" customFormat="1">
+    <row r="306" spans="2:5">
       <c r="B306" s="1" t="s">
         <v>1</v>
       </c>
@@ -6294,7 +6702,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="307" spans="2:5" s="1" customFormat="1">
+    <row r="307" spans="2:5">
       <c r="B307" s="1" t="s">
         <v>1</v>
       </c>
@@ -6308,7 +6716,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="308" spans="2:5" s="1" customFormat="1">
+    <row r="308" spans="2:5">
       <c r="B308" s="1" t="s">
         <v>1</v>
       </c>
@@ -6322,7 +6730,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="309" spans="2:5" s="1" customFormat="1">
+    <row r="309" spans="2:5">
       <c r="B309" s="1" t="s">
         <v>1</v>
       </c>
@@ -6336,7 +6744,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="310" spans="2:5" s="1" customFormat="1">
+    <row r="310" spans="2:5">
       <c r="B310" s="1" t="s">
         <v>1</v>
       </c>
@@ -6350,7 +6758,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="311" spans="2:5" s="1" customFormat="1">
+    <row r="311" spans="2:5">
       <c r="B311" s="1" t="s">
         <v>1</v>
       </c>
@@ -6364,7 +6772,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="312" spans="2:5" s="1" customFormat="1">
+    <row r="312" spans="2:5">
       <c r="B312" s="1" t="s">
         <v>162</v>
       </c>
@@ -6378,7 +6786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="2:5" s="1" customFormat="1">
+    <row r="313" spans="2:5">
       <c r="B313" s="1" t="s">
         <v>162</v>
       </c>
@@ -6392,7 +6800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="2:5" s="1" customFormat="1">
+    <row r="314" spans="2:5">
       <c r="B314" s="1" t="s">
         <v>162</v>
       </c>
@@ -6406,7 +6814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="2:5" s="1" customFormat="1">
+    <row r="315" spans="2:5">
       <c r="B315" s="1" t="s">
         <v>162</v>
       </c>
@@ -6420,7 +6828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="2:5" s="1" customFormat="1">
+    <row r="316" spans="2:5">
       <c r="B316" s="1" t="s">
         <v>162</v>
       </c>
@@ -6434,7 +6842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="2:5" s="1" customFormat="1">
+    <row r="317" spans="2:5">
       <c r="B317" s="1" t="s">
         <v>162</v>
       </c>
@@ -6448,7 +6856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="2:5" s="1" customFormat="1">
+    <row r="318" spans="2:5">
       <c r="B318" s="1" t="s">
         <v>162</v>
       </c>
@@ -6462,7 +6870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="2:5" s="1" customFormat="1">
+    <row r="319" spans="2:5">
       <c r="B319" s="1" t="s">
         <v>162</v>
       </c>
@@ -6476,7 +6884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="2:5" s="1" customFormat="1">
+    <row r="320" spans="2:5">
       <c r="B320" s="1" t="s">
         <v>162</v>
       </c>
@@ -6490,7 +6898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="2:5" s="1" customFormat="1">
+    <row r="321" spans="2:5">
       <c r="B321" s="1" t="s">
         <v>162</v>
       </c>
@@ -6504,7 +6912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="2:5" s="1" customFormat="1">
+    <row r="322" spans="2:5">
       <c r="B322" s="1" t="s">
         <v>162</v>
       </c>
@@ -6518,7 +6926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="2:5" s="1" customFormat="1">
+    <row r="323" spans="2:5">
       <c r="B323" s="1" t="s">
         <v>162</v>
       </c>
@@ -6532,7 +6940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="2:5" s="1" customFormat="1">
+    <row r="324" spans="2:5">
       <c r="B324" s="1" t="s">
         <v>162</v>
       </c>
@@ -6546,7 +6954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="2:5" s="1" customFormat="1">
+    <row r="325" spans="2:5">
       <c r="B325" s="1" t="s">
         <v>162</v>
       </c>
@@ -6560,7 +6968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="2:5" s="1" customFormat="1">
+    <row r="326" spans="2:5">
       <c r="B326" s="1" t="s">
         <v>162</v>
       </c>
@@ -6574,7 +6982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="2:5" s="1" customFormat="1">
+    <row r="327" spans="2:5">
       <c r="B327" s="1" t="s">
         <v>162</v>
       </c>
@@ -6588,7 +6996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="2:5" s="1" customFormat="1">
+    <row r="328" spans="2:5">
       <c r="B328" s="1" t="s">
         <v>162</v>
       </c>
@@ -6602,7 +7010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="2:5" s="1" customFormat="1">
+    <row r="329" spans="2:5">
       <c r="B329" s="1" t="s">
         <v>162</v>
       </c>
@@ -6616,7 +7024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="2:5" s="1" customFormat="1">
+    <row r="330" spans="2:5">
       <c r="B330" s="1" t="s">
         <v>162</v>
       </c>
@@ -6630,7 +7038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="2:5" s="1" customFormat="1">
+    <row r="331" spans="2:5">
       <c r="B331" s="1" t="s">
         <v>162</v>
       </c>
@@ -6644,7 +7052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="2:5" s="1" customFormat="1">
+    <row r="332" spans="2:5">
       <c r="B332" s="1" t="s">
         <v>162</v>
       </c>
@@ -6658,7 +7066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="2:5" s="1" customFormat="1">
+    <row r="333" spans="2:5">
       <c r="B333" s="1" t="s">
         <v>162</v>
       </c>
@@ -6672,7 +7080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="2:5" s="1" customFormat="1">
+    <row r="334" spans="2:5">
       <c r="B334" s="1" t="s">
         <v>162</v>
       </c>
@@ -6686,7 +7094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="2:5" s="1" customFormat="1">
+    <row r="335" spans="2:5">
       <c r="B335" s="1" t="s">
         <v>162</v>
       </c>
@@ -6700,7 +7108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="2:5" s="1" customFormat="1">
+    <row r="336" spans="2:5">
       <c r="B336" s="1" t="s">
         <v>162</v>
       </c>
@@ -6714,7 +7122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="2:5" s="1" customFormat="1">
+    <row r="337" spans="2:5">
       <c r="B337" s="1" t="s">
         <v>162</v>
       </c>
@@ -6728,7 +7136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="2:5" s="1" customFormat="1">
+    <row r="338" spans="2:5">
       <c r="B338" s="1" t="s">
         <v>162</v>
       </c>
@@ -6742,7 +7150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="2:5" s="1" customFormat="1">
+    <row r="339" spans="2:5">
       <c r="B339" s="1" t="s">
         <v>162</v>
       </c>
@@ -6756,7 +7164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="2:5" s="1" customFormat="1">
+    <row r="340" spans="2:5">
       <c r="B340" s="1" t="s">
         <v>162</v>
       </c>
@@ -6770,7 +7178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="2:5" s="1" customFormat="1">
+    <row r="341" spans="2:5">
       <c r="B341" s="1" t="s">
         <v>162</v>
       </c>
@@ -6784,7 +7192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="2:5" s="1" customFormat="1">
+    <row r="342" spans="2:5">
       <c r="B342" s="1" t="s">
         <v>162</v>
       </c>
@@ -6798,7 +7206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="2:5" s="1" customFormat="1">
+    <row r="343" spans="2:5">
       <c r="B343" s="1" t="s">
         <v>162</v>
       </c>
@@ -6812,7 +7220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="2:5" s="1" customFormat="1">
+    <row r="344" spans="2:5">
       <c r="B344" s="1" t="s">
         <v>162</v>
       </c>
@@ -6826,7 +7234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="2:5" s="1" customFormat="1">
+    <row r="345" spans="2:5">
       <c r="B345" s="1" t="s">
         <v>162</v>
       </c>
@@ -6840,7 +7248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="2:5" s="1" customFormat="1">
+    <row r="346" spans="2:5">
       <c r="B346" s="1" t="s">
         <v>162</v>
       </c>
@@ -6854,7 +7262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="2:5" s="1" customFormat="1">
+    <row r="347" spans="2:5">
       <c r="B347" s="1" t="s">
         <v>162</v>
       </c>
@@ -6868,7 +7276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="2:5" s="1" customFormat="1">
+    <row r="348" spans="2:5">
       <c r="B348" s="1" t="s">
         <v>162</v>
       </c>
@@ -6882,7 +7290,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="349" spans="2:5" s="1" customFormat="1">
+    <row r="349" spans="2:5">
       <c r="B349" s="1" t="s">
         <v>162</v>
       </c>
@@ -6896,7 +7304,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="350" spans="2:5" s="1" customFormat="1">
+    <row r="350" spans="2:5">
       <c r="B350" s="1" t="s">
         <v>162</v>
       </c>
@@ -6910,7 +7318,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="351" spans="2:5" s="1" customFormat="1">
+    <row r="351" spans="2:5">
       <c r="B351" s="1" t="s">
         <v>162</v>
       </c>
@@ -6924,7 +7332,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="352" spans="2:5" s="1" customFormat="1">
+    <row r="352" spans="2:5">
       <c r="B352" s="1" t="s">
         <v>162</v>
       </c>
@@ -6938,7 +7346,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="353" spans="2:5" s="1" customFormat="1">
+    <row r="353" spans="2:5">
       <c r="B353" s="1" t="s">
         <v>162</v>
       </c>
@@ -6952,7 +7360,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="354" spans="2:5" s="1" customFormat="1">
+    <row r="354" spans="2:5">
       <c r="B354" s="1" t="s">
         <v>162</v>
       </c>
@@ -6966,7 +7374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="355" spans="2:5" s="1" customFormat="1">
+    <row r="355" spans="2:5">
       <c r="B355" s="1" t="s">
         <v>162</v>
       </c>
@@ -6980,7 +7388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="356" spans="2:5" s="1" customFormat="1">
+    <row r="356" spans="2:5">
       <c r="B356" s="1" t="s">
         <v>162</v>
       </c>
@@ -6994,7 +7402,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="357" spans="2:5" s="1" customFormat="1">
+    <row r="357" spans="2:5">
       <c r="B357" s="1" t="s">
         <v>182</v>
       </c>
@@ -7008,7 +7416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="2:5" s="1" customFormat="1">
+    <row r="358" spans="2:5">
       <c r="B358" s="1" t="s">
         <v>182</v>
       </c>
@@ -7022,7 +7430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="2:5" s="1" customFormat="1">
+    <row r="359" spans="2:5">
       <c r="B359" s="1" t="s">
         <v>182</v>
       </c>
@@ -7036,7 +7444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="2:5" s="1" customFormat="1">
+    <row r="360" spans="2:5">
       <c r="B360" s="1" t="s">
         <v>182</v>
       </c>
@@ -7050,7 +7458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="2:5" s="1" customFormat="1">
+    <row r="361" spans="2:5">
       <c r="B361" s="1" t="s">
         <v>182</v>
       </c>
@@ -7064,7 +7472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="2:5" s="1" customFormat="1">
+    <row r="362" spans="2:5">
       <c r="B362" s="1" t="s">
         <v>182</v>
       </c>
@@ -7078,7 +7486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="2:5" s="1" customFormat="1">
+    <row r="363" spans="2:5">
       <c r="B363" s="1" t="s">
         <v>182</v>
       </c>
@@ -7092,7 +7500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="2:5" s="1" customFormat="1">
+    <row r="364" spans="2:5">
       <c r="B364" s="1" t="s">
         <v>182</v>
       </c>
@@ -7106,7 +7514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="2:5" s="1" customFormat="1">
+    <row r="365" spans="2:5">
       <c r="B365" s="1" t="s">
         <v>182</v>
       </c>
@@ -7120,7 +7528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="2:5" s="1" customFormat="1">
+    <row r="366" spans="2:5">
       <c r="B366" s="1" t="s">
         <v>182</v>
       </c>
@@ -7134,7 +7542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="2:5" s="1" customFormat="1">
+    <row r="367" spans="2:5">
       <c r="B367" s="1" t="s">
         <v>182</v>
       </c>
@@ -7148,7 +7556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="2:5" s="1" customFormat="1">
+    <row r="368" spans="2:5">
       <c r="B368" s="1" t="s">
         <v>182</v>
       </c>
@@ -7162,7 +7570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="2:5" s="1" customFormat="1">
+    <row r="369" spans="2:5">
       <c r="B369" s="1" t="s">
         <v>182</v>
       </c>
@@ -7176,7 +7584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="2:5" s="1" customFormat="1">
+    <row r="370" spans="2:5">
       <c r="B370" s="1" t="s">
         <v>182</v>
       </c>
@@ -7190,7 +7598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="2:5" s="1" customFormat="1">
+    <row r="371" spans="2:5">
       <c r="B371" s="1" t="s">
         <v>182</v>
       </c>
@@ -7204,7 +7612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="2:5" s="1" customFormat="1">
+    <row r="372" spans="2:5">
       <c r="B372" s="1" t="s">
         <v>182</v>
       </c>
@@ -7218,7 +7626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="2:5" s="1" customFormat="1">
+    <row r="373" spans="2:5">
       <c r="B373" s="1" t="s">
         <v>182</v>
       </c>
@@ -7232,7 +7640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="2:5" s="1" customFormat="1">
+    <row r="374" spans="2:5">
       <c r="B374" s="1" t="s">
         <v>182</v>
       </c>
@@ -7246,7 +7654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="2:5" s="1" customFormat="1">
+    <row r="375" spans="2:5">
       <c r="B375" s="1" t="s">
         <v>182</v>
       </c>
@@ -7260,7 +7668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="2:5" s="1" customFormat="1">
+    <row r="376" spans="2:5">
       <c r="B376" s="1" t="s">
         <v>182</v>
       </c>
@@ -7274,7 +7682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="2:5" s="1" customFormat="1">
+    <row r="377" spans="2:5">
       <c r="B377" s="1" t="s">
         <v>182</v>
       </c>
@@ -7288,7 +7696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="2:5" s="1" customFormat="1">
+    <row r="378" spans="2:5">
       <c r="B378" s="1" t="s">
         <v>182</v>
       </c>
@@ -7302,7 +7710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="2:5" s="1" customFormat="1">
+    <row r="379" spans="2:5">
       <c r="B379" s="1" t="s">
         <v>182</v>
       </c>
@@ -7316,7 +7724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="2:5" s="1" customFormat="1">
+    <row r="380" spans="2:5">
       <c r="B380" s="1" t="s">
         <v>182</v>
       </c>
@@ -7330,7 +7738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="2:5" s="1" customFormat="1">
+    <row r="381" spans="2:5">
       <c r="B381" s="1" t="s">
         <v>182</v>
       </c>
@@ -7344,7 +7752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="2:5" s="1" customFormat="1">
+    <row r="382" spans="2:5">
       <c r="B382" s="1" t="s">
         <v>182</v>
       </c>
@@ -7358,7 +7766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="2:5" s="1" customFormat="1">
+    <row r="383" spans="2:5">
       <c r="B383" s="1" t="s">
         <v>182</v>
       </c>
@@ -7372,7 +7780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="2:5" s="1" customFormat="1">
+    <row r="384" spans="2:5">
       <c r="B384" s="1" t="s">
         <v>182</v>
       </c>
@@ -7386,7 +7794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="2:5" s="1" customFormat="1">
+    <row r="385" spans="2:5">
       <c r="B385" s="1" t="s">
         <v>182</v>
       </c>
@@ -7400,7 +7808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="2:5" s="1" customFormat="1">
+    <row r="386" spans="2:5">
       <c r="B386" s="1" t="s">
         <v>182</v>
       </c>
@@ -7414,7 +7822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="387" spans="2:5" s="1" customFormat="1">
+    <row r="387" spans="2:5">
       <c r="B387" s="1" t="s">
         <v>182</v>
       </c>
@@ -7428,7 +7836,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="388" spans="2:5" s="1" customFormat="1">
+    <row r="388" spans="2:5">
       <c r="B388" s="1" t="s">
         <v>182</v>
       </c>
@@ -7442,7 +7850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="389" spans="2:5" s="1" customFormat="1">
+    <row r="389" spans="2:5">
       <c r="B389" s="1" t="s">
         <v>182</v>
       </c>
@@ -7456,7 +7864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="390" spans="2:5" s="1" customFormat="1">
+    <row r="390" spans="2:5">
       <c r="B390" s="1" t="s">
         <v>182</v>
       </c>
@@ -7470,7 +7878,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="391" spans="2:5" s="1" customFormat="1">
+    <row r="391" spans="2:5">
       <c r="B391" s="1" t="s">
         <v>182</v>
       </c>
@@ -7484,7 +7892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="392" spans="2:5" s="1" customFormat="1">
+    <row r="392" spans="2:5">
       <c r="B392" s="1" t="s">
         <v>182</v>
       </c>
@@ -7498,7 +7906,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="393" spans="2:5" s="1" customFormat="1">
+    <row r="393" spans="2:5">
       <c r="B393" s="1" t="s">
         <v>182</v>
       </c>
@@ -7512,7 +7920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="394" spans="2:5" s="1" customFormat="1">
+    <row r="394" spans="2:5">
       <c r="B394" s="1" t="s">
         <v>182</v>
       </c>
@@ -7526,7 +7934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="395" spans="2:5" s="1" customFormat="1">
+    <row r="395" spans="2:5">
       <c r="B395" s="1" t="s">
         <v>182</v>
       </c>
@@ -7540,7 +7948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="2:5" s="1" customFormat="1">
+    <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
         <v>182</v>
       </c>
@@ -7554,7 +7962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="397" spans="2:5" s="1" customFormat="1">
+    <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
         <v>182</v>
       </c>
@@ -7568,7 +7976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="398" spans="2:5" s="1" customFormat="1">
+    <row r="398" spans="2:5">
       <c r="B398" s="1" t="s">
         <v>207</v>
       </c>
@@ -7582,7 +7990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="2:5" s="1" customFormat="1">
+    <row r="399" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>207</v>
       </c>
@@ -7596,7 +8004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="2:5" s="1" customFormat="1">
+    <row r="400" spans="2:5">
       <c r="B400" s="1" t="s">
         <v>207</v>
       </c>
@@ -7610,7 +8018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="2:5" s="1" customFormat="1">
+    <row r="401" spans="2:5">
       <c r="B401" s="1" t="s">
         <v>207</v>
       </c>
@@ -7624,7 +8032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="2:5" s="1" customFormat="1">
+    <row r="402" spans="2:5">
       <c r="B402" s="1" t="s">
         <v>207</v>
       </c>
@@ -7638,7 +8046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="2:5" s="1" customFormat="1">
+    <row r="403" spans="2:5">
       <c r="B403" s="1" t="s">
         <v>207</v>
       </c>
@@ -7652,7 +8060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="2:5" s="1" customFormat="1">
+    <row r="404" spans="2:5">
       <c r="B404" s="1" t="s">
         <v>207</v>
       </c>
@@ -7666,7 +8074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="405" spans="2:5" s="1" customFormat="1">
+    <row r="405" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>207</v>
       </c>
@@ -7680,7 +8088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="2:5" s="1" customFormat="1">
+    <row r="406" spans="2:5">
       <c r="B406" s="1" t="s">
         <v>207</v>
       </c>
@@ -7694,7 +8102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="2:5" s="1" customFormat="1">
+    <row r="407" spans="2:5">
       <c r="B407" s="1" t="s">
         <v>207</v>
       </c>
@@ -7708,7 +8116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="2:5" s="1" customFormat="1">
+    <row r="408" spans="2:5">
       <c r="B408" s="1" t="s">
         <v>207</v>
       </c>
@@ -7722,7 +8130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="2:5" s="1" customFormat="1">
+    <row r="409" spans="2:5">
       <c r="B409" s="1" t="s">
         <v>207</v>
       </c>
@@ -7736,7 +8144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="2:5" s="1" customFormat="1">
+    <row r="410" spans="2:5">
       <c r="B410" s="1" t="s">
         <v>207</v>
       </c>
@@ -7750,7 +8158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="2:5" s="1" customFormat="1">
+    <row r="411" spans="2:5">
       <c r="B411" s="1" t="s">
         <v>207</v>
       </c>
@@ -7764,7 +8172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="2:5" s="1" customFormat="1">
+    <row r="412" spans="2:5">
       <c r="B412" s="1" t="s">
         <v>207</v>
       </c>
@@ -7778,7 +8186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="2:5" s="1" customFormat="1">
+    <row r="413" spans="2:5">
       <c r="B413" s="1" t="s">
         <v>207</v>
       </c>
@@ -7792,7 +8200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="2:5" s="1" customFormat="1">
+    <row r="414" spans="2:5">
       <c r="B414" s="1" t="s">
         <v>207</v>
       </c>
@@ -7806,7 +8214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="2:5" s="1" customFormat="1">
+    <row r="415" spans="2:5">
       <c r="B415" s="1" t="s">
         <v>207</v>
       </c>
@@ -7820,7 +8228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="2:5" s="1" customFormat="1">
+    <row r="416" spans="2:5">
       <c r="B416" s="1" t="s">
         <v>207</v>
       </c>
@@ -7834,7 +8242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="2:5" s="1" customFormat="1">
+    <row r="417" spans="2:5">
       <c r="B417" s="1" t="s">
         <v>207</v>
       </c>
@@ -7848,7 +8256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="2:5" s="1" customFormat="1">
+    <row r="418" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>207</v>
       </c>
@@ -7862,7 +8270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="2:5" s="1" customFormat="1">
+    <row r="419" spans="2:5">
       <c r="B419" s="1" t="s">
         <v>207</v>
       </c>
@@ -7876,7 +8284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="2:5" s="1" customFormat="1">
+    <row r="420" spans="2:5">
       <c r="B420" s="1" t="s">
         <v>207</v>
       </c>
@@ -7890,7 +8298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="2:5" s="1" customFormat="1">
+    <row r="421" spans="2:5">
       <c r="B421" s="1" t="s">
         <v>207</v>
       </c>
@@ -7904,7 +8312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="2:5" s="1" customFormat="1">
+    <row r="422" spans="2:5">
       <c r="B422" s="1" t="s">
         <v>207</v>
       </c>
@@ -7918,7 +8326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="2:5" s="1" customFormat="1">
+    <row r="423" spans="2:5">
       <c r="B423" s="1" t="s">
         <v>207</v>
       </c>
@@ -7932,7 +8340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="2:5" s="1" customFormat="1">
+    <row r="424" spans="2:5">
       <c r="B424" s="1" t="s">
         <v>207</v>
       </c>
@@ -7946,7 +8354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="2:5" s="1" customFormat="1">
+    <row r="425" spans="2:5">
       <c r="B425" s="1" t="s">
         <v>207</v>
       </c>
@@ -7960,7 +8368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="2:5" s="1" customFormat="1">
+    <row r="426" spans="2:5">
       <c r="B426" s="1" t="s">
         <v>207</v>
       </c>
@@ -7974,7 +8382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="2:5" s="1" customFormat="1">
+    <row r="427" spans="2:5">
       <c r="B427" s="1" t="s">
         <v>207</v>
       </c>
@@ -7988,7 +8396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="2:5" s="1" customFormat="1">
+    <row r="428" spans="2:5">
       <c r="B428" s="1" t="s">
         <v>207</v>
       </c>
@@ -8002,7 +8410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="429" spans="2:5" s="1" customFormat="1">
+    <row r="429" spans="2:5">
       <c r="B429" s="1" t="s">
         <v>207</v>
       </c>
@@ -8016,7 +8424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="2:5" s="1" customFormat="1">
+    <row r="430" spans="2:5">
       <c r="B430" s="1" t="s">
         <v>207</v>
       </c>
@@ -8030,7 +8438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="2:5" s="1" customFormat="1">
+    <row r="431" spans="2:5">
       <c r="B431" s="1" t="s">
         <v>207</v>
       </c>
@@ -8044,7 +8452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="2:5" s="1" customFormat="1">
+    <row r="432" spans="2:5">
       <c r="B432" s="1" t="s">
         <v>207</v>
       </c>
@@ -8058,7 +8466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="2:5" s="1" customFormat="1">
+    <row r="433" spans="2:5">
       <c r="B433" s="1" t="s">
         <v>207</v>
       </c>
@@ -8072,7 +8480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="2:5" s="1" customFormat="1">
+    <row r="434" spans="2:5">
       <c r="B434" s="1" t="s">
         <v>207</v>
       </c>
@@ -8086,7 +8494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="2:5" s="1" customFormat="1">
+    <row r="435" spans="2:5">
       <c r="B435" s="1" t="s">
         <v>207</v>
       </c>
@@ -8100,7 +8508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="2:5" s="1" customFormat="1">
+    <row r="436" spans="2:5">
       <c r="B436" s="1" t="s">
         <v>207</v>
       </c>
@@ -8114,7 +8522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="2:5" s="1" customFormat="1">
+    <row r="437" spans="2:5">
       <c r="B437" s="1" t="s">
         <v>207</v>
       </c>
@@ -8128,7 +8536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="2:5" s="1" customFormat="1">
+    <row r="438" spans="2:5">
       <c r="B438" s="1" t="s">
         <v>207</v>
       </c>
@@ -8142,7 +8550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="2:5" s="1" customFormat="1">
+    <row r="439" spans="2:5">
       <c r="B439" s="1" t="s">
         <v>207</v>
       </c>
@@ -8156,7 +8564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="2:5" s="1" customFormat="1">
+    <row r="440" spans="2:5">
       <c r="B440" s="1" t="s">
         <v>207</v>
       </c>
@@ -8170,7 +8578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="2:5" s="1" customFormat="1">
+    <row r="441" spans="2:5">
       <c r="B441" s="1" t="s">
         <v>207</v>
       </c>
@@ -8184,7 +8592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442" spans="2:5" s="1" customFormat="1">
+    <row r="442" spans="2:5">
       <c r="B442" s="1" t="s">
         <v>207</v>
       </c>
@@ -8198,7 +8606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="2:5" s="1" customFormat="1">
+    <row r="443" spans="2:5">
       <c r="B443" s="1" t="s">
         <v>207</v>
       </c>
@@ -8212,7 +8620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="2:5" s="1" customFormat="1">
+    <row r="444" spans="2:5">
       <c r="B444" s="1" t="s">
         <v>207</v>
       </c>
@@ -8226,7 +8634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="2:5" s="1" customFormat="1">
+    <row r="445" spans="2:5">
       <c r="B445" s="1" t="s">
         <v>207</v>
       </c>
@@ -8240,7 +8648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="2:5" s="1" customFormat="1">
+    <row r="446" spans="2:5">
       <c r="B446" s="1" t="s">
         <v>207</v>
       </c>
@@ -8254,7 +8662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="447" spans="2:5" s="1" customFormat="1">
+    <row r="447" spans="2:5">
       <c r="B447" s="1" t="s">
         <v>207</v>
       </c>
@@ -8268,7 +8676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="2:5" s="1" customFormat="1">
+    <row r="448" spans="2:5">
       <c r="B448" s="1" t="s">
         <v>207</v>
       </c>
@@ -8282,7 +8690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="2:5" s="1" customFormat="1">
+    <row r="449" spans="2:5">
       <c r="B449" s="1" t="s">
         <v>207</v>
       </c>
@@ -8296,7 +8704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="450" spans="2:5" s="1" customFormat="1">
+    <row r="450" spans="2:5">
       <c r="B450" s="1" t="s">
         <v>207</v>
       </c>
@@ -8310,7 +8718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="451" spans="2:5" s="1" customFormat="1">
+    <row r="451" spans="2:5">
       <c r="B451" s="1" t="s">
         <v>207</v>
       </c>
@@ -8324,7 +8732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="2:5" s="1" customFormat="1">
+    <row r="452" spans="2:5">
       <c r="B452" s="1" t="s">
         <v>207</v>
       </c>
@@ -8338,7 +8746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="2:5" s="1" customFormat="1">
+    <row r="453" spans="2:5">
       <c r="B453" s="1" t="s">
         <v>207</v>
       </c>
@@ -8352,7 +8760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="2:5" s="1" customFormat="1">
+    <row r="454" spans="2:5">
       <c r="B454" s="1" t="s">
         <v>207</v>
       </c>
@@ -8366,7 +8774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="455" spans="2:5" s="1" customFormat="1">
+    <row r="455" spans="2:5">
       <c r="B455" s="1" t="s">
         <v>207</v>
       </c>
@@ -8380,7 +8788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="2:5" s="1" customFormat="1">
+    <row r="456" spans="2:5">
       <c r="B456" s="1" t="s">
         <v>207</v>
       </c>
@@ -8394,7 +8802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="2:5" s="1" customFormat="1">
+    <row r="457" spans="2:5">
       <c r="B457" s="1" t="s">
         <v>207</v>
       </c>
@@ -8408,7 +8816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="458" spans="2:5" s="1" customFormat="1">
+    <row r="458" spans="2:5">
       <c r="B458" s="1" t="s">
         <v>207</v>
       </c>
@@ -8422,7 +8830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="459" spans="2:5" s="1" customFormat="1">
+    <row r="459" spans="2:5">
       <c r="B459" s="1" t="s">
         <v>207</v>
       </c>
@@ -8436,7 +8844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="460" spans="2:5" s="1" customFormat="1">
+    <row r="460" spans="2:5">
       <c r="B460" s="1" t="s">
         <v>207</v>
       </c>
@@ -8450,7 +8858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="2:5" s="1" customFormat="1">
+    <row r="461" spans="2:5">
       <c r="B461" s="1" t="s">
         <v>207</v>
       </c>
@@ -8464,7 +8872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="2:5" s="1" customFormat="1">
+    <row r="462" spans="2:5">
       <c r="B462" s="1" t="s">
         <v>207</v>
       </c>
@@ -8478,7 +8886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="2:5" s="1" customFormat="1">
+    <row r="463" spans="2:5">
       <c r="B463" s="1" t="s">
         <v>207</v>
       </c>
@@ -8492,7 +8900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="2:5" s="1" customFormat="1">
+    <row r="464" spans="2:5">
       <c r="B464" s="1" t="s">
         <v>207</v>
       </c>
@@ -8506,7 +8914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="2:5" s="1" customFormat="1">
+    <row r="465" spans="2:5">
       <c r="B465" s="1" t="s">
         <v>207</v>
       </c>
@@ -8520,7 +8928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="2:5" s="1" customFormat="1">
+    <row r="466" spans="2:5">
       <c r="B466" s="1" t="s">
         <v>207</v>
       </c>
@@ -8534,7 +8942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="2:5" s="1" customFormat="1">
+    <row r="467" spans="2:5">
       <c r="B467" s="1" t="s">
         <v>207</v>
       </c>
@@ -8548,7 +8956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="468" spans="2:5" s="1" customFormat="1">
+    <row r="468" spans="2:5">
       <c r="B468" s="1" t="s">
         <v>207</v>
       </c>
@@ -8562,7 +8970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="2:5" s="1" customFormat="1">
+    <row r="469" spans="2:5">
       <c r="B469" s="1" t="s">
         <v>207</v>
       </c>
@@ -8576,7 +8984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="2:5" s="1" customFormat="1">
+    <row r="470" spans="2:5">
       <c r="B470" s="1" t="s">
         <v>207</v>
       </c>
@@ -8590,7 +8998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="2:5" s="1" customFormat="1">
+    <row r="471" spans="2:5">
       <c r="B471" s="1" t="s">
         <v>207</v>
       </c>
@@ -8604,7 +9012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="2:5" s="1" customFormat="1">
+    <row r="472" spans="2:5">
       <c r="B472" s="1" t="s">
         <v>207</v>
       </c>
@@ -8618,7 +9026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="2:5" s="1" customFormat="1">
+    <row r="473" spans="2:5">
       <c r="B473" s="1" t="s">
         <v>207</v>
       </c>
@@ -8632,7 +9040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="2:5" s="1" customFormat="1">
+    <row r="474" spans="2:5">
       <c r="B474" s="1" t="s">
         <v>207</v>
       </c>
@@ -8646,7 +9054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="2:5" s="1" customFormat="1">
+    <row r="475" spans="2:5">
       <c r="B475" s="1" t="s">
         <v>207</v>
       </c>
@@ -8660,7 +9068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="2:5" s="1" customFormat="1">
+    <row r="476" spans="2:5">
       <c r="B476" s="1" t="s">
         <v>207</v>
       </c>
@@ -8674,7 +9082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="2:5" s="1" customFormat="1">
+    <row r="477" spans="2:5">
       <c r="B477" s="1" t="s">
         <v>207</v>
       </c>
@@ -8688,7 +9096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="2:5" s="1" customFormat="1">
+    <row r="478" spans="2:5">
       <c r="B478" s="1" t="s">
         <v>207</v>
       </c>
@@ -8702,7 +9110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="2:5" s="1" customFormat="1">
+    <row r="479" spans="2:5">
       <c r="B479" s="1" t="s">
         <v>207</v>
       </c>
@@ -8716,7 +9124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="2:5" s="1" customFormat="1">
+    <row r="480" spans="2:5">
       <c r="B480" s="1" t="s">
         <v>207</v>
       </c>
@@ -8730,7 +9138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="2:5" s="1" customFormat="1">
+    <row r="481" spans="2:5">
       <c r="B481" s="1" t="s">
         <v>207</v>
       </c>
@@ -8744,7 +9152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="2:5" s="1" customFormat="1">
+    <row r="482" spans="2:5">
       <c r="B482" s="1" t="s">
         <v>207</v>
       </c>
@@ -8758,7 +9166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="2:5" s="1" customFormat="1">
+    <row r="483" spans="2:5">
       <c r="B483" s="1" t="s">
         <v>207</v>
       </c>
@@ -8772,7 +9180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="2:5" s="1" customFormat="1">
+    <row r="484" spans="2:5">
       <c r="B484" s="1" t="s">
         <v>207</v>
       </c>
@@ -8786,7 +9194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="485" spans="2:5" s="1" customFormat="1">
+    <row r="485" spans="2:5">
       <c r="B485" s="1" t="s">
         <v>207</v>
       </c>
@@ -8800,7 +9208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="486" spans="2:5" s="1" customFormat="1">
+    <row r="486" spans="2:5">
       <c r="B486" s="1" t="s">
         <v>207</v>
       </c>
@@ -8814,7 +9222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="2:5" s="1" customFormat="1">
+    <row r="487" spans="2:5">
       <c r="B487" s="1" t="s">
         <v>207</v>
       </c>
@@ -8828,7 +9236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="2:5" s="1" customFormat="1">
+    <row r="488" spans="2:5">
       <c r="B488" s="1" t="s">
         <v>207</v>
       </c>
@@ -8842,7 +9250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="2:5" s="1" customFormat="1">
+    <row r="489" spans="2:5">
       <c r="B489" s="1" t="s">
         <v>207</v>
       </c>
@@ -8856,7 +9264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="2:5" s="1" customFormat="1">
+    <row r="490" spans="2:5">
       <c r="B490" s="1" t="s">
         <v>207</v>
       </c>
@@ -8870,7 +9278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="2:5" s="1" customFormat="1">
+    <row r="491" spans="2:5">
       <c r="B491" s="1" t="s">
         <v>207</v>
       </c>
@@ -8884,7 +9292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="2:5" s="1" customFormat="1">
+    <row r="492" spans="2:5">
       <c r="B492" s="1" t="s">
         <v>207</v>
       </c>
@@ -8898,7 +9306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="2:5" s="1" customFormat="1">
+    <row r="493" spans="2:5">
       <c r="B493" s="1" t="s">
         <v>207</v>
       </c>
@@ -8912,7 +9320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="2:5" s="1" customFormat="1">
+    <row r="494" spans="2:5">
       <c r="B494" s="1" t="s">
         <v>207</v>
       </c>
@@ -8926,7 +9334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="2:5" s="1" customFormat="1">
+    <row r="495" spans="2:5">
       <c r="B495" s="1" t="s">
         <v>207</v>
       </c>
@@ -8940,7 +9348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="2:5" s="1" customFormat="1">
+    <row r="496" spans="2:5">
       <c r="B496" s="1" t="s">
         <v>207</v>
       </c>
@@ -8954,7 +9362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="2:5" s="1" customFormat="1">
+    <row r="497" spans="2:5">
       <c r="B497" s="1" t="s">
         <v>207</v>
       </c>
@@ -8968,7 +9376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="2:5" s="1" customFormat="1">
+    <row r="498" spans="2:5">
       <c r="B498" s="1" t="s">
         <v>207</v>
       </c>
@@ -8982,7 +9390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="2:5" s="1" customFormat="1">
+    <row r="499" spans="2:5">
       <c r="B499" s="1" t="s">
         <v>207</v>
       </c>
@@ -8996,7 +9404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="2:5" s="1" customFormat="1">
+    <row r="500" spans="2:5">
       <c r="B500" s="1" t="s">
         <v>207</v>
       </c>
@@ -9010,7 +9418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="2:5" s="1" customFormat="1">
+    <row r="501" spans="2:5">
       <c r="B501" s="1" t="s">
         <v>207</v>
       </c>
@@ -9024,7 +9432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="2:5" s="1" customFormat="1">
+    <row r="502" spans="2:5">
       <c r="B502" s="1" t="s">
         <v>207</v>
       </c>
@@ -9038,7 +9446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="2:5" s="1" customFormat="1">
+    <row r="503" spans="2:5">
       <c r="B503" s="1" t="s">
         <v>207</v>
       </c>
@@ -9052,7 +9460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="2:5" s="1" customFormat="1">
+    <row r="504" spans="2:5">
       <c r="B504" s="1" t="s">
         <v>207</v>
       </c>
@@ -9066,7 +9474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="2:5" s="1" customFormat="1">
+    <row r="505" spans="2:5">
       <c r="B505" s="1" t="s">
         <v>207</v>
       </c>
@@ -9080,7 +9488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="2:5" s="1" customFormat="1">
+    <row r="506" spans="2:5">
       <c r="B506" s="1" t="s">
         <v>207</v>
       </c>
@@ -9094,7 +9502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="2:5" s="1" customFormat="1">
+    <row r="507" spans="2:5">
       <c r="B507" s="1" t="s">
         <v>207</v>
       </c>
@@ -9108,7 +9516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="2:5" s="1" customFormat="1">
+    <row r="508" spans="2:5">
       <c r="B508" s="1" t="s">
         <v>207</v>
       </c>
@@ -9122,7 +9530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="2:5" s="1" customFormat="1">
+    <row r="509" spans="2:5">
       <c r="B509" s="1" t="s">
         <v>207</v>
       </c>
@@ -9136,7 +9544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="2:5" s="1" customFormat="1">
+    <row r="510" spans="2:5">
       <c r="B510" s="1" t="s">
         <v>207</v>
       </c>
@@ -9150,7 +9558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="2:5" s="1" customFormat="1">
+    <row r="511" spans="2:5">
       <c r="B511" s="1" t="s">
         <v>207</v>
       </c>
@@ -9164,7 +9572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="2:5" s="1" customFormat="1">
+    <row r="512" spans="2:5">
       <c r="B512" s="1" t="s">
         <v>207</v>
       </c>
@@ -9178,7 +9586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="2:5" s="1" customFormat="1">
+    <row r="513" spans="2:5">
       <c r="B513" s="1" t="s">
         <v>207</v>
       </c>
@@ -9192,7 +9600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="2:5" s="1" customFormat="1">
+    <row r="514" spans="2:5">
       <c r="B514" s="1" t="s">
         <v>207</v>
       </c>
@@ -9206,7 +9614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="2:5" s="1" customFormat="1">
+    <row r="515" spans="2:5">
       <c r="B515" s="1" t="s">
         <v>207</v>
       </c>
@@ -9220,7 +9628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="2:5" s="1" customFormat="1">
+    <row r="516" spans="2:5">
       <c r="B516" s="1" t="s">
         <v>207</v>
       </c>
@@ -9234,7 +9642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="2:5" s="1" customFormat="1">
+    <row r="517" spans="2:5">
       <c r="B517" s="1" t="s">
         <v>207</v>
       </c>
@@ -9248,7 +9656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="2:5" s="1" customFormat="1">
+    <row r="518" spans="2:5">
       <c r="B518" s="1" t="s">
         <v>207</v>
       </c>
@@ -9262,7 +9670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="2:5" s="1" customFormat="1">
+    <row r="519" spans="2:5">
       <c r="B519" s="1" t="s">
         <v>207</v>
       </c>
@@ -9276,7 +9684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="2:5" s="1" customFormat="1">
+    <row r="520" spans="2:5">
       <c r="B520" s="1" t="s">
         <v>207</v>
       </c>
@@ -9290,7 +9698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="521" spans="2:5" s="1" customFormat="1">
+    <row r="521" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>207</v>
       </c>
@@ -9304,7 +9712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="2:5" s="1" customFormat="1">
+    <row r="522" spans="2:5">
       <c r="B522" s="1" t="s">
         <v>207</v>
       </c>
@@ -9318,7 +9726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="2:5" s="1" customFormat="1">
+    <row r="523" spans="2:5">
       <c r="B523" s="1" t="s">
         <v>207</v>
       </c>
@@ -9332,7 +9740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="524" spans="2:5" s="1" customFormat="1">
+    <row r="524" spans="2:5">
       <c r="B524" s="1" t="s">
         <v>207</v>
       </c>
@@ -9346,7 +9754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="2:5" s="1" customFormat="1">
+    <row r="525" spans="2:5">
       <c r="B525" s="1" t="s">
         <v>207</v>
       </c>
@@ -9360,7 +9768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="2:5" s="1" customFormat="1">
+    <row r="526" spans="2:5">
       <c r="B526" s="1" t="s">
         <v>207</v>
       </c>
@@ -9374,7 +9782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="527" spans="2:5" s="1" customFormat="1">
+    <row r="527" spans="2:5">
       <c r="B527" s="1" t="s">
         <v>207</v>
       </c>
@@ -9388,7 +9796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="528" spans="2:5" s="1" customFormat="1">
+    <row r="528" spans="2:5">
       <c r="B528" s="1" t="s">
         <v>207</v>
       </c>
@@ -9402,7 +9810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="529" spans="2:5" s="1" customFormat="1">
+    <row r="529" spans="2:5">
       <c r="B529" s="1" t="s">
         <v>207</v>
       </c>
@@ -9416,7 +9824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="530" spans="2:5" s="1" customFormat="1">
+    <row r="530" spans="2:5">
       <c r="B530" s="1" t="s">
         <v>207</v>
       </c>
@@ -9430,7 +9838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="531" spans="2:5" s="1" customFormat="1">
+    <row r="531" spans="2:5">
       <c r="B531" s="1" t="s">
         <v>207</v>
       </c>
@@ -9444,7 +9852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="2:5" s="1" customFormat="1">
+    <row r="532" spans="2:5">
       <c r="B532" s="1" t="s">
         <v>207</v>
       </c>
@@ -9458,7 +9866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="2:5" s="1" customFormat="1">
+    <row r="533" spans="2:5">
       <c r="B533" s="1" t="s">
         <v>207</v>
       </c>
@@ -9472,7 +9880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="2:5" s="1" customFormat="1">
+    <row r="534" spans="2:5">
       <c r="B534" s="1" t="s">
         <v>207</v>
       </c>
@@ -9486,7 +9894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="535" spans="2:5" s="1" customFormat="1">
+    <row r="535" spans="2:5">
       <c r="B535" s="1" t="s">
         <v>207</v>
       </c>
@@ -9500,7 +9908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="536" spans="2:5" s="1" customFormat="1">
+    <row r="536" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>207</v>
       </c>
@@ -9514,7 +9922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="537" spans="2:5" s="1" customFormat="1">
+    <row r="537" spans="2:5">
       <c r="B537" s="1" t="s">
         <v>207</v>
       </c>
@@ -9528,7 +9936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="2:5" s="1" customFormat="1">
+    <row r="538" spans="2:5">
       <c r="B538" s="1" t="s">
         <v>207</v>
       </c>
@@ -9542,7 +9950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="539" spans="2:5" s="1" customFormat="1">
+    <row r="539" spans="2:5">
       <c r="B539" s="1" t="s">
         <v>207</v>
       </c>
@@ -9556,7 +9964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="2:5" s="1" customFormat="1">
+    <row r="540" spans="2:5">
       <c r="B540" s="1" t="s">
         <v>207</v>
       </c>
@@ -9570,7 +9978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="2:5" s="1" customFormat="1">
+    <row r="541" spans="2:5">
       <c r="B541" s="1" t="s">
         <v>207</v>
       </c>
@@ -9584,7 +9992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="2:5" s="1" customFormat="1">
+    <row r="542" spans="2:5">
       <c r="B542" s="1" t="s">
         <v>207</v>
       </c>
@@ -9598,7 +10006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="2:5" s="1" customFormat="1">
+    <row r="543" spans="2:5">
       <c r="B543" s="1" t="s">
         <v>207</v>
       </c>
@@ -9612,7 +10020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="2:5" s="1" customFormat="1">
+    <row r="544" spans="2:5">
       <c r="B544" s="1" t="s">
         <v>207</v>
       </c>
@@ -9626,7 +10034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="545" spans="2:5" s="1" customFormat="1">
+    <row r="545" spans="2:5">
       <c r="B545" s="1" t="s">
         <v>207</v>
       </c>
@@ -9640,7 +10048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="2:5" s="1" customFormat="1">
+    <row r="546" spans="2:5">
       <c r="B546" s="1" t="s">
         <v>207</v>
       </c>
@@ -9654,7 +10062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="547" spans="2:5" s="1" customFormat="1">
+    <row r="547" spans="2:5">
       <c r="B547" s="1" t="s">
         <v>207</v>
       </c>
@@ -9668,7 +10076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="548" spans="2:5" s="1" customFormat="1">
+    <row r="548" spans="2:5">
       <c r="B548" s="1" t="s">
         <v>207</v>
       </c>
@@ -9682,7 +10090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="2:5" s="1" customFormat="1">
+    <row r="549" spans="2:5">
       <c r="B549" s="1" t="s">
         <v>207</v>
       </c>
@@ -9696,7 +10104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="550" spans="2:5" s="1" customFormat="1">
+    <row r="550" spans="2:5">
       <c r="B550" s="1" t="s">
         <v>207</v>
       </c>
@@ -9710,7 +10118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="551" spans="2:5" s="1" customFormat="1">
+    <row r="551" spans="2:5">
       <c r="B551" s="1" t="s">
         <v>207</v>
       </c>
@@ -9724,7 +10132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="552" spans="2:5" s="1" customFormat="1">
+    <row r="552" spans="2:5">
       <c r="B552" s="1" t="s">
         <v>207</v>
       </c>
@@ -9738,7 +10146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="2:5" s="1" customFormat="1">
+    <row r="553" spans="2:5">
       <c r="B553" s="1" t="s">
         <v>207</v>
       </c>
@@ -9752,7 +10160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="554" spans="2:5" s="1" customFormat="1">
+    <row r="554" spans="2:5">
       <c r="B554" s="1" t="s">
         <v>207</v>
       </c>
@@ -9766,7 +10174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="555" spans="2:5" s="1" customFormat="1">
+    <row r="555" spans="2:5">
       <c r="B555" s="1" t="s">
         <v>207</v>
       </c>
@@ -9780,7 +10188,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="556" spans="2:5" s="1" customFormat="1">
+    <row r="556" spans="2:5">
       <c r="B556" s="1" t="s">
         <v>207</v>
       </c>
@@ -9794,7 +10202,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="557" spans="2:5" s="1" customFormat="1">
+    <row r="557" spans="2:5">
       <c r="B557" s="1" t="s">
         <v>207</v>
       </c>
@@ -9808,7 +10216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="558" spans="2:5" s="1" customFormat="1">
+    <row r="558" spans="2:5">
       <c r="B558" s="1" t="s">
         <v>207</v>
       </c>
@@ -9822,7 +10230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="559" spans="2:5" s="1" customFormat="1">
+    <row r="559" spans="2:5">
       <c r="B559" s="1" t="s">
         <v>207</v>
       </c>
@@ -9836,7 +10244,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="560" spans="2:5" s="1" customFormat="1">
+    <row r="560" spans="2:5">
       <c r="B560" s="1" t="s">
         <v>207</v>
       </c>
@@ -9850,7 +10258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="561" spans="2:5" s="1" customFormat="1">
+    <row r="561" spans="2:5">
       <c r="B561" s="1" t="s">
         <v>207</v>
       </c>
@@ -9864,7 +10272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="562" spans="2:5" s="1" customFormat="1">
+    <row r="562" spans="2:5">
       <c r="B562" s="1" t="s">
         <v>207</v>
       </c>
@@ -9878,7 +10286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="563" spans="2:5" s="1" customFormat="1">
+    <row r="563" spans="2:5">
       <c r="B563" s="1" t="s">
         <v>207</v>
       </c>
@@ -9892,7 +10300,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="564" spans="2:5" s="1" customFormat="1">
+    <row r="564" spans="2:5">
       <c r="B564" s="1" t="s">
         <v>207</v>
       </c>
@@ -9906,7 +10314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="565" spans="2:5" s="1" customFormat="1">
+    <row r="565" spans="2:5">
       <c r="B565" s="1" t="s">
         <v>260</v>
       </c>
@@ -9920,7 +10328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="2:5" s="1" customFormat="1">
+    <row r="566" spans="2:5">
       <c r="B566" s="1" t="s">
         <v>260</v>
       </c>
@@ -9934,7 +10342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="567" spans="2:5" s="1" customFormat="1">
+    <row r="567" spans="2:5">
       <c r="B567" s="1" t="s">
         <v>260</v>
       </c>
@@ -9948,7 +10356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="568" spans="2:5" s="1" customFormat="1">
+    <row r="568" spans="2:5">
       <c r="B568" s="1" t="s">
         <v>260</v>
       </c>
@@ -9962,7 +10370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="569" spans="2:5" s="1" customFormat="1">
+    <row r="569" spans="2:5">
       <c r="B569" s="1" t="s">
         <v>260</v>
       </c>
@@ -9976,7 +10384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="570" spans="2:5" s="1" customFormat="1">
+    <row r="570" spans="2:5">
       <c r="B570" s="1" t="s">
         <v>260</v>
       </c>
@@ -9990,7 +10398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="2:5" s="1" customFormat="1">
+    <row r="571" spans="2:5">
       <c r="B571" s="1" t="s">
         <v>260</v>
       </c>
@@ -10004,7 +10412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="572" spans="2:5" s="1" customFormat="1">
+    <row r="572" spans="2:5">
       <c r="B572" s="1" t="s">
         <v>260</v>
       </c>
@@ -10018,7 +10426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="573" spans="2:5" s="1" customFormat="1">
+    <row r="573" spans="2:5">
       <c r="B573" s="1" t="s">
         <v>260</v>
       </c>
@@ -10032,7 +10440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="574" spans="2:5" s="1" customFormat="1">
+    <row r="574" spans="2:5">
       <c r="B574" s="1" t="s">
         <v>260</v>
       </c>
@@ -10046,7 +10454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="2:5" s="1" customFormat="1">
+    <row r="575" spans="2:5">
       <c r="B575" s="1" t="s">
         <v>260</v>
       </c>
@@ -10060,7 +10468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="2:5" s="1" customFormat="1">
+    <row r="576" spans="2:5">
       <c r="B576" s="1" t="s">
         <v>260</v>
       </c>
@@ -10074,7 +10482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="2:5" s="1" customFormat="1">
+    <row r="577" spans="2:5">
       <c r="B577" s="1" t="s">
         <v>260</v>
       </c>
@@ -10088,7 +10496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="578" spans="2:5" s="1" customFormat="1">
+    <row r="578" spans="2:5">
       <c r="B578" s="1" t="s">
         <v>260</v>
       </c>
@@ -10102,7 +10510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="579" spans="2:5" s="1" customFormat="1">
+    <row r="579" spans="2:5">
       <c r="B579" s="1" t="s">
         <v>260</v>
       </c>
@@ -10116,7 +10524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="580" spans="2:5" s="1" customFormat="1">
+    <row r="580" spans="2:5">
       <c r="B580" s="1" t="s">
         <v>260</v>
       </c>
@@ -10130,7 +10538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="2:5" s="1" customFormat="1">
+    <row r="581" spans="2:5">
       <c r="B581" s="1" t="s">
         <v>260</v>
       </c>
@@ -10144,7 +10552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="582" spans="2:5" s="1" customFormat="1">
+    <row r="582" spans="2:5">
       <c r="B582" s="1" t="s">
         <v>260</v>
       </c>
@@ -10158,7 +10566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="2:5" s="1" customFormat="1">
+    <row r="583" spans="2:5">
       <c r="B583" s="1" t="s">
         <v>260</v>
       </c>
@@ -10172,7 +10580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="584" spans="2:5" s="1" customFormat="1">
+    <row r="584" spans="2:5">
       <c r="B584" s="1" t="s">
         <v>260</v>
       </c>
@@ -10186,7 +10594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="585" spans="2:5" s="1" customFormat="1">
+    <row r="585" spans="2:5">
       <c r="B585" s="1" t="s">
         <v>260</v>
       </c>
@@ -10200,7 +10608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="2:5" s="1" customFormat="1">
+    <row r="586" spans="2:5">
       <c r="B586" s="1" t="s">
         <v>260</v>
       </c>
@@ -10214,7 +10622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="587" spans="2:5" s="1" customFormat="1">
+    <row r="587" spans="2:5">
       <c r="B587" s="1" t="s">
         <v>260</v>
       </c>
@@ -10228,7 +10636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="588" spans="2:5" s="1" customFormat="1">
+    <row r="588" spans="2:5">
       <c r="B588" s="1" t="s">
         <v>260</v>
       </c>
@@ -10242,7 +10650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589" spans="2:5" s="1" customFormat="1">
+    <row r="589" spans="2:5">
       <c r="B589" s="1" t="s">
         <v>260</v>
       </c>
@@ -10256,7 +10664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="590" spans="2:5" s="1" customFormat="1">
+    <row r="590" spans="2:5">
       <c r="B590" s="1" t="s">
         <v>260</v>
       </c>
@@ -10270,7 +10678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="591" spans="2:5" s="1" customFormat="1">
+    <row r="591" spans="2:5">
       <c r="B591" s="1" t="s">
         <v>260</v>
       </c>
@@ -10284,7 +10692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="592" spans="2:5" s="1" customFormat="1">
+    <row r="592" spans="2:5">
       <c r="B592" s="1" t="s">
         <v>260</v>
       </c>
@@ -10298,7 +10706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="2:5" s="1" customFormat="1">
+    <row r="593" spans="2:5">
       <c r="B593" s="1" t="s">
         <v>260</v>
       </c>
@@ -10312,7 +10720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="594" spans="2:5" s="1" customFormat="1">
+    <row r="594" spans="2:5">
       <c r="B594" s="1" t="s">
         <v>260</v>
       </c>
@@ -10326,7 +10734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="595" spans="2:5" s="1" customFormat="1">
+    <row r="595" spans="2:5">
       <c r="B595" s="1" t="s">
         <v>260</v>
       </c>
@@ -10340,7 +10748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="596" spans="2:5" s="1" customFormat="1">
+    <row r="596" spans="2:5">
       <c r="B596" s="1" t="s">
         <v>260</v>
       </c>
@@ -10354,7 +10762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="2:5" s="1" customFormat="1">
+    <row r="597" spans="2:5">
       <c r="B597" s="1" t="s">
         <v>260</v>
       </c>
@@ -10368,7 +10776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="598" spans="2:5" s="1" customFormat="1">
+    <row r="598" spans="2:5">
       <c r="B598" s="1" t="s">
         <v>260</v>
       </c>
@@ -10382,7 +10790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="2:5" s="1" customFormat="1">
+    <row r="599" spans="2:5">
       <c r="B599" s="1" t="s">
         <v>260</v>
       </c>
@@ -10396,7 +10804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="2:5" s="1" customFormat="1">
+    <row r="600" spans="2:5">
       <c r="B600" s="1" t="s">
         <v>260</v>
       </c>
@@ -10410,7 +10818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="601" spans="2:5" s="1" customFormat="1">
+    <row r="601" spans="2:5">
       <c r="B601" s="1" t="s">
         <v>260</v>
       </c>
@@ -10424,7 +10832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="2:5" s="1" customFormat="1">
+    <row r="602" spans="2:5">
       <c r="B602" s="1" t="s">
         <v>260</v>
       </c>
@@ -10438,7 +10846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="603" spans="2:5" s="1" customFormat="1">
+    <row r="603" spans="2:5">
       <c r="B603" s="1" t="s">
         <v>260</v>
       </c>
@@ -10452,7 +10860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="604" spans="2:5" s="1" customFormat="1">
+    <row r="604" spans="2:5">
       <c r="B604" s="1" t="s">
         <v>260</v>
       </c>
@@ -10466,7 +10874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="605" spans="2:5" s="1" customFormat="1">
+    <row r="605" spans="2:5">
       <c r="B605" s="1" t="s">
         <v>260</v>
       </c>
@@ -10480,7 +10888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="606" spans="2:5" s="1" customFormat="1">
+    <row r="606" spans="2:5">
       <c r="B606" s="1" t="s">
         <v>260</v>
       </c>
@@ -10494,7 +10902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="607" spans="2:5" s="1" customFormat="1">
+    <row r="607" spans="2:5">
       <c r="B607" s="1" t="s">
         <v>260</v>
       </c>
@@ -10508,7 +10916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="608" spans="2:5" s="1" customFormat="1">
+    <row r="608" spans="2:5">
       <c r="B608" s="1" t="s">
         <v>260</v>
       </c>
@@ -10522,7 +10930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="609" spans="2:5" s="1" customFormat="1">
+    <row r="609" spans="2:5">
       <c r="B609" s="1" t="s">
         <v>260</v>
       </c>
@@ -10536,7 +10944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="610" spans="2:5" s="1" customFormat="1">
+    <row r="610" spans="2:5">
       <c r="B610" s="1" t="s">
         <v>260</v>
       </c>
@@ -10550,7 +10958,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="611" spans="2:5" s="1" customFormat="1">
+    <row r="611" spans="2:5">
       <c r="B611" s="1" t="s">
         <v>260</v>
       </c>
@@ -10564,7 +10972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="612" spans="2:5" s="1" customFormat="1">
+    <row r="612" spans="2:5">
       <c r="B612" s="1" t="s">
         <v>260</v>
       </c>
@@ -10578,7 +10986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="613" spans="2:5" s="1" customFormat="1">
+    <row r="613" spans="2:5">
       <c r="B613" s="1" t="s">
         <v>260</v>
       </c>
@@ -10592,7 +11000,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="614" spans="2:5" s="1" customFormat="1">
+    <row r="614" spans="2:5">
       <c r="B614" s="1" t="s">
         <v>260</v>
       </c>
@@ -10606,7 +11014,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="615" spans="2:5" s="1" customFormat="1">
+    <row r="615" spans="2:5">
       <c r="B615" s="1" t="s">
         <v>260</v>
       </c>
@@ -10620,7 +11028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="616" spans="2:5" s="1" customFormat="1">
+    <row r="616" spans="2:5">
       <c r="B616" s="1" t="s">
         <v>260</v>
       </c>
@@ -10634,7 +11042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="617" spans="2:5" s="1" customFormat="1">
+    <row r="617" spans="2:5">
       <c r="B617" s="1" t="s">
         <v>260</v>
       </c>
@@ -10648,7 +11056,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="618" spans="2:5" s="1" customFormat="1">
+    <row r="618" spans="2:5">
       <c r="B618" s="1" t="s">
         <v>260</v>
       </c>
@@ -10662,7 +11070,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="619" spans="2:5" s="1" customFormat="1">
+    <row r="619" spans="2:5">
       <c r="B619" s="1" t="s">
         <v>260</v>
       </c>
@@ -10676,7 +11084,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="620" spans="2:5" s="1" customFormat="1">
+    <row r="620" spans="2:5">
       <c r="B620" s="1" t="s">
         <v>260</v>
       </c>
@@ -10690,7 +11098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="621" spans="2:5" s="1" customFormat="1">
+    <row r="621" spans="2:5">
       <c r="B621" s="1" t="s">
         <v>260</v>
       </c>
@@ -10704,7 +11112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="622" spans="2:5" s="1" customFormat="1">
+    <row r="622" spans="2:5">
       <c r="B622" s="1" t="s">
         <v>260</v>
       </c>
@@ -10718,7 +11126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="623" spans="2:5" s="1" customFormat="1">
+    <row r="623" spans="2:5">
       <c r="B623" s="1" t="s">
         <v>260</v>
       </c>
@@ -10732,7 +11140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="624" spans="2:5" s="1" customFormat="1">
+    <row r="624" spans="2:5">
       <c r="B624" s="1" t="s">
         <v>260</v>
       </c>
@@ -10746,7 +11154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="625" spans="2:5" s="1" customFormat="1">
+    <row r="625" spans="2:5">
       <c r="B625" s="1" t="s">
         <v>260</v>
       </c>
@@ -10760,7 +11168,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="626" spans="2:5" s="1" customFormat="1">
+    <row r="626" spans="2:5">
       <c r="B626" s="1" t="s">
         <v>260</v>
       </c>
@@ -10774,7 +11182,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="627" spans="2:5" s="1" customFormat="1">
+    <row r="627" spans="2:5">
       <c r="B627" s="1" t="s">
         <v>287</v>
       </c>
@@ -10788,7 +11196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="628" spans="2:5" s="1" customFormat="1">
+    <row r="628" spans="2:5">
       <c r="B628" s="1" t="s">
         <v>287</v>
       </c>
@@ -10802,7 +11210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="629" spans="2:5" s="1" customFormat="1">
+    <row r="629" spans="2:5">
       <c r="B629" s="1" t="s">
         <v>287</v>
       </c>
@@ -10816,7 +11224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="630" spans="2:5" s="1" customFormat="1">
+    <row r="630" spans="2:5">
       <c r="B630" s="1" t="s">
         <v>287</v>
       </c>
@@ -10830,7 +11238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="631" spans="2:5" s="1" customFormat="1">
+    <row r="631" spans="2:5">
       <c r="B631" s="1" t="s">
         <v>287</v>
       </c>
@@ -10844,7 +11252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="2:5" s="1" customFormat="1">
+    <row r="632" spans="2:5">
       <c r="B632" s="1" t="s">
         <v>287</v>
       </c>
@@ -10858,7 +11266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="2:5" s="1" customFormat="1">
+    <row r="633" spans="2:5">
       <c r="B633" s="1" t="s">
         <v>287</v>
       </c>
@@ -10872,7 +11280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="2:5" s="1" customFormat="1">
+    <row r="634" spans="2:5">
       <c r="B634" s="1" t="s">
         <v>287</v>
       </c>
@@ -10886,7 +11294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="2:5" s="1" customFormat="1">
+    <row r="635" spans="2:5">
       <c r="B635" s="1" t="s">
         <v>287</v>
       </c>
@@ -10900,7 +11308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="2:5" s="1" customFormat="1">
+    <row r="636" spans="2:5">
       <c r="B636" s="1" t="s">
         <v>287</v>
       </c>
@@ -10914,7 +11322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="2:5" s="1" customFormat="1">
+    <row r="637" spans="2:5">
       <c r="B637" s="1" t="s">
         <v>287</v>
       </c>
@@ -10928,7 +11336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="2:5" s="1" customFormat="1">
+    <row r="638" spans="2:5">
       <c r="B638" s="1" t="s">
         <v>287</v>
       </c>
@@ -10942,7 +11350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="639" spans="2:5" s="1" customFormat="1">
+    <row r="639" spans="2:5">
       <c r="B639" s="1" t="s">
         <v>287</v>
       </c>
@@ -10956,7 +11364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="2:5" s="1" customFormat="1">
+    <row r="640" spans="2:5">
       <c r="B640" s="1" t="s">
         <v>287</v>
       </c>
@@ -10970,7 +11378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="2:5" s="1" customFormat="1">
+    <row r="641" spans="2:5">
       <c r="B641" s="1" t="s">
         <v>287</v>
       </c>
@@ -10984,7 +11392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="2:5" s="1" customFormat="1">
+    <row r="642" spans="2:5">
       <c r="B642" s="1" t="s">
         <v>287</v>
       </c>
@@ -10998,7 +11406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="643" spans="2:5" s="1" customFormat="1">
+    <row r="643" spans="2:5">
       <c r="B643" s="1" t="s">
         <v>287</v>
       </c>
@@ -11012,7 +11420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="2:5" s="1" customFormat="1">
+    <row r="644" spans="2:5">
       <c r="B644" s="1" t="s">
         <v>287</v>
       </c>
@@ -11026,7 +11434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="2:5" s="1" customFormat="1">
+    <row r="645" spans="2:5">
       <c r="B645" s="1" t="s">
         <v>287</v>
       </c>
@@ -11040,7 +11448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="2:5" s="1" customFormat="1">
+    <row r="646" spans="2:5">
       <c r="B646" s="1" t="s">
         <v>287</v>
       </c>
@@ -11054,7 +11462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="2:5" s="1" customFormat="1">
+    <row r="647" spans="2:5">
       <c r="B647" s="1" t="s">
         <v>287</v>
       </c>
@@ -11068,7 +11476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="2:5" s="1" customFormat="1">
+    <row r="648" spans="2:5">
       <c r="B648" s="1" t="s">
         <v>287</v>
       </c>
@@ -11082,7 +11490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="2:5" s="1" customFormat="1">
+    <row r="649" spans="2:5">
       <c r="B649" s="1" t="s">
         <v>287</v>
       </c>
@@ -11096,7 +11504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="2:5" s="1" customFormat="1">
+    <row r="650" spans="2:5">
       <c r="B650" s="1" t="s">
         <v>287</v>
       </c>
@@ -11110,7 +11518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="2:5" s="1" customFormat="1">
+    <row r="651" spans="2:5">
       <c r="B651" s="1" t="s">
         <v>287</v>
       </c>
@@ -11124,7 +11532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="2:5" s="1" customFormat="1">
+    <row r="652" spans="2:5">
       <c r="B652" s="1" t="s">
         <v>287</v>
       </c>
@@ -11138,7 +11546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="2:5" s="1" customFormat="1">
+    <row r="653" spans="2:5">
       <c r="B653" s="1" t="s">
         <v>287</v>
       </c>
@@ -11152,7 +11560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="2:5" s="1" customFormat="1">
+    <row r="654" spans="2:5">
       <c r="B654" s="1" t="s">
         <v>287</v>
       </c>
@@ -11166,7 +11574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="2:5" s="1" customFormat="1">
+    <row r="655" spans="2:5">
       <c r="B655" s="1" t="s">
         <v>287</v>
       </c>
@@ -11180,7 +11588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="2:5" s="1" customFormat="1">
+    <row r="656" spans="2:5">
       <c r="B656" s="1" t="s">
         <v>287</v>
       </c>
@@ -11194,7 +11602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="2:5" s="1" customFormat="1">
+    <row r="657" spans="2:5">
       <c r="B657" s="1" t="s">
         <v>287</v>
       </c>
@@ -11208,7 +11616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="2:5" s="1" customFormat="1">
+    <row r="658" spans="2:5">
       <c r="B658" s="1" t="s">
         <v>287</v>
       </c>
@@ -11222,7 +11630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="2:5" s="1" customFormat="1">
+    <row r="659" spans="2:5">
       <c r="B659" s="1" t="s">
         <v>287</v>
       </c>
@@ -11236,7 +11644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="2:5" s="1" customFormat="1">
+    <row r="660" spans="2:5">
       <c r="B660" s="1" t="s">
         <v>287</v>
       </c>
@@ -11250,7 +11658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="2:5" s="1" customFormat="1">
+    <row r="661" spans="2:5">
       <c r="B661" s="1" t="s">
         <v>287</v>
       </c>
@@ -11264,7 +11672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="2:5" s="1" customFormat="1">
+    <row r="662" spans="2:5">
       <c r="B662" s="1" t="s">
         <v>287</v>
       </c>
@@ -11278,7 +11686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="2:5" s="1" customFormat="1">
+    <row r="663" spans="2:5">
       <c r="B663" s="1" t="s">
         <v>287</v>
       </c>
@@ -11292,7 +11700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="2:5" s="1" customFormat="1">
+    <row r="664" spans="2:5">
       <c r="B664" s="1" t="s">
         <v>287</v>
       </c>
@@ -11306,7 +11714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="2:5" s="1" customFormat="1">
+    <row r="665" spans="2:5">
       <c r="B665" s="1" t="s">
         <v>287</v>
       </c>
@@ -11320,7 +11728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="666" spans="2:5" s="1" customFormat="1">
+    <row r="666" spans="2:5">
       <c r="B666" s="1" t="s">
         <v>287</v>
       </c>
@@ -11334,7 +11742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="667" spans="2:5" s="1" customFormat="1">
+    <row r="667" spans="2:5">
       <c r="B667" s="1" t="s">
         <v>287</v>
       </c>
@@ -11348,7 +11756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="668" spans="2:5" s="1" customFormat="1">
+    <row r="668" spans="2:5">
       <c r="B668" s="1" t="s">
         <v>287</v>
       </c>
@@ -11362,7 +11770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="669" spans="2:5" s="1" customFormat="1">
+    <row r="669" spans="2:5">
       <c r="B669" s="1" t="s">
         <v>287</v>
       </c>
@@ -11376,7 +11784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="670" spans="2:5" s="1" customFormat="1">
+    <row r="670" spans="2:5">
       <c r="B670" s="1" t="s">
         <v>287</v>
       </c>
@@ -11390,7 +11798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="671" spans="2:5" s="1" customFormat="1">
+    <row r="671" spans="2:5">
       <c r="B671" s="1" t="s">
         <v>287</v>
       </c>
@@ -11404,7 +11812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="2:5" s="1" customFormat="1">
+    <row r="672" spans="2:5">
       <c r="B672" s="1" t="s">
         <v>287</v>
       </c>
@@ -11418,7 +11826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="673" spans="2:5" s="1" customFormat="1">
+    <row r="673" spans="2:5">
       <c r="B673" s="1" t="s">
         <v>287</v>
       </c>
@@ -11432,7 +11840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="674" spans="2:5" s="1" customFormat="1">
+    <row r="674" spans="2:5">
       <c r="B674" s="1" t="s">
         <v>287</v>
       </c>
@@ -11446,7 +11854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="675" spans="2:5" s="1" customFormat="1">
+    <row r="675" spans="2:5">
       <c r="B675" s="1" t="s">
         <v>287</v>
       </c>
@@ -11460,7 +11868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="676" spans="2:5" s="1" customFormat="1">
+    <row r="676" spans="2:5">
       <c r="B676" s="1" t="s">
         <v>287</v>
       </c>
@@ -11474,7 +11882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="677" spans="2:5" s="1" customFormat="1">
+    <row r="677" spans="2:5">
       <c r="B677" s="1" t="s">
         <v>287</v>
       </c>
@@ -11488,7 +11896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="678" spans="2:5" s="1" customFormat="1">
+    <row r="678" spans="2:5">
       <c r="B678" s="1" t="s">
         <v>300</v>
       </c>
@@ -11502,7 +11910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="679" spans="2:5" s="1" customFormat="1">
+    <row r="679" spans="2:5">
       <c r="B679" s="1" t="s">
         <v>300</v>
       </c>
@@ -11516,7 +11924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="680" spans="2:5" s="1" customFormat="1">
+    <row r="680" spans="2:5">
       <c r="B680" s="1" t="s">
         <v>300</v>
       </c>
@@ -11530,7 +11938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="681" spans="2:5" s="1" customFormat="1">
+    <row r="681" spans="2:5">
       <c r="B681" s="1" t="s">
         <v>300</v>
       </c>
@@ -11544,7 +11952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="682" spans="2:5" s="1" customFormat="1">
+    <row r="682" spans="2:5">
       <c r="B682" s="1" t="s">
         <v>300</v>
       </c>
@@ -11558,7 +11966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="683" spans="2:5" s="1" customFormat="1">
+    <row r="683" spans="2:5">
       <c r="B683" s="1" t="s">
         <v>300</v>
       </c>
@@ -11572,7 +11980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="2:5" s="1" customFormat="1">
+    <row r="684" spans="2:5">
       <c r="B684" s="1" t="s">
         <v>300</v>
       </c>
@@ -11586,7 +11994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="685" spans="2:5" s="1" customFormat="1">
+    <row r="685" spans="2:5">
       <c r="B685" s="1" t="s">
         <v>300</v>
       </c>
@@ -11600,7 +12008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="686" spans="2:5" s="1" customFormat="1">
+    <row r="686" spans="2:5">
       <c r="B686" s="1" t="s">
         <v>300</v>
       </c>
@@ -11614,7 +12022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="687" spans="2:5" s="1" customFormat="1">
+    <row r="687" spans="2:5">
       <c r="B687" s="1" t="s">
         <v>300</v>
       </c>
@@ -11628,7 +12036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="688" spans="2:5" s="1" customFormat="1">
+    <row r="688" spans="2:5">
       <c r="B688" s="1" t="s">
         <v>300</v>
       </c>
@@ -11642,7 +12050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="689" spans="2:5" s="1" customFormat="1">
+    <row r="689" spans="2:5">
       <c r="B689" s="1" t="s">
         <v>300</v>
       </c>
@@ -11656,7 +12064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="690" spans="2:5" s="1" customFormat="1">
+    <row r="690" spans="2:5">
       <c r="B690" s="1" t="s">
         <v>300</v>
       </c>
@@ -11670,7 +12078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="691" spans="2:5" s="1" customFormat="1">
+    <row r="691" spans="2:5">
       <c r="B691" s="1" t="s">
         <v>300</v>
       </c>
@@ -11684,7 +12092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="692" spans="2:5" s="1" customFormat="1">
+    <row r="692" spans="2:5">
       <c r="B692" s="1" t="s">
         <v>300</v>
       </c>
@@ -11698,7 +12106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="693" spans="2:5" s="1" customFormat="1">
+    <row r="693" spans="2:5">
       <c r="B693" s="1" t="s">
         <v>300</v>
       </c>
@@ -11712,7 +12120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="694" spans="2:5" s="1" customFormat="1">
+    <row r="694" spans="2:5">
       <c r="B694" s="1" t="s">
         <v>300</v>
       </c>
@@ -11726,7 +12134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="695" spans="2:5" s="1" customFormat="1">
+    <row r="695" spans="2:5">
       <c r="B695" s="1" t="s">
         <v>300</v>
       </c>
@@ -11740,7 +12148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="696" spans="2:5" s="1" customFormat="1">
+    <row r="696" spans="2:5">
       <c r="B696" s="1" t="s">
         <v>300</v>
       </c>
@@ -11754,7 +12162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="697" spans="2:5" s="1" customFormat="1">
+    <row r="697" spans="2:5">
       <c r="B697" s="1" t="s">
         <v>300</v>
       </c>
@@ -11768,7 +12176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="698" spans="2:5" s="1" customFormat="1">
+    <row r="698" spans="2:5">
       <c r="B698" s="1" t="s">
         <v>300</v>
       </c>
@@ -11782,7 +12190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="699" spans="2:5" s="1" customFormat="1">
+    <row r="699" spans="2:5">
       <c r="B699" s="1" t="s">
         <v>300</v>
       </c>
@@ -11796,7 +12204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="700" spans="2:5" s="1" customFormat="1">
+    <row r="700" spans="2:5">
       <c r="B700" s="1" t="s">
         <v>300</v>
       </c>
@@ -11810,7 +12218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="701" spans="2:5" s="1" customFormat="1">
+    <row r="701" spans="2:5">
       <c r="B701" s="1" t="s">
         <v>300</v>
       </c>
@@ -11824,7 +12232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="2:5" s="1" customFormat="1">
+    <row r="702" spans="2:5">
       <c r="B702" s="1" t="s">
         <v>300</v>
       </c>
@@ -11838,7 +12246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="703" spans="2:5" s="1" customFormat="1">
+    <row r="703" spans="2:5">
       <c r="B703" s="1" t="s">
         <v>300</v>
       </c>
@@ -11852,7 +12260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="704" spans="2:5" s="1" customFormat="1">
+    <row r="704" spans="2:5">
       <c r="B704" s="1" t="s">
         <v>300</v>
       </c>
@@ -11866,7 +12274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="705" spans="2:5" s="1" customFormat="1">
+    <row r="705" spans="2:5">
       <c r="B705" s="1" t="s">
         <v>300</v>
       </c>
@@ -11880,7 +12288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="706" spans="2:5" s="1" customFormat="1">
+    <row r="706" spans="2:5">
       <c r="B706" s="1" t="s">
         <v>300</v>
       </c>
@@ -11894,7 +12302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="707" spans="2:5" s="1" customFormat="1">
+    <row r="707" spans="2:5">
       <c r="B707" s="1" t="s">
         <v>300</v>
       </c>
@@ -11908,7 +12316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="708" spans="2:5" s="1" customFormat="1">
+    <row r="708" spans="2:5">
       <c r="B708" s="1" t="s">
         <v>300</v>
       </c>
@@ -11922,7 +12330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="709" spans="2:5" s="1" customFormat="1">
+    <row r="709" spans="2:5">
       <c r="B709" s="1" t="s">
         <v>300</v>
       </c>
@@ -11936,7 +12344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="710" spans="2:5" s="1" customFormat="1">
+    <row r="710" spans="2:5">
       <c r="B710" s="1" t="s">
         <v>300</v>
       </c>
@@ -11950,7 +12358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="711" spans="2:5" s="1" customFormat="1">
+    <row r="711" spans="2:5">
       <c r="B711" s="1" t="s">
         <v>300</v>
       </c>
@@ -11964,7 +12372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="712" spans="2:5" s="1" customFormat="1">
+    <row r="712" spans="2:5">
       <c r="B712" s="1" t="s">
         <v>300</v>
       </c>
@@ -11978,7 +12386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="713" spans="2:5" s="1" customFormat="1">
+    <row r="713" spans="2:5">
       <c r="B713" s="1" t="s">
         <v>300</v>
       </c>
@@ -11992,7 +12400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="714" spans="2:5" s="1" customFormat="1">
+    <row r="714" spans="2:5">
       <c r="B714" s="1" t="s">
         <v>300</v>
       </c>
@@ -12006,7 +12414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="715" spans="2:5" s="1" customFormat="1">
+    <row r="715" spans="2:5">
       <c r="B715" s="1" t="s">
         <v>300</v>
       </c>
@@ -12020,7 +12428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="716" spans="2:5" s="1" customFormat="1">
+    <row r="716" spans="2:5">
       <c r="B716" s="1" t="s">
         <v>300</v>
       </c>
@@ -12034,7 +12442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="717" spans="2:5" s="1" customFormat="1">
+    <row r="717" spans="2:5">
       <c r="B717" s="1" t="s">
         <v>300</v>
       </c>
@@ -12048,7 +12456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="718" spans="2:5" s="1" customFormat="1">
+    <row r="718" spans="2:5">
       <c r="B718" s="1" t="s">
         <v>300</v>
       </c>
@@ -12062,7 +12470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="719" spans="2:5" s="1" customFormat="1">
+    <row r="719" spans="2:5">
       <c r="B719" s="1" t="s">
         <v>300</v>
       </c>
@@ -12076,7 +12484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="720" spans="2:5" s="1" customFormat="1">
+    <row r="720" spans="2:5">
       <c r="B720" s="1" t="s">
         <v>300</v>
       </c>
@@ -12090,7 +12498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="721" spans="2:5" s="1" customFormat="1">
+    <row r="721" spans="2:5">
       <c r="B721" s="1" t="s">
         <v>300</v>
       </c>
@@ -12104,7 +12512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="722" spans="2:5" s="1" customFormat="1">
+    <row r="722" spans="2:5">
       <c r="B722" s="1" t="s">
         <v>300</v>
       </c>
@@ -12118,7 +12526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="723" spans="2:5" s="1" customFormat="1">
+    <row r="723" spans="2:5">
       <c r="B723" s="1" t="s">
         <v>300</v>
       </c>
@@ -12132,7 +12540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="724" spans="2:5" s="1" customFormat="1">
+    <row r="724" spans="2:5">
       <c r="B724" s="1" t="s">
         <v>300</v>
       </c>
@@ -12146,7 +12554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="725" spans="2:5" s="1" customFormat="1">
+    <row r="725" spans="2:5">
       <c r="B725" s="1" t="s">
         <v>300</v>
       </c>
@@ -12160,7 +12568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="726" spans="2:5" s="1" customFormat="1">
+    <row r="726" spans="2:5">
       <c r="B726" s="1" t="s">
         <v>300</v>
       </c>
@@ -12174,7 +12582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="727" spans="2:5" s="1" customFormat="1">
+    <row r="727" spans="2:5">
       <c r="B727" s="1" t="s">
         <v>300</v>
       </c>
@@ -12188,7 +12596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="728" spans="2:5" s="1" customFormat="1">
+    <row r="728" spans="2:5">
       <c r="B728" s="1" t="s">
         <v>300</v>
       </c>
@@ -12202,7 +12610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="729" spans="2:5" s="1" customFormat="1">
+    <row r="729" spans="2:5">
       <c r="B729" s="1" t="s">
         <v>300</v>
       </c>
@@ -12216,7 +12624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="730" spans="2:5" s="1" customFormat="1">
+    <row r="730" spans="2:5">
       <c r="B730" s="1" t="s">
         <v>300</v>
       </c>
@@ -12230,7 +12638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="731" spans="2:5" s="1" customFormat="1">
+    <row r="731" spans="2:5">
       <c r="B731" s="1" t="s">
         <v>300</v>
       </c>
@@ -12244,7 +12652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="732" spans="2:5" s="1" customFormat="1">
+    <row r="732" spans="2:5">
       <c r="B732" s="1" t="s">
         <v>300</v>
       </c>
@@ -12258,7 +12666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="733" spans="2:5" s="1" customFormat="1">
+    <row r="733" spans="2:5">
       <c r="B733" s="1" t="s">
         <v>300</v>
       </c>
@@ -12272,7 +12680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="734" spans="2:5" s="1" customFormat="1">
+    <row r="734" spans="2:5">
       <c r="B734" s="1" t="s">
         <v>300</v>
       </c>
@@ -12286,7 +12694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="735" spans="2:5" s="1" customFormat="1">
+    <row r="735" spans="2:5">
       <c r="B735" s="1" t="s">
         <v>300</v>
       </c>
@@ -12300,7 +12708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="2:5" s="1" customFormat="1">
+    <row r="736" spans="2:5">
       <c r="B736" s="1" t="s">
         <v>300</v>
       </c>
@@ -12314,7 +12722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="737" spans="2:5" s="1" customFormat="1">
+    <row r="737" spans="2:5">
       <c r="B737" s="1" t="s">
         <v>300</v>
       </c>
@@ -12328,7 +12736,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="738" spans="2:5" s="1" customFormat="1">
+    <row r="738" spans="2:5">
       <c r="B738" s="1" t="s">
         <v>300</v>
       </c>
@@ -12336,13 +12744,13 @@
         <v>323</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E738" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="739" spans="2:5" s="1" customFormat="1">
+    <row r="739" spans="2:5">
       <c r="B739" s="1" t="s">
         <v>300</v>
       </c>
@@ -12350,13 +12758,13 @@
         <v>323</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E739" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="740" spans="2:5" s="1" customFormat="1">
+    <row r="740" spans="2:5">
       <c r="B740" s="1" t="s">
         <v>300</v>
       </c>
@@ -12364,13 +12772,13 @@
         <v>323</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E740" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="741" spans="2:5" s="1" customFormat="1">
+    <row r="741" spans="2:5">
       <c r="B741" s="1" t="s">
         <v>300</v>
       </c>
@@ -12378,13 +12786,13 @@
         <v>324</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E741" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="742" spans="2:5" s="1" customFormat="1">
+    <row r="742" spans="2:5">
       <c r="B742" s="1" t="s">
         <v>300</v>
       </c>
@@ -12392,13 +12800,13 @@
         <v>324</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E742" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="743" spans="2:5" s="1" customFormat="1">
+    <row r="743" spans="2:5">
       <c r="B743" s="1" t="s">
         <v>300</v>
       </c>
@@ -12406,13 +12814,13 @@
         <v>325</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E743" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="744" spans="2:5" s="1" customFormat="1">
+    <row r="744" spans="2:5">
       <c r="B744" s="1" t="s">
         <v>300</v>
       </c>
@@ -12420,13 +12828,13 @@
         <v>325</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E744" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="745" spans="2:5" s="1" customFormat="1">
+    <row r="745" spans="2:5">
       <c r="B745" s="1" t="s">
         <v>300</v>
       </c>
@@ -12434,13 +12842,13 @@
         <v>326</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E745" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="746" spans="2:5" s="1" customFormat="1">
+    <row r="746" spans="2:5">
       <c r="B746" s="1" t="s">
         <v>300</v>
       </c>
@@ -12448,13 +12856,13 @@
         <v>326</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E746" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="747" spans="2:5" s="1" customFormat="1">
+    <row r="747" spans="2:5">
       <c r="B747" s="1" t="s">
         <v>300</v>
       </c>
@@ -12462,13 +12870,13 @@
         <v>326</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E747" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="748" spans="2:5" s="1" customFormat="1">
+    <row r="748" spans="2:5">
       <c r="B748" s="1" t="s">
         <v>300</v>
       </c>
@@ -12476,13 +12884,13 @@
         <v>327</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E748" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="749" spans="2:5" s="1" customFormat="1">
+    <row r="749" spans="2:5">
       <c r="B749" s="1" t="s">
         <v>300</v>
       </c>
@@ -12490,13 +12898,13 @@
         <v>327</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E749" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="750" spans="2:5" s="1" customFormat="1">
+    <row r="750" spans="2:5">
       <c r="B750" s="1" t="s">
         <v>300</v>
       </c>
@@ -12504,13 +12912,13 @@
         <v>327</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E750" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="751" spans="2:5" s="1" customFormat="1">
+    <row r="751" spans="2:5">
       <c r="B751" s="1" t="s">
         <v>300</v>
       </c>
@@ -12518,13 +12926,13 @@
         <v>328</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E751" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="752" spans="2:5" s="1" customFormat="1">
+    <row r="752" spans="2:5">
       <c r="B752" s="1" t="s">
         <v>300</v>
       </c>
@@ -12532,13 +12940,13 @@
         <v>328</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E752" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="753" spans="2:5" s="1" customFormat="1">
+    <row r="753" spans="2:5">
       <c r="B753" s="1" t="s">
         <v>300</v>
       </c>
@@ -12546,13 +12954,13 @@
         <v>328</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E753" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="754" spans="2:5" s="1" customFormat="1">
+    <row r="754" spans="2:5">
       <c r="B754" s="1" t="s">
         <v>300</v>
       </c>
@@ -12560,13 +12968,13 @@
         <v>330</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="755" spans="2:5" s="1" customFormat="1">
+    <row r="755" spans="2:5">
       <c r="B755" s="1" t="s">
         <v>300</v>
       </c>
@@ -12574,13 +12982,13 @@
         <v>330</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E755" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="756" spans="2:5" s="1" customFormat="1">
+    <row r="756" spans="2:5">
       <c r="B756" s="1" t="s">
         <v>300</v>
       </c>
@@ -12588,13 +12996,13 @@
         <v>330</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E756" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="757" spans="2:5" s="1" customFormat="1">
+    <row r="757" spans="2:5">
       <c r="B757" s="1" t="s">
         <v>300</v>
       </c>
@@ -12602,13 +13010,13 @@
         <v>329</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E757" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="758" spans="2:5" s="1" customFormat="1">
+    <row r="758" spans="2:5">
       <c r="B758" s="1" t="s">
         <v>300</v>
       </c>
@@ -12616,13 +13024,13 @@
         <v>329</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E758" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="759" spans="2:5" s="1" customFormat="1">
+    <row r="759" spans="2:5">
       <c r="B759" s="1" t="s">
         <v>300</v>
       </c>
@@ -12630,13 +13038,13 @@
         <v>329</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E759" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="760" spans="2:5" s="1" customFormat="1">
+    <row r="760" spans="2:5">
       <c r="B760" s="1" t="s">
         <v>300</v>
       </c>
@@ -12644,13 +13052,13 @@
         <v>329</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E760" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="761" spans="2:5" s="1" customFormat="1">
+    <row r="761" spans="2:5">
       <c r="B761" s="1" t="s">
         <v>300</v>
       </c>
@@ -12658,13 +13066,13 @@
         <v>329</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E761" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="762" spans="2:5" s="1" customFormat="1">
+    <row r="762" spans="2:5">
       <c r="B762" s="1" t="s">
         <v>300</v>
       </c>
@@ -12672,13 +13080,13 @@
         <v>336</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E762" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="763" spans="2:5" s="1" customFormat="1">
+    <row r="763" spans="2:5">
       <c r="B763" s="1" t="s">
         <v>300</v>
       </c>
@@ -12686,13 +13094,13 @@
         <v>336</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E763" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="764" spans="2:5" s="1" customFormat="1">
+    <row r="764" spans="2:5">
       <c r="B764" s="1" t="s">
         <v>300</v>
       </c>
@@ -12700,13 +13108,13 @@
         <v>335</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E764" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="765" spans="2:5" s="1" customFormat="1">
+    <row r="765" spans="2:5">
       <c r="B765" s="1" t="s">
         <v>300</v>
       </c>
@@ -12714,13 +13122,13 @@
         <v>335</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E765" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="766" spans="2:5" s="1" customFormat="1">
+    <row r="766" spans="2:5">
       <c r="B766" s="1" t="s">
         <v>300</v>
       </c>
@@ -12728,13 +13136,13 @@
         <v>176</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E766" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="767" spans="2:5" s="1" customFormat="1">
+    <row r="767" spans="2:5">
       <c r="B767" s="1" t="s">
         <v>300</v>
       </c>
@@ -12742,13 +13150,13 @@
         <v>176</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E767" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="768" spans="2:5" s="1" customFormat="1">
+    <row r="768" spans="2:5">
       <c r="B768" s="1" t="s">
         <v>300</v>
       </c>
@@ -12756,13 +13164,13 @@
         <v>176</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E768" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="769" spans="2:5" s="1" customFormat="1">
+    <row r="769" spans="2:5">
       <c r="B769" s="1" t="s">
         <v>300</v>
       </c>
@@ -12770,13 +13178,13 @@
         <v>176</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E769" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="770" spans="2:5" s="1" customFormat="1">
+    <row r="770" spans="2:5">
       <c r="B770" s="1" t="s">
         <v>300</v>
       </c>
@@ -12784,13 +13192,13 @@
         <v>331</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E770" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="771" spans="2:5" s="1" customFormat="1">
+    <row r="771" spans="2:5">
       <c r="B771" s="1" t="s">
         <v>300</v>
       </c>
@@ -12798,13 +13206,13 @@
         <v>331</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E771" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="772" spans="2:5" s="1" customFormat="1">
+    <row r="772" spans="2:5">
       <c r="B772" s="1" t="s">
         <v>300</v>
       </c>
@@ -12812,13 +13220,13 @@
         <v>332</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E772" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="773" spans="2:5" s="1" customFormat="1">
+    <row r="773" spans="2:5">
       <c r="B773" s="1" t="s">
         <v>300</v>
       </c>
@@ -12826,13 +13234,13 @@
         <v>332</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E773" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="774" spans="2:5" s="1" customFormat="1">
+    <row r="774" spans="2:5">
       <c r="B774" s="1" t="s">
         <v>300</v>
       </c>
@@ -12840,13 +13248,13 @@
         <v>333</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E774" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="775" spans="2:5" s="1" customFormat="1">
+    <row r="775" spans="2:5">
       <c r="B775" s="1" t="s">
         <v>300</v>
       </c>
@@ -12854,13 +13262,13 @@
         <v>333</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E775" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="776" spans="2:5" s="1" customFormat="1">
+    <row r="776" spans="2:5">
       <c r="B776" s="1" t="s">
         <v>300</v>
       </c>
@@ -12868,13 +13276,13 @@
         <v>333</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E776" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="777" spans="2:5" s="1" customFormat="1">
+    <row r="777" spans="2:5">
       <c r="B777" s="1" t="s">
         <v>300</v>
       </c>
@@ -12882,13 +13290,13 @@
         <v>334</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E777" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="778" spans="2:5" s="1" customFormat="1">
+    <row r="778" spans="2:5">
       <c r="B778" s="1" t="s">
         <v>300</v>
       </c>
@@ -12896,13 +13304,13 @@
         <v>334</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E778" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="779" spans="2:5" s="1" customFormat="1">
+    <row r="779" spans="2:5">
       <c r="B779" s="1" t="s">
         <v>300</v>
       </c>
@@ -12910,13 +13318,13 @@
         <v>334</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E779" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="780" spans="2:5" s="1" customFormat="1">
+    <row r="780" spans="2:5">
       <c r="B780" s="1" t="s">
         <v>300</v>
       </c>
@@ -12924,13 +13332,13 @@
         <v>337</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E780" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="781" spans="2:5" s="1" customFormat="1">
+    <row r="781" spans="2:5">
       <c r="B781" s="1" t="s">
         <v>300</v>
       </c>
@@ -12938,13 +13346,13 @@
         <v>338</v>
       </c>
       <c r="D781" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E781" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="782" spans="2:5" s="1" customFormat="1">
+    <row r="782" spans="2:5">
       <c r="B782" s="1" t="s">
         <v>300</v>
       </c>
@@ -12952,13 +13360,13 @@
         <v>338</v>
       </c>
       <c r="D782" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E782" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="783" spans="2:5" s="1" customFormat="1">
+    <row r="783" spans="2:5">
       <c r="B783" s="1" t="s">
         <v>300</v>
       </c>
@@ -12966,13 +13374,13 @@
         <v>339</v>
       </c>
       <c r="D783" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E783" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="784" spans="2:5" s="1" customFormat="1">
+    <row r="784" spans="2:5">
       <c r="B784" s="1" t="s">
         <v>300</v>
       </c>
@@ -12980,13 +13388,13 @@
         <v>339</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="785" spans="2:5" s="1" customFormat="1">
+    <row r="785" spans="2:5">
       <c r="B785" s="1" t="s">
         <v>300</v>
       </c>
@@ -12994,13 +13402,13 @@
         <v>341</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E785" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="786" spans="2:5" s="1" customFormat="1">
+    <row r="786" spans="2:5">
       <c r="B786" s="1" t="s">
         <v>300</v>
       </c>
@@ -13008,13 +13416,13 @@
         <v>340</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E786" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="787" spans="2:5" s="1" customFormat="1">
+    <row r="787" spans="2:5">
       <c r="B787" s="1" t="s">
         <v>300</v>
       </c>
@@ -13022,13 +13430,13 @@
         <v>342</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E787" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="788" spans="2:5" s="1" customFormat="1">
+    <row r="788" spans="2:5">
       <c r="B788" s="1" t="s">
         <v>300</v>
       </c>
@@ -13036,15 +13444,2067 @@
         <v>343</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E788" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="789" spans="2:5" s="1" customFormat="1"/>
-    <row r="790" spans="2:5" s="1" customFormat="1"/>
-    <row r="791" spans="2:5" s="1" customFormat="1"/>
+    <row r="789" spans="2:5">
+      <c r="B789" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="790" spans="2:5">
+      <c r="B790" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="791" spans="2:5">
+      <c r="B791" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="792" spans="2:5">
+      <c r="B792" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="793" spans="2:5">
+      <c r="B793" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C793" s="1">
+        <v>200</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="794" spans="2:5">
+      <c r="B794" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C794" s="1">
+        <v>200</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="795" spans="2:5">
+      <c r="B795" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C795" s="1">
+        <v>200</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="796" spans="2:5">
+      <c r="B796" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C796" s="1">
+        <v>200</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="797" spans="2:5">
+      <c r="B797" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C797" s="1">
+        <v>200</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="798" spans="2:5">
+      <c r="B798" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="799" spans="2:5">
+      <c r="B799" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="800" spans="2:5">
+      <c r="B800" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="801" spans="2:5">
+      <c r="B801" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="802" spans="2:5">
+      <c r="B802" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C802" s="1">
+        <v>100</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="803" spans="2:5">
+      <c r="B803" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C803" s="1">
+        <v>100</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="804" spans="2:5">
+      <c r="B804" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C804" s="1">
+        <v>100</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="805" spans="2:5">
+      <c r="B805" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="806" spans="2:5">
+      <c r="B806" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="807" spans="2:5">
+      <c r="B807" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="808" spans="2:5">
+      <c r="B808" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C808" s="1">
+        <v>90</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="809" spans="2:5">
+      <c r="B809" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C809" s="1">
+        <v>90</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="810" spans="2:5">
+      <c r="B810" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C810" s="1">
+        <v>90</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="811" spans="2:5">
+      <c r="B811" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="812" spans="2:5">
+      <c r="B812" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="813" spans="2:5">
+      <c r="B813" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="814" spans="2:5">
+      <c r="B814" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C814" s="1">
+        <v>80</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="815" spans="2:5">
+      <c r="B815" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C815" s="1">
+        <v>80</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="816" spans="2:5">
+      <c r="B816" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C816" s="1">
+        <v>80</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="817" spans="2:5">
+      <c r="B817" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="818" spans="2:5">
+      <c r="B818" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="819" spans="2:5">
+      <c r="B819" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="820" spans="2:5">
+      <c r="B820" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C820" s="1">
+        <v>70</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="821" spans="2:5">
+      <c r="B821" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C821" s="1">
+        <v>70</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="822" spans="2:5">
+      <c r="B822" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C822" s="1">
+        <v>70</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="823" spans="2:5">
+      <c r="B823" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="824" spans="2:5">
+      <c r="B824" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="825" spans="2:5">
+      <c r="B825" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="826" spans="2:5">
+      <c r="B826" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="827" spans="2:5">
+      <c r="B827" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="828" spans="2:5">
+      <c r="B828" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="829" spans="2:5">
+      <c r="B829" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="830" spans="2:5">
+      <c r="B830" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="831" spans="2:5">
+      <c r="B831" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="832" spans="2:5">
+      <c r="B832" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="833" spans="2:5">
+      <c r="B833" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="834" spans="2:5">
+      <c r="B834" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="835" spans="2:5">
+      <c r="B835" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="836" spans="2:5">
+      <c r="B836" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="837" spans="2:5">
+      <c r="B837" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="838" spans="2:5">
+      <c r="B838" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="839" spans="2:5">
+      <c r="B839" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="840" spans="2:5">
+      <c r="B840" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="841" spans="2:5">
+      <c r="B841" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="842" spans="2:5">
+      <c r="B842" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="843" spans="2:5">
+      <c r="B843" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="844" spans="2:5">
+      <c r="B844" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="845" spans="2:5">
+      <c r="B845" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="846" spans="2:5">
+      <c r="B846" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C846" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="847" spans="2:5">
+      <c r="B847" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="848" spans="2:5">
+      <c r="B848" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C848" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="849" spans="2:5">
+      <c r="B849" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C849" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="850" spans="2:5">
+      <c r="B850" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="851" spans="2:5">
+      <c r="B851" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="852" spans="2:5">
+      <c r="B852" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D852" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="853" spans="2:5">
+      <c r="B853" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="854" spans="2:5">
+      <c r="B854" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="855" spans="2:5">
+      <c r="B855" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="856" spans="2:5">
+      <c r="B856" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="857" spans="2:5">
+      <c r="B857" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="858" spans="2:5">
+      <c r="B858" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C858" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="859" spans="2:5">
+      <c r="B859" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="860" spans="2:5">
+      <c r="B860" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="861" spans="2:5">
+      <c r="B861" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="862" spans="2:5">
+      <c r="B862" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="863" spans="2:5">
+      <c r="B863" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="864" spans="2:5">
+      <c r="B864" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="865" spans="2:5">
+      <c r="B865" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="866" spans="2:5">
+      <c r="B866" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="867" spans="2:5">
+      <c r="B867" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="868" spans="2:5">
+      <c r="B868" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="869" spans="2:5">
+      <c r="B869" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="870" spans="2:5">
+      <c r="B870" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="871" spans="2:5">
+      <c r="B871" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="872" spans="2:5">
+      <c r="B872" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="873" spans="2:5">
+      <c r="B873" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="874" spans="2:5">
+      <c r="B874" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="875" spans="2:5">
+      <c r="B875" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="876" spans="2:5">
+      <c r="B876" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="877" spans="2:5">
+      <c r="B877" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="878" spans="2:5">
+      <c r="B878" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="879" spans="2:5">
+      <c r="B879" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="880" spans="2:5">
+      <c r="B880" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="881" spans="2:5">
+      <c r="B881" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="882" spans="2:5">
+      <c r="B882" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="883" spans="2:5">
+      <c r="B883" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="884" spans="2:5">
+      <c r="B884" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="885" spans="2:5">
+      <c r="B885" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="886" spans="2:5">
+      <c r="B886" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="887" spans="2:5">
+      <c r="B887" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="888" spans="2:5">
+      <c r="B888" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="889" spans="2:5">
+      <c r="B889" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="890" spans="2:5">
+      <c r="B890" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="891" spans="2:5">
+      <c r="B891" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="892" spans="2:5">
+      <c r="B892" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="893" spans="2:5">
+      <c r="B893" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="894" spans="2:5">
+      <c r="B894" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="895" spans="2:5">
+      <c r="B895" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="896" spans="2:5">
+      <c r="B896" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="897" spans="2:5">
+      <c r="B897" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="898" spans="2:5">
+      <c r="B898" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="899" spans="2:5">
+      <c r="B899" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="900" spans="2:5">
+      <c r="B900" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="901" spans="2:5">
+      <c r="B901" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="902" spans="2:5">
+      <c r="B902" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="903" spans="2:5">
+      <c r="B903" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="904" spans="2:5">
+      <c r="B904" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="905" spans="2:5">
+      <c r="B905" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E905" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="906" spans="2:5">
+      <c r="C906" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="907" spans="2:5">
+      <c r="B907" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E907" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="908" spans="2:5">
+      <c r="B908" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="909" spans="2:5">
+      <c r="B909" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E909" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="910" spans="2:5">
+      <c r="B910" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E910" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="911" spans="2:5">
+      <c r="B911" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E911" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="912" spans="2:5">
+      <c r="B912" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="913" spans="2:5">
+      <c r="B913" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="914" spans="2:5">
+      <c r="B914" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="915" spans="2:5">
+      <c r="B915" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E915" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="916" spans="2:5">
+      <c r="B916" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C916" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E916" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="917" spans="2:5">
+      <c r="B917" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E917" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="918" spans="2:5">
+      <c r="B918" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E918" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="919" spans="2:5">
+      <c r="B919" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="920" spans="2:5">
+      <c r="B920" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="921" spans="2:5">
+      <c r="B921" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="922" spans="2:5">
+      <c r="B922" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="923" spans="2:5">
+      <c r="B923" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="924" spans="2:5">
+      <c r="B924" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="925" spans="2:5">
+      <c r="B925" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="926" spans="2:5">
+      <c r="B926" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="927" spans="2:5">
+      <c r="B927" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="928" spans="2:5">
+      <c r="B928" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="929" spans="2:3">
+      <c r="B929" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="930" spans="2:3">
+      <c r="B930" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="931" spans="2:3">
+      <c r="B931" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="932" spans="2:3">
+      <c r="B932" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="933" spans="2:3">
+      <c r="B933" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="934" spans="2:3">
+      <c r="B934" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="935" spans="2:3">
+      <c r="B935" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="936" spans="2:3">
+      <c r="B936" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="937" spans="2:3">
+      <c r="B937" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="938" spans="2:3">
+      <c r="B938" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="939" spans="2:3">
+      <c r="B939" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="940" spans="2:3">
+      <c r="B940" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="941" spans="2:3">
+      <c r="B941" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="942" spans="2:3">
+      <c r="B942" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="943" spans="2:3">
+      <c r="B943" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="944" spans="2:3">
+      <c r="B944" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041EF040-1D44-194A-9B7F-3859B2D03AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA2F98B-662D-914B-832C-7073F349F96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="920" windowWidth="15420" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="540">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1992,6 +1992,197 @@
   </si>
   <si>
     <t>蛟龙15K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX507VV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX507VU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX507ZV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX507ZU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA401WV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA401UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA401UU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9 14900HX/RTX 4070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9 14900HX/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 9/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜空蓝/酷睿 Ultra 7 155H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰川银/酷睿 Ultra 9 285H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i9 14900HX/16G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i9 14900HX/32G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7 14650HX/16G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9 7945HX/16GB/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 7840H/16G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i9 13900HX/16G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 8845H/32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 8845H/16G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5 13420H/16G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i5 13420H/32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5 7530U/16G/512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 5 125H/16G/1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 5 125H/32G/1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 9 185H/32G/1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+128G/WIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+128G/WIFI 鸽子灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+128G/WIFI 烟霞紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+128G/WIFI 鸽子灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+128G/WIFI 烟霞紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+256G/WIFI 鸽子灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+256G/WIFI 烟霞紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 5 125H/16G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5 13500H/16G/1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G15 5530款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴尔</t>
+  </si>
+  <si>
+    <t>酷睿 Ultra5 125H/16G/1T/2.5K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra5 125H/32G/1T/2.8K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra7 155H/32G/1T/2.8K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5 1340P/16G/1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5 1340P/16G/1T 高色域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 1360P/16G/1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星Book 15 2023款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影精灵9 2023款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星Book Plus 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9 14900HX/32G/2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 13650HX/16G/1T/RTX4060</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2400,10 +2591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:E944"/>
+  <dimension ref="A1:E968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A915" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D932" sqref="D932"/>
+    <sheetView tabSelected="1" topLeftCell="A923" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C947" sqref="C947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15089,11 +15280,17 @@
       </c>
     </row>
     <row r="906" spans="2:5">
+      <c r="B906" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="C906" s="1" t="s">
         <v>443</v>
       </c>
       <c r="D906" s="1" t="s">
         <v>475</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="907" spans="2:5">
@@ -15118,7 +15315,7 @@
         <v>444</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>382</v>
+        <v>492</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>54</v>
@@ -15129,10 +15326,10 @@
         <v>441</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>382</v>
+        <v>493</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>54</v>
@@ -15143,10 +15340,10 @@
         <v>441</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>382</v>
+        <v>494</v>
       </c>
       <c r="E910" s="1" t="s">
         <v>54</v>
@@ -15157,10 +15354,10 @@
         <v>441</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="E911" s="1" t="s">
         <v>54</v>
@@ -15171,10 +15368,10 @@
         <v>441</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>382</v>
+        <v>496</v>
       </c>
       <c r="E912" s="1" t="s">
         <v>54</v>
@@ -15182,13 +15379,13 @@
     </row>
     <row r="913" spans="2:5">
       <c r="B913" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D913" s="1" t="s">
-        <v>382</v>
+        <v>497</v>
       </c>
       <c r="E913" s="1" t="s">
         <v>54</v>
@@ -15196,13 +15393,13 @@
     </row>
     <row r="914" spans="2:5">
       <c r="B914" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C914" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D914" s="1" t="s">
-        <v>382</v>
+        <v>498</v>
       </c>
       <c r="E914" s="1" t="s">
         <v>54</v>
@@ -15210,13 +15407,13 @@
     </row>
     <row r="915" spans="2:5">
       <c r="B915" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>382</v>
+        <v>499</v>
       </c>
       <c r="E915" s="1" t="s">
         <v>54</v>
@@ -15224,13 +15421,13 @@
     </row>
     <row r="916" spans="2:5">
       <c r="B916" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C916" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>382</v>
+        <v>500</v>
       </c>
       <c r="E916" s="1" t="s">
         <v>54</v>
@@ -15238,13 +15435,13 @@
     </row>
     <row r="917" spans="2:5">
       <c r="B917" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>382</v>
+        <v>501</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>54</v>
@@ -15252,13 +15449,13 @@
     </row>
     <row r="918" spans="2:5">
       <c r="B918" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>382</v>
+        <v>502</v>
       </c>
       <c r="E918" s="1" t="s">
         <v>54</v>
@@ -15266,13 +15463,13 @@
     </row>
     <row r="919" spans="2:5">
       <c r="B919" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="E919" s="1" t="s">
         <v>54</v>
@@ -15283,7 +15480,10 @@
         <v>455</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="E920" s="1" t="s">
         <v>54</v>
@@ -15294,7 +15494,10 @@
         <v>455</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="E921" s="1" t="s">
         <v>54</v>
@@ -15305,7 +15508,10 @@
         <v>455</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="E922" s="1" t="s">
         <v>54</v>
@@ -15315,11 +15521,14 @@
       <c r="B923" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C923" s="1" t="s">
-        <v>460</v>
+      <c r="C923" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="924" spans="2:5">
@@ -15327,10 +15536,13 @@
         <v>455</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="E924" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="925" spans="2:5">
@@ -15338,7 +15550,10 @@
         <v>455</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>54</v>
@@ -15349,7 +15564,10 @@
         <v>455</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>54</v>
@@ -15360,7 +15578,10 @@
         <v>455</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="E927" s="1" t="s">
         <v>54</v>
@@ -15368,141 +15589,528 @@
     </row>
     <row r="928" spans="2:5">
       <c r="B928" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="929" spans="2:5">
+      <c r="B929" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="930" spans="2:5">
+      <c r="B930" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="931" spans="2:5">
+      <c r="B931" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="932" spans="2:5">
+      <c r="B932" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="933" spans="2:5">
+      <c r="B933" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="934" spans="2:5">
+      <c r="B934" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="935" spans="2:5">
+      <c r="B935" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="936" spans="2:5">
+      <c r="B936" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="937" spans="2:5">
+      <c r="B937" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="938" spans="2:5">
+      <c r="B938" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="939" spans="2:5">
+      <c r="B939" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="940" spans="2:5">
+      <c r="B940" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="941" spans="2:5">
+      <c r="B941" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="942" spans="2:5">
+      <c r="B942" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="943" spans="2:5">
+      <c r="B943" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="944" spans="2:5">
+      <c r="B944" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="945" spans="2:5">
+      <c r="B945" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C928" s="1" t="s">
+      <c r="C945" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="946" spans="2:5">
+      <c r="B946" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="947" spans="2:5">
+      <c r="B947" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D947" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="948" spans="2:5">
+      <c r="B948" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="949" spans="2:5">
+      <c r="B949" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="950" spans="2:5">
+      <c r="B950" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C950" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E928" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="929" spans="2:3">
-      <c r="B929" s="1" t="s">
+      <c r="D950" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="951" spans="2:5">
+      <c r="B951" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="952" spans="2:5">
+      <c r="B952" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="953" spans="2:5">
+      <c r="B953" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C929" s="1" t="s">
+      <c r="C953" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="930" spans="2:3">
-      <c r="B930" s="1" t="s">
+      <c r="E953" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="954" spans="2:5">
+      <c r="B954" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C930" s="1" t="s">
+      <c r="C954" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="931" spans="2:3">
-      <c r="B931" s="1" t="s">
+      <c r="E954" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="955" spans="2:5">
+      <c r="B955" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C931" s="1" t="s">
+      <c r="C955" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="932" spans="2:3">
-      <c r="B932" s="1" t="s">
+      <c r="E955" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="956" spans="2:5">
+      <c r="B956" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C932" s="1" t="s">
+      <c r="C956" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="933" spans="2:3">
-      <c r="B933" s="1" t="s">
+      <c r="E956" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="957" spans="2:5">
+      <c r="B957" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C933" s="1" t="s">
+      <c r="C957" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="934" spans="2:3">
-      <c r="B934" s="1" t="s">
+      <c r="E957" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="958" spans="2:5">
+      <c r="B958" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C934" s="1" t="s">
+      <c r="C958" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="935" spans="2:3">
-      <c r="B935" s="1" t="s">
+      <c r="E958" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="959" spans="2:5">
+      <c r="B959" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C935" s="1" t="s">
+      <c r="C959" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="936" spans="2:3">
-      <c r="B936" s="1" t="s">
+      <c r="E959" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="960" spans="2:5">
+      <c r="B960" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C936" s="1" t="s">
+      <c r="C960" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="937" spans="2:3">
-      <c r="B937" s="1" t="s">
+      <c r="E960" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="961" spans="2:5">
+      <c r="B961" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C937" s="1" t="s">
+      <c r="C961" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="938" spans="2:3">
-      <c r="B938" s="1" t="s">
+      <c r="E961" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="962" spans="2:5">
+      <c r="B962" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C938" s="1" t="s">
+      <c r="C962" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="939" spans="2:3">
-      <c r="B939" s="1" t="s">
+      <c r="E962" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="963" spans="2:5">
+      <c r="B963" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C939" s="1" t="s">
+      <c r="C963" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="940" spans="2:3">
-      <c r="B940" s="1" t="s">
+      <c r="E963" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="964" spans="2:5">
+      <c r="B964" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C940" s="1" t="s">
+      <c r="C964" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="941" spans="2:3">
-      <c r="B941" s="1" t="s">
+      <c r="E964" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="965" spans="2:5">
+      <c r="B965" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C941" s="1" t="s">
+      <c r="C965" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="942" spans="2:3">
-      <c r="B942" s="1" t="s">
+      <c r="E965" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="966" spans="2:5">
+      <c r="B966" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C942" s="1" t="s">
+      <c r="C966" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="943" spans="2:3">
-      <c r="B943" s="1" t="s">
+      <c r="E966" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="967" spans="2:5">
+      <c r="B967" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C943" s="1" t="s">
+      <c r="C967" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="944" spans="2:3">
-      <c r="B944" s="1" t="s">
+      <c r="E967" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="968" spans="2:5">
+      <c r="B968" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C944" s="1" t="s">
+      <c r="C968" s="1" t="s">
         <v>490</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA2F98B-662D-914B-832C-7073F349F96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98534AA9-B5F1-CF48-8C02-40662612B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="920" windowWidth="14900" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="7460" yWindow="920" windowWidth="22620" windowHeight="17320" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="562">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1942,59 +1942,9 @@
     <t>雷神 911MT 2023</t>
   </si>
   <si>
-    <t>雷神 猎刃15 2024款</t>
-  </si>
-  <si>
-    <t>雷神 猎刃16 2024款</t>
-  </si>
-  <si>
-    <t>曙光16 2023款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">机械师 </t>
   </si>
   <si>
-    <t>曙光16 Air 2024款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无界14 2023款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旷世16 Super 2024款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旷世G15 Pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旷世G16 Pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旷世G16 Pro 2024款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极光E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翼龙15 Pro 2024款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无界14Pro/14X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛟龙15K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FX507VV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2183,6 +2133,145 @@
   </si>
   <si>
     <t>酷睿 i7 13650HX/16G/1T/RTX4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 12650H/16G/512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世 G16 Pro 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世 16 Super 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光 16 Air 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曙光 16 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神 猎刃 16 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神 猎刃 15 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世 G15 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷世 G16 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翼龙 15 Pro 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛟龙 15K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 13650HX/16G/512G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 13650HX/16G/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 13650HX/32G/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 酷睿 i9 14900HX/16G/1T/RTX 4070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-7735H/集显/16G/512G/14英寸 银色</t>
+  </si>
+  <si>
+    <t>无界 14 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光 E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀世 15 Pro 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 13620H/16G/512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9 14900HX/32G/1T/RTX 4080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 13620H/16G/512G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9 13900HX/16G/1T//RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 14650HX/16G/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5 12450H/16G/512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 8845H/32G/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 14650HX/32G/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 7745HX/16G/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 7745HX/32G/1T /RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5 6600H/16G/512G/RTX 3050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 7435H/16G/512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 5 125H/32G/2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无界 14X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无界 14 Pro 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 5 125H/24G/1T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2591,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:E968"/>
+  <dimension ref="A1:E978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A923" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C947" sqref="C947"/>
+    <sheetView tabSelected="1" topLeftCell="A955" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D979" sqref="D979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2602,7 +2691,7 @@
     <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -15315,7 +15404,7 @@
         <v>444</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>54</v>
@@ -15329,7 +15418,7 @@
         <v>444</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>54</v>
@@ -15343,7 +15432,7 @@
         <v>444</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E910" s="1" t="s">
         <v>54</v>
@@ -15357,7 +15446,7 @@
         <v>444</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="E911" s="1" t="s">
         <v>54</v>
@@ -15371,7 +15460,7 @@
         <v>445</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="E912" s="1" t="s">
         <v>54</v>
@@ -15385,7 +15474,7 @@
         <v>445</v>
       </c>
       <c r="D913" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="E913" s="1" t="s">
         <v>54</v>
@@ -15399,7 +15488,7 @@
         <v>445</v>
       </c>
       <c r="D914" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="E914" s="1" t="s">
         <v>54</v>
@@ -15413,7 +15502,7 @@
         <v>446</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="E915" s="1" t="s">
         <v>54</v>
@@ -15427,7 +15516,7 @@
         <v>446</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="E916" s="1" t="s">
         <v>54</v>
@@ -15441,7 +15530,7 @@
         <v>447</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>54</v>
@@ -15455,7 +15544,7 @@
         <v>448</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E918" s="1" t="s">
         <v>54</v>
@@ -15469,7 +15558,7 @@
         <v>448</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E919" s="1" t="s">
         <v>54</v>
@@ -15483,7 +15572,7 @@
         <v>449</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E920" s="1" t="s">
         <v>54</v>
@@ -15497,7 +15586,7 @@
         <v>450</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E921" s="1" t="s">
         <v>54</v>
@@ -15511,7 +15600,7 @@
         <v>451</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E922" s="1" t="s">
         <v>54</v>
@@ -15525,7 +15614,7 @@
         <v>452</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E923" s="1" t="s">
         <v>54</v>
@@ -15539,7 +15628,7 @@
         <v>453</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>54</v>
@@ -15553,7 +15642,7 @@
         <v>454</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>54</v>
@@ -15567,7 +15656,7 @@
         <v>456</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>54</v>
@@ -15581,7 +15670,7 @@
         <v>456</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="E927" s="1" t="s">
         <v>54</v>
@@ -15595,7 +15684,7 @@
         <v>457</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E928" s="1" t="s">
         <v>54</v>
@@ -15609,7 +15698,7 @@
         <v>457</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="E929" s="1" t="s">
         <v>54</v>
@@ -15623,7 +15712,7 @@
         <v>458</v>
       </c>
       <c r="D930" s="1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E930" s="1" t="s">
         <v>54</v>
@@ -15637,7 +15726,7 @@
         <v>459</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E931" s="1" t="s">
         <v>54</v>
@@ -15651,7 +15740,7 @@
         <v>459</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E932" s="1" t="s">
         <v>54</v>
@@ -15665,7 +15754,7 @@
         <v>459</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="E933" s="1" t="s">
         <v>54</v>
@@ -15679,7 +15768,7 @@
         <v>460</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="E934" s="1" t="s">
         <v>81</v>
@@ -15693,7 +15782,7 @@
         <v>461</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E935" s="1" t="s">
         <v>81</v>
@@ -15707,7 +15796,7 @@
         <v>461</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="E936" s="1" t="s">
         <v>81</v>
@@ -15721,7 +15810,7 @@
         <v>461</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="E937" s="1" t="s">
         <v>81</v>
@@ -15735,7 +15824,7 @@
         <v>461</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="E938" s="1" t="s">
         <v>81</v>
@@ -15749,7 +15838,7 @@
         <v>461</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E939" s="1" t="s">
         <v>81</v>
@@ -15763,7 +15852,7 @@
         <v>461</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E940" s="1" t="s">
         <v>81</v>
@@ -15777,7 +15866,7 @@
         <v>462</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="E941" s="1" t="s">
         <v>54</v>
@@ -15791,7 +15880,7 @@
         <v>463</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E942" s="1" t="s">
         <v>54</v>
@@ -15805,7 +15894,7 @@
         <v>464</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E943" s="1" t="s">
         <v>54</v>
@@ -15813,13 +15902,13 @@
     </row>
     <row r="944" spans="2:5">
       <c r="B944" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E944" s="1" t="s">
         <v>54</v>
@@ -15830,10 +15919,10 @@
         <v>465</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E945" s="1" t="s">
         <v>54</v>
@@ -15844,10 +15933,10 @@
         <v>465</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E946" s="1" t="s">
         <v>54</v>
@@ -15858,10 +15947,10 @@
         <v>465</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E947" s="1" t="s">
         <v>54</v>
@@ -15872,10 +15961,10 @@
         <v>465</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E948" s="1" t="s">
         <v>54</v>
@@ -15886,10 +15975,10 @@
         <v>465</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E949" s="1" t="s">
         <v>54</v>
@@ -15903,7 +15992,7 @@
         <v>466</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E950" s="1" t="s">
         <v>54</v>
@@ -15917,7 +16006,7 @@
         <v>466</v>
       </c>
       <c r="D951" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E951" s="1" t="s">
         <v>54</v>
@@ -15931,7 +16020,7 @@
         <v>466</v>
       </c>
       <c r="D952" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E952" s="1" t="s">
         <v>54</v>
@@ -15944,6 +16033,9 @@
       <c r="C953" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="D953" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="E953" s="1" t="s">
         <v>54</v>
       </c>
@@ -15953,7 +16045,10 @@
         <v>469</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>478</v>
+        <v>533</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="E954" s="1" t="s">
         <v>54</v>
@@ -15964,7 +16059,10 @@
         <v>469</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>479</v>
+        <v>533</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="E955" s="1" t="s">
         <v>54</v>
@@ -15972,10 +16070,13 @@
     </row>
     <row r="956" spans="2:5">
       <c r="B956" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>480</v>
+        <v>533</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="E956" s="1" t="s">
         <v>54</v>
@@ -15983,10 +16084,13 @@
     </row>
     <row r="957" spans="2:5">
       <c r="B957" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>482</v>
+        <v>532</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="E957" s="1" t="s">
         <v>54</v>
@@ -15994,10 +16098,13 @@
     </row>
     <row r="958" spans="2:5">
       <c r="B958" s="1" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>483</v>
+        <v>531</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="E958" s="1" t="s">
         <v>54</v>
@@ -16005,10 +16112,13 @@
     </row>
     <row r="959" spans="2:5">
       <c r="B959" s="1" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>484</v>
+        <v>530</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="E959" s="1" t="s">
         <v>54</v>
@@ -16019,7 +16129,10 @@
         <v>467</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>485</v>
+        <v>543</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="E960" s="1" t="s">
         <v>54</v>
@@ -16030,7 +16143,10 @@
         <v>467</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>486</v>
+        <v>529</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="E961" s="1" t="s">
         <v>54</v>
@@ -16041,7 +16157,10 @@
         <v>467</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>487</v>
+        <v>534</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E962" s="1" t="s">
         <v>54</v>
@@ -16052,7 +16171,10 @@
         <v>467</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>487</v>
+        <v>535</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="E963" s="1" t="s">
         <v>54</v>
@@ -16063,7 +16185,10 @@
         <v>467</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>488</v>
+        <v>528</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>54</v>
@@ -16074,7 +16199,10 @@
         <v>467</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>489</v>
+        <v>528</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="E965" s="1" t="s">
         <v>54</v>
@@ -16085,7 +16213,10 @@
         <v>467</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>468</v>
+        <v>544</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="E966" s="1" t="s">
         <v>54</v>
@@ -16096,7 +16227,10 @@
         <v>467</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>491</v>
+        <v>536</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="E967" s="1" t="s">
         <v>54</v>
@@ -16107,9 +16241,152 @@
         <v>467</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>490</v>
+        <v>536</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="E968" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="969" spans="2:5">
+      <c r="B969" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="970" spans="2:5">
+      <c r="B970" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="971" spans="2:5">
+      <c r="B971" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="972" spans="2:5">
+      <c r="B972" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="973" spans="2:5">
+      <c r="B973" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="974" spans="2:5">
+      <c r="B974" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="975" spans="2:5">
+      <c r="B975" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="976" spans="2:5">
+      <c r="B976" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="977" spans="2:5">
+      <c r="B977" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D977" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="978" spans="2:5">
+      <c r="B978" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D978" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E978" s="1" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE97EA6-1BE8-2243-AB2E-025F8B39CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABCE5AA-0DC5-F340-BD17-2DF82097EACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="920" windowWidth="14880" windowHeight="17340" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="15200" yWindow="920" windowWidth="15420" windowHeight="17340" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3902" uniqueCount="566">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1915,30 +1915,6 @@
     <t xml:space="preserve">机械师 </t>
   </si>
   <si>
-    <t>FX507VU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX507ZV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX507ZU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA401WV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA401UV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FA401UU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>酷睿 i9 14900HX/RTX 4070</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2242,7 +2218,6 @@
   </si>
   <si>
     <t>Combined</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>酷睿 i9 13980HX/16G/1T/RTX 4070</t>
@@ -2282,6 +2257,38 @@
   </si>
   <si>
     <t>R7 8845H/512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9 13900H/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9 13900H/512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 12700H/512G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7 12700H/512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 7735H/512G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 9 HX 370/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 8845H/1T/RTX4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7 8845H/512G/RTX4050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2690,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:F989"/>
+  <dimension ref="A1:F983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A899" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C920" sqref="C920"/>
+    <sheetView tabSelected="1" topLeftCell="A922" zoomScale="50" workbookViewId="0">
+      <selection activeCell="F989" sqref="F989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2724,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -22478,13 +22485,13 @@
         <v>116</v>
       </c>
       <c r="F899" s="1" t="str">
-        <f t="shared" ref="F899:F973" si="28">B899&amp;" "&amp;C899&amp;" "&amp;D899</f>
+        <f t="shared" ref="F899:F962" si="28">B899&amp;" "&amp;C899&amp;" "&amp;D899</f>
         <v>荣耀 手表 GS Pro 沙砾色迷彩尼龙表带</v>
       </c>
     </row>
     <row r="900" spans="1:6">
       <c r="A900" s="1">
-        <f t="shared" ref="A900:A974" si="29">A899+1</f>
+        <f t="shared" ref="A900:A963" si="29">A899+1</f>
         <v>899</v>
       </c>
       <c r="B900" s="1" t="s">
@@ -22505,6 +22512,10 @@
       </c>
     </row>
     <row r="901" spans="1:6">
+      <c r="A901" s="1">
+        <f t="shared" si="29"/>
+        <v>900</v>
+      </c>
       <c r="B901" s="1" t="s">
         <v>440</v>
       </c>
@@ -22512,13 +22523,21 @@
         <v>441</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E901" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F901" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 天选 5 Pro R9 7940HX/1T/RTX 4070</v>
+      </c>
     </row>
     <row r="902" spans="1:6">
+      <c r="A902" s="1">
+        <f t="shared" si="29"/>
+        <v>901</v>
+      </c>
       <c r="B902" s="1" t="s">
         <v>440</v>
       </c>
@@ -22526,16 +22545,20 @@
         <v>441</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F902" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 天选 5 Pro R9 7940HX/1T/RTX 4060</v>
+      </c>
     </row>
     <row r="903" spans="1:6">
       <c r="A903" s="1">
-        <f>A900+1</f>
-        <v>900</v>
+        <f t="shared" si="29"/>
+        <v>902</v>
       </c>
       <c r="B903" s="1" t="s">
         <v>440</v>
@@ -22544,7 +22567,7 @@
         <v>441</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E903" s="1" t="s">
         <v>54</v>
@@ -22555,6 +22578,10 @@
       </c>
     </row>
     <row r="904" spans="1:6">
+      <c r="A904" s="1">
+        <f t="shared" si="29"/>
+        <v>903</v>
+      </c>
       <c r="B904" s="1" t="s">
         <v>440</v>
       </c>
@@ -22562,16 +22589,20 @@
         <v>441</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E904" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F904" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 天选 5 Pro 酷睿 i9 13980HX/16G/1T/RTX 4060</v>
+      </c>
     </row>
     <row r="905" spans="1:6">
       <c r="A905" s="1">
-        <f>A903+1</f>
-        <v>901</v>
+        <f t="shared" si="29"/>
+        <v>904</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>440</v>
@@ -22580,7 +22611,7 @@
         <v>441</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E905" s="1" t="s">
         <v>54</v>
@@ -22593,7 +22624,7 @@
     <row r="906" spans="1:6">
       <c r="A906" s="1">
         <f t="shared" si="29"/>
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>440</v>
@@ -22602,7 +22633,7 @@
         <v>441</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>54</v>
@@ -22615,7 +22646,7 @@
     <row r="907" spans="1:6">
       <c r="A907" s="1">
         <f t="shared" si="29"/>
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B907" s="1" t="s">
         <v>440</v>
@@ -22624,7 +22655,7 @@
         <v>441</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E907" s="1" t="s">
         <v>54</v>
@@ -22637,7 +22668,7 @@
     <row r="908" spans="1:6">
       <c r="A908" s="1">
         <f t="shared" si="29"/>
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>440</v>
@@ -22646,7 +22677,7 @@
         <v>441</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>54</v>
@@ -22659,7 +22690,7 @@
     <row r="909" spans="1:6">
       <c r="A909" s="1">
         <f t="shared" si="29"/>
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>440</v>
@@ -22668,7 +22699,7 @@
         <v>442</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>54</v>
@@ -22681,7 +22712,7 @@
     <row r="910" spans="1:6">
       <c r="A910" s="1">
         <f t="shared" si="29"/>
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B910" s="1" t="s">
         <v>440</v>
@@ -22690,7 +22721,7 @@
         <v>442</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E910" s="1" t="s">
         <v>54</v>
@@ -22703,7 +22734,7 @@
     <row r="911" spans="1:6">
       <c r="A911" s="1">
         <f t="shared" si="29"/>
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>440</v>
@@ -22712,7 +22743,7 @@
         <v>442</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E911" s="1" t="s">
         <v>54</v>
@@ -22722,10 +22753,98 @@
         <v>华硕 天选 5 R7 8845H/512G/RTX 4050</v>
       </c>
     </row>
+    <row r="912" spans="1:6">
+      <c r="A912" s="1">
+        <f t="shared" si="29"/>
+        <v>911</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F912" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 天选 4 酷睿 i9 13900H/1T/RTX 4060</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6">
+      <c r="A913" s="1">
+        <f t="shared" si="29"/>
+        <v>912</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F913" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 天选 4 酷睿 i9 13900H/512G/RTX 4050</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6">
+      <c r="A914" s="1">
+        <f t="shared" si="29"/>
+        <v>913</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F914" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 天选 4 酷睿 i7 12700H/512G/RTX 4060</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6">
+      <c r="A915" s="1">
+        <f t="shared" si="29"/>
+        <v>914</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E915" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F915" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 天选 4 酷睿 i7 12700H/512G/RTX 4050</v>
+      </c>
+    </row>
     <row r="916" spans="1:6">
       <c r="A916" s="1">
-        <f>A911+1</f>
-        <v>908</v>
+        <f t="shared" si="29"/>
+        <v>915</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>440</v>
@@ -22734,70 +22853,158 @@
         <v>443</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>471</v>
+        <v>562</v>
       </c>
       <c r="E916" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F916" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 天选 4 FX507VU</v>
+        <v>华硕 天选 4 R7 7735H/512G/RTX 4060</v>
       </c>
     </row>
     <row r="917" spans="1:6">
       <c r="A917" s="1">
         <f t="shared" si="29"/>
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="B917" s="1" t="s">
         <v>440</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>472</v>
+        <v>563</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F917" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 天选 4 FX507ZV</v>
+        <v>华硕 天选 Air 2024 AI 9 HX 370/1T/RTX 4060</v>
       </c>
     </row>
     <row r="918" spans="1:6">
       <c r="A918" s="1">
         <f t="shared" si="29"/>
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="B918" s="1" t="s">
         <v>440</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>473</v>
+        <v>564</v>
       </c>
       <c r="E918" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F918" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 天选 4 FX507ZU</v>
+        <v>华硕 天选 Air 2024 R7 8845H/1T/RTX4060</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6">
+      <c r="A919" s="1">
+        <f t="shared" si="29"/>
+        <v>918</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F919" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 天选 Air 2024 R7 8845H/512G/RTX4050</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6">
+      <c r="A920" s="1">
+        <f t="shared" si="29"/>
+        <v>919</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F920" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 ROG 枪神 8 酷睿 i9 14900HX/RTX 4070</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6">
+      <c r="A921" s="1">
+        <f t="shared" si="29"/>
+        <v>920</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F921" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 ROG 枪神 8 酷睿 i9 14900HX/RTX 4060</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6">
+      <c r="A922" s="1">
+        <f t="shared" si="29"/>
+        <v>921</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F922" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>华硕 无畏 Pro 15 2024 酷睿 Ultra 9/RTX 4060</v>
       </c>
     </row>
     <row r="923" spans="1:6">
       <c r="A923" s="1">
-        <f>A918+1</f>
-        <v>911</v>
+        <f t="shared" si="29"/>
+        <v>922</v>
       </c>
       <c r="B923" s="1" t="s">
         <v>440</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D923" s="1" t="s">
         <v>474</v>
@@ -22807,19 +23014,19 @@
       </c>
       <c r="F923" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 天选 Air 2024 FA401WV</v>
+        <v>华硕 灵耀 14 2024 夜空蓝/酷睿 Ultra 7 155H</v>
       </c>
     </row>
     <row r="924" spans="1:6">
       <c r="A924" s="1">
         <f t="shared" si="29"/>
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>440</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D924" s="1" t="s">
         <v>475</v>
@@ -22829,19 +23036,19 @@
       </c>
       <c r="F924" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 天选 Air 2024 FA401UV</v>
+        <v>华硕 灵耀 14 2024 冰川银/酷睿 Ultra 9 285H</v>
       </c>
     </row>
     <row r="925" spans="1:6">
       <c r="A925" s="1">
         <f t="shared" si="29"/>
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D925" s="1" t="s">
         <v>476</v>
@@ -22851,19 +23058,19 @@
       </c>
       <c r="F925" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 天选 Air 2024 FA401UU</v>
+        <v>联想  拯救者 Y9000P 2024 i9 14900HX/16G/RTX 4060</v>
       </c>
     </row>
     <row r="926" spans="1:6">
       <c r="A926" s="1">
         <f t="shared" si="29"/>
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D926" s="1" t="s">
         <v>477</v>
@@ -22873,19 +23080,19 @@
       </c>
       <c r="F926" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 ROG 枪神 8 酷睿 i9 14900HX/RTX 4070</v>
+        <v>联想  拯救者 Y9000X 2024 i9 14900HX/32G/RTX 4060</v>
       </c>
     </row>
     <row r="927" spans="1:6">
       <c r="A927" s="1">
         <f t="shared" si="29"/>
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D927" s="1" t="s">
         <v>478</v>
@@ -22895,19 +23102,19 @@
       </c>
       <c r="F927" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 ROG 枪神 8 酷睿 i9 14900HX/RTX 4060</v>
+        <v>联想  拯救者 Y7000P 2024 i7 14650HX/16G/RTX 4060</v>
       </c>
     </row>
     <row r="928" spans="1:6">
       <c r="A928" s="1">
         <f t="shared" si="29"/>
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C928" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
+      </c>
+      <c r="C928" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="D928" s="1" t="s">
         <v>479</v>
@@ -22917,19 +23124,19 @@
       </c>
       <c r="F928" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 无畏 Pro 15 2024 酷睿 Ultra 9/RTX 4060</v>
+        <v>联想  拯救者 R9000P 2024 R9 7945HX/16GB/RTX 4060</v>
       </c>
     </row>
     <row r="929" spans="1:6">
       <c r="A929" s="1">
         <f t="shared" si="29"/>
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D929" s="1" t="s">
         <v>480</v>
@@ -22939,19 +23146,19 @@
       </c>
       <c r="F929" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 灵耀 14 2024 夜空蓝/酷睿 Ultra 7 155H</v>
+        <v>联想  拯救者 R7000 2023 R7 7840H/16G/RTX 4060</v>
       </c>
     </row>
     <row r="930" spans="1:6">
       <c r="A930" s="1">
         <f t="shared" si="29"/>
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D930" s="1" t="s">
         <v>481</v>
@@ -22961,63 +23168,63 @@
       </c>
       <c r="F930" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>华硕 灵耀 14 2024 冰川银/酷睿 Ultra 9 285H</v>
+        <v>联想  拯救者 Y9000P 2023 i9 13900HX/16G/RTX 4060</v>
       </c>
     </row>
     <row r="931" spans="1:6">
       <c r="A931" s="1">
         <f t="shared" si="29"/>
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E931" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F931" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想  拯救者 Y9000P 2024 i9 14900HX/16G/RTX 4060</v>
+        <v>联想 小新笔记本 Pro 16 2024 R7 8845H/16G</v>
       </c>
     </row>
     <row r="932" spans="1:6">
       <c r="A932" s="1">
         <f t="shared" si="29"/>
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="B932" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E932" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F932" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想  拯救者 Y9000X 2024 i9 14900HX/32G/RTX 4060</v>
+        <v>联想 小新笔记本 Pro 16 2024 R7 8845H/32G</v>
       </c>
     </row>
     <row r="933" spans="1:6">
       <c r="A933" s="1">
         <f t="shared" si="29"/>
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="B933" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D933" s="1" t="s">
         <v>484</v>
@@ -23027,19 +23234,19 @@
       </c>
       <c r="F933" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想  拯救者 Y7000P 2024 i7 14650HX/16G/RTX 4060</v>
+        <v>联想 小新笔记本 16 2024 i5 13420H/16G</v>
       </c>
     </row>
     <row r="934" spans="1:6">
       <c r="A934" s="1">
         <f t="shared" si="29"/>
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="B934" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C934" s="2" t="s">
-        <v>451</v>
+      <c r="C934" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="D934" s="1" t="s">
         <v>485</v>
@@ -23049,19 +23256,19 @@
       </c>
       <c r="F934" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想  拯救者 R9000P 2024 R9 7945HX/16GB/RTX 4060</v>
+        <v>联想 小新笔记本 16 2024 i5 13420H/32G</v>
       </c>
     </row>
     <row r="935" spans="1:6">
       <c r="A935" s="1">
         <f t="shared" si="29"/>
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="B935" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D935" s="1" t="s">
         <v>486</v>
@@ -23071,19 +23278,19 @@
       </c>
       <c r="F935" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想  拯救者 R7000 2023 R7 7840H/16G/RTX 4060</v>
+        <v>联想 小新笔记本 16 2023 锐龙版 R5 7530U/16G/512G</v>
       </c>
     </row>
     <row r="936" spans="1:6">
       <c r="A936" s="1">
         <f t="shared" si="29"/>
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="B936" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D936" s="1" t="s">
         <v>487</v>
@@ -23093,195 +23300,195 @@
       </c>
       <c r="F936" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想  拯救者 Y9000P 2023 i9 13900HX/16G/RTX 4060</v>
+        <v>联想 小新笔记本 Pro 14 2024 酷睿 Ultra 5 125H/16G/1T</v>
       </c>
     </row>
     <row r="937" spans="1:6">
       <c r="A937" s="1">
         <f t="shared" si="29"/>
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="B937" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E937" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F937" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新笔记本 Pro 16 2024 R7 8845H/16G</v>
+        <v>联想 小新笔记本 Pro 14 2024 酷睿 Ultra 5 125H/32G/1T</v>
       </c>
     </row>
     <row r="938" spans="1:6">
       <c r="A938" s="1">
         <f t="shared" si="29"/>
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="B938" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E938" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F938" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新笔记本 Pro 16 2024 R7 8845H/32G</v>
+        <v>联想 小新笔记本 Pro 14 2024 酷睿 Ultra 9 185H/32G/1T</v>
       </c>
     </row>
     <row r="939" spans="1:6">
       <c r="A939" s="1">
         <f t="shared" si="29"/>
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="B939" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>490</v>
       </c>
       <c r="E939" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F939" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新笔记本 16 2024 i5 13420H/16G</v>
+        <v>联想 小新 Pad Pro 2025 舒视版 8+128G/WIFI</v>
       </c>
     </row>
     <row r="940" spans="1:6">
       <c r="A940" s="1">
         <f t="shared" si="29"/>
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="B940" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F940" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新笔记本 16 2024 i5 13420H/32G</v>
+        <v>联想 小新 Pad 2024 6+128G/WIFI 鸽子灰</v>
       </c>
     </row>
     <row r="941" spans="1:6">
       <c r="A941" s="1">
         <f t="shared" si="29"/>
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="B941" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E941" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F941" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新笔记本 16 2023 锐龙版 R5 7530U/16G/512G</v>
+        <v>联想 小新 Pad 2024 6+128G/WIFI 烟霞紫</v>
       </c>
     </row>
     <row r="942" spans="1:6">
       <c r="A942" s="1">
         <f t="shared" si="29"/>
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="B942" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E942" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F942" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新笔记本 Pro 14 2024 酷睿 Ultra 5 125H/16G/1T</v>
+        <v>联想 小新 Pad 2024 8+128G/WIFI 鸽子灰</v>
       </c>
     </row>
     <row r="943" spans="1:6">
       <c r="A943" s="1">
         <f t="shared" si="29"/>
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="B943" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E943" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F943" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新笔记本 Pro 14 2024 酷睿 Ultra 5 125H/32G/1T</v>
+        <v>联想 小新 Pad 2024 8+128G/WIFI 烟霞紫</v>
       </c>
     </row>
     <row r="944" spans="1:6">
       <c r="A944" s="1">
         <f t="shared" si="29"/>
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="B944" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D944" s="1" t="s">
         <v>495</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F944" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新笔记本 Pro 14 2024 酷睿 Ultra 9 185H/32G/1T</v>
+        <v>联想 小新 Pad 2024 8+256G/WIFI 鸽子灰</v>
       </c>
     </row>
     <row r="945" spans="1:6">
       <c r="A945" s="1">
         <f t="shared" si="29"/>
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="B945" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D945" s="1" t="s">
         <v>496</v>
@@ -23291,173 +23498,173 @@
       </c>
       <c r="F945" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新 Pad Pro 2025 舒视版 8+128G/WIFI</v>
+        <v>联想 小新 Pad 2024 8+256G/WIFI 烟霞紫</v>
       </c>
     </row>
     <row r="946" spans="1:6">
       <c r="A946" s="1">
         <f t="shared" si="29"/>
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="B946" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E946" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F946" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新 Pad 2024 6+128G/WIFI 鸽子灰</v>
+        <v>联想 ThinkBook 16+ 2024 酷睿 Ultra 5 125H/16G</v>
       </c>
     </row>
     <row r="947" spans="1:6">
       <c r="A947" s="1">
         <f t="shared" si="29"/>
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="B947" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D947" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F947" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新 Pad 2024 6+128G/WIFI 烟霞紫</v>
+        <v>联想 ThinkBook 16 2023 酷睿 i5 13500H/16G/1T</v>
       </c>
     </row>
     <row r="948" spans="1:6">
       <c r="A948" s="1">
         <f t="shared" si="29"/>
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="B948" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F948" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新 Pad 2024 8+128G/WIFI 鸽子灰</v>
+        <v>联想 ThinkBook 15 2023 酷睿 i5 1340P/16G/1T</v>
       </c>
     </row>
     <row r="949" spans="1:6">
       <c r="A949" s="1">
         <f t="shared" si="29"/>
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E949" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F949" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新 Pad 2024 8+128G/WIFI 烟霞紫</v>
+        <v>戴尔 G15 5530款 酷睿 i7 13650HX/16G/1T/RTX4060</v>
       </c>
     </row>
     <row r="950" spans="1:6">
       <c r="A950" s="1">
         <f t="shared" si="29"/>
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E950" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F950" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新 Pad 2024 8+256G/WIFI 鸽子灰</v>
+        <v>惠普 星Book Plus 15 酷睿 i5 1340P/16G/1T</v>
       </c>
     </row>
     <row r="951" spans="1:6">
       <c r="A951" s="1">
         <f t="shared" si="29"/>
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="D951" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E951" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F951" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 小新 Pad 2024 8+256G/WIFI 烟霞紫</v>
+        <v>惠普 星Book Plus 15 酷睿 i5 1340P/16G/1T 高色域</v>
       </c>
     </row>
     <row r="952" spans="1:6">
       <c r="A952" s="1">
         <f t="shared" si="29"/>
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D952" s="1" t="s">
-        <v>503</v>
+        <v>509</v>
+      </c>
+      <c r="D952" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="E952" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F952" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 ThinkBook 16+ 2024 酷睿 Ultra 5 125H/16G</v>
+        <v>惠普 星Book Plus 15 酷睿 i7 1360P/16G/1T</v>
       </c>
     </row>
     <row r="953" spans="1:6">
       <c r="A953" s="1">
         <f t="shared" si="29"/>
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="D953" s="1" t="s">
         <v>504</v>
@@ -23467,19 +23674,19 @@
       </c>
       <c r="F953" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 ThinkBook 16 2023 酷睿 i5 13500H/16G/1T</v>
+        <v>惠普 星Book 15 2023款 酷睿 i5 1340P/16G/1T</v>
       </c>
     </row>
     <row r="954" spans="1:6">
       <c r="A954" s="1">
         <f t="shared" si="29"/>
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="D954" s="1" t="s">
         <v>510</v>
@@ -23489,87 +23696,87 @@
       </c>
       <c r="F954" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>联想 ThinkBook 15 2023 酷睿 i5 1340P/16G/1T</v>
+        <v>惠普 暗影精灵9 2023款 酷睿 i9 14900HX/32G/2T</v>
       </c>
     </row>
     <row r="955" spans="1:6">
       <c r="A955" s="1">
         <f t="shared" si="29"/>
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="D955" s="1" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E955" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F955" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>戴尔 G15 5530款 酷睿 i7 13650HX/16G/1T/RTX4060</v>
+        <v>惠普 星Book Pro 14 2024 酷睿 Ultra5 125H/16G/1T/2.5K</v>
       </c>
     </row>
     <row r="956" spans="1:6">
       <c r="A956" s="1">
         <f t="shared" si="29"/>
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="B956" s="1" t="s">
         <v>464</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="D956" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E956" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F956" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>惠普 星Book Plus 15 酷睿 i5 1340P/16G/1T</v>
+        <v>惠普 星Book Pro 14 2024 酷睿 Ultra5 125H/32G/1T/2.8K</v>
       </c>
     </row>
     <row r="957" spans="1:6">
       <c r="A957" s="1">
         <f t="shared" si="29"/>
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="B957" s="1" t="s">
         <v>464</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="D957" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E957" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F957" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>惠普 星Book Plus 15 酷睿 i5 1340P/16G/1T 高色域</v>
+        <v>惠普 星Book Pro 14 2024 酷睿 Ultra7 155H/32G/1T/2.8K</v>
       </c>
     </row>
     <row r="958" spans="1:6">
       <c r="A958" s="1">
         <f t="shared" si="29"/>
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D958" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D958" s="1" t="s">
         <v>512</v>
       </c>
       <c r="E958" s="1" t="s">
@@ -23577,459 +23784,459 @@
       </c>
       <c r="F958" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>惠普 星Book Plus 15 酷睿 i7 1360P/16G/1T</v>
+        <v>雷神 雷神 911MT 2023 酷睿 i7 12650H/16G/512G/RTX 4050</v>
       </c>
     </row>
     <row r="959" spans="1:6">
       <c r="A959" s="1">
         <f t="shared" si="29"/>
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="B959" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E959" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F959" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>惠普 星Book 15 2023款 酷睿 i5 1340P/16G/1T</v>
+        <v>雷神 雷神 猎刃 15 2024 酷睿 i7 13650HX/16G/512G/RTX 4060</v>
       </c>
     </row>
     <row r="960" spans="1:6">
       <c r="A960" s="1">
         <f t="shared" si="29"/>
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E960" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F960" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>惠普 暗影精灵9 2023款 酷睿 i9 14900HX/32G/2T</v>
+        <v>雷神 雷神 猎刃 15 2024 酷睿 i7 13650HX/16G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="961" spans="1:6">
       <c r="A961" s="1">
         <f t="shared" si="29"/>
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="B961" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="E961" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F961" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>惠普 星Book Pro 14 2024 酷睿 Ultra5 125H/16G/1T/2.5K</v>
+        <v>雷神 雷神 猎刃 15 2024 酷睿 i7 13650HX/32G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="962" spans="1:6">
       <c r="A962" s="1">
         <f t="shared" si="29"/>
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="B962" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="E962" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F962" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>惠普 星Book Pro 14 2024 酷睿 Ultra5 125H/32G/1T/2.8K</v>
+        <v>雷神 雷神 猎刃 16 2024  酷睿 i9 14900HX/16G/1T/RTX 4070</v>
       </c>
     </row>
     <row r="963" spans="1:6">
       <c r="A963" s="1">
         <f t="shared" si="29"/>
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="B963" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="E963" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F963" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>惠普 星Book Pro 14 2024 酷睿 Ultra7 155H/32G/1T/2.8K</v>
+        <f t="shared" ref="F963:F983" si="30">B963&amp;" "&amp;C963&amp;" "&amp;D963</f>
+        <v>机械师  曙光 16 2023 酷睿 i7 13650HX/16G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="964" spans="1:6">
       <c r="A964" s="1">
-        <f t="shared" si="29"/>
-        <v>952</v>
+        <f t="shared" ref="A964:A983" si="31">A963+1</f>
+        <v>963</v>
       </c>
       <c r="B964" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F964" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>雷神 雷神 911MT 2023 酷睿 i7 12650H/16G/512G/RTX 4050</v>
+        <f t="shared" si="30"/>
+        <v>机械师  曙光 16 Air 2024 酷睿 i7 13620H/16G/512G</v>
       </c>
     </row>
     <row r="965" spans="1:6">
       <c r="A965" s="1">
-        <f t="shared" si="29"/>
-        <v>953</v>
+        <f t="shared" si="31"/>
+        <v>964</v>
       </c>
       <c r="B965" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D965" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E965" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F965" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>雷神 雷神 猎刃 15 2024 酷睿 i7 13650HX/16G/512G/RTX 4060</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 无界 14 2023 R7-7735H/集显/16G/512G/14英寸 银色</v>
       </c>
     </row>
     <row r="966" spans="1:6">
       <c r="A966" s="1">
-        <f t="shared" si="29"/>
-        <v>954</v>
+        <f t="shared" si="31"/>
+        <v>965</v>
       </c>
       <c r="B966" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D966" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E966" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F966" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>雷神 雷神 猎刃 15 2024 酷睿 i7 13650HX/16G/1T/RTX 4060</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 旷世 16 Super 2024 酷睿 i9 14900HX/32G/1T/RTX 4080</v>
       </c>
     </row>
     <row r="967" spans="1:6">
       <c r="A967" s="1">
-        <f t="shared" si="29"/>
-        <v>955</v>
+        <f t="shared" si="31"/>
+        <v>966</v>
       </c>
       <c r="B967" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D967" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E967" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F967" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>雷神 雷神 猎刃 15 2024 酷睿 i7 13650HX/32G/1T/RTX 4060</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 旷世 G15 Pro 酷睿 i7 13620H/16G/512G/RTX 4060</v>
       </c>
     </row>
     <row r="968" spans="1:6">
       <c r="A968" s="1">
-        <f t="shared" si="29"/>
-        <v>956</v>
+        <f t="shared" si="31"/>
+        <v>967</v>
       </c>
       <c r="B968" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F968" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>雷神 雷神 猎刃 16 2024  酷睿 i9 14900HX/16G/1T/RTX 4070</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 旷世 G16 Pro 酷睿 i9 13900HX/16G/1T//RTX 4060</v>
       </c>
     </row>
     <row r="969" spans="1:6">
       <c r="A969" s="1">
-        <f t="shared" si="29"/>
-        <v>957</v>
+        <f t="shared" si="31"/>
+        <v>968</v>
       </c>
       <c r="B969" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D969" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E969" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F969" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>机械师  曙光 16 2023 酷睿 i7 13650HX/16G/1T/RTX 4060</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 旷世 G16 Pro 2024 酷睿 i7 13650HX/16G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="970" spans="1:6">
       <c r="A970" s="1">
-        <f t="shared" si="29"/>
-        <v>958</v>
+        <f t="shared" si="31"/>
+        <v>969</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E970" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F970" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>机械师  曙光 16 Air 2024 酷睿 i7 13620H/16G/512G</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 旷世 G16 Pro 2024 酷睿 i7 14650HX/16G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="971" spans="1:6">
       <c r="A971" s="1">
-        <f t="shared" si="29"/>
-        <v>959</v>
+        <f t="shared" si="31"/>
+        <v>970</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E971" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F971" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>机械革命 无界 14 2023 R7-7735H/集显/16G/512G/14英寸 银色</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 极光 E 酷睿 i5 12450H/16G/512G/RTX 4050</v>
       </c>
     </row>
     <row r="972" spans="1:6">
       <c r="A972" s="1">
-        <f t="shared" si="29"/>
-        <v>960</v>
+        <f t="shared" si="31"/>
+        <v>971</v>
       </c>
       <c r="B972" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E972" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F972" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>机械革命 旷世 16 Super 2024 酷睿 i9 14900HX/32G/1T/RTX 4080</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 翼龙 15 Pro 2024 R7 8845H/32G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="973" spans="1:6">
       <c r="A973" s="1">
-        <f t="shared" si="29"/>
-        <v>961</v>
+        <f t="shared" si="31"/>
+        <v>972</v>
       </c>
       <c r="B973" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C973" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E973" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F973" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>机械革命 旷世 G15 Pro 酷睿 i7 13620H/16G/512G/RTX 4060</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 翼龙 15 Pro 2024 R7 8845H/32G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="974" spans="1:6">
       <c r="A974" s="1">
-        <f t="shared" si="29"/>
-        <v>962</v>
+        <f t="shared" si="31"/>
+        <v>973</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E974" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F974" s="1" t="str">
-        <f t="shared" ref="F974:F989" si="30">B974&amp;" "&amp;C974&amp;" "&amp;D974</f>
-        <v>机械革命 旷世 G16 Pro 酷睿 i9 13900HX/16G/1T//RTX 4060</v>
+        <f t="shared" si="30"/>
+        <v>机械革命 耀世 15 Pro 2024 酷睿 i7 14650HX/32G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="975" spans="1:6">
       <c r="A975" s="1">
-        <f t="shared" ref="A975:A989" si="31">A974+1</f>
-        <v>963</v>
+        <f t="shared" si="31"/>
+        <v>974</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C975" s="1" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="E975" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F975" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>机械革命 旷世 G16 Pro 2024 酷睿 i7 13650HX/16G/1T/RTX 4060</v>
+        <v>机械革命 蛟龙 16 Pro R7 7745HX/16G/1T/RTX 4060</v>
       </c>
     </row>
     <row r="976" spans="1:6">
       <c r="A976" s="1">
         <f t="shared" si="31"/>
-        <v>964</v>
+        <v>975</v>
       </c>
       <c r="B976" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="D976" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E976" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F976" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>机械革命 旷世 G16 Pro 2024 酷睿 i7 14650HX/16G/1T/RTX 4060</v>
+        <v>机械革命 蛟龙 16 Pro R7 7745HX/32G/1T /RTX 4060</v>
       </c>
     </row>
     <row r="977" spans="1:6">
       <c r="A977" s="1">
         <f t="shared" si="31"/>
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="B977" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C977" s="1" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E977" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F977" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>机械革命 极光 E 酷睿 i5 12450H/16G/512G/RTX 4050</v>
+        <v>机械革命 蛟龙 15K R5 6600H/16G/512G/RTX 3050</v>
       </c>
     </row>
     <row r="978" spans="1:6">
       <c r="A978" s="1">
         <f t="shared" si="31"/>
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="B978" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C978" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E978" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F978" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>机械革命 翼龙 15 Pro 2024 R7 8845H/32G/1T/RTX 4060</v>
+        <v>机械革命 蛟龙 15K R7 7435H/16G/512G/RTX 4050</v>
       </c>
     </row>
     <row r="979" spans="1:6">
       <c r="A979" s="1">
         <f t="shared" si="31"/>
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="B979" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D979" s="1" t="s">
         <v>543</v>
@@ -24039,225 +24246,93 @@
       </c>
       <c r="F979" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>机械革命 翼龙 15 Pro 2024 R7 8845H/32G/1T/RTX 4060</v>
+        <v>机械革命 无界 14X 酷睿 Ultra 5 125H/32G/2T</v>
       </c>
     </row>
     <row r="980" spans="1:6">
       <c r="A980" s="1">
         <f t="shared" si="31"/>
-        <v>968</v>
+        <v>979</v>
       </c>
       <c r="B980" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>544</v>
+        <v>487</v>
       </c>
       <c r="E980" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F980" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>机械革命 耀世 15 Pro 2024 酷睿 i7 14650HX/32G/1T/RTX 4060</v>
+        <v>机械革命 无界 14 Pro 2024 酷睿 Ultra 5 125H/16G/1T</v>
       </c>
     </row>
     <row r="981" spans="1:6">
       <c r="A981" s="1">
         <f t="shared" si="31"/>
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="B981" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E981" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F981" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>机械革命 蛟龙 16 Pro R7 7745HX/16G/1T/RTX 4060</v>
+        <v>机械革命 无界 14 Pro 2024 酷睿 Ultra 5 125H/24G/1T</v>
       </c>
     </row>
     <row r="982" spans="1:6">
       <c r="A982" s="1">
         <f t="shared" si="31"/>
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="B982" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D982" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
+      </c>
+      <c r="D982" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="E982" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F982" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>机械革命 蛟龙 16 Pro R7 7745HX/32G/1T /RTX 4060</v>
+        <v>机械革命 无界 14 Pro 2024 酷睿 Ultra 5 125H/32G/1T</v>
       </c>
     </row>
     <row r="983" spans="1:6">
       <c r="A983" s="1">
         <f t="shared" si="31"/>
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="B983" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D983" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
+      </c>
+      <c r="D983" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F983" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>机械革命 蛟龙 15K R5 6600H/16G/512G/RTX 3050</v>
-      </c>
-    </row>
-    <row r="984" spans="1:6">
-      <c r="A984" s="1">
-        <f t="shared" si="31"/>
-        <v>972</v>
-      </c>
-      <c r="B984" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C984" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D984" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E984" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F984" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>机械革命 蛟龙 15K R7 7435H/16G/512G/RTX 4050</v>
-      </c>
-    </row>
-    <row r="985" spans="1:6">
-      <c r="A985" s="1">
-        <f t="shared" si="31"/>
-        <v>973</v>
-      </c>
-      <c r="B985" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C985" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D985" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E985" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F985" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>机械革命 无界 14X 酷睿 Ultra 5 125H/32G/2T</v>
-      </c>
-    </row>
-    <row r="986" spans="1:6">
-      <c r="A986" s="1">
-        <f t="shared" si="31"/>
-        <v>974</v>
-      </c>
-      <c r="B986" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C986" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D986" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E986" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F986" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>机械革命 无界 14 Pro 2024 酷睿 Ultra 5 125H/16G/1T</v>
-      </c>
-    </row>
-    <row r="987" spans="1:6">
-      <c r="A987" s="1">
-        <f t="shared" si="31"/>
-        <v>975</v>
-      </c>
-      <c r="B987" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C987" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D987" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E987" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F987" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>机械革命 无界 14 Pro 2024 酷睿 Ultra 5 125H/24G/1T</v>
-      </c>
-    </row>
-    <row r="988" spans="1:6">
-      <c r="A988" s="1">
-        <f t="shared" si="31"/>
-        <v>976</v>
-      </c>
-      <c r="B988" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C988" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D988" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E988" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F988" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>机械革命 无界 14 Pro 2024 酷睿 Ultra 5 125H/32G/1T</v>
-      </c>
-    </row>
-    <row r="989" spans="1:6">
-      <c r="A989" s="1">
-        <f t="shared" si="31"/>
-        <v>977</v>
-      </c>
-      <c r="B989" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C989" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D989" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E989" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F989" s="1" t="str">
         <f t="shared" si="30"/>
         <v>机械革命 无界 14 Pro 2024 酷睿 Ultra 5 125H/32G/2T</v>
       </c>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9E3DFB-4B4B-2C4E-8D50-7A110FAA24EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC41F64-0BF7-E743-8D8F-79BF9FD5F74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="920" windowWidth="24520" windowHeight="17340" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="200" yWindow="960" windowWidth="14820" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$1027</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1027</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="592">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2393,6 +2393,10 @@
   </si>
   <si>
     <t>R7-8845H/512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mate 40E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2801,11 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F1027"/>
+  <dimension ref="A1:F1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A926" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D913" sqref="D913"/>
+    <sheetView tabSelected="1" topLeftCell="A1006" zoomScale="104" workbookViewId="0">
+      <selection activeCell="F1028" sqref="F1028"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2839,7 +2842,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>苹果 iPhone 16 Pro Max 256G</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -2882,7 +2885,7 @@
         <v>苹果 iPhone 16 Pro Max 512G</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>3</v>
@@ -2904,7 +2907,7 @@
         <v>苹果 iPhone 16 Pro Max 1T</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2926,7 +2929,7 @@
         <v>苹果 iPhone 16 Pro 128G</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2948,7 +2951,7 @@
         <v>苹果 iPhone 16 Pro 256G</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2970,7 +2973,7 @@
         <v>苹果 iPhone 16 Pro 512G</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2992,7 +2995,7 @@
         <v>苹果 iPhone 16 Pro 1T</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3014,7 +3017,7 @@
         <v>苹果 iPhone 16 Plus 128G</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3036,7 +3039,7 @@
         <v>苹果 iPhone 16 Plus 256G</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3058,7 +3061,7 @@
         <v>苹果 iPhone 16 Plus 512G</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3080,7 +3083,7 @@
         <v>苹果 iPhone 16 128G</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3102,7 +3105,7 @@
         <v>苹果 iPhone 16 256G</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3124,7 +3127,7 @@
         <v>苹果 iPhone 16 512G</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3146,7 +3149,7 @@
         <v>苹果 iPhone 16e 128G</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3168,7 +3171,7 @@
         <v>苹果 iPhone 16e 256G</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3190,7 +3193,7 @@
         <v>苹果 iPhone 16e 512G</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3212,7 +3215,7 @@
         <v>苹果 iPhone 15 Pro Max 256G</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3234,7 +3237,7 @@
         <v>苹果 iPhone 15 Pro Max 512G</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3256,7 +3259,7 @@
         <v>苹果 iPhone 15 Pro Max 1T</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3278,7 +3281,7 @@
         <v>苹果 iPhone 15 Pro 128G</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3300,7 +3303,7 @@
         <v>苹果 iPhone 15 Pro 256G</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3322,7 +3325,7 @@
         <v>苹果 iPhone 15 Pro 512G</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3344,7 +3347,7 @@
         <v>苹果 iPhone 15 Pro 1T</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3366,7 +3369,7 @@
         <v>苹果 iPhone 15 Plus 128G</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3388,7 +3391,7 @@
         <v>苹果 iPhone 15 Plus 256G</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3410,7 +3413,7 @@
         <v>苹果 iPhone 15 Plus 512G</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3432,7 +3435,7 @@
         <v>苹果 iPhone 15 128G</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3454,7 +3457,7 @@
         <v>苹果 iPhone 15 256G</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -3476,7 +3479,7 @@
         <v>苹果 iPhone 15 512G</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -3498,7 +3501,7 @@
         <v>苹果 iPhone 14 Pro Max 128G</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -3520,7 +3523,7 @@
         <v>苹果 iPhone 14 Pro Max 256G</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -3542,7 +3545,7 @@
         <v>苹果 iPhone 14 Pro Max 512G</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -3564,7 +3567,7 @@
         <v>苹果 iPhone 14 Pro Max 1T</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -3586,7 +3589,7 @@
         <v>苹果 iPhone 14 Pro 128G</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -3608,7 +3611,7 @@
         <v>苹果 iPhone 14 Pro 256G</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -3630,7 +3633,7 @@
         <v>苹果 iPhone 14 Pro 512G</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -3652,7 +3655,7 @@
         <v>苹果 iPhone 14 Pro 1T</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -3674,7 +3677,7 @@
         <v>苹果 iPhone 14 Plus 128G</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -3696,7 +3699,7 @@
         <v>苹果 iPhone 14 Plus 256G</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -3718,7 +3721,7 @@
         <v>苹果 iPhone 14 Plus 512G</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -3740,7 +3743,7 @@
         <v>苹果 iPhone 14 128G</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -3762,7 +3765,7 @@
         <v>苹果 iPhone 14 256G</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -3784,7 +3787,7 @@
         <v>苹果 iPhone 14 512G</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -3806,7 +3809,7 @@
         <v>苹果 iPhone 13 Pro Max 128G</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -3828,7 +3831,7 @@
         <v>苹果 iPhone 13 Pro Max 256G</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -3850,7 +3853,7 @@
         <v>苹果 iPhone 13 Pro Max 512G</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -3872,7 +3875,7 @@
         <v>苹果 iPhone 13 Pro Max 1T</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -3894,7 +3897,7 @@
         <v>苹果 iPhone 13 Pro 128G</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -3916,7 +3919,7 @@
         <v>苹果 iPhone 13 Pro 256G</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -3938,7 +3941,7 @@
         <v>苹果 iPhone 13 Pro 512G</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -3960,7 +3963,7 @@
         <v>苹果 iPhone 13 Pro 1T</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -3982,7 +3985,7 @@
         <v>苹果 iPhone 13 128G</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -4004,7 +4007,7 @@
         <v>苹果 iPhone 13 256G</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -4026,7 +4029,7 @@
         <v>苹果 iPhone 13 512G</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -4048,7 +4051,7 @@
         <v>苹果 iPhone 13 mini 128G</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -4070,7 +4073,7 @@
         <v>苹果 iPhone 13 mini 256G</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -4092,7 +4095,7 @@
         <v>苹果 iPhone 13 mini 512G</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -4114,7 +4117,7 @@
         <v>苹果 iPhone 12 Pro Max 128G</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -4136,7 +4139,7 @@
         <v>苹果 iPhone 12 Pro Max 256G</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -4158,7 +4161,7 @@
         <v>苹果 iPhone 12 Pro Max 512G</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -4180,7 +4183,7 @@
         <v>苹果 iPhone 12 Pro 128G</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -4202,7 +4205,7 @@
         <v>苹果 iPhone 12 Pro 256G</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -4224,7 +4227,7 @@
         <v>苹果 iPhone 12 Pro 512G</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -4246,7 +4249,7 @@
         <v>苹果 iPhone 12 64G</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -4268,7 +4271,7 @@
         <v>苹果 iPhone 12 128G</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -4290,7 +4293,7 @@
         <v>苹果 iPhone 12 256G</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <f t="shared" ref="A68:A131" si="3">A67+1</f>
         <v>67</v>
@@ -4312,7 +4315,7 @@
         <v>苹果 iPhone 12 mini 64G</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -4334,7 +4337,7 @@
         <v>苹果 iPhone 12 mini 128G</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -4356,7 +4359,7 @@
         <v>苹果 iPhone 12 mini 256G</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -4378,7 +4381,7 @@
         <v>苹果 iPhone 11 Pro Max 64G</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -4400,7 +4403,7 @@
         <v>苹果 iPhone 11 Pro Max 256G</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -4422,7 +4425,7 @@
         <v>苹果 iPhone 11 Pro Max 512G</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -4444,7 +4447,7 @@
         <v>苹果 iPhone 11 Pro 64G</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -4466,7 +4469,7 @@
         <v>苹果 iPhone 11 Pro 256G</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -4488,7 +4491,7 @@
         <v>苹果 iPhone 11 Pro 512G</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -4510,7 +4513,7 @@
         <v>苹果 iPhone 11 64G</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -4532,7 +4535,7 @@
         <v>苹果 iPhone 11 128G</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -4554,7 +4557,7 @@
         <v>苹果 iPhone Xs Max 64G</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -4576,7 +4579,7 @@
         <v>苹果 iPhone Xs Max 256G</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -4598,7 +4601,7 @@
         <v>苹果 iPhone Xs Max 512G</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -4620,7 +4623,7 @@
         <v>苹果 iPhone XS 64G</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -4642,7 +4645,7 @@
         <v>苹果 iPhone XS 256G</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -4664,7 +4667,7 @@
         <v>苹果 iPhone XS 512G</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -4686,7 +4689,7 @@
         <v>苹果 iPhone XR 64G</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -4708,7 +4711,7 @@
         <v>苹果 iPhone XR 128G</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -4730,7 +4733,7 @@
         <v>苹果 iPhone X 64G</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -6622,7 +6625,7 @@
         <v>苹果 MacBook Pro 16' 2024款（M4Pro/M4Max） 24/36/48/64/128+512G/1T/2T/4T/8T</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -6644,7 +6647,7 @@
         <v>苹果 iPad Pro 10.5' 2017（A10X） 64G</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <f t="shared" si="5"/>
         <v>174</v>
@@ -6666,7 +6669,7 @@
         <v>苹果 iPad Pro 10.5' 2017（A10X） 256G</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <f t="shared" si="5"/>
         <v>175</v>
@@ -6688,7 +6691,7 @@
         <v>苹果 iPad Pro 10.5' 2017（A10X） 512G</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <f t="shared" si="5"/>
         <v>176</v>
@@ -6710,7 +6713,7 @@
         <v>苹果 iPad Pro 12.9' 2017（A10X） 64G</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <f t="shared" si="5"/>
         <v>177</v>
@@ -6732,7 +6735,7 @@
         <v>苹果 iPad Pro 12.9' 2017（A10X） 256G</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <f t="shared" si="5"/>
         <v>178</v>
@@ -6754,7 +6757,7 @@
         <v>苹果 iPad Pro 12.9' 2017（A10X） 512G</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1">
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <f t="shared" si="5"/>
         <v>179</v>
@@ -6776,7 +6779,7 @@
         <v>苹果 iPad Pro 11' 2018（A12X） 64G</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <f t="shared" si="5"/>
         <v>180</v>
@@ -6798,7 +6801,7 @@
         <v>苹果 iPad Pro 11' 2018（A12X） 256G</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1">
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <f t="shared" si="5"/>
         <v>181</v>
@@ -6820,7 +6823,7 @@
         <v>苹果 iPad Pro 11' 2018（A12X） 512G</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1">
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <f t="shared" si="5"/>
         <v>182</v>
@@ -6842,7 +6845,7 @@
         <v>苹果 iPad Pro 11' 2018（A12X） 1T</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1">
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <f t="shared" si="5"/>
         <v>183</v>
@@ -6864,7 +6867,7 @@
         <v>苹果 iPad Pro 12.9' 2018（A12X） 64G</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1">
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <f t="shared" si="5"/>
         <v>184</v>
@@ -6886,7 +6889,7 @@
         <v>苹果 iPad Pro 12.9' 2018（A12X） 256G</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1">
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <f t="shared" si="5"/>
         <v>185</v>
@@ -6908,7 +6911,7 @@
         <v>苹果 iPad Pro 12.9' 2018（A12X） 512G</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1">
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <f t="shared" si="5"/>
         <v>186</v>
@@ -6930,7 +6933,7 @@
         <v>苹果 iPad Pro 12.9' 2018（A12X） 1T</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1">
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <f t="shared" si="5"/>
         <v>187</v>
@@ -6952,7 +6955,7 @@
         <v>苹果 iPad Pro 11' 2020（A12Z） 128G</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1">
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <f t="shared" si="5"/>
         <v>188</v>
@@ -6974,7 +6977,7 @@
         <v>苹果 iPad Pro 11' 2020（A12Z） 256G</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1">
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <f t="shared" si="5"/>
         <v>189</v>
@@ -6996,7 +6999,7 @@
         <v>苹果 iPad Pro 11' 2020（A12Z） 512G</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1">
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <f t="shared" si="5"/>
         <v>190</v>
@@ -7018,7 +7021,7 @@
         <v>苹果 iPad Pro 11' 2020（A12Z） 1T</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1">
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <f t="shared" si="5"/>
         <v>191</v>
@@ -7040,7 +7043,7 @@
         <v>苹果 iPad Pro 12.9' 2020（A12Z） 128G</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1">
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <f t="shared" si="5"/>
         <v>192</v>
@@ -7062,7 +7065,7 @@
         <v>苹果 iPad Pro 12.9' 2020（A12Z） 256G</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1">
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <f t="shared" si="5"/>
         <v>193</v>
@@ -7084,7 +7087,7 @@
         <v>苹果 iPad Pro 12.9' 2020（A12Z） 512G</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1">
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <f t="shared" si="5"/>
         <v>194</v>
@@ -7106,7 +7109,7 @@
         <v>苹果 iPad Pro 12.9' 2020（A12Z） 1T</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1">
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <f t="shared" ref="A196:A259" si="7">A195+1</f>
         <v>195</v>
@@ -7128,7 +7131,7 @@
         <v>苹果 iPad Pro 11' 2021（M1） 128G</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1">
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <f t="shared" si="7"/>
         <v>196</v>
@@ -7150,7 +7153,7 @@
         <v>苹果 iPad Pro 11' 2021（M1） 256G</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <f t="shared" si="7"/>
         <v>197</v>
@@ -7172,7 +7175,7 @@
         <v>苹果 iPad Pro 11' 2021（M1） 512G</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <f t="shared" si="7"/>
         <v>198</v>
@@ -7194,7 +7197,7 @@
         <v>苹果 iPad Pro 11' 2021（M1） 1T</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <f t="shared" si="7"/>
         <v>199</v>
@@ -7216,7 +7219,7 @@
         <v>苹果 iPad Pro 11' 2021（M1） 2T</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <f t="shared" si="7"/>
         <v>200</v>
@@ -7238,7 +7241,7 @@
         <v>苹果 iPad Pro 12.9' 2021（M1） 128G</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1">
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <f t="shared" si="7"/>
         <v>201</v>
@@ -7260,7 +7263,7 @@
         <v>苹果 iPad Pro 12.9' 2021（M1） 256G</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1">
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <f t="shared" si="7"/>
         <v>202</v>
@@ -7282,7 +7285,7 @@
         <v>苹果 iPad Pro 12.9' 2021（M1） 512G</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1">
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <f t="shared" si="7"/>
         <v>203</v>
@@ -7304,7 +7307,7 @@
         <v>苹果 iPad Pro 12.9' 2021（M1） 1T</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1">
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <f t="shared" si="7"/>
         <v>204</v>
@@ -7326,7 +7329,7 @@
         <v>苹果 iPad Pro 12.9' 2021（M1） 2T</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1">
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <f t="shared" si="7"/>
         <v>205</v>
@@ -7348,7 +7351,7 @@
         <v>苹果 iPad Pro 11' 2022（M2） 128G</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1">
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <f t="shared" si="7"/>
         <v>206</v>
@@ -7370,7 +7373,7 @@
         <v>苹果 iPad Pro 11' 2022（M2） 256G</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1">
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <f t="shared" si="7"/>
         <v>207</v>
@@ -7392,7 +7395,7 @@
         <v>苹果 iPad Pro 11' 2022（M2） 512G</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1">
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <f t="shared" si="7"/>
         <v>208</v>
@@ -7414,7 +7417,7 @@
         <v>苹果 iPad Pro 11' 2022（M2） 1T</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1">
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <f t="shared" si="7"/>
         <v>209</v>
@@ -7436,7 +7439,7 @@
         <v>苹果 iPad Pro 11' 2022（M2） 2T</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1">
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <f t="shared" si="7"/>
         <v>210</v>
@@ -7458,7 +7461,7 @@
         <v>苹果 iPad Pro 12.9' 2022（M2） 128G</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1">
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <f t="shared" si="7"/>
         <v>211</v>
@@ -7480,7 +7483,7 @@
         <v>苹果 iPad Pro 12.9' 2022（M2） 256G</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1">
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <f t="shared" si="7"/>
         <v>212</v>
@@ -7502,7 +7505,7 @@
         <v>苹果 iPad Pro 12.9' 2022（M2） 512G</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1">
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <f t="shared" si="7"/>
         <v>213</v>
@@ -7524,7 +7527,7 @@
         <v>苹果 iPad Pro 12.9' 2022（M2） 1T</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1">
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <f t="shared" si="7"/>
         <v>214</v>
@@ -7546,7 +7549,7 @@
         <v>苹果 iPad Pro 12.9' 2022（M2） 2T</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1">
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <f t="shared" si="7"/>
         <v>215</v>
@@ -7568,7 +7571,7 @@
         <v>苹果 iPad Pro 11' 2024（M4） 256G</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1">
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <f t="shared" si="7"/>
         <v>216</v>
@@ -7590,7 +7593,7 @@
         <v>苹果 iPad Pro 11' 2024（M4） 512G</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1">
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <f t="shared" si="7"/>
         <v>217</v>
@@ -7612,7 +7615,7 @@
         <v>苹果 iPad Pro 11' 2024（M4） 1T</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1">
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <f t="shared" si="7"/>
         <v>218</v>
@@ -7634,7 +7637,7 @@
         <v>苹果 iPad Pro 11' 2024（M4） 2T</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1">
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <f t="shared" si="7"/>
         <v>219</v>
@@ -7656,7 +7659,7 @@
         <v>苹果 iPad Pro 12.9' 2024（M4） 256G</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1">
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <f t="shared" si="7"/>
         <v>220</v>
@@ -7678,7 +7681,7 @@
         <v>苹果 iPad Pro 12.9' 2024（M4） 512G</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1">
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <f t="shared" si="7"/>
         <v>221</v>
@@ -7700,7 +7703,7 @@
         <v>苹果 iPad Pro 12.9' 2024（M4） 1T</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1">
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <f t="shared" si="7"/>
         <v>222</v>
@@ -7722,7 +7725,7 @@
         <v>苹果 iPad Pro 12.9' 2024（M4） 2T</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1">
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <f t="shared" si="7"/>
         <v>223</v>
@@ -7744,7 +7747,7 @@
         <v>苹果 iPad Air 3 2019（A12） 64G</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1">
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <f t="shared" si="7"/>
         <v>224</v>
@@ -7766,7 +7769,7 @@
         <v>苹果 iPad Air 3 2019（A12） 256G</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1">
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <f t="shared" si="7"/>
         <v>225</v>
@@ -7788,7 +7791,7 @@
         <v>苹果 iPad Air 4 2020（A14） 64G</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1">
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <f t="shared" si="7"/>
         <v>226</v>
@@ -7810,7 +7813,7 @@
         <v>苹果 iPad Air 4 2020（A14） 256G</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1">
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <f t="shared" si="7"/>
         <v>227</v>
@@ -7832,7 +7835,7 @@
         <v>苹果 iPad Air 5 2022（M1） 64G</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1">
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <f t="shared" si="7"/>
         <v>228</v>
@@ -7854,7 +7857,7 @@
         <v>苹果 iPad Air 5 2022（M1） 256G</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1">
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <f t="shared" si="7"/>
         <v>229</v>
@@ -7876,7 +7879,7 @@
         <v>苹果 iPad Air 11' 2024（M2） 128G</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1">
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <f t="shared" si="7"/>
         <v>230</v>
@@ -7898,7 +7901,7 @@
         <v>苹果 iPad Air 11' 2024（M2） 256G</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1">
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <f t="shared" si="7"/>
         <v>231</v>
@@ -7920,7 +7923,7 @@
         <v>苹果 iPad Air 11' 2024（M2） 512G</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1">
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <f t="shared" si="7"/>
         <v>232</v>
@@ -7942,7 +7945,7 @@
         <v>苹果 iPad Air 11' 2024（M2） 1T</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1">
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <f t="shared" si="7"/>
         <v>233</v>
@@ -7964,7 +7967,7 @@
         <v>苹果 iPad Air 13' 2024（M2） 128G</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1">
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <f t="shared" si="7"/>
         <v>234</v>
@@ -7986,7 +7989,7 @@
         <v>苹果 iPad Air 13' 2024（M2） 256G</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1">
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <f t="shared" si="7"/>
         <v>235</v>
@@ -8008,7 +8011,7 @@
         <v>苹果 iPad Air 13' 2024（M2） 512G</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1">
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <f t="shared" si="7"/>
         <v>236</v>
@@ -8030,7 +8033,7 @@
         <v>苹果 iPad Air 13' 2024（M2） 1T</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1">
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <f t="shared" si="7"/>
         <v>237</v>
@@ -8052,7 +8055,7 @@
         <v>苹果 iPad Air 11' 2025（M3） 128G</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1">
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <f t="shared" si="7"/>
         <v>238</v>
@@ -8074,7 +8077,7 @@
         <v>苹果 iPad Air 11' 2025（M3） 256G</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1">
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <f t="shared" si="7"/>
         <v>239</v>
@@ -8096,7 +8099,7 @@
         <v>苹果 iPad Air 11' 2025（M3） 512G</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1">
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <f t="shared" si="7"/>
         <v>240</v>
@@ -8118,7 +8121,7 @@
         <v>苹果 iPad Air 11' 2025（M3） 1T</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1">
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <f t="shared" si="7"/>
         <v>241</v>
@@ -8140,7 +8143,7 @@
         <v>苹果 iPad Air 13' 2025（M3） 128G</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1">
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <f t="shared" si="7"/>
         <v>242</v>
@@ -8162,7 +8165,7 @@
         <v>苹果 iPad Air 13' 2025（M3） 256G</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1">
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <f t="shared" si="7"/>
         <v>243</v>
@@ -8184,7 +8187,7 @@
         <v>苹果 iPad Air 13' 2025（M3） 512G</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1">
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <f t="shared" si="7"/>
         <v>244</v>
@@ -8206,7 +8209,7 @@
         <v>苹果 iPad Air 13' 2025（M3） 1T</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1">
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <f t="shared" si="7"/>
         <v>245</v>
@@ -8228,7 +8231,7 @@
         <v>苹果 iPad 5 2017 32G</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1">
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <f t="shared" si="7"/>
         <v>246</v>
@@ -8250,7 +8253,7 @@
         <v>苹果 iPad 5 2017 128G</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1">
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <f t="shared" si="7"/>
         <v>247</v>
@@ -8272,7 +8275,7 @@
         <v>苹果 iPad 6 2018 32G</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1">
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <f t="shared" si="7"/>
         <v>248</v>
@@ -8294,7 +8297,7 @@
         <v>苹果 iPad 6 2018 128G</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1">
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <f t="shared" si="7"/>
         <v>249</v>
@@ -8316,7 +8319,7 @@
         <v>苹果 iPad 7 2019 32G</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1">
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <f t="shared" si="7"/>
         <v>250</v>
@@ -8338,7 +8341,7 @@
         <v>苹果 iPad 7 2019 128G</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1">
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <f t="shared" si="7"/>
         <v>251</v>
@@ -8360,7 +8363,7 @@
         <v>苹果 iPad 8 2020 32G</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1">
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <f t="shared" si="7"/>
         <v>252</v>
@@ -8382,7 +8385,7 @@
         <v>苹果 iPad 8 2020 128G</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1">
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <f t="shared" si="7"/>
         <v>253</v>
@@ -8404,7 +8407,7 @@
         <v>苹果 iPad 9 2021 64G</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1">
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <f t="shared" si="7"/>
         <v>254</v>
@@ -8426,7 +8429,7 @@
         <v>苹果 iPad 9 2021 256G</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1">
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <f t="shared" si="7"/>
         <v>255</v>
@@ -8448,7 +8451,7 @@
         <v>苹果 iPad 10 2022 64G</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1">
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <f t="shared" si="7"/>
         <v>256</v>
@@ -8470,7 +8473,7 @@
         <v>苹果 iPad 10 2022 256G</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1">
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <f t="shared" si="7"/>
         <v>257</v>
@@ -8492,7 +8495,7 @@
         <v>苹果 iPad 11 2025 128G</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1">
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <f t="shared" si="7"/>
         <v>258</v>
@@ -8514,7 +8517,7 @@
         <v>苹果 iPad 11 2025 256G</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1">
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <f t="shared" ref="A260:A323" si="9">A259+1</f>
         <v>259</v>
@@ -8536,7 +8539,7 @@
         <v>苹果 iPad 11 2025 512G</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1">
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <f t="shared" si="9"/>
         <v>260</v>
@@ -8558,7 +8561,7 @@
         <v>苹果 iPad mini 4 2015 16G</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1">
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <f t="shared" si="9"/>
         <v>261</v>
@@ -8580,7 +8583,7 @@
         <v>苹果 iPad mini 4 2015 32G</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1">
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <f t="shared" si="9"/>
         <v>262</v>
@@ -8602,7 +8605,7 @@
         <v>苹果 iPad mini 4 2015 64G</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1">
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <f t="shared" si="9"/>
         <v>263</v>
@@ -8624,7 +8627,7 @@
         <v>苹果 iPad mini 4 2015 128G</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1">
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <f t="shared" si="9"/>
         <v>264</v>
@@ -8646,7 +8649,7 @@
         <v>苹果 iPad mini 5 2019 64G</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1">
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <f t="shared" si="9"/>
         <v>265</v>
@@ -8668,7 +8671,7 @@
         <v>苹果 iPad mini 5 2019 256G</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1">
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <f t="shared" si="9"/>
         <v>266</v>
@@ -8690,7 +8693,7 @@
         <v>苹果 iPad mini 6 2021 64G</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1">
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <f t="shared" si="9"/>
         <v>267</v>
@@ -8712,7 +8715,7 @@
         <v>苹果 iPad mini 6 2021 256G</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1">
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <f t="shared" si="9"/>
         <v>268</v>
@@ -8734,7 +8737,7 @@
         <v>苹果 iPad mini 7 2024 128G</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1">
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <f t="shared" si="9"/>
         <v>269</v>
@@ -8756,7 +8759,7 @@
         <v>苹果 iPad mini 7 2024 256G</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1">
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <f t="shared" si="9"/>
         <v>270</v>
@@ -8778,7 +8781,7 @@
         <v>苹果 iPad mini 7 2024 512G</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1">
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <f t="shared" si="9"/>
         <v>271</v>
@@ -8800,7 +8803,7 @@
         <v>苹果 Apple Watch Series 5（GPS）铝金属 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1">
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <f t="shared" si="9"/>
         <v>272</v>
@@ -8822,7 +8825,7 @@
         <v>苹果 Apple Watch Series 5（GPS+蜂窝）铝金属 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1">
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <f t="shared" si="9"/>
         <v>273</v>
@@ -8844,7 +8847,7 @@
         <v>苹果 Apple Watch Series 5（GPS+蜂窝）不锈钢 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1">
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <f t="shared" si="9"/>
         <v>274</v>
@@ -8866,7 +8869,7 @@
         <v>苹果 Apple Watch Series SE（GPS） 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1">
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <f t="shared" si="9"/>
         <v>275</v>
@@ -8888,7 +8891,7 @@
         <v>苹果 Apple Watch Series SE（GPS+蜂窝） 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1">
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <f t="shared" si="9"/>
         <v>276</v>
@@ -8910,7 +8913,7 @@
         <v>苹果 Apple Watch Series 6（GPS）铝金属 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1">
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <f t="shared" si="9"/>
         <v>277</v>
@@ -8932,7 +8935,7 @@
         <v>苹果 Apple Watch Series 6（GPS+蜂窝）铝金属 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1">
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <f t="shared" si="9"/>
         <v>278</v>
@@ -8954,7 +8957,7 @@
         <v>苹果 Apple Watch Series 6（GPS+蜂窝）不锈钢 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1">
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <f t="shared" si="9"/>
         <v>279</v>
@@ -8976,7 +8979,7 @@
         <v>苹果 Apple Watch Series 7（GPS）铝金属 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1">
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <f t="shared" si="9"/>
         <v>280</v>
@@ -8998,7 +9001,7 @@
         <v>苹果 Apple Watch Series 7（GPS+蜂窝）铝金属 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1">
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <f t="shared" si="9"/>
         <v>281</v>
@@ -9020,7 +9023,7 @@
         <v>苹果 Apple Watch Series 7（GPS+蜂窝）不锈钢 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1">
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <f t="shared" si="9"/>
         <v>282</v>
@@ -9042,7 +9045,7 @@
         <v>苹果 Apple Watch Series SE 2（GPS） 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1">
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <f t="shared" si="9"/>
         <v>283</v>
@@ -9064,7 +9067,7 @@
         <v>苹果 Apple Watch Series SE 2（GPS+蜂窝） 44毫米/40毫米</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1">
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <f t="shared" si="9"/>
         <v>284</v>
@@ -9086,7 +9089,7 @@
         <v>苹果 Apple Watch Series 8（GPS）铝金属 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1">
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <f t="shared" si="9"/>
         <v>285</v>
@@ -9108,7 +9111,7 @@
         <v>苹果 Apple Watch Series 8（GPS+蜂窝）铝金属 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1">
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <f t="shared" si="9"/>
         <v>286</v>
@@ -9130,7 +9133,7 @@
         <v>苹果 Apple Watch Series 8（GPS+蜂窝）不锈钢 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1">
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <f t="shared" si="9"/>
         <v>287</v>
@@ -9152,7 +9155,7 @@
         <v>苹果 Apple Watch Ultra 49毫米</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <f t="shared" si="9"/>
         <v>288</v>
@@ -9174,7 +9177,7 @@
         <v>苹果 Apple Watch Series 9（GPS）铝金属 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <f t="shared" si="9"/>
         <v>289</v>
@@ -9196,7 +9199,7 @@
         <v>苹果 Apple Watch Series 9（GPS+蜂窝）铝金属 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <f t="shared" si="9"/>
         <v>290</v>
@@ -9218,7 +9221,7 @@
         <v>苹果 Apple Watch Series 9（GPS+蜂窝）不锈钢 45毫米/41毫米</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <f t="shared" si="9"/>
         <v>291</v>
@@ -9240,7 +9243,7 @@
         <v>苹果 Apple Watch Ultra 2 49毫米</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <f t="shared" si="9"/>
         <v>292</v>
@@ -9262,7 +9265,7 @@
         <v>苹果 Apple Watch Series 10（GPS）铝金属 46毫米/42毫米</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <f t="shared" si="9"/>
         <v>293</v>
@@ -9284,7 +9287,7 @@
         <v>苹果 Apple Watch Series 10（GPS+蜂窝）铝金属 46毫米/42毫米</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <f t="shared" si="9"/>
         <v>294</v>
@@ -9306,7 +9309,7 @@
         <v>苹果 Apple Watch Series 10（GPS+蜂窝）钛金属 46毫米/42毫米</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <f t="shared" si="9"/>
         <v>295</v>
@@ -9328,7 +9331,7 @@
         <v>苹果 AirPods 1 闪电充电盒</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <f t="shared" si="9"/>
         <v>296</v>
@@ -9350,7 +9353,7 @@
         <v>苹果 AirPods 1 无线充电盒</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1">
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <f t="shared" si="9"/>
         <v>297</v>
@@ -9372,7 +9375,7 @@
         <v>苹果 AirPods 2 闪电充电盒</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1">
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <f t="shared" si="9"/>
         <v>298</v>
@@ -9394,7 +9397,7 @@
         <v>苹果 AirPods 2 无线充电盒</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <f t="shared" si="9"/>
         <v>299</v>
@@ -9416,7 +9419,7 @@
         <v>苹果 AirPods Pro 无线充电盒</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1">
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <f t="shared" si="9"/>
         <v>300</v>
@@ -9438,7 +9441,7 @@
         <v>苹果 AirPods Pro MagSafe 充电盒</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1">
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <f t="shared" si="9"/>
         <v>301</v>
@@ -9460,7 +9463,7 @@
         <v>苹果 AirPods Max 闪电接口</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1">
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <f t="shared" si="9"/>
         <v>302</v>
@@ -9482,7 +9485,7 @@
         <v>苹果 AirPods 3 闪电充电盒</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1">
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <f t="shared" si="9"/>
         <v>303</v>
@@ -9504,7 +9507,7 @@
         <v>苹果 AirPods 3 MagSafe 充电盒</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1">
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <f t="shared" si="9"/>
         <v>304</v>
@@ -9526,7 +9529,7 @@
         <v>苹果 AirPods Pro 2 MagSafe 充电盒（闪电）</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1">
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <f t="shared" si="9"/>
         <v>305</v>
@@ -9548,7 +9551,7 @@
         <v>苹果 AirPods Pro 2 MagSafe 充电盒（USB-C）</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1">
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <f t="shared" si="9"/>
         <v>306</v>
@@ -9570,7 +9573,7 @@
         <v>苹果 AirPods 4 USB-C 充电盒</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1">
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <f t="shared" si="9"/>
         <v>307</v>
@@ -9592,7 +9595,7 @@
         <v>苹果 AirPods 4 无线充电盒</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1">
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <f t="shared" si="9"/>
         <v>308</v>
@@ -9614,7 +9617,7 @@
         <v>苹果 AirPods 4（主动降噪） USB-C 充电盒</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1">
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <f t="shared" si="9"/>
         <v>309</v>
@@ -9636,7 +9639,7 @@
         <v>苹果 AirPods 4（主动降噪） 无线充电盒</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1">
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <f t="shared" si="9"/>
         <v>310</v>
@@ -9658,7 +9661,7 @@
         <v>苹果 AirPods Max USB-C 接口</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1">
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <f t="shared" si="9"/>
         <v>311</v>
@@ -9680,7 +9683,7 @@
         <v>OPPO Find X7 Ultra 12+256G</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1">
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <f t="shared" si="9"/>
         <v>312</v>
@@ -9702,7 +9705,7 @@
         <v>OPPO Find X7 Ultra 16+256G</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1">
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <f t="shared" si="9"/>
         <v>313</v>
@@ -9724,7 +9727,7 @@
         <v>OPPO Find X7 Ultra 16+512G</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1">
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <f t="shared" si="9"/>
         <v>314</v>
@@ -9746,7 +9749,7 @@
         <v>OPPO Find X7 12+256G</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1">
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <f t="shared" si="9"/>
         <v>315</v>
@@ -9768,7 +9771,7 @@
         <v>OPPO Find X7 16+256G</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1">
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <f t="shared" si="9"/>
         <v>316</v>
@@ -9790,7 +9793,7 @@
         <v>OPPO Find X7 16+512G</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1">
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <f t="shared" si="9"/>
         <v>317</v>
@@ -9812,7 +9815,7 @@
         <v>OPPO Find X7 16+1T</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1">
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <f t="shared" si="9"/>
         <v>318</v>
@@ -9834,7 +9837,7 @@
         <v>OPPO Find X6 12+256G</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1">
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <f t="shared" si="9"/>
         <v>319</v>
@@ -9856,7 +9859,7 @@
         <v>OPPO Find X6 16+512G</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1">
+    <row r="321" spans="1:6">
       <c r="A321" s="1">
         <f t="shared" si="9"/>
         <v>320</v>
@@ -9878,7 +9881,7 @@
         <v>OPPO Reno 12 Pro 12+256G</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1">
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <f t="shared" si="9"/>
         <v>321</v>
@@ -9900,7 +9903,7 @@
         <v>OPPO Reno 12 Pro 16+256G</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1">
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <f t="shared" si="9"/>
         <v>322</v>
@@ -9922,7 +9925,7 @@
         <v>OPPO Reno 12 Pro 16+512G</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1">
+    <row r="324" spans="1:6">
       <c r="A324" s="1">
         <f t="shared" ref="A324:A387" si="11">A323+1</f>
         <v>323</v>
@@ -9944,7 +9947,7 @@
         <v>OPPO Reno 12 12+256G</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1">
+    <row r="325" spans="1:6">
       <c r="A325" s="1">
         <f t="shared" si="11"/>
         <v>324</v>
@@ -9966,7 +9969,7 @@
         <v>OPPO Reno 12 12+512G</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1">
+    <row r="326" spans="1:6">
       <c r="A326" s="1">
         <f t="shared" si="11"/>
         <v>325</v>
@@ -9988,7 +9991,7 @@
         <v>OPPO Reno 12 16+256G</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1">
+    <row r="327" spans="1:6">
       <c r="A327" s="1">
         <f t="shared" si="11"/>
         <v>326</v>
@@ -10010,7 +10013,7 @@
         <v>OPPO Reno 12 16+512G</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1">
+    <row r="328" spans="1:6">
       <c r="A328" s="1">
         <f t="shared" si="11"/>
         <v>327</v>
@@ -10032,7 +10035,7 @@
         <v>OPPO K12 8+256G</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1">
+    <row r="329" spans="1:6">
       <c r="A329" s="1">
         <f t="shared" si="11"/>
         <v>328</v>
@@ -10054,7 +10057,7 @@
         <v>OPPO K12 12+256G</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1">
+    <row r="330" spans="1:6">
       <c r="A330" s="1">
         <f t="shared" si="11"/>
         <v>329</v>
@@ -10076,7 +10079,7 @@
         <v>OPPO K12 12+512G</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1">
+    <row r="331" spans="1:6">
       <c r="A331" s="1">
         <f t="shared" si="11"/>
         <v>330</v>
@@ -10098,7 +10101,7 @@
         <v>OPPO K12x 8+128G</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1">
+    <row r="332" spans="1:6">
       <c r="A332" s="1">
         <f t="shared" si="11"/>
         <v>331</v>
@@ -10120,7 +10123,7 @@
         <v>OPPO K12x 8+256G</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1">
+    <row r="333" spans="1:6">
       <c r="A333" s="1">
         <f t="shared" si="11"/>
         <v>332</v>
@@ -10142,7 +10145,7 @@
         <v>OPPO K12x 12+256G</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1">
+    <row r="334" spans="1:6">
       <c r="A334" s="1">
         <f t="shared" si="11"/>
         <v>333</v>
@@ -10164,7 +10167,7 @@
         <v>OPPO K12x 12+512G</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1">
+    <row r="335" spans="1:6">
       <c r="A335" s="1">
         <f t="shared" si="11"/>
         <v>334</v>
@@ -10186,7 +10189,7 @@
         <v>OPPO K12 Plus 8+256G</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1">
+    <row r="336" spans="1:6">
       <c r="A336" s="1">
         <f t="shared" si="11"/>
         <v>335</v>
@@ -10208,7 +10211,7 @@
         <v>OPPO K12 Plus 12+256G</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1">
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <f t="shared" si="11"/>
         <v>336</v>
@@ -10230,7 +10233,7 @@
         <v>OPPO K12 Plus 12+512G</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1">
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <f t="shared" si="11"/>
         <v>337</v>
@@ -10252,7 +10255,7 @@
         <v>OPPO A3 8+256G</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1">
+    <row r="339" spans="1:6">
       <c r="A339" s="1">
         <f t="shared" si="11"/>
         <v>338</v>
@@ -10274,7 +10277,7 @@
         <v>OPPO A3 12+256G</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1">
+    <row r="340" spans="1:6">
       <c r="A340" s="1">
         <f t="shared" si="11"/>
         <v>339</v>
@@ -10296,7 +10299,7 @@
         <v>OPPO A3 12+512G</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1">
+    <row r="341" spans="1:6">
       <c r="A341" s="1">
         <f t="shared" si="11"/>
         <v>340</v>
@@ -10318,7 +10321,7 @@
         <v>OPPO A3 Pro 8+256G</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1">
+    <row r="342" spans="1:6">
       <c r="A342" s="1">
         <f t="shared" si="11"/>
         <v>341</v>
@@ -10340,7 +10343,7 @@
         <v>OPPO A3 Pro 12+256G</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1">
+    <row r="343" spans="1:6">
       <c r="A343" s="1">
         <f t="shared" si="11"/>
         <v>342</v>
@@ -10362,7 +10365,7 @@
         <v>OPPO A3 Pro 12+512G</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1">
+    <row r="344" spans="1:6">
       <c r="A344" s="1">
         <f t="shared" si="11"/>
         <v>343</v>
@@ -10384,7 +10387,7 @@
         <v>OPPO A5 Pro 8+256G</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1">
+    <row r="345" spans="1:6">
       <c r="A345" s="1">
         <f t="shared" si="11"/>
         <v>344</v>
@@ -10406,7 +10409,7 @@
         <v>OPPO A5 Pro 8+512G</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1">
+    <row r="346" spans="1:6">
       <c r="A346" s="1">
         <f t="shared" si="11"/>
         <v>345</v>
@@ -10428,7 +10431,7 @@
         <v>OPPO A5 Pro 12+256G</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1">
+    <row r="347" spans="1:6">
       <c r="A347" s="1">
         <f t="shared" si="11"/>
         <v>346</v>
@@ -10450,7 +10453,7 @@
         <v>OPPO A5 Pro 12+512G</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1">
+    <row r="348" spans="1:6">
       <c r="A348" s="1">
         <f t="shared" si="11"/>
         <v>347</v>
@@ -10472,7 +10475,7 @@
         <v>OPPO Pad 3 Pro 8+256G</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1">
+    <row r="349" spans="1:6">
       <c r="A349" s="1">
         <f t="shared" si="11"/>
         <v>348</v>
@@ -10494,7 +10497,7 @@
         <v>OPPO Pad 3 Pro 12+256G</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1">
+    <row r="350" spans="1:6">
       <c r="A350" s="1">
         <f t="shared" si="11"/>
         <v>349</v>
@@ -10516,7 +10519,7 @@
         <v>OPPO Pad 3 Pro 16+512G</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1">
+    <row r="351" spans="1:6">
       <c r="A351" s="1">
         <f t="shared" si="11"/>
         <v>350</v>
@@ -10538,7 +10541,7 @@
         <v>OPPO Pad 3 Pro 16+1T</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1">
+    <row r="352" spans="1:6">
       <c r="A352" s="1">
         <f t="shared" si="11"/>
         <v>351</v>
@@ -10560,7 +10563,7 @@
         <v>OPPO Pad Air 2 8+256G</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1">
+    <row r="353" spans="1:6">
       <c r="A353" s="1">
         <f t="shared" si="11"/>
         <v>352</v>
@@ -10582,7 +10585,7 @@
         <v>OPPO Pad Air 2 12+256G</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1">
+    <row r="354" spans="1:6">
       <c r="A354" s="1">
         <f t="shared" si="11"/>
         <v>353</v>
@@ -10604,7 +10607,7 @@
         <v>OPPO Pad Air 2 12+512G</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1">
+    <row r="355" spans="1:6">
       <c r="A355" s="1">
         <f t="shared" si="11"/>
         <v>354</v>
@@ -10626,7 +10629,7 @@
         <v>OPPO Watch 4 Pro 极夜黑 氟橡胶表带</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1">
+    <row r="356" spans="1:6">
       <c r="A356" s="1">
         <f t="shared" si="11"/>
         <v>355</v>
@@ -10648,7 +10651,7 @@
         <v>OPPO Watch 4 Pro 破晓棕 真皮表带</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1">
+    <row r="357" spans="1:6">
       <c r="A357" s="1">
         <f t="shared" si="11"/>
         <v>356</v>
@@ -10670,7 +10673,7 @@
         <v>三星 Galaxy S25 12+256G</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1">
+    <row r="358" spans="1:6">
       <c r="A358" s="1">
         <f t="shared" si="11"/>
         <v>357</v>
@@ -10692,7 +10695,7 @@
         <v>三星 Galaxy S25 12+512G</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1">
+    <row r="359" spans="1:6">
       <c r="A359" s="1">
         <f t="shared" si="11"/>
         <v>358</v>
@@ -10714,7 +10717,7 @@
         <v>三星 Galaxy S25+ 12+256G</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1">
+    <row r="360" spans="1:6">
       <c r="A360" s="1">
         <f t="shared" si="11"/>
         <v>359</v>
@@ -10736,7 +10739,7 @@
         <v>三星 Galaxy S25+ 12+512G</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1">
+    <row r="361" spans="1:6">
       <c r="A361" s="1">
         <f t="shared" si="11"/>
         <v>360</v>
@@ -10758,7 +10761,7 @@
         <v>三星 Galaxy S25 Ultra 12+256G</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1">
+    <row r="362" spans="1:6">
       <c r="A362" s="1">
         <f t="shared" si="11"/>
         <v>361</v>
@@ -10780,7 +10783,7 @@
         <v>三星 Galaxy S25 Ultra 12+512G</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1">
+    <row r="363" spans="1:6">
       <c r="A363" s="1">
         <f t="shared" si="11"/>
         <v>362</v>
@@ -10802,7 +10805,7 @@
         <v>三星 Galaxy S25 Ultra 16+1T</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1">
+    <row r="364" spans="1:6">
       <c r="A364" s="1">
         <f t="shared" si="11"/>
         <v>363</v>
@@ -10824,7 +10827,7 @@
         <v>三星 Galaxy S24 8+256G</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1">
+    <row r="365" spans="1:6">
       <c r="A365" s="1">
         <f t="shared" si="11"/>
         <v>364</v>
@@ -10846,7 +10849,7 @@
         <v>三星 Galaxy S24 12+512G</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1">
+    <row r="366" spans="1:6">
       <c r="A366" s="1">
         <f t="shared" si="11"/>
         <v>365</v>
@@ -10868,7 +10871,7 @@
         <v>三星 Galaxy S24 8+512G</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1">
+    <row r="367" spans="1:6">
       <c r="A367" s="1">
         <f t="shared" si="11"/>
         <v>366</v>
@@ -10890,7 +10893,7 @@
         <v>三星 Galaxy S24+ 12+256G</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1">
+    <row r="368" spans="1:6">
       <c r="A368" s="1">
         <f t="shared" si="11"/>
         <v>367</v>
@@ -10912,7 +10915,7 @@
         <v>三星 Galaxy S24+ 12+512G</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1">
+    <row r="369" spans="1:6">
       <c r="A369" s="1">
         <f t="shared" si="11"/>
         <v>368</v>
@@ -10934,7 +10937,7 @@
         <v>三星 Galaxy S24 Ultra 12+256G</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1">
+    <row r="370" spans="1:6">
       <c r="A370" s="1">
         <f t="shared" si="11"/>
         <v>369</v>
@@ -10956,7 +10959,7 @@
         <v>三星 Galaxy S24 Ultra 12+512G</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1">
+    <row r="371" spans="1:6">
       <c r="A371" s="1">
         <f t="shared" si="11"/>
         <v>370</v>
@@ -10978,7 +10981,7 @@
         <v>三星 Galaxy S24 Ultra 12+1T</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1">
+    <row r="372" spans="1:6">
       <c r="A372" s="1">
         <f t="shared" si="11"/>
         <v>371</v>
@@ -11000,7 +11003,7 @@
         <v>三星 Galaxy Z Flip 6 12+256G</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1">
+    <row r="373" spans="1:6">
       <c r="A373" s="1">
         <f t="shared" si="11"/>
         <v>372</v>
@@ -11022,7 +11025,7 @@
         <v>三星 Galaxy Z Flip 6 12+512G</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1">
+    <row r="374" spans="1:6">
       <c r="A374" s="1">
         <f t="shared" si="11"/>
         <v>373</v>
@@ -11044,7 +11047,7 @@
         <v>三星 Galaxy Z Flip 5 8+256G</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1">
+    <row r="375" spans="1:6">
       <c r="A375" s="1">
         <f t="shared" si="11"/>
         <v>374</v>
@@ -11066,7 +11069,7 @@
         <v>三星 Galaxy Z Flip 5 8+512G</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1">
+    <row r="376" spans="1:6">
       <c r="A376" s="1">
         <f t="shared" si="11"/>
         <v>375</v>
@@ -11088,7 +11091,7 @@
         <v>三星 Galaxy Z Flip 5 Maison Margiela 限量版</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1">
+    <row r="377" spans="1:6">
       <c r="A377" s="1">
         <f t="shared" si="11"/>
         <v>376</v>
@@ -11110,7 +11113,7 @@
         <v>三星 Galaxy Z Flip 4 8+512G</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1">
+    <row r="378" spans="1:6">
       <c r="A378" s="1">
         <f t="shared" si="11"/>
         <v>377</v>
@@ -11132,7 +11135,7 @@
         <v>三星 Galaxy Z Fold 6 12+512G</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1">
+    <row r="379" spans="1:6">
       <c r="A379" s="1">
         <f t="shared" si="11"/>
         <v>378</v>
@@ -11154,7 +11157,7 @@
         <v>三星 Galaxy Z Fold 6 12+1T</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1">
+    <row r="380" spans="1:6">
       <c r="A380" s="1">
         <f t="shared" si="11"/>
         <v>379</v>
@@ -11176,7 +11179,7 @@
         <v>三星 Galaxy Z Fold 5 12+512G</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1">
+    <row r="381" spans="1:6">
       <c r="A381" s="1">
         <f t="shared" si="11"/>
         <v>380</v>
@@ -11198,7 +11201,7 @@
         <v>三星 Galaxy Z Fold 5 12+1T</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1">
+    <row r="382" spans="1:6">
       <c r="A382" s="1">
         <f t="shared" si="11"/>
         <v>381</v>
@@ -11220,7 +11223,7 @@
         <v>三星 Galaxy Z Fold 5 Thom Browne 限量版</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1">
+    <row r="383" spans="1:6">
       <c r="A383" s="1">
         <f t="shared" si="11"/>
         <v>382</v>
@@ -11242,7 +11245,7 @@
         <v>三星 Galaxy Z Fold 4 12+256G</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1">
+    <row r="384" spans="1:6">
       <c r="A384" s="1">
         <f t="shared" si="11"/>
         <v>383</v>
@@ -11264,7 +11267,7 @@
         <v>三星 W25 16+512G</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1">
+    <row r="385" spans="1:6">
       <c r="A385" s="1">
         <f t="shared" si="11"/>
         <v>384</v>
@@ -11286,7 +11289,7 @@
         <v>三星 W25 16+1T</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1">
+    <row r="386" spans="1:6">
       <c r="A386" s="1">
         <f t="shared" si="11"/>
         <v>385</v>
@@ -11308,7 +11311,7 @@
         <v>三星 W24 16+1T</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1">
+    <row r="387" spans="1:6">
       <c r="A387" s="1">
         <f t="shared" si="11"/>
         <v>386</v>
@@ -11330,7 +11333,7 @@
         <v>三星 Tab S10+ 12+256G</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1">
+    <row r="388" spans="1:6">
       <c r="A388" s="1">
         <f t="shared" ref="A388:A451" si="13">A387+1</f>
         <v>387</v>
@@ -11352,7 +11355,7 @@
         <v>三星 Tab S10+ 12+512G</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1">
+    <row r="389" spans="1:6">
       <c r="A389" s="1">
         <f t="shared" si="13"/>
         <v>388</v>
@@ -11374,7 +11377,7 @@
         <v>三星 Tab S10 Ultra 12+256G</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1">
+    <row r="390" spans="1:6">
       <c r="A390" s="1">
         <f t="shared" si="13"/>
         <v>389</v>
@@ -11396,7 +11399,7 @@
         <v>三星 Tab S10 Ultra 12+512G</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1">
+    <row r="391" spans="1:6">
       <c r="A391" s="1">
         <f t="shared" si="13"/>
         <v>390</v>
@@ -11418,7 +11421,7 @@
         <v>三星 Tab S10 Ultra 16+1T</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1">
+    <row r="392" spans="1:6">
       <c r="A392" s="1">
         <f t="shared" si="13"/>
         <v>391</v>
@@ -11440,7 +11443,7 @@
         <v>三星 Tab S9 FE 6+128G</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1">
+    <row r="393" spans="1:6">
       <c r="A393" s="1">
         <f t="shared" si="13"/>
         <v>392</v>
@@ -11462,7 +11465,7 @@
         <v>三星 Tab S9 FE 8+256G</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1">
+    <row r="394" spans="1:6">
       <c r="A394" s="1">
         <f t="shared" si="13"/>
         <v>393</v>
@@ -11484,7 +11487,7 @@
         <v>三星 Tab S9 FE+ 8+128G</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1">
+    <row r="395" spans="1:6">
       <c r="A395" s="1">
         <f t="shared" si="13"/>
         <v>394</v>
@@ -11506,7 +11509,7 @@
         <v>三星 Tab S9 FE+ 12+256G</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1">
+    <row r="396" spans="1:6">
       <c r="A396" s="1">
         <f t="shared" si="13"/>
         <v>395</v>
@@ -11528,7 +11531,7 @@
         <v>三星 Tab A9+ 4+64G</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1">
+    <row r="397" spans="1:6">
       <c r="A397" s="1">
         <f t="shared" si="13"/>
         <v>396</v>
@@ -11550,7 +11553,7 @@
         <v>三星 Tab A9+ 8+128G</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1">
+    <row r="398" spans="1:6">
       <c r="A398" s="1">
         <f t="shared" si="13"/>
         <v>397</v>
@@ -11572,7 +11575,7 @@
         <v>vivo X200 12+256G</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1">
+    <row r="399" spans="1:6">
       <c r="A399" s="1">
         <f t="shared" si="13"/>
         <v>398</v>
@@ -11594,7 +11597,7 @@
         <v>vivo X200 12+512G</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1">
+    <row r="400" spans="1:6">
       <c r="A400" s="1">
         <f t="shared" si="13"/>
         <v>399</v>
@@ -11616,7 +11619,7 @@
         <v>vivo X200 16+512G</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1">
+    <row r="401" spans="1:6">
       <c r="A401" s="1">
         <f t="shared" si="13"/>
         <v>400</v>
@@ -11638,7 +11641,7 @@
         <v>vivo X200 16+1T</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1">
+    <row r="402" spans="1:6">
       <c r="A402" s="1">
         <f t="shared" si="13"/>
         <v>401</v>
@@ -11660,7 +11663,7 @@
         <v>vivo X200 Pro 12+256G</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1">
+    <row r="403" spans="1:6">
       <c r="A403" s="1">
         <f t="shared" si="13"/>
         <v>402</v>
@@ -11682,7 +11685,7 @@
         <v>vivo X200 Pro 16+512G</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1">
+    <row r="404" spans="1:6">
       <c r="A404" s="1">
         <f t="shared" si="13"/>
         <v>403</v>
@@ -11704,7 +11707,7 @@
         <v>vivo X200 Pro 16+1T</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1">
+    <row r="405" spans="1:6">
       <c r="A405" s="1">
         <f t="shared" si="13"/>
         <v>404</v>
@@ -11726,7 +11729,7 @@
         <v>vivo X200 Pro 卫星通信版 16+1T</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1">
+    <row r="406" spans="1:6">
       <c r="A406" s="1">
         <f t="shared" si="13"/>
         <v>405</v>
@@ -11748,7 +11751,7 @@
         <v>vivo X200 Pro mini 12+256G</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1">
+    <row r="407" spans="1:6">
       <c r="A407" s="1">
         <f t="shared" si="13"/>
         <v>406</v>
@@ -11770,7 +11773,7 @@
         <v>vivo X200 Pro mini 12+512G</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1">
+    <row r="408" spans="1:6">
       <c r="A408" s="1">
         <f t="shared" si="13"/>
         <v>407</v>
@@ -11792,7 +11795,7 @@
         <v>vivo X200 Pro mini 16+512G</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1">
+    <row r="409" spans="1:6">
       <c r="A409" s="1">
         <f t="shared" si="13"/>
         <v>408</v>
@@ -11814,7 +11817,7 @@
         <v>vivo X200 Pro mini 16+1T</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1">
+    <row r="410" spans="1:6">
       <c r="A410" s="1">
         <f t="shared" si="13"/>
         <v>409</v>
@@ -11836,7 +11839,7 @@
         <v>vivo X100 Ultra 12+256G</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1">
+    <row r="411" spans="1:6">
       <c r="A411" s="1">
         <f t="shared" si="13"/>
         <v>410</v>
@@ -11858,7 +11861,7 @@
         <v>vivo X100 Ultra 16+512G</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1">
+    <row r="412" spans="1:6">
       <c r="A412" s="1">
         <f t="shared" si="13"/>
         <v>411</v>
@@ -11880,7 +11883,7 @@
         <v>vivo X100 Ultra 16+1T</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1">
+    <row r="413" spans="1:6">
       <c r="A413" s="1">
         <f t="shared" si="13"/>
         <v>412</v>
@@ -11902,7 +11905,7 @@
         <v>vivo X100s Pro 12+256G</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1">
+    <row r="414" spans="1:6">
       <c r="A414" s="1">
         <f t="shared" si="13"/>
         <v>413</v>
@@ -11924,7 +11927,7 @@
         <v>vivo X100s Pro 16+512G</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1">
+    <row r="415" spans="1:6">
       <c r="A415" s="1">
         <f t="shared" si="13"/>
         <v>414</v>
@@ -11946,7 +11949,7 @@
         <v>vivo X100s Pro 16+1T</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1">
+    <row r="416" spans="1:6">
       <c r="A416" s="1">
         <f t="shared" si="13"/>
         <v>415</v>
@@ -11968,7 +11971,7 @@
         <v>vivo X100s 12+256G</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1">
+    <row r="417" spans="1:6">
       <c r="A417" s="1">
         <f t="shared" si="13"/>
         <v>416</v>
@@ -11990,7 +11993,7 @@
         <v>vivo X100s 16+256G</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1">
+    <row r="418" spans="1:6">
       <c r="A418" s="1">
         <f t="shared" si="13"/>
         <v>417</v>
@@ -12012,7 +12015,7 @@
         <v>vivo X100s 16+512G</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1">
+    <row r="419" spans="1:6">
       <c r="A419" s="1">
         <f t="shared" si="13"/>
         <v>418</v>
@@ -12034,7 +12037,7 @@
         <v>vivo X100s 16+1T</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1">
+    <row r="420" spans="1:6">
       <c r="A420" s="1">
         <f t="shared" si="13"/>
         <v>419</v>
@@ -12056,7 +12059,7 @@
         <v>vivo X100 Pro 12+256G</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1">
+    <row r="421" spans="1:6">
       <c r="A421" s="1">
         <f t="shared" si="13"/>
         <v>420</v>
@@ -12078,7 +12081,7 @@
         <v>vivo X100 Pro 16+256G</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1">
+    <row r="422" spans="1:6">
       <c r="A422" s="1">
         <f t="shared" si="13"/>
         <v>421</v>
@@ -12100,7 +12103,7 @@
         <v>vivo X100 Pro 16+512G</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1">
+    <row r="423" spans="1:6">
       <c r="A423" s="1">
         <f t="shared" si="13"/>
         <v>422</v>
@@ -12122,7 +12125,7 @@
         <v>vivo X100 Pro 16+1T</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1">
+    <row r="424" spans="1:6">
       <c r="A424" s="1">
         <f t="shared" si="13"/>
         <v>423</v>
@@ -12144,7 +12147,7 @@
         <v>vivo X100 12+256G</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1">
+    <row r="425" spans="1:6">
       <c r="A425" s="1">
         <f t="shared" si="13"/>
         <v>424</v>
@@ -12166,7 +12169,7 @@
         <v>vivo X100 16+256G</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1">
+    <row r="426" spans="1:6">
       <c r="A426" s="1">
         <f t="shared" si="13"/>
         <v>425</v>
@@ -12188,7 +12191,7 @@
         <v>vivo X100 16+512G</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1">
+    <row r="427" spans="1:6">
       <c r="A427" s="1">
         <f t="shared" si="13"/>
         <v>426</v>
@@ -12210,7 +12213,7 @@
         <v>vivo X100 16+1T</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1">
+    <row r="428" spans="1:6">
       <c r="A428" s="1">
         <f t="shared" si="13"/>
         <v>427</v>
@@ -12232,7 +12235,7 @@
         <v>vivo X100 LPDDR5T 限量版 16+1T</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1">
+    <row r="429" spans="1:6">
       <c r="A429" s="1">
         <f t="shared" si="13"/>
         <v>428</v>
@@ -12254,7 +12257,7 @@
         <v>vivo X90 Pro+ 12+256G</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1">
+    <row r="430" spans="1:6">
       <c r="A430" s="1">
         <f t="shared" si="13"/>
         <v>429</v>
@@ -12276,7 +12279,7 @@
         <v>vivo X90 Pro+ 12+512G</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1">
+    <row r="431" spans="1:6">
       <c r="A431" s="1">
         <f t="shared" si="13"/>
         <v>430</v>
@@ -12298,7 +12301,7 @@
         <v>vivo X90 Pro 8+256G</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1">
+    <row r="432" spans="1:6">
       <c r="A432" s="1">
         <f t="shared" si="13"/>
         <v>431</v>
@@ -12320,7 +12323,7 @@
         <v>vivo X90 Pro 12+256G</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1">
+    <row r="433" spans="1:6">
       <c r="A433" s="1">
         <f t="shared" si="13"/>
         <v>432</v>
@@ -12342,7 +12345,7 @@
         <v>vivo X90 Pro 12+512G</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1">
+    <row r="434" spans="1:6">
       <c r="A434" s="1">
         <f t="shared" si="13"/>
         <v>433</v>
@@ -12364,7 +12367,7 @@
         <v>vivo X90 8+128G</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1">
+    <row r="435" spans="1:6">
       <c r="A435" s="1">
         <f t="shared" si="13"/>
         <v>434</v>
@@ -12386,7 +12389,7 @@
         <v>vivo X90 8+256G</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1">
+    <row r="436" spans="1:6">
       <c r="A436" s="1">
         <f t="shared" si="13"/>
         <v>435</v>
@@ -12408,7 +12411,7 @@
         <v>vivo X90 12+256G</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1">
+    <row r="437" spans="1:6">
       <c r="A437" s="1">
         <f t="shared" si="13"/>
         <v>436</v>
@@ -12430,7 +12433,7 @@
         <v>vivo X90 12+512G</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1">
+    <row r="438" spans="1:6">
       <c r="A438" s="1">
         <f t="shared" si="13"/>
         <v>437</v>
@@ -12452,7 +12455,7 @@
         <v>vivo X80 Pro 骁龙版 8+256G</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1">
+    <row r="439" spans="1:6">
       <c r="A439" s="1">
         <f t="shared" si="13"/>
         <v>438</v>
@@ -12474,7 +12477,7 @@
         <v>vivo X80 Pro 骁龙版 12+256G</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1">
+    <row r="440" spans="1:6">
       <c r="A440" s="1">
         <f t="shared" si="13"/>
         <v>439</v>
@@ -12496,7 +12499,7 @@
         <v>vivo X80 Pro 骁龙版 12+512G</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1">
+    <row r="441" spans="1:6">
       <c r="A441" s="1">
         <f t="shared" si="13"/>
         <v>440</v>
@@ -12518,7 +12521,7 @@
         <v>vivo X80 Pro 天玑版 12+256G</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1">
+    <row r="442" spans="1:6">
       <c r="A442" s="1">
         <f t="shared" si="13"/>
         <v>441</v>
@@ -12540,7 +12543,7 @@
         <v>vivo X80 Pro 天玑版 12+512G</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1">
+    <row r="443" spans="1:6">
       <c r="A443" s="1">
         <f t="shared" si="13"/>
         <v>442</v>
@@ -12562,7 +12565,7 @@
         <v>vivo X80 8+128G</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1">
+    <row r="444" spans="1:6">
       <c r="A444" s="1">
         <f t="shared" si="13"/>
         <v>443</v>
@@ -12584,7 +12587,7 @@
         <v>vivo X80 8+256G</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1">
+    <row r="445" spans="1:6">
       <c r="A445" s="1">
         <f t="shared" si="13"/>
         <v>444</v>
@@ -12606,7 +12609,7 @@
         <v>vivo X80 12+256G</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1">
+    <row r="446" spans="1:6">
       <c r="A446" s="1">
         <f t="shared" si="13"/>
         <v>445</v>
@@ -12628,7 +12631,7 @@
         <v>vivo X80 12+512G</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1">
+    <row r="447" spans="1:6">
       <c r="A447" s="1">
         <f t="shared" si="13"/>
         <v>446</v>
@@ -12650,7 +12653,7 @@
         <v>vivo X Fold 3 Pro 16+512G</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1">
+    <row r="448" spans="1:6">
       <c r="A448" s="1">
         <f t="shared" si="13"/>
         <v>447</v>
@@ -12672,7 +12675,7 @@
         <v>vivo X Fold 3 Pro 16+1T</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1">
+    <row r="449" spans="1:6">
       <c r="A449" s="1">
         <f t="shared" si="13"/>
         <v>448</v>
@@ -12694,7 +12697,7 @@
         <v>vivo X Fold 3 16+512G</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1">
+    <row r="450" spans="1:6">
       <c r="A450" s="1">
         <f t="shared" si="13"/>
         <v>449</v>
@@ -12716,7 +12719,7 @@
         <v>vivo X Fold 3 16+1T</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1">
+    <row r="451" spans="1:6">
       <c r="A451" s="1">
         <f t="shared" si="13"/>
         <v>450</v>
@@ -12738,7 +12741,7 @@
         <v>vivo X Fold 2 12+256G</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1">
+    <row r="452" spans="1:6">
       <c r="A452" s="1">
         <f t="shared" ref="A452:A515" si="15">A451+1</f>
         <v>451</v>
@@ -12760,7 +12763,7 @@
         <v>vivo X Fold 2 12+512G</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1">
+    <row r="453" spans="1:6">
       <c r="A453" s="1">
         <f t="shared" si="15"/>
         <v>452</v>
@@ -12782,7 +12785,7 @@
         <v>vivo X Fold 12+256G</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1">
+    <row r="454" spans="1:6">
       <c r="A454" s="1">
         <f t="shared" si="15"/>
         <v>453</v>
@@ -12804,7 +12807,7 @@
         <v>vivo X Fold 12+512G</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1">
+    <row r="455" spans="1:6">
       <c r="A455" s="1">
         <f t="shared" si="15"/>
         <v>454</v>
@@ -12826,7 +12829,7 @@
         <v>vivo X Flip 12+256G</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1">
+    <row r="456" spans="1:6">
       <c r="A456" s="1">
         <f t="shared" si="15"/>
         <v>455</v>
@@ -12848,7 +12851,7 @@
         <v>vivo X Flip 12+512G</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1">
+    <row r="457" spans="1:6">
       <c r="A457" s="1">
         <f t="shared" si="15"/>
         <v>456</v>
@@ -12870,7 +12873,7 @@
         <v>vivo S20 Pro 12+256G</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1">
+    <row r="458" spans="1:6">
       <c r="A458" s="1">
         <f t="shared" si="15"/>
         <v>457</v>
@@ -12892,7 +12895,7 @@
         <v>vivo S20 Pro 12+512G</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1">
+    <row r="459" spans="1:6">
       <c r="A459" s="1">
         <f t="shared" si="15"/>
         <v>458</v>
@@ -12914,7 +12917,7 @@
         <v>vivo S20 Pro 16+512G</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1">
+    <row r="460" spans="1:6">
       <c r="A460" s="1">
         <f t="shared" si="15"/>
         <v>459</v>
@@ -12936,7 +12939,7 @@
         <v>vivo S20 8+256G</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1">
+    <row r="461" spans="1:6">
       <c r="A461" s="1">
         <f t="shared" si="15"/>
         <v>460</v>
@@ -12958,7 +12961,7 @@
         <v>vivo S20 12+256G</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1">
+    <row r="462" spans="1:6">
       <c r="A462" s="1">
         <f t="shared" si="15"/>
         <v>461</v>
@@ -12980,7 +12983,7 @@
         <v>vivo S20 12+512G</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1">
+    <row r="463" spans="1:6">
       <c r="A463" s="1">
         <f t="shared" si="15"/>
         <v>462</v>
@@ -13002,7 +13005,7 @@
         <v>vivo S20 16+512G</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1">
+    <row r="464" spans="1:6">
       <c r="A464" s="1">
         <f t="shared" si="15"/>
         <v>463</v>
@@ -13024,7 +13027,7 @@
         <v>vivo S19 Pro 8+256G</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1">
+    <row r="465" spans="1:6">
       <c r="A465" s="1">
         <f t="shared" si="15"/>
         <v>464</v>
@@ -13046,7 +13049,7 @@
         <v>vivo S19 Pro 12+256G</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1">
+    <row r="466" spans="1:6">
       <c r="A466" s="1">
         <f t="shared" si="15"/>
         <v>465</v>
@@ -13068,7 +13071,7 @@
         <v>vivo S19 Pro 12+512G</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1">
+    <row r="467" spans="1:6">
       <c r="A467" s="1">
         <f t="shared" si="15"/>
         <v>466</v>
@@ -13090,7 +13093,7 @@
         <v>vivo S19 Pro 16+512G</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1">
+    <row r="468" spans="1:6">
       <c r="A468" s="1">
         <f t="shared" si="15"/>
         <v>467</v>
@@ -13112,7 +13115,7 @@
         <v>vivo S19 8+256G</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1">
+    <row r="469" spans="1:6">
       <c r="A469" s="1">
         <f t="shared" si="15"/>
         <v>468</v>
@@ -13134,7 +13137,7 @@
         <v>vivo S19 12+256G</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1">
+    <row r="470" spans="1:6">
       <c r="A470" s="1">
         <f t="shared" si="15"/>
         <v>469</v>
@@ -13156,7 +13159,7 @@
         <v>vivo S19 12+512G</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1">
+    <row r="471" spans="1:6">
       <c r="A471" s="1">
         <f t="shared" si="15"/>
         <v>470</v>
@@ -13178,7 +13181,7 @@
         <v>vivo S19 16+512G</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1">
+    <row r="472" spans="1:6">
       <c r="A472" s="1">
         <f t="shared" si="15"/>
         <v>471</v>
@@ -13200,7 +13203,7 @@
         <v>vivo S18 Pro 12+256G</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1">
+    <row r="473" spans="1:6">
       <c r="A473" s="1">
         <f t="shared" si="15"/>
         <v>472</v>
@@ -13222,7 +13225,7 @@
         <v>vivo S18 Pro 12+512G</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1">
+    <row r="474" spans="1:6">
       <c r="A474" s="1">
         <f t="shared" si="15"/>
         <v>473</v>
@@ -13244,7 +13247,7 @@
         <v>vivo S18 Pro 16+256G</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1">
+    <row r="475" spans="1:6">
       <c r="A475" s="1">
         <f t="shared" si="15"/>
         <v>474</v>
@@ -13266,7 +13269,7 @@
         <v>vivo S18 Pro 16+512G</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1">
+    <row r="476" spans="1:6">
       <c r="A476" s="1">
         <f t="shared" si="15"/>
         <v>475</v>
@@ -13288,7 +13291,7 @@
         <v>vivo S18 8+256G</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1">
+    <row r="477" spans="1:6">
       <c r="A477" s="1">
         <f t="shared" si="15"/>
         <v>476</v>
@@ -13310,7 +13313,7 @@
         <v>vivo S18 12+256G</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1">
+    <row r="478" spans="1:6">
       <c r="A478" s="1">
         <f t="shared" si="15"/>
         <v>477</v>
@@ -13332,7 +13335,7 @@
         <v>vivo S18 12+512G</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1">
+    <row r="479" spans="1:6">
       <c r="A479" s="1">
         <f t="shared" si="15"/>
         <v>478</v>
@@ -13354,7 +13357,7 @@
         <v>vivo S18 16+512G</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1">
+    <row r="480" spans="1:6">
       <c r="A480" s="1">
         <f t="shared" si="15"/>
         <v>479</v>
@@ -13376,7 +13379,7 @@
         <v>vivo S18e 12+256G</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1">
+    <row r="481" spans="1:6">
       <c r="A481" s="1">
         <f t="shared" si="15"/>
         <v>480</v>
@@ -13398,7 +13401,7 @@
         <v>vivo S18e 12+512G</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1">
+    <row r="482" spans="1:6">
       <c r="A482" s="1">
         <f t="shared" si="15"/>
         <v>481</v>
@@ -13420,7 +13423,7 @@
         <v>vivo iQOO 12 Pro 16+256G</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1">
+    <row r="483" spans="1:6">
       <c r="A483" s="1">
         <f t="shared" si="15"/>
         <v>482</v>
@@ -13442,7 +13445,7 @@
         <v>vivo iQOO 12 Pro 16+512G</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1">
+    <row r="484" spans="1:6">
       <c r="A484" s="1">
         <f t="shared" si="15"/>
         <v>483</v>
@@ -13464,7 +13467,7 @@
         <v>vivo iQOO 12 Pro 16+1T</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1">
+    <row r="485" spans="1:6">
       <c r="A485" s="1">
         <f t="shared" si="15"/>
         <v>484</v>
@@ -13486,7 +13489,7 @@
         <v>vivo iQOO 12 12+256G</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1">
+    <row r="486" spans="1:6">
       <c r="A486" s="1">
         <f t="shared" si="15"/>
         <v>485</v>
@@ -13508,7 +13511,7 @@
         <v>vivo iQOO 12 12+512G</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1">
+    <row r="487" spans="1:6">
       <c r="A487" s="1">
         <f t="shared" si="15"/>
         <v>486</v>
@@ -13530,7 +13533,7 @@
         <v>vivo iQOO 12 16+512G</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1">
+    <row r="488" spans="1:6">
       <c r="A488" s="1">
         <f t="shared" si="15"/>
         <v>487</v>
@@ -13552,7 +13555,7 @@
         <v>vivo iQOO 12 16+1T</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1">
+    <row r="489" spans="1:6">
       <c r="A489" s="1">
         <f t="shared" si="15"/>
         <v>488</v>
@@ -13574,7 +13577,7 @@
         <v>vivo iQOO 11 Pro 8+256G</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1">
+    <row r="490" spans="1:6">
       <c r="A490" s="1">
         <f t="shared" si="15"/>
         <v>489</v>
@@ -13596,7 +13599,7 @@
         <v>vivo iQOO 11 Pro 12+256G</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1">
+    <row r="491" spans="1:6">
       <c r="A491" s="1">
         <f t="shared" si="15"/>
         <v>490</v>
@@ -13618,7 +13621,7 @@
         <v>vivo iQOO 11 Pro 16+512G</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1">
+    <row r="492" spans="1:6">
       <c r="A492" s="1">
         <f t="shared" si="15"/>
         <v>491</v>
@@ -13640,7 +13643,7 @@
         <v>vivo iQOO 11 8+128G</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1">
+    <row r="493" spans="1:6">
       <c r="A493" s="1">
         <f t="shared" si="15"/>
         <v>492</v>
@@ -13662,7 +13665,7 @@
         <v>vivo iQOO 11 8+256G</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1">
+    <row r="494" spans="1:6">
       <c r="A494" s="1">
         <f t="shared" si="15"/>
         <v>493</v>
@@ -13684,7 +13687,7 @@
         <v>vivo iQOO 11 12+256G</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1">
+    <row r="495" spans="1:6">
       <c r="A495" s="1">
         <f t="shared" si="15"/>
         <v>494</v>
@@ -13706,7 +13709,7 @@
         <v>vivo iQOO 11 16+256G</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1">
+    <row r="496" spans="1:6">
       <c r="A496" s="1">
         <f t="shared" si="15"/>
         <v>495</v>
@@ -13728,7 +13731,7 @@
         <v>vivo iQOO 11 16+512G</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1">
+    <row r="497" spans="1:6">
       <c r="A497" s="1">
         <f t="shared" si="15"/>
         <v>496</v>
@@ -13750,7 +13753,7 @@
         <v>vivo iQOO 10 Pro 8+256G</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1">
+    <row r="498" spans="1:6">
       <c r="A498" s="1">
         <f t="shared" si="15"/>
         <v>497</v>
@@ -13772,7 +13775,7 @@
         <v>vivo iQOO 10 Pro 12+256G</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1">
+    <row r="499" spans="1:6">
       <c r="A499" s="1">
         <f t="shared" si="15"/>
         <v>498</v>
@@ -13794,7 +13797,7 @@
         <v>vivo iQOO 10 Pro 12+512G</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1">
+    <row r="500" spans="1:6">
       <c r="A500" s="1">
         <f t="shared" si="15"/>
         <v>499</v>
@@ -13816,7 +13819,7 @@
         <v>vivo iQOO 10 8+128G</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1">
+    <row r="501" spans="1:6">
       <c r="A501" s="1">
         <f t="shared" si="15"/>
         <v>500</v>
@@ -13838,7 +13841,7 @@
         <v>vivo iQOO 10 8+256G</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1">
+    <row r="502" spans="1:6">
       <c r="A502" s="1">
         <f t="shared" si="15"/>
         <v>501</v>
@@ -13860,7 +13863,7 @@
         <v>vivo iQOO 10 12+256G</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1">
+    <row r="503" spans="1:6">
       <c r="A503" s="1">
         <f t="shared" si="15"/>
         <v>502</v>
@@ -13882,7 +13885,7 @@
         <v>vivo iQOO 10 12+512G</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1">
+    <row r="504" spans="1:6">
       <c r="A504" s="1">
         <f t="shared" si="15"/>
         <v>503</v>
@@ -13904,7 +13907,7 @@
         <v>vivo iQOO Neo 10 Pro 12+256G</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1">
+    <row r="505" spans="1:6">
       <c r="A505" s="1">
         <f t="shared" si="15"/>
         <v>504</v>
@@ -13926,7 +13929,7 @@
         <v>vivo iQOO Neo 10 Pro 12+512G</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1">
+    <row r="506" spans="1:6">
       <c r="A506" s="1">
         <f t="shared" si="15"/>
         <v>505</v>
@@ -13948,7 +13951,7 @@
         <v>vivo iQOO Neo 10 Pro 16+256G</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1">
+    <row r="507" spans="1:6">
       <c r="A507" s="1">
         <f t="shared" si="15"/>
         <v>506</v>
@@ -13970,7 +13973,7 @@
         <v>vivo iQOO Neo 10 Pro 16+512G</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1">
+    <row r="508" spans="1:6">
       <c r="A508" s="1">
         <f t="shared" si="15"/>
         <v>507</v>
@@ -13992,7 +13995,7 @@
         <v>vivo iQOO Neo 10 Pro 16+1T</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1">
+    <row r="509" spans="1:6">
       <c r="A509" s="1">
         <f t="shared" si="15"/>
         <v>508</v>
@@ -14014,7 +14017,7 @@
         <v>vivo iQOO Neo 10 12+256G</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1">
+    <row r="510" spans="1:6">
       <c r="A510" s="1">
         <f t="shared" si="15"/>
         <v>509</v>
@@ -14036,7 +14039,7 @@
         <v>vivo iQOO Neo 10 12+512G</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1">
+    <row r="511" spans="1:6">
       <c r="A511" s="1">
         <f t="shared" si="15"/>
         <v>510</v>
@@ -14058,7 +14061,7 @@
         <v>vivo iQOO Neo 10 16+256G</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1">
+    <row r="512" spans="1:6">
       <c r="A512" s="1">
         <f t="shared" si="15"/>
         <v>511</v>
@@ -14080,7 +14083,7 @@
         <v>vivo iQOO Neo 10 16+512G</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1">
+    <row r="513" spans="1:6">
       <c r="A513" s="1">
         <f t="shared" si="15"/>
         <v>512</v>
@@ -14102,7 +14105,7 @@
         <v>vivo iQOO Neo 10 16+1T</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1">
+    <row r="514" spans="1:6">
       <c r="A514" s="1">
         <f t="shared" si="15"/>
         <v>513</v>
@@ -14124,7 +14127,7 @@
         <v>vivo iQOO Neo 9 Pro 12+256G</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1">
+    <row r="515" spans="1:6">
       <c r="A515" s="1">
         <f t="shared" si="15"/>
         <v>514</v>
@@ -14146,7 +14149,7 @@
         <v>vivo iQOO Neo 9 Pro 12+512G</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1">
+    <row r="516" spans="1:6">
       <c r="A516" s="1">
         <f t="shared" ref="A516:A579" si="17">A515+1</f>
         <v>515</v>
@@ -14168,7 +14171,7 @@
         <v>vivo iQOO Neo 9 Pro 16+512G</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1">
+    <row r="517" spans="1:6">
       <c r="A517" s="1">
         <f t="shared" si="17"/>
         <v>516</v>
@@ -14190,7 +14193,7 @@
         <v>vivo iQOO Neo 9 Pro 16+1T</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1">
+    <row r="518" spans="1:6">
       <c r="A518" s="1">
         <f t="shared" si="17"/>
         <v>517</v>
@@ -14212,7 +14215,7 @@
         <v>vivo iQOO Neo 9 12+256G</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1">
+    <row r="519" spans="1:6">
       <c r="A519" s="1">
         <f t="shared" si="17"/>
         <v>518</v>
@@ -14234,7 +14237,7 @@
         <v>vivo iQOO Neo 9 16+256G</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1">
+    <row r="520" spans="1:6">
       <c r="A520" s="1">
         <f t="shared" si="17"/>
         <v>519</v>
@@ -14256,7 +14259,7 @@
         <v>vivo iQOO Neo 9 16+512G</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1">
+    <row r="521" spans="1:6">
       <c r="A521" s="1">
         <f t="shared" si="17"/>
         <v>520</v>
@@ -14278,7 +14281,7 @@
         <v>vivo iQOO Neo 9 16+1T</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1">
+    <row r="522" spans="1:6">
       <c r="A522" s="1">
         <f t="shared" si="17"/>
         <v>521</v>
@@ -14300,7 +14303,7 @@
         <v>vivo iQOO Neo 9s Pro+ 12+256G</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1">
+    <row r="523" spans="1:6">
       <c r="A523" s="1">
         <f t="shared" si="17"/>
         <v>522</v>
@@ -14322,7 +14325,7 @@
         <v>vivo iQOO Neo 9s Pro+ 12+512G</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1">
+    <row r="524" spans="1:6">
       <c r="A524" s="1">
         <f t="shared" si="17"/>
         <v>523</v>
@@ -14344,7 +14347,7 @@
         <v>vivo iQOO Neo 9s Pro+ 16+256G</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1">
+    <row r="525" spans="1:6">
       <c r="A525" s="1">
         <f t="shared" si="17"/>
         <v>524</v>
@@ -14366,7 +14369,7 @@
         <v>vivo iQOO Neo 9s Pro+ 16+512G</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1">
+    <row r="526" spans="1:6">
       <c r="A526" s="1">
         <f t="shared" si="17"/>
         <v>525</v>
@@ -14388,7 +14391,7 @@
         <v>vivo iQOO Neo 9s Pro+ 16+1T</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1">
+    <row r="527" spans="1:6">
       <c r="A527" s="1">
         <f t="shared" si="17"/>
         <v>526</v>
@@ -14410,7 +14413,7 @@
         <v>vivo iQOO Z9 Turbo 12+256G</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1">
+    <row r="528" spans="1:6">
       <c r="A528" s="1">
         <f t="shared" si="17"/>
         <v>527</v>
@@ -14432,7 +14435,7 @@
         <v>vivo iQOO Z9 Turbo 12+512G</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1">
+    <row r="529" spans="1:6">
       <c r="A529" s="1">
         <f t="shared" si="17"/>
         <v>528</v>
@@ -14454,7 +14457,7 @@
         <v>vivo iQOO Z9 Turbo 16+256G</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1">
+    <row r="530" spans="1:6">
       <c r="A530" s="1">
         <f t="shared" si="17"/>
         <v>529</v>
@@ -14476,7 +14479,7 @@
         <v>vivo iQOO Z9 Turbo 16+512G</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1">
+    <row r="531" spans="1:6">
       <c r="A531" s="1">
         <f t="shared" si="17"/>
         <v>530</v>
@@ -14498,7 +14501,7 @@
         <v>vivo iQOO Z9 8+128G</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1">
+    <row r="532" spans="1:6">
       <c r="A532" s="1">
         <f t="shared" si="17"/>
         <v>531</v>
@@ -14520,7 +14523,7 @@
         <v>vivo iQOO Z9 8+256G</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1">
+    <row r="533" spans="1:6">
       <c r="A533" s="1">
         <f t="shared" si="17"/>
         <v>532</v>
@@ -14542,7 +14545,7 @@
         <v>vivo iQOO Z9 12+256G</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1">
+    <row r="534" spans="1:6">
       <c r="A534" s="1">
         <f t="shared" si="17"/>
         <v>533</v>
@@ -14564,7 +14567,7 @@
         <v>vivo iQOO Z9 12+512G</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1">
+    <row r="535" spans="1:6">
       <c r="A535" s="1">
         <f t="shared" si="17"/>
         <v>534</v>
@@ -14586,7 +14589,7 @@
         <v>vivo iQOO Z9x 8+128G</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1">
+    <row r="536" spans="1:6">
       <c r="A536" s="1">
         <f t="shared" si="17"/>
         <v>535</v>
@@ -14608,7 +14611,7 @@
         <v>vivo iQOO Z9x 8+256G</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1">
+    <row r="537" spans="1:6">
       <c r="A537" s="1">
         <f t="shared" si="17"/>
         <v>536</v>
@@ -14630,7 +14633,7 @@
         <v>vivo iQOO Z9x 12+256G</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1">
+    <row r="538" spans="1:6">
       <c r="A538" s="1">
         <f t="shared" si="17"/>
         <v>537</v>
@@ -14652,7 +14655,7 @@
         <v>vivo Y300 Pro 8+128G</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1">
+    <row r="539" spans="1:6">
       <c r="A539" s="1">
         <f t="shared" si="17"/>
         <v>538</v>
@@ -14674,7 +14677,7 @@
         <v>vivo Y300 Pro 8+256G</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1">
+    <row r="540" spans="1:6">
       <c r="A540" s="1">
         <f t="shared" si="17"/>
         <v>539</v>
@@ -14696,7 +14699,7 @@
         <v>vivo Y300 Pro 12+256G</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1">
+    <row r="541" spans="1:6">
       <c r="A541" s="1">
         <f t="shared" si="17"/>
         <v>540</v>
@@ -14718,7 +14721,7 @@
         <v>vivo Y300 Pro 12+512G</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1">
+    <row r="542" spans="1:6">
       <c r="A542" s="1">
         <f t="shared" si="17"/>
         <v>541</v>
@@ -14740,7 +14743,7 @@
         <v>vivo Y300 8+128G</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1">
+    <row r="543" spans="1:6">
       <c r="A543" s="1">
         <f t="shared" si="17"/>
         <v>542</v>
@@ -14762,7 +14765,7 @@
         <v>vivo Y300 8+256G</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1">
+    <row r="544" spans="1:6">
       <c r="A544" s="1">
         <f t="shared" si="17"/>
         <v>543</v>
@@ -14784,7 +14787,7 @@
         <v>vivo Y300 12+256G</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1">
+    <row r="545" spans="1:6">
       <c r="A545" s="1">
         <f t="shared" si="17"/>
         <v>544</v>
@@ -14806,7 +14809,7 @@
         <v>vivo Y300 12+512G</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1">
+    <row r="546" spans="1:6">
       <c r="A546" s="1">
         <f t="shared" si="17"/>
         <v>545</v>
@@ -14828,7 +14831,7 @@
         <v>vivo Y200 8+128G</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1">
+    <row r="547" spans="1:6">
       <c r="A547" s="1">
         <f t="shared" si="17"/>
         <v>546</v>
@@ -14850,7 +14853,7 @@
         <v>vivo Y200 8+256G</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1">
+    <row r="548" spans="1:6">
       <c r="A548" s="1">
         <f t="shared" si="17"/>
         <v>547</v>
@@ -14872,7 +14875,7 @@
         <v>vivo Y200 12+256G</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1">
+    <row r="549" spans="1:6">
       <c r="A549" s="1">
         <f t="shared" si="17"/>
         <v>548</v>
@@ -14894,7 +14897,7 @@
         <v>vivo Y200 12+512G</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1">
+    <row r="550" spans="1:6">
       <c r="A550" s="1">
         <f t="shared" si="17"/>
         <v>549</v>
@@ -14916,7 +14919,7 @@
         <v>vivo Y200i 8+256G</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1">
+    <row r="551" spans="1:6">
       <c r="A551" s="1">
         <f t="shared" si="17"/>
         <v>550</v>
@@ -14938,7 +14941,7 @@
         <v>vivo Y200i 12+256G</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1">
+    <row r="552" spans="1:6">
       <c r="A552" s="1">
         <f t="shared" si="17"/>
         <v>551</v>
@@ -14960,7 +14963,7 @@
         <v>vivo Y200i 12+512G</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1">
+    <row r="553" spans="1:6">
       <c r="A553" s="1">
         <f t="shared" si="17"/>
         <v>552</v>
@@ -14982,7 +14985,7 @@
         <v>vivo Pad 3 Pro 8+128G</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1">
+    <row r="554" spans="1:6">
       <c r="A554" s="1">
         <f t="shared" si="17"/>
         <v>553</v>
@@ -15004,7 +15007,7 @@
         <v>vivo Pad 3 Pro 8+256G</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1">
+    <row r="555" spans="1:6">
       <c r="A555" s="1">
         <f t="shared" si="17"/>
         <v>554</v>
@@ -15026,7 +15029,7 @@
         <v>vivo Pad 3 Pro 12+256G</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1">
+    <row r="556" spans="1:6">
       <c r="A556" s="1">
         <f t="shared" si="17"/>
         <v>555</v>
@@ -15048,7 +15051,7 @@
         <v>vivo Pad 3 Pro 16+512G</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1">
+    <row r="557" spans="1:6">
       <c r="A557" s="1">
         <f t="shared" si="17"/>
         <v>556</v>
@@ -15070,7 +15073,7 @@
         <v>vivo Pad 3 8+128G</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1">
+    <row r="558" spans="1:6">
       <c r="A558" s="1">
         <f t="shared" si="17"/>
         <v>557</v>
@@ -15092,7 +15095,7 @@
         <v>vivo Pad 3 8+256G</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1">
+    <row r="559" spans="1:6">
       <c r="A559" s="1">
         <f t="shared" si="17"/>
         <v>558</v>
@@ -15114,7 +15117,7 @@
         <v>vivo Pad 3 12+256G</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1">
+    <row r="560" spans="1:6">
       <c r="A560" s="1">
         <f t="shared" si="17"/>
         <v>559</v>
@@ -15136,7 +15139,7 @@
         <v>vivo Pad 3 12+512G</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1">
+    <row r="561" spans="1:6">
       <c r="A561" s="1">
         <f t="shared" si="17"/>
         <v>560</v>
@@ -15158,7 +15161,7 @@
         <v>vivo Pad 2 8+128G</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1">
+    <row r="562" spans="1:6">
       <c r="A562" s="1">
         <f t="shared" si="17"/>
         <v>561</v>
@@ -15180,7 +15183,7 @@
         <v>vivo Pad 2 8+256G</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1">
+    <row r="563" spans="1:6">
       <c r="A563" s="1">
         <f t="shared" si="17"/>
         <v>562</v>
@@ -15202,7 +15205,7 @@
         <v>vivo Pad 2 12+256G</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1">
+    <row r="564" spans="1:6">
       <c r="A564" s="1">
         <f t="shared" si="17"/>
         <v>563</v>
@@ -15224,7 +15227,7 @@
         <v>vivo Pad 2 12+512G</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1">
+    <row r="565" spans="1:6">
       <c r="A565" s="1">
         <f t="shared" si="17"/>
         <v>564</v>
@@ -15246,7 +15249,7 @@
         <v>小米 15 Pro 12+256G</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1">
+    <row r="566" spans="1:6">
       <c r="A566" s="1">
         <f t="shared" si="17"/>
         <v>565</v>
@@ -15268,7 +15271,7 @@
         <v>小米 15 Pro 16+512G</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1">
+    <row r="567" spans="1:6">
       <c r="A567" s="1">
         <f t="shared" si="17"/>
         <v>566</v>
@@ -15290,7 +15293,7 @@
         <v>小米 15 Pro 16+1T</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1">
+    <row r="568" spans="1:6">
       <c r="A568" s="1">
         <f t="shared" si="17"/>
         <v>567</v>
@@ -15312,7 +15315,7 @@
         <v>小米 15 12+256G</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1">
+    <row r="569" spans="1:6">
       <c r="A569" s="1">
         <f t="shared" si="17"/>
         <v>568</v>
@@ -15334,7 +15337,7 @@
         <v>小米 15 12+512G</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1">
+    <row r="570" spans="1:6">
       <c r="A570" s="1">
         <f t="shared" si="17"/>
         <v>569</v>
@@ -15356,7 +15359,7 @@
         <v>小米 15 16+512G</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1">
+    <row r="571" spans="1:6">
       <c r="A571" s="1">
         <f t="shared" si="17"/>
         <v>570</v>
@@ -15378,7 +15381,7 @@
         <v>小米 15 16+1T</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1">
+    <row r="572" spans="1:6">
       <c r="A572" s="1">
         <f t="shared" si="17"/>
         <v>571</v>
@@ -15400,7 +15403,7 @@
         <v>小米 15  钻石限定版</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1">
+    <row r="573" spans="1:6">
       <c r="A573" s="1">
         <f t="shared" si="17"/>
         <v>572</v>
@@ -15422,7 +15425,7 @@
         <v>小米 14 Ultra 12+256G</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1">
+    <row r="574" spans="1:6">
       <c r="A574" s="1">
         <f t="shared" si="17"/>
         <v>573</v>
@@ -15444,7 +15447,7 @@
         <v>小米 14 Ultra 16+512G</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1">
+    <row r="575" spans="1:6">
       <c r="A575" s="1">
         <f t="shared" si="17"/>
         <v>574</v>
@@ -15466,7 +15469,7 @@
         <v>小米 14 Ultra 16+1T</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1">
+    <row r="576" spans="1:6">
       <c r="A576" s="1">
         <f t="shared" si="17"/>
         <v>575</v>
@@ -15488,7 +15491,7 @@
         <v>小米 14 Ultra 钛金属特别版</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1">
+    <row r="577" spans="1:6">
       <c r="A577" s="1">
         <f t="shared" si="17"/>
         <v>576</v>
@@ -15510,7 +15513,7 @@
         <v>小米 14 Pro 12+256G</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1">
+    <row r="578" spans="1:6">
       <c r="A578" s="1">
         <f t="shared" si="17"/>
         <v>577</v>
@@ -15532,7 +15535,7 @@
         <v>小米 14 Pro 16+512G</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1">
+    <row r="579" spans="1:6">
       <c r="A579" s="1">
         <f t="shared" si="17"/>
         <v>578</v>
@@ -15554,7 +15557,7 @@
         <v>小米 14 Pro 16+1T</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1">
+    <row r="580" spans="1:6">
       <c r="A580" s="1">
         <f t="shared" ref="A580:A643" si="19">A579+1</f>
         <v>579</v>
@@ -15576,7 +15579,7 @@
         <v>小米 14 Pro 限量定制版</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1">
+    <row r="581" spans="1:6">
       <c r="A581" s="1">
         <f t="shared" si="19"/>
         <v>580</v>
@@ -15598,7 +15601,7 @@
         <v>小米 14 Pro 钛金属板（卫星通讯）</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1">
+    <row r="582" spans="1:6">
       <c r="A582" s="1">
         <f t="shared" si="19"/>
         <v>581</v>
@@ -15620,7 +15623,7 @@
         <v>小米 14 12+256G</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1">
+    <row r="583" spans="1:6">
       <c r="A583" s="1">
         <f t="shared" si="19"/>
         <v>582</v>
@@ -15642,7 +15645,7 @@
         <v>小米 14 16+512G</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1">
+    <row r="584" spans="1:6">
       <c r="A584" s="1">
         <f t="shared" si="19"/>
         <v>583</v>
@@ -15664,7 +15667,7 @@
         <v>小米 14 16+1T</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1">
+    <row r="585" spans="1:6">
       <c r="A585" s="1">
         <f t="shared" si="19"/>
         <v>584</v>
@@ -15686,7 +15689,7 @@
         <v>小米 14 限量定制版</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1">
+    <row r="586" spans="1:6">
       <c r="A586" s="1">
         <f t="shared" si="19"/>
         <v>585</v>
@@ -15708,7 +15711,7 @@
         <v>小米 13 8+128G</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1">
+    <row r="587" spans="1:6">
       <c r="A587" s="1">
         <f t="shared" si="19"/>
         <v>586</v>
@@ -15730,7 +15733,7 @@
         <v>小米 13 8+256G</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1">
+    <row r="588" spans="1:6">
       <c r="A588" s="1">
         <f t="shared" si="19"/>
         <v>587</v>
@@ -15752,7 +15755,7 @@
         <v>小米 13 8+512G</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1">
+    <row r="589" spans="1:6">
       <c r="A589" s="1">
         <f t="shared" si="19"/>
         <v>588</v>
@@ -15774,7 +15777,7 @@
         <v>小米 13 12+128G</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1">
+    <row r="590" spans="1:6">
       <c r="A590" s="1">
         <f t="shared" si="19"/>
         <v>589</v>
@@ -15796,7 +15799,7 @@
         <v>小米 13 12+256G</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1">
+    <row r="591" spans="1:6">
       <c r="A591" s="1">
         <f t="shared" si="19"/>
         <v>590</v>
@@ -15818,7 +15821,7 @@
         <v>小米 13 12+512G</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1">
+    <row r="592" spans="1:6">
       <c r="A592" s="1">
         <f t="shared" si="19"/>
         <v>591</v>
@@ -15840,7 +15843,7 @@
         <v>小米 Civi 4 Pro 12+256G</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1">
+    <row r="593" spans="1:6">
       <c r="A593" s="1">
         <f t="shared" si="19"/>
         <v>592</v>
@@ -15862,7 +15865,7 @@
         <v>小米 Civi 4 Pro 12+512G</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1">
+    <row r="594" spans="1:6">
       <c r="A594" s="1">
         <f t="shared" si="19"/>
         <v>593</v>
@@ -15884,7 +15887,7 @@
         <v>小米 Civi 4 Pro 16+512G</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1">
+    <row r="595" spans="1:6">
       <c r="A595" s="1">
         <f t="shared" si="19"/>
         <v>594</v>
@@ -15906,7 +15909,7 @@
         <v>小米 Civi 4 Pro 限量定制版</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1">
+    <row r="596" spans="1:6">
       <c r="A596" s="1">
         <f t="shared" si="19"/>
         <v>595</v>
@@ -15928,7 +15931,7 @@
         <v>小米 MIX Fold 4 12+256G</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1">
+    <row r="597" spans="1:6">
       <c r="A597" s="1">
         <f t="shared" si="19"/>
         <v>596</v>
@@ -15950,7 +15953,7 @@
         <v>小米 MIX Fold 4 16+512G</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1">
+    <row r="598" spans="1:6">
       <c r="A598" s="1">
         <f t="shared" si="19"/>
         <v>597</v>
@@ -15972,7 +15975,7 @@
         <v>小米 MIX Fold 4 16+1T</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1">
+    <row r="599" spans="1:6">
       <c r="A599" s="1">
         <f t="shared" si="19"/>
         <v>598</v>
@@ -15994,7 +15997,7 @@
         <v>小米 MIX Flip 12+256G</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1">
+    <row r="600" spans="1:6">
       <c r="A600" s="1">
         <f t="shared" si="19"/>
         <v>599</v>
@@ -16016,7 +16019,7 @@
         <v>小米 MIX Flip 12+512G</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1">
+    <row r="601" spans="1:6">
       <c r="A601" s="1">
         <f t="shared" si="19"/>
         <v>600</v>
@@ -16038,7 +16041,7 @@
         <v>小米 MIX Flip 16+1T</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1">
+    <row r="602" spans="1:6">
       <c r="A602" s="1">
         <f t="shared" si="19"/>
         <v>601</v>
@@ -16060,7 +16063,7 @@
         <v>小米 Pad 6S Pro 12.4 8+128G</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1">
+    <row r="603" spans="1:6">
       <c r="A603" s="1">
         <f t="shared" si="19"/>
         <v>602</v>
@@ -16082,7 +16085,7 @@
         <v>小米 Pad 6S Pro 12.4 8+256G</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1">
+    <row r="604" spans="1:6">
       <c r="A604" s="1">
         <f t="shared" si="19"/>
         <v>603</v>
@@ -16104,7 +16107,7 @@
         <v>小米 Pad 6S Pro 12.4 12+256G</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1">
+    <row r="605" spans="1:6">
       <c r="A605" s="1">
         <f t="shared" si="19"/>
         <v>604</v>
@@ -16126,7 +16129,7 @@
         <v>小米 Pad 6S Pro 12.4 12+512G</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1">
+    <row r="606" spans="1:6">
       <c r="A606" s="1">
         <f t="shared" si="19"/>
         <v>605</v>
@@ -16148,7 +16151,7 @@
         <v>小米 Pad 6S Pro 12.4 16+1T</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1">
+    <row r="607" spans="1:6">
       <c r="A607" s="1">
         <f t="shared" si="19"/>
         <v>606</v>
@@ -16170,7 +16173,7 @@
         <v>小米 平板 7 Pro 8+128G</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1">
+    <row r="608" spans="1:6">
       <c r="A608" s="1">
         <f t="shared" si="19"/>
         <v>607</v>
@@ -16192,7 +16195,7 @@
         <v>小米 平板 7 Pro 8+256G</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1">
+    <row r="609" spans="1:6">
       <c r="A609" s="1">
         <f t="shared" si="19"/>
         <v>608</v>
@@ -16214,7 +16217,7 @@
         <v>小米 平板 7 Pro 柔光版 8+256G</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1">
+    <row r="610" spans="1:6">
       <c r="A610" s="1">
         <f t="shared" si="19"/>
         <v>609</v>
@@ -16236,7 +16239,7 @@
         <v>小米 平板 7 Pro 12+256G</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1">
+    <row r="611" spans="1:6">
       <c r="A611" s="1">
         <f t="shared" si="19"/>
         <v>610</v>
@@ -16258,7 +16261,7 @@
         <v>小米 平板 7 Pro 12+512G</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1">
+    <row r="612" spans="1:6">
       <c r="A612" s="1">
         <f t="shared" si="19"/>
         <v>611</v>
@@ -16280,7 +16283,7 @@
         <v>小米 平板 7 Pro 妙享版 12+256G</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1">
+    <row r="613" spans="1:6">
       <c r="A613" s="1">
         <f t="shared" si="19"/>
         <v>612</v>
@@ -16302,7 +16305,7 @@
         <v>小米 平板 7 Pro 妙享版 12+512G</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1">
+    <row r="614" spans="1:6">
       <c r="A614" s="1">
         <f t="shared" si="19"/>
         <v>613</v>
@@ -16324,7 +16327,7 @@
         <v>小米 平板 7 Pro 柔光版 12+256G</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1">
+    <row r="615" spans="1:6">
       <c r="A615" s="1">
         <f t="shared" si="19"/>
         <v>614</v>
@@ -16346,7 +16349,7 @@
         <v>小米 平板 7 Pro 柔光版 12+512G</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1">
+    <row r="616" spans="1:6">
       <c r="A616" s="1">
         <f t="shared" si="19"/>
         <v>615</v>
@@ -16368,7 +16371,7 @@
         <v>小米 平板 7 Pro 柔光妙享版 12+256G</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1">
+    <row r="617" spans="1:6">
       <c r="A617" s="1">
         <f t="shared" si="19"/>
         <v>616</v>
@@ -16390,7 +16393,7 @@
         <v>小米 平板 7 Pro 柔光妙享版 12+512G</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1">
+    <row r="618" spans="1:6">
       <c r="A618" s="1">
         <f t="shared" si="19"/>
         <v>617</v>
@@ -16412,7 +16415,7 @@
         <v>小米 平板 7 8+128G</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1">
+    <row r="619" spans="1:6">
       <c r="A619" s="1">
         <f t="shared" si="19"/>
         <v>618</v>
@@ -16434,7 +16437,7 @@
         <v>小米 平板 7 8+256G</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1">
+    <row r="620" spans="1:6">
       <c r="A620" s="1">
         <f t="shared" si="19"/>
         <v>619</v>
@@ -16456,7 +16459,7 @@
         <v>小米 平板 7 12+256G</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1">
+    <row r="621" spans="1:6">
       <c r="A621" s="1">
         <f t="shared" si="19"/>
         <v>620</v>
@@ -16478,7 +16481,7 @@
         <v>小米 平板 7 柔光版 8+256G</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1">
+    <row r="622" spans="1:6">
       <c r="A622" s="1">
         <f t="shared" si="19"/>
         <v>621</v>
@@ -16500,7 +16503,7 @@
         <v>小米 平板 7 柔光版 12+256G</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1">
+    <row r="623" spans="1:6">
       <c r="A623" s="1">
         <f t="shared" si="19"/>
         <v>622</v>
@@ -16522,7 +16525,7 @@
         <v>小米 平板 6 Pro 8+256G</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1">
+    <row r="624" spans="1:6">
       <c r="A624" s="1">
         <f t="shared" si="19"/>
         <v>623</v>
@@ -16544,7 +16547,7 @@
         <v>小米 平板 6 Pro 12+256G</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1">
+    <row r="625" spans="1:6">
       <c r="A625" s="1">
         <f t="shared" si="19"/>
         <v>624</v>
@@ -16566,7 +16569,7 @@
         <v>小米 平板 6 8+256G</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1">
+    <row r="626" spans="1:6">
       <c r="A626" s="1">
         <f t="shared" si="19"/>
         <v>625</v>
@@ -16588,7 +16591,7 @@
         <v>小米 手环 9 Pro 黑色</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1">
+    <row r="627" spans="1:6">
       <c r="A627" s="1">
         <f t="shared" si="19"/>
         <v>626</v>
@@ -16610,7 +16613,7 @@
         <v>红米 K80 Pro 12+256G</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1">
+    <row r="628" spans="1:6">
       <c r="A628" s="1">
         <f t="shared" si="19"/>
         <v>627</v>
@@ -16632,7 +16635,7 @@
         <v>红米 K80 Pro 12+512G</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1">
+    <row r="629" spans="1:6">
       <c r="A629" s="1">
         <f t="shared" si="19"/>
         <v>628</v>
@@ -16654,7 +16657,7 @@
         <v>红米 K80 Pro 16+512G</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1">
+    <row r="630" spans="1:6">
       <c r="A630" s="1">
         <f t="shared" si="19"/>
         <v>629</v>
@@ -16676,7 +16679,7 @@
         <v>红米 K80 Pro 16+1T</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1">
+    <row r="631" spans="1:6">
       <c r="A631" s="1">
         <f t="shared" si="19"/>
         <v>630</v>
@@ -16698,7 +16701,7 @@
         <v>红米 K80 12+256G</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1">
+    <row r="632" spans="1:6">
       <c r="A632" s="1">
         <f t="shared" si="19"/>
         <v>631</v>
@@ -16720,7 +16723,7 @@
         <v>红米 K80 12+512G</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1">
+    <row r="633" spans="1:6">
       <c r="A633" s="1">
         <f t="shared" si="19"/>
         <v>632</v>
@@ -16742,7 +16745,7 @@
         <v>红米 K80 16+256G</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1">
+    <row r="634" spans="1:6">
       <c r="A634" s="1">
         <f t="shared" si="19"/>
         <v>633</v>
@@ -16764,7 +16767,7 @@
         <v>红米 K80 16+512G</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1">
+    <row r="635" spans="1:6">
       <c r="A635" s="1">
         <f t="shared" si="19"/>
         <v>634</v>
@@ -16786,7 +16789,7 @@
         <v>红米 K80 16+1T</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1">
+    <row r="636" spans="1:6">
       <c r="A636" s="1">
         <f t="shared" si="19"/>
         <v>635</v>
@@ -16808,7 +16811,7 @@
         <v>红米 K70 Pro 12+256G</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1">
+    <row r="637" spans="1:6">
       <c r="A637" s="1">
         <f t="shared" si="19"/>
         <v>636</v>
@@ -16830,7 +16833,7 @@
         <v>红米 K70 Pro 12+512G</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1">
+    <row r="638" spans="1:6">
       <c r="A638" s="1">
         <f t="shared" si="19"/>
         <v>637</v>
@@ -16852,7 +16855,7 @@
         <v>红米 K70 Pro 16+256G</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1">
+    <row r="639" spans="1:6">
       <c r="A639" s="1">
         <f t="shared" si="19"/>
         <v>638</v>
@@ -16874,7 +16877,7 @@
         <v>红米 K70 Pro 16+512G</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1">
+    <row r="640" spans="1:6">
       <c r="A640" s="1">
         <f t="shared" si="19"/>
         <v>639</v>
@@ -16896,7 +16899,7 @@
         <v>红米 K70 Pro 24+1T</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1">
+    <row r="641" spans="1:6">
       <c r="A641" s="1">
         <f t="shared" si="19"/>
         <v>640</v>
@@ -16918,7 +16921,7 @@
         <v>红米 K70 12+256G</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1">
+    <row r="642" spans="1:6">
       <c r="A642" s="1">
         <f t="shared" si="19"/>
         <v>641</v>
@@ -16940,7 +16943,7 @@
         <v>红米 K70 12+512G</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1">
+    <row r="643" spans="1:6">
       <c r="A643" s="1">
         <f t="shared" si="19"/>
         <v>642</v>
@@ -16962,7 +16965,7 @@
         <v>红米 K70 16+256G</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1">
+    <row r="644" spans="1:6">
       <c r="A644" s="1">
         <f t="shared" ref="A644:A707" si="21">A643+1</f>
         <v>643</v>
@@ -16984,7 +16987,7 @@
         <v>红米 K70 16+512G</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1">
+    <row r="645" spans="1:6">
       <c r="A645" s="1">
         <f t="shared" si="21"/>
         <v>644</v>
@@ -17006,7 +17009,7 @@
         <v>红米 K70 16+1T</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1">
+    <row r="646" spans="1:6">
       <c r="A646" s="1">
         <f t="shared" si="21"/>
         <v>645</v>
@@ -17028,7 +17031,7 @@
         <v>红米 K70E 12+256G</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1">
+    <row r="647" spans="1:6">
       <c r="A647" s="1">
         <f t="shared" si="21"/>
         <v>646</v>
@@ -17050,7 +17053,7 @@
         <v>红米 K70E 12+512G</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1">
+    <row r="648" spans="1:6">
       <c r="A648" s="1">
         <f t="shared" si="21"/>
         <v>647</v>
@@ -17072,7 +17075,7 @@
         <v>红米 K70E 16+1T</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1">
+    <row r="649" spans="1:6">
       <c r="A649" s="1">
         <f t="shared" si="21"/>
         <v>648</v>
@@ -17094,7 +17097,7 @@
         <v>红米 K70 至尊版 12+256G</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1">
+    <row r="650" spans="1:6">
       <c r="A650" s="1">
         <f t="shared" si="21"/>
         <v>649</v>
@@ -17116,7 +17119,7 @@
         <v>红米 K70 至尊版 12+512G</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1">
+    <row r="651" spans="1:6">
       <c r="A651" s="1">
         <f t="shared" si="21"/>
         <v>650</v>
@@ -17138,7 +17141,7 @@
         <v>红米 K70 至尊版 16+512G</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1">
+    <row r="652" spans="1:6">
       <c r="A652" s="1">
         <f t="shared" si="21"/>
         <v>651</v>
@@ -17160,7 +17163,7 @@
         <v>红米 K70 至尊版 16+1T</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1">
+    <row r="653" spans="1:6">
       <c r="A653" s="1">
         <f t="shared" si="21"/>
         <v>652</v>
@@ -17182,7 +17185,7 @@
         <v>红米 K70 至尊版 24+1T</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1">
+    <row r="654" spans="1:6">
       <c r="A654" s="1">
         <f t="shared" si="21"/>
         <v>653</v>
@@ -17204,7 +17207,7 @@
         <v>红米 Note 14 Pro 8+128G</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1">
+    <row r="655" spans="1:6">
       <c r="A655" s="1">
         <f t="shared" si="21"/>
         <v>654</v>
@@ -17226,7 +17229,7 @@
         <v>红米 Note 14 Pro 8+256G</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1">
+    <row r="656" spans="1:6">
       <c r="A656" s="1">
         <f t="shared" si="21"/>
         <v>655</v>
@@ -17248,7 +17251,7 @@
         <v>红米 Note 14 Pro 12+256G</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1">
+    <row r="657" spans="1:6">
       <c r="A657" s="1">
         <f t="shared" si="21"/>
         <v>656</v>
@@ -17270,7 +17273,7 @@
         <v>红米 Note 14 Pro 12+512G</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1">
+    <row r="658" spans="1:6">
       <c r="A658" s="1">
         <f t="shared" si="21"/>
         <v>657</v>
@@ -17292,7 +17295,7 @@
         <v>红米 Note 14 6+128G</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1">
+    <row r="659" spans="1:6">
       <c r="A659" s="1">
         <f t="shared" si="21"/>
         <v>658</v>
@@ -17314,7 +17317,7 @@
         <v>红米 Note 14 8+128G</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1">
+    <row r="660" spans="1:6">
       <c r="A660" s="1">
         <f t="shared" si="21"/>
         <v>659</v>
@@ -17336,7 +17339,7 @@
         <v>红米 Note 14 8+256G</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1">
+    <row r="661" spans="1:6">
       <c r="A661" s="1">
         <f t="shared" si="21"/>
         <v>660</v>
@@ -17358,7 +17361,7 @@
         <v>红米 Note 14 12+256G</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1">
+    <row r="662" spans="1:6">
       <c r="A662" s="1">
         <f t="shared" si="21"/>
         <v>661</v>
@@ -17380,7 +17383,7 @@
         <v>红米 Note 13 Pro 8+128G</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1">
+    <row r="663" spans="1:6">
       <c r="A663" s="1">
         <f t="shared" si="21"/>
         <v>662</v>
@@ -17402,7 +17405,7 @@
         <v>红米 Note 13 Pro 8+256G</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1">
+    <row r="664" spans="1:6">
       <c r="A664" s="1">
         <f t="shared" si="21"/>
         <v>663</v>
@@ -17424,7 +17427,7 @@
         <v>红米 Note 13 Pro 12+256G</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1">
+    <row r="665" spans="1:6">
       <c r="A665" s="1">
         <f t="shared" si="21"/>
         <v>664</v>
@@ -17446,7 +17449,7 @@
         <v>红米 Note 13 Pro 12+512G</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1">
+    <row r="666" spans="1:6">
       <c r="A666" s="1">
         <f t="shared" si="21"/>
         <v>665</v>
@@ -17468,7 +17471,7 @@
         <v>红米 Note 13 Pro 16+512G</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1">
+    <row r="667" spans="1:6">
       <c r="A667" s="1">
         <f t="shared" si="21"/>
         <v>666</v>
@@ -17490,7 +17493,7 @@
         <v>红米 Note 13 8+128G</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1">
+    <row r="668" spans="1:6">
       <c r="A668" s="1">
         <f t="shared" si="21"/>
         <v>667</v>
@@ -17512,7 +17515,7 @@
         <v>红米 Note 13 8+256G</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1">
+    <row r="669" spans="1:6">
       <c r="A669" s="1">
         <f t="shared" si="21"/>
         <v>668</v>
@@ -17534,7 +17537,7 @@
         <v>红米 Note 13 12+256G</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1">
+    <row r="670" spans="1:6">
       <c r="A670" s="1">
         <f t="shared" si="21"/>
         <v>669</v>
@@ -17556,7 +17559,7 @@
         <v>红米 Turbo 4 12+256G</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1">
+    <row r="671" spans="1:6">
       <c r="A671" s="1">
         <f t="shared" si="21"/>
         <v>670</v>
@@ -17578,7 +17581,7 @@
         <v>红米 Turbo 4 12+512G</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1">
+    <row r="672" spans="1:6">
       <c r="A672" s="1">
         <f t="shared" si="21"/>
         <v>671</v>
@@ -17600,7 +17603,7 @@
         <v>红米 Turbo 4 16+256G</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1">
+    <row r="673" spans="1:6">
       <c r="A673" s="1">
         <f t="shared" si="21"/>
         <v>672</v>
@@ -17622,7 +17625,7 @@
         <v>红米 Turbo 4 16+512G</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1">
+    <row r="674" spans="1:6">
       <c r="A674" s="1">
         <f t="shared" si="21"/>
         <v>673</v>
@@ -17644,7 +17647,7 @@
         <v>红米 Turbo 3 12+256G</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1">
+    <row r="675" spans="1:6">
       <c r="A675" s="1">
         <f t="shared" si="21"/>
         <v>674</v>
@@ -17666,7 +17669,7 @@
         <v>红米 Turbo 3 12+512G</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1">
+    <row r="676" spans="1:6">
       <c r="A676" s="1">
         <f t="shared" si="21"/>
         <v>675</v>
@@ -17688,7 +17691,7 @@
         <v>红米 Turbo 3 16+512G</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1">
+    <row r="677" spans="1:6">
       <c r="A677" s="1">
         <f t="shared" si="21"/>
         <v>676</v>
@@ -17710,7 +17713,7 @@
         <v>红米 Turbo 3 16+1T</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1">
+    <row r="678" spans="1:6">
       <c r="A678" s="1">
         <f t="shared" si="21"/>
         <v>677</v>
@@ -17732,7 +17735,7 @@
         <v>华为 Mate 70 Pro+ 16+512G</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1">
+    <row r="679" spans="1:6">
       <c r="A679" s="1">
         <f t="shared" si="21"/>
         <v>678</v>
@@ -17754,7 +17757,7 @@
         <v>华为 Mate 70 Pro+ 16+1T</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1">
+    <row r="680" spans="1:6">
       <c r="A680" s="1">
         <f t="shared" si="21"/>
         <v>679</v>
@@ -17776,7 +17779,7 @@
         <v>华为 Mate 70 Pro 12+256G</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1">
+    <row r="681" spans="1:6">
       <c r="A681" s="1">
         <f t="shared" si="21"/>
         <v>680</v>
@@ -17798,7 +17801,7 @@
         <v>华为 Mate 70 Pro 12+512G</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1">
+    <row r="682" spans="1:6">
       <c r="A682" s="1">
         <f t="shared" si="21"/>
         <v>681</v>
@@ -17820,7 +17823,7 @@
         <v>华为 Mate 70 Pro 12+1T</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1">
+    <row r="683" spans="1:6">
       <c r="A683" s="1">
         <f t="shared" si="21"/>
         <v>682</v>
@@ -17842,7 +17845,7 @@
         <v>华为 Mate 70 RS 非凡大师 16+512G</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1">
+    <row r="684" spans="1:6">
       <c r="A684" s="1">
         <f t="shared" si="21"/>
         <v>683</v>
@@ -17864,7 +17867,7 @@
         <v>华为 Mate 70 RS 非凡大师 16+1T</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1">
+    <row r="685" spans="1:6">
       <c r="A685" s="1">
         <f t="shared" si="21"/>
         <v>684</v>
@@ -17886,7 +17889,7 @@
         <v>华为 Mate 70 12+256G</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1">
+    <row r="686" spans="1:6">
       <c r="A686" s="1">
         <f t="shared" si="21"/>
         <v>685</v>
@@ -17908,7 +17911,7 @@
         <v>华为 Mate 70 12+512G</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1">
+    <row r="687" spans="1:6">
       <c r="A687" s="1">
         <f t="shared" si="21"/>
         <v>686</v>
@@ -17930,7 +17933,7 @@
         <v>华为 Mate 70 12+1T</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1">
+    <row r="688" spans="1:6">
       <c r="A688" s="1">
         <f t="shared" si="21"/>
         <v>687</v>
@@ -17952,7 +17955,7 @@
         <v>华为 Mate 60 Pro+ 16+512G</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1">
+    <row r="689" spans="1:6">
       <c r="A689" s="1">
         <f t="shared" si="21"/>
         <v>688</v>
@@ -17974,7 +17977,7 @@
         <v>华为 Mate 60 Pro+ 16+1T</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1">
+    <row r="690" spans="1:6">
       <c r="A690" s="1">
         <f t="shared" si="21"/>
         <v>689</v>
@@ -17996,7 +17999,7 @@
         <v>华为 Mate 60 Pro 12+256G</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1">
+    <row r="691" spans="1:6">
       <c r="A691" s="1">
         <f t="shared" si="21"/>
         <v>690</v>
@@ -18018,7 +18021,7 @@
         <v>华为 Mate 60 Pro 12+512G</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1">
+    <row r="692" spans="1:6">
       <c r="A692" s="1">
         <f t="shared" si="21"/>
         <v>691</v>
@@ -18040,7 +18043,7 @@
         <v>华为 Mate 60 Pro 12+1T</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1">
+    <row r="693" spans="1:6">
       <c r="A693" s="1">
         <f t="shared" si="21"/>
         <v>692</v>
@@ -18062,7 +18065,7 @@
         <v>华为 Mate 60 12+256G</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1">
+    <row r="694" spans="1:6">
       <c r="A694" s="1">
         <f t="shared" si="21"/>
         <v>693</v>
@@ -18084,7 +18087,7 @@
         <v>华为 Mate 60 12+512G</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1">
+    <row r="695" spans="1:6">
       <c r="A695" s="1">
         <f t="shared" si="21"/>
         <v>694</v>
@@ -18106,7 +18109,7 @@
         <v>华为 Mate 60 12+1T</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1">
+    <row r="696" spans="1:6">
       <c r="A696" s="1">
         <f t="shared" si="21"/>
         <v>695</v>
@@ -18128,7 +18131,7 @@
         <v>华为 Pura 70 Ultra 16+512G</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1">
+    <row r="697" spans="1:6">
       <c r="A697" s="1">
         <f t="shared" si="21"/>
         <v>696</v>
@@ -18150,7 +18153,7 @@
         <v>华为 Pura 70 Ultra 16+1T</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1">
+    <row r="698" spans="1:6">
       <c r="A698" s="1">
         <f t="shared" si="21"/>
         <v>697</v>
@@ -18172,7 +18175,7 @@
         <v>华为 Pura 70 Pro+ 16+512G</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1">
+    <row r="699" spans="1:6">
       <c r="A699" s="1">
         <f t="shared" si="21"/>
         <v>698</v>
@@ -18194,7 +18197,7 @@
         <v>华为 Pura 70 Pro+ 16+1T</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1">
+    <row r="700" spans="1:6">
       <c r="A700" s="1">
         <f t="shared" si="21"/>
         <v>699</v>
@@ -18216,7 +18219,7 @@
         <v>华为 Pura 70 Pro 12+256G</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1">
+    <row r="701" spans="1:6">
       <c r="A701" s="1">
         <f t="shared" si="21"/>
         <v>700</v>
@@ -18238,7 +18241,7 @@
         <v>华为 Pura 70 Pro 12+512G</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1">
+    <row r="702" spans="1:6">
       <c r="A702" s="1">
         <f t="shared" si="21"/>
         <v>701</v>
@@ -18260,7 +18263,7 @@
         <v>华为 Pura 70 Pro 12+1T</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1">
+    <row r="703" spans="1:6">
       <c r="A703" s="1">
         <f t="shared" si="21"/>
         <v>702</v>
@@ -18282,7 +18285,7 @@
         <v>华为 Pura 70 12+256G</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1">
+    <row r="704" spans="1:6">
       <c r="A704" s="1">
         <f t="shared" si="21"/>
         <v>703</v>
@@ -18304,7 +18307,7 @@
         <v>华为 Pura 70 12+512G</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1">
+    <row r="705" spans="1:6">
       <c r="A705" s="1">
         <f t="shared" si="21"/>
         <v>704</v>
@@ -18326,7 +18329,7 @@
         <v>华为 Pura 70 12+1T</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1">
+    <row r="706" spans="1:6">
       <c r="A706" s="1">
         <f t="shared" si="21"/>
         <v>705</v>
@@ -18348,7 +18351,7 @@
         <v>华为 Mate X6 12+256G</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1">
+    <row r="707" spans="1:6">
       <c r="A707" s="1">
         <f t="shared" si="21"/>
         <v>706</v>
@@ -18370,7 +18373,7 @@
         <v>华为 Mate X6 12+512G</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1">
+    <row r="708" spans="1:6">
       <c r="A708" s="1">
         <f t="shared" ref="A708:A771" si="23">A707+1</f>
         <v>707</v>
@@ -18392,7 +18395,7 @@
         <v>华为 Mate X6 典藏版 16+512G</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1">
+    <row r="709" spans="1:6">
       <c r="A709" s="1">
         <f t="shared" si="23"/>
         <v>708</v>
@@ -18414,7 +18417,7 @@
         <v>华为 Mate X6 典藏版 16+1T</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1">
+    <row r="710" spans="1:6">
       <c r="A710" s="1">
         <f t="shared" si="23"/>
         <v>709</v>
@@ -18436,7 +18439,7 @@
         <v>华为 Mate X5 12+256G</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1">
+    <row r="711" spans="1:6">
       <c r="A711" s="1">
         <f t="shared" si="23"/>
         <v>710</v>
@@ -18458,7 +18461,7 @@
         <v>华为 Mate X5 12+512G</v>
       </c>
     </row>
-    <row r="712" spans="1:6" hidden="1">
+    <row r="712" spans="1:6">
       <c r="A712" s="1">
         <f t="shared" si="23"/>
         <v>711</v>
@@ -18480,7 +18483,7 @@
         <v>华为 Mate X5 16+512G</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1">
+    <row r="713" spans="1:6">
       <c r="A713" s="1">
         <f t="shared" si="23"/>
         <v>712</v>
@@ -18502,7 +18505,7 @@
         <v>华为 Mate X5 典藏版 16+512G</v>
       </c>
     </row>
-    <row r="714" spans="1:6" hidden="1">
+    <row r="714" spans="1:6">
       <c r="A714" s="1">
         <f t="shared" si="23"/>
         <v>713</v>
@@ -18524,7 +18527,7 @@
         <v>华为 Mate X5 典藏版 16+1T</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1">
+    <row r="715" spans="1:6">
       <c r="A715" s="1">
         <f t="shared" si="23"/>
         <v>714</v>
@@ -18546,7 +18549,7 @@
         <v>华为 nova 13 Pro 12+256G</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1">
+    <row r="716" spans="1:6">
       <c r="A716" s="1">
         <f t="shared" si="23"/>
         <v>715</v>
@@ -18568,7 +18571,7 @@
         <v>华为 nova 13 Pro 12+512G</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1">
+    <row r="717" spans="1:6">
       <c r="A717" s="1">
         <f t="shared" si="23"/>
         <v>716</v>
@@ -18590,7 +18593,7 @@
         <v>华为 nova 13 Pro 12+1T</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1">
+    <row r="718" spans="1:6">
       <c r="A718" s="1">
         <f t="shared" si="23"/>
         <v>717</v>
@@ -18612,7 +18615,7 @@
         <v>华为 nova 13 12+256G</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1">
+    <row r="719" spans="1:6">
       <c r="A719" s="1">
         <f t="shared" si="23"/>
         <v>718</v>
@@ -18634,7 +18637,7 @@
         <v>华为 nova 13 12+512G</v>
       </c>
     </row>
-    <row r="720" spans="1:6" hidden="1">
+    <row r="720" spans="1:6">
       <c r="A720" s="1">
         <f t="shared" si="23"/>
         <v>719</v>
@@ -18656,7 +18659,7 @@
         <v>华为 nova 13 12+1T</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1">
+    <row r="721" spans="1:6">
       <c r="A721" s="1">
         <f t="shared" si="23"/>
         <v>720</v>
@@ -18678,7 +18681,7 @@
         <v>华为 nova Flip 12+256G</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1">
+    <row r="722" spans="1:6">
       <c r="A722" s="1">
         <f t="shared" si="23"/>
         <v>721</v>
@@ -18700,7 +18703,7 @@
         <v>华为 nova Flip 12+512G</v>
       </c>
     </row>
-    <row r="723" spans="1:6" hidden="1">
+    <row r="723" spans="1:6">
       <c r="A723" s="1">
         <f t="shared" si="23"/>
         <v>722</v>
@@ -18722,7 +18725,7 @@
         <v>华为 nova Flip 12+1T</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1">
+    <row r="724" spans="1:6">
       <c r="A724" s="1">
         <f t="shared" si="23"/>
         <v>723</v>
@@ -18744,7 +18747,7 @@
         <v>华为 nova 12 Ultra 12+512G</v>
       </c>
     </row>
-    <row r="725" spans="1:6" hidden="1">
+    <row r="725" spans="1:6">
       <c r="A725" s="1">
         <f t="shared" si="23"/>
         <v>724</v>
@@ -18766,7 +18769,7 @@
         <v>华为 nova 12 Ultra 12+1T</v>
       </c>
     </row>
-    <row r="726" spans="1:6" hidden="1">
+    <row r="726" spans="1:6">
       <c r="A726" s="1">
         <f t="shared" si="23"/>
         <v>725</v>
@@ -18788,7 +18791,7 @@
         <v>华为 nova 12 Pro 12+256G</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1">
+    <row r="727" spans="1:6">
       <c r="A727" s="1">
         <f t="shared" si="23"/>
         <v>726</v>
@@ -18810,7 +18813,7 @@
         <v>华为 nova 12 Pro 12+512G</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1">
+    <row r="728" spans="1:6">
       <c r="A728" s="1">
         <f t="shared" si="23"/>
         <v>727</v>
@@ -18832,7 +18835,7 @@
         <v>华为 nova 12 8+256G</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1">
+    <row r="729" spans="1:6">
       <c r="A729" s="1">
         <f t="shared" si="23"/>
         <v>728</v>
@@ -18854,7 +18857,7 @@
         <v>华为 nova 12 8+512G</v>
       </c>
     </row>
-    <row r="730" spans="1:6" hidden="1">
+    <row r="730" spans="1:6">
       <c r="A730" s="1">
         <f t="shared" si="23"/>
         <v>729</v>
@@ -18876,7 +18879,7 @@
         <v>华为 nova 12 活力版 256G</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1">
+    <row r="731" spans="1:6">
       <c r="A731" s="1">
         <f t="shared" si="23"/>
         <v>730</v>
@@ -18898,7 +18901,7 @@
         <v>华为 nova 12 活力版 512G</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1">
+    <row r="732" spans="1:6">
       <c r="A732" s="1">
         <f t="shared" si="23"/>
         <v>731</v>
@@ -18920,7 +18923,7 @@
         <v>华为 Pocket 2 12+256G</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1">
+    <row r="733" spans="1:6">
       <c r="A733" s="1">
         <f t="shared" si="23"/>
         <v>732</v>
@@ -18942,7 +18945,7 @@
         <v>华为 Pocket 2 12+512G</v>
       </c>
     </row>
-    <row r="734" spans="1:6" hidden="1">
+    <row r="734" spans="1:6">
       <c r="A734" s="1">
         <f t="shared" si="23"/>
         <v>733</v>
@@ -18964,7 +18967,7 @@
         <v>华为 Pocket 2 12+1T</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1">
+    <row r="735" spans="1:6">
       <c r="A735" s="1">
         <f t="shared" si="23"/>
         <v>734</v>
@@ -18986,7 +18989,7 @@
         <v>华为 畅享 70 8+128G</v>
       </c>
     </row>
-    <row r="736" spans="1:6" hidden="1">
+    <row r="736" spans="1:6">
       <c r="A736" s="1">
         <f t="shared" si="23"/>
         <v>735</v>
@@ -19008,7 +19011,7 @@
         <v>华为 畅享 70 8+256G</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1">
+    <row r="737" spans="1:6">
       <c r="A737" s="1">
         <f t="shared" si="23"/>
         <v>736</v>
@@ -19558,7 +19561,7 @@
         <v>华为 MateBook 16s 2023 酷睿 i9 集显/32G+1T 触屏</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1">
+    <row r="762" spans="1:6">
       <c r="A762" s="1">
         <f t="shared" si="23"/>
         <v>761</v>
@@ -19580,7 +19583,7 @@
         <v>华为 Watch GT 5 Pro 46mm</v>
       </c>
     </row>
-    <row r="763" spans="1:6" hidden="1">
+    <row r="763" spans="1:6">
       <c r="A763" s="1">
         <f t="shared" si="23"/>
         <v>762</v>
@@ -19602,7 +19605,7 @@
         <v>华为 Watch GT 5 Pro 42mm</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1">
+    <row r="764" spans="1:6">
       <c r="A764" s="1">
         <f t="shared" si="23"/>
         <v>763</v>
@@ -19624,7 +19627,7 @@
         <v>华为 Watch GT 5 46mm</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1">
+    <row r="765" spans="1:6">
       <c r="A765" s="1">
         <f t="shared" si="23"/>
         <v>764</v>
@@ -19646,7 +19649,7 @@
         <v>华为 Watch GT 5 41mm</v>
       </c>
     </row>
-    <row r="766" spans="1:6" hidden="1">
+    <row r="766" spans="1:6">
       <c r="A766" s="1">
         <f t="shared" si="23"/>
         <v>765</v>
@@ -19668,7 +19671,7 @@
         <v>华为 Watch 4 Pro 木星棕 真皮表带</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1">
+    <row r="767" spans="1:6">
       <c r="A767" s="1">
         <f t="shared" si="23"/>
         <v>766</v>
@@ -19690,7 +19693,7 @@
         <v>华为 Watch 4 Pro 蔚蓝地球 复合表带</v>
       </c>
     </row>
-    <row r="768" spans="1:6" hidden="1">
+    <row r="768" spans="1:6">
       <c r="A768" s="1">
         <f t="shared" si="23"/>
         <v>767</v>
@@ -19712,7 +19715,7 @@
         <v>华为 Watch 4 Pro 火星钛 钛金属表带</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1">
+    <row r="769" spans="1:6">
       <c r="A769" s="1">
         <f t="shared" si="23"/>
         <v>768</v>
@@ -19734,7 +19737,7 @@
         <v>华为 Watch 4 Pro 太空探索 钛金属表带</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1">
+    <row r="770" spans="1:6">
       <c r="A770" s="1">
         <f t="shared" si="23"/>
         <v>769</v>
@@ -19756,7 +19759,7 @@
         <v>华为 Watch GT 4 46mm</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1">
+    <row r="771" spans="1:6">
       <c r="A771" s="1">
         <f t="shared" si="23"/>
         <v>770</v>
@@ -19778,7 +19781,7 @@
         <v>华为 Watch GT 4 41mm</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1">
+    <row r="772" spans="1:6">
       <c r="A772" s="1">
         <f t="shared" ref="A772:A835" si="25">A771+1</f>
         <v>771</v>
@@ -19800,7 +19803,7 @@
         <v>华为 Watch GT 3 Pro 钛金属</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1">
+    <row r="773" spans="1:6">
       <c r="A773" s="1">
         <f t="shared" si="25"/>
         <v>772</v>
@@ -19822,7 +19825,7 @@
         <v>华为 Watch GT 3 Pro 陶瓷</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1">
+    <row r="774" spans="1:6">
       <c r="A774" s="1">
         <f t="shared" si="25"/>
         <v>773</v>
@@ -19844,7 +19847,7 @@
         <v>华为 Watch Ultimate 驰骋山地</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1">
+    <row r="775" spans="1:6">
       <c r="A775" s="1">
         <f t="shared" si="25"/>
         <v>774</v>
@@ -19866,7 +19869,7 @@
         <v>华为 Watch Ultimate 纵横海洋</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1">
+    <row r="776" spans="1:6">
       <c r="A776" s="1">
         <f t="shared" si="25"/>
         <v>775</v>
@@ -19888,7 +19891,7 @@
         <v>华为 Watch Ultimate 绿野传奇</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1">
+    <row r="777" spans="1:6">
       <c r="A777" s="1">
         <f t="shared" si="25"/>
         <v>776</v>
@@ -19910,7 +19913,7 @@
         <v>华为 Watch 4 金星白 白色真皮表带</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1">
+    <row r="778" spans="1:6">
       <c r="A778" s="1">
         <f t="shared" si="25"/>
         <v>777</v>
@@ -19932,7 +19935,7 @@
         <v>华为 Watch 4 土星褐 褐色真皮表带</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1">
+    <row r="779" spans="1:6">
       <c r="A779" s="1">
         <f t="shared" si="25"/>
         <v>778</v>
@@ -19954,7 +19957,7 @@
         <v>华为 Watch 4 幻月黑 黑色氟橡胶表带</v>
       </c>
     </row>
-    <row r="780" spans="1:6" hidden="1">
+    <row r="780" spans="1:6">
       <c r="A780" s="1">
         <f t="shared" si="25"/>
         <v>779</v>
@@ -19976,7 +19979,7 @@
         <v>华为 Watch 3 Pro 尊享款 钛金属</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1">
+    <row r="781" spans="1:6">
       <c r="A781" s="1">
         <f t="shared" si="25"/>
         <v>780</v>
@@ -19998,7 +20001,7 @@
         <v>华为 Watch GT2 Pro 黑色氟橡胶表带</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1">
+    <row r="782" spans="1:6">
       <c r="A782" s="1">
         <f t="shared" si="25"/>
         <v>781</v>
@@ -20020,7 +20023,7 @@
         <v>华为 Watch GT2 Pro 灰棕色真皮表带</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1">
+    <row r="783" spans="1:6">
       <c r="A783" s="1">
         <f t="shared" si="25"/>
         <v>782</v>
@@ -20042,7 +20045,7 @@
         <v>华为 Watch Buds 黑色真皮表带</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1">
+    <row r="784" spans="1:6">
       <c r="A784" s="1">
         <f t="shared" si="25"/>
         <v>783</v>
@@ -20064,7 +20067,7 @@
         <v>华为 Watch Buds 卡其色真皮表带</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1">
+    <row r="785" spans="1:6">
       <c r="A785" s="1">
         <f t="shared" si="25"/>
         <v>784</v>
@@ -20086,7 +20089,7 @@
         <v>华为 FreeBuds Pro 4 曜石黑/雪域白/云杉绿/蛇年典藏版</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1">
+    <row r="786" spans="1:6">
       <c r="A786" s="1">
         <f t="shared" si="25"/>
         <v>785</v>
@@ -20108,7 +20111,7 @@
         <v>华为 FreeBuds Pro 3 雅川青/星河蓝/冰霜银/陶瓷白</v>
       </c>
     </row>
-    <row r="787" spans="1:6" hidden="1">
+    <row r="787" spans="1:6">
       <c r="A787" s="1">
         <f t="shared" si="25"/>
         <v>786</v>
@@ -20130,7 +20133,7 @@
         <v>华为 FreeBuds Lipstick 2 魅影黑/弦乐白</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1">
+    <row r="788" spans="1:6">
       <c r="A788" s="1">
         <f t="shared" si="25"/>
         <v>787</v>
@@ -20152,7 +20155,7 @@
         <v>华为 FreeClip 星空黑/流光紫/暖星云/玫瑰金</v>
       </c>
     </row>
-    <row r="789" spans="1:6" hidden="1">
+    <row r="789" spans="1:6">
       <c r="A789" s="1">
         <f t="shared" si="25"/>
         <v>788</v>
@@ -20174,7 +20177,7 @@
         <v>荣耀 200 Pro 12+256G</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1">
+    <row r="790" spans="1:6">
       <c r="A790" s="1">
         <f t="shared" si="25"/>
         <v>789</v>
@@ -20196,7 +20199,7 @@
         <v>荣耀 200 Pro 12+512G</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1">
+    <row r="791" spans="1:6">
       <c r="A791" s="1">
         <f t="shared" si="25"/>
         <v>790</v>
@@ -20218,7 +20221,7 @@
         <v>荣耀 200 Pro 16+512G</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1">
+    <row r="792" spans="1:6">
       <c r="A792" s="1">
         <f t="shared" si="25"/>
         <v>791</v>
@@ -20240,7 +20243,7 @@
         <v>荣耀 200 Pro 16+1T</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1">
+    <row r="793" spans="1:6">
       <c r="A793" s="1">
         <f t="shared" si="25"/>
         <v>792</v>
@@ -20262,7 +20265,7 @@
         <v>荣耀 200 8+256G</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1">
+    <row r="794" spans="1:6">
       <c r="A794" s="1">
         <f t="shared" si="25"/>
         <v>793</v>
@@ -20284,7 +20287,7 @@
         <v>荣耀 200 12+256G</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1">
+    <row r="795" spans="1:6">
       <c r="A795" s="1">
         <f t="shared" si="25"/>
         <v>794</v>
@@ -20306,7 +20309,7 @@
         <v>荣耀 200 16+256G</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1">
+    <row r="796" spans="1:6">
       <c r="A796" s="1">
         <f t="shared" si="25"/>
         <v>795</v>
@@ -20328,7 +20331,7 @@
         <v>荣耀 200 12+512G</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1">
+    <row r="797" spans="1:6">
       <c r="A797" s="1">
         <f t="shared" si="25"/>
         <v>796</v>
@@ -20350,7 +20353,7 @@
         <v>荣耀 200 16+512G</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1">
+    <row r="798" spans="1:6">
       <c r="A798" s="1">
         <f t="shared" si="25"/>
         <v>797</v>
@@ -20372,7 +20375,7 @@
         <v>荣耀 100 Pro 12+256G</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1">
+    <row r="799" spans="1:6">
       <c r="A799" s="1">
         <f t="shared" si="25"/>
         <v>798</v>
@@ -20394,7 +20397,7 @@
         <v>荣耀 100 Pro 16+256G</v>
       </c>
     </row>
-    <row r="800" spans="1:6" hidden="1">
+    <row r="800" spans="1:6">
       <c r="A800" s="1">
         <f t="shared" si="25"/>
         <v>799</v>
@@ -20416,7 +20419,7 @@
         <v>荣耀 100 Pro 12+512G</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1">
+    <row r="801" spans="1:6">
       <c r="A801" s="1">
         <f t="shared" si="25"/>
         <v>800</v>
@@ -20438,7 +20441,7 @@
         <v>荣耀 100 Pro 16+1T</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1">
+    <row r="802" spans="1:6">
       <c r="A802" s="1">
         <f t="shared" si="25"/>
         <v>801</v>
@@ -20460,7 +20463,7 @@
         <v>荣耀 100 12+256G</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1">
+    <row r="803" spans="1:6">
       <c r="A803" s="1">
         <f t="shared" si="25"/>
         <v>802</v>
@@ -20482,7 +20485,7 @@
         <v>荣耀 100 16+256G</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1">
+    <row r="804" spans="1:6">
       <c r="A804" s="1">
         <f t="shared" si="25"/>
         <v>803</v>
@@ -20504,7 +20507,7 @@
         <v>荣耀 100 16+512G</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1">
+    <row r="805" spans="1:6">
       <c r="A805" s="1">
         <f t="shared" si="25"/>
         <v>804</v>
@@ -20526,7 +20529,7 @@
         <v>荣耀 90 Pro 12+256G</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1">
+    <row r="806" spans="1:6">
       <c r="A806" s="1">
         <f t="shared" si="25"/>
         <v>805</v>
@@ -20548,7 +20551,7 @@
         <v>荣耀 90 Pro 16+256G</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1">
+    <row r="807" spans="1:6">
       <c r="A807" s="1">
         <f t="shared" si="25"/>
         <v>806</v>
@@ -20570,7 +20573,7 @@
         <v>荣耀 90 Pro 16+512G</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1">
+    <row r="808" spans="1:6">
       <c r="A808" s="1">
         <f t="shared" si="25"/>
         <v>807</v>
@@ -20592,7 +20595,7 @@
         <v>荣耀 90 12+256G</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1">
+    <row r="809" spans="1:6">
       <c r="A809" s="1">
         <f t="shared" si="25"/>
         <v>808</v>
@@ -20614,7 +20617,7 @@
         <v>荣耀 90 16+256G</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1">
+    <row r="810" spans="1:6">
       <c r="A810" s="1">
         <f t="shared" si="25"/>
         <v>809</v>
@@ -20636,7 +20639,7 @@
         <v>荣耀 90 16+512G</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1">
+    <row r="811" spans="1:6">
       <c r="A811" s="1">
         <f t="shared" si="25"/>
         <v>810</v>
@@ -20658,7 +20661,7 @@
         <v>荣耀 80 Pro 8+256G</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1">
+    <row r="812" spans="1:6">
       <c r="A812" s="1">
         <f t="shared" si="25"/>
         <v>811</v>
@@ -20680,7 +20683,7 @@
         <v>荣耀 80 Pro 12+256G</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1">
+    <row r="813" spans="1:6">
       <c r="A813" s="1">
         <f t="shared" si="25"/>
         <v>812</v>
@@ -20702,7 +20705,7 @@
         <v>荣耀 80 Pro 12+512G</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1">
+    <row r="814" spans="1:6">
       <c r="A814" s="1">
         <f t="shared" si="25"/>
         <v>813</v>
@@ -20724,7 +20727,7 @@
         <v>荣耀 80 8+256G</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1">
+    <row r="815" spans="1:6">
       <c r="A815" s="1">
         <f t="shared" si="25"/>
         <v>814</v>
@@ -20746,7 +20749,7 @@
         <v>荣耀 80 12+256G</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1">
+    <row r="816" spans="1:6">
       <c r="A816" s="1">
         <f t="shared" si="25"/>
         <v>815</v>
@@ -20768,7 +20771,7 @@
         <v>荣耀 80 12+512G</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1">
+    <row r="817" spans="1:6">
       <c r="A817" s="1">
         <f t="shared" si="25"/>
         <v>816</v>
@@ -20790,7 +20793,7 @@
         <v>荣耀 70 Pro 8+256G</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1">
+    <row r="818" spans="1:6">
       <c r="A818" s="1">
         <f t="shared" si="25"/>
         <v>817</v>
@@ -20812,7 +20815,7 @@
         <v>荣耀 70 Pro 12+256G</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1">
+    <row r="819" spans="1:6">
       <c r="A819" s="1">
         <f t="shared" si="25"/>
         <v>818</v>
@@ -20834,7 +20837,7 @@
         <v>荣耀 70 Pro 12+512G</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1">
+    <row r="820" spans="1:6">
       <c r="A820" s="1">
         <f t="shared" si="25"/>
         <v>819</v>
@@ -20856,7 +20859,7 @@
         <v>荣耀 70 8+256G</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1">
+    <row r="821" spans="1:6">
       <c r="A821" s="1">
         <f t="shared" si="25"/>
         <v>820</v>
@@ -20878,7 +20881,7 @@
         <v>荣耀 70 12+256G</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1">
+    <row r="822" spans="1:6">
       <c r="A822" s="1">
         <f t="shared" si="25"/>
         <v>821</v>
@@ -20900,7 +20903,7 @@
         <v>荣耀 70 12+512G</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1">
+    <row r="823" spans="1:6">
       <c r="A823" s="1">
         <f t="shared" si="25"/>
         <v>822</v>
@@ -20922,7 +20925,7 @@
         <v>荣耀 X50 GT 12+256G</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1">
+    <row r="824" spans="1:6">
       <c r="A824" s="1">
         <f t="shared" si="25"/>
         <v>823</v>
@@ -20944,7 +20947,7 @@
         <v>荣耀 X50 GT 16+256G</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1">
+    <row r="825" spans="1:6">
       <c r="A825" s="1">
         <f t="shared" si="25"/>
         <v>824</v>
@@ -20966,7 +20969,7 @@
         <v>荣耀 X50 GT 16+512G</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1">
+    <row r="826" spans="1:6">
       <c r="A826" s="1">
         <f t="shared" si="25"/>
         <v>825</v>
@@ -20988,7 +20991,7 @@
         <v>荣耀 X50 GT 16+1T</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1">
+    <row r="827" spans="1:6">
       <c r="A827" s="1">
         <f t="shared" si="25"/>
         <v>826</v>
@@ -21010,7 +21013,7 @@
         <v>荣耀 X50 8+128G</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1">
+    <row r="828" spans="1:6">
       <c r="A828" s="1">
         <f t="shared" si="25"/>
         <v>827</v>
@@ -21032,7 +21035,7 @@
         <v>荣耀 X50 8+256G</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1">
+    <row r="829" spans="1:6">
       <c r="A829" s="1">
         <f t="shared" si="25"/>
         <v>828</v>
@@ -21054,7 +21057,7 @@
         <v>荣耀 X50 12+256G</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1">
+    <row r="830" spans="1:6">
       <c r="A830" s="1">
         <f t="shared" si="25"/>
         <v>829</v>
@@ -21076,7 +21079,7 @@
         <v>荣耀 X50 16+512G</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1">
+    <row r="831" spans="1:6">
       <c r="A831" s="1">
         <f t="shared" si="25"/>
         <v>830</v>
@@ -21098,7 +21101,7 @@
         <v>荣耀 X40 GT 8+256G</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1">
+    <row r="832" spans="1:6">
       <c r="A832" s="1">
         <f t="shared" si="25"/>
         <v>831</v>
@@ -21120,7 +21123,7 @@
         <v>荣耀 X40 GT 12+256G</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1">
+    <row r="833" spans="1:6">
       <c r="A833" s="1">
         <f t="shared" si="25"/>
         <v>832</v>
@@ -21142,7 +21145,7 @@
         <v>荣耀 X40 6+128G 全网通</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1">
+    <row r="834" spans="1:6">
       <c r="A834" s="1">
         <f t="shared" si="25"/>
         <v>833</v>
@@ -21164,7 +21167,7 @@
         <v>荣耀 X40 8+128G 全网通</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1">
+    <row r="835" spans="1:6">
       <c r="A835" s="1">
         <f t="shared" si="25"/>
         <v>834</v>
@@ -21186,7 +21189,7 @@
         <v>荣耀 X40 8+256G 全网通</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1">
+    <row r="836" spans="1:6">
       <c r="A836" s="1">
         <f t="shared" ref="A836:A899" si="27">A835+1</f>
         <v>835</v>
@@ -21208,7 +21211,7 @@
         <v>荣耀 X40 8+256G 移动版</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1">
+    <row r="837" spans="1:6">
       <c r="A837" s="1">
         <f t="shared" si="27"/>
         <v>836</v>
@@ -21230,7 +21233,7 @@
         <v>荣耀 X40 12+256G 全网通</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1">
+    <row r="838" spans="1:6">
       <c r="A838" s="1">
         <f t="shared" si="27"/>
         <v>837</v>
@@ -21252,7 +21255,7 @@
         <v>荣耀 X30 6+128G 全网通</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1">
+    <row r="839" spans="1:6">
       <c r="A839" s="1">
         <f t="shared" si="27"/>
         <v>838</v>
@@ -21274,7 +21277,7 @@
         <v>荣耀 X30 8+128G 全网通</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1">
+    <row r="840" spans="1:6">
       <c r="A840" s="1">
         <f t="shared" si="27"/>
         <v>839</v>
@@ -21296,7 +21299,7 @@
         <v>荣耀 X30 8+256G 全网通</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1">
+    <row r="841" spans="1:6">
       <c r="A841" s="1">
         <f t="shared" si="27"/>
         <v>840</v>
@@ -21318,7 +21321,7 @@
         <v>荣耀 X30 12+256G 全网通</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1">
+    <row r="842" spans="1:6">
       <c r="A842" s="1">
         <f t="shared" si="27"/>
         <v>841</v>
@@ -21340,7 +21343,7 @@
         <v>荣耀 Play 7T Pro 8+128G</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1">
+    <row r="843" spans="1:6">
       <c r="A843" s="1">
         <f t="shared" si="27"/>
         <v>842</v>
@@ -21362,7 +21365,7 @@
         <v>荣耀 Play 7T Pro 8+256G</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1">
+    <row r="844" spans="1:6">
       <c r="A844" s="1">
         <f t="shared" si="27"/>
         <v>843</v>
@@ -21384,7 +21387,7 @@
         <v>荣耀 Play 7T 8+128G</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1">
+    <row r="845" spans="1:6">
       <c r="A845" s="1">
         <f t="shared" si="27"/>
         <v>844</v>
@@ -21406,7 +21409,7 @@
         <v>荣耀 Play 7T 8+256G</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1">
+    <row r="846" spans="1:6">
       <c r="A846" s="1">
         <f t="shared" si="27"/>
         <v>845</v>
@@ -21428,7 +21431,7 @@
         <v>荣耀 Play 6T Pro 8+128G</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1">
+    <row r="847" spans="1:6">
       <c r="A847" s="1">
         <f t="shared" si="27"/>
         <v>846</v>
@@ -21450,7 +21453,7 @@
         <v>荣耀 Play 6T Pro 8+256G</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1">
+    <row r="848" spans="1:6">
       <c r="A848" s="1">
         <f t="shared" si="27"/>
         <v>847</v>
@@ -21472,7 +21475,7 @@
         <v>荣耀 Play 6T 8+128G</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1">
+    <row r="849" spans="1:6">
       <c r="A849" s="1">
         <f t="shared" si="27"/>
         <v>848</v>
@@ -21494,7 +21497,7 @@
         <v>荣耀 Play 6T 8+256G</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1">
+    <row r="850" spans="1:6">
       <c r="A850" s="1">
         <f t="shared" si="27"/>
         <v>849</v>
@@ -21516,7 +21519,7 @@
         <v>荣耀 Magic V3 12+256G</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1">
+    <row r="851" spans="1:6">
       <c r="A851" s="1">
         <f t="shared" si="27"/>
         <v>850</v>
@@ -21538,7 +21541,7 @@
         <v>荣耀 Magic V3 16+512G</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1">
+    <row r="852" spans="1:6">
       <c r="A852" s="1">
         <f t="shared" si="27"/>
         <v>851</v>
@@ -21560,7 +21563,7 @@
         <v>荣耀 Magic V3 16+1T</v>
       </c>
     </row>
-    <row r="853" spans="1:6" hidden="1">
+    <row r="853" spans="1:6">
       <c r="A853" s="1">
         <f t="shared" si="27"/>
         <v>852</v>
@@ -21582,7 +21585,7 @@
         <v>荣耀 Magic V2 16+256G</v>
       </c>
     </row>
-    <row r="854" spans="1:6" hidden="1">
+    <row r="854" spans="1:6">
       <c r="A854" s="1">
         <f t="shared" si="27"/>
         <v>853</v>
@@ -21604,7 +21607,7 @@
         <v>荣耀 Magic V2 16+512G</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1">
+    <row r="855" spans="1:6">
       <c r="A855" s="1">
         <f t="shared" si="27"/>
         <v>854</v>
@@ -21626,7 +21629,7 @@
         <v>荣耀 Magic V2 至臻版 16+1T</v>
       </c>
     </row>
-    <row r="856" spans="1:6" hidden="1">
+    <row r="856" spans="1:6">
       <c r="A856" s="1">
         <f t="shared" si="27"/>
         <v>855</v>
@@ -21648,7 +21651,7 @@
         <v>荣耀 Magic Vs2 12+256G</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1">
+    <row r="857" spans="1:6">
       <c r="A857" s="1">
         <f t="shared" si="27"/>
         <v>856</v>
@@ -21670,7 +21673,7 @@
         <v>荣耀 Magic Vs2 16+512G</v>
       </c>
     </row>
-    <row r="858" spans="1:6" hidden="1">
+    <row r="858" spans="1:6">
       <c r="A858" s="1">
         <f t="shared" si="27"/>
         <v>857</v>
@@ -21692,7 +21695,7 @@
         <v>荣耀 Magic Vs 8+256G</v>
       </c>
     </row>
-    <row r="859" spans="1:6" hidden="1">
+    <row r="859" spans="1:6">
       <c r="A859" s="1">
         <f t="shared" si="27"/>
         <v>858</v>
@@ -21714,7 +21717,7 @@
         <v>荣耀 Magic Vs 12+256G</v>
       </c>
     </row>
-    <row r="860" spans="1:6" hidden="1">
+    <row r="860" spans="1:6">
       <c r="A860" s="1">
         <f t="shared" si="27"/>
         <v>859</v>
@@ -21736,7 +21739,7 @@
         <v>荣耀 Magic Vs 12+512G</v>
       </c>
     </row>
-    <row r="861" spans="1:6" hidden="1">
+    <row r="861" spans="1:6">
       <c r="A861" s="1">
         <f t="shared" si="27"/>
         <v>860</v>
@@ -21758,7 +21761,7 @@
         <v>荣耀 Magic 6 Pro 12+256G</v>
       </c>
     </row>
-    <row r="862" spans="1:6" hidden="1">
+    <row r="862" spans="1:6">
       <c r="A862" s="1">
         <f t="shared" si="27"/>
         <v>861</v>
@@ -21780,7 +21783,7 @@
         <v>荣耀 Magic 6 Pro 16+512G</v>
       </c>
     </row>
-    <row r="863" spans="1:6" hidden="1">
+    <row r="863" spans="1:6">
       <c r="A863" s="1">
         <f t="shared" si="27"/>
         <v>862</v>
@@ -21802,7 +21805,7 @@
         <v>荣耀 Magic 6 Pro 16+1T</v>
       </c>
     </row>
-    <row r="864" spans="1:6" hidden="1">
+    <row r="864" spans="1:6">
       <c r="A864" s="1">
         <f t="shared" si="27"/>
         <v>863</v>
@@ -21824,7 +21827,7 @@
         <v>荣耀 Magic 6 12+256G</v>
       </c>
     </row>
-    <row r="865" spans="1:6" hidden="1">
+    <row r="865" spans="1:6">
       <c r="A865" s="1">
         <f t="shared" si="27"/>
         <v>864</v>
@@ -21846,7 +21849,7 @@
         <v>荣耀 Magic 6 16+256G</v>
       </c>
     </row>
-    <row r="866" spans="1:6" hidden="1">
+    <row r="866" spans="1:6">
       <c r="A866" s="1">
         <f t="shared" si="27"/>
         <v>865</v>
@@ -21868,7 +21871,7 @@
         <v>荣耀 Magic 6 16+512G</v>
       </c>
     </row>
-    <row r="867" spans="1:6" hidden="1">
+    <row r="867" spans="1:6">
       <c r="A867" s="1">
         <f t="shared" si="27"/>
         <v>866</v>
@@ -21890,7 +21893,7 @@
         <v>荣耀 Magic 5 Pro 8+256G</v>
       </c>
     </row>
-    <row r="868" spans="1:6" hidden="1">
+    <row r="868" spans="1:6">
       <c r="A868" s="1">
         <f t="shared" si="27"/>
         <v>867</v>
@@ -21912,7 +21915,7 @@
         <v>荣耀 Magic 5 Pro 12+256G</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1">
+    <row r="869" spans="1:6">
       <c r="A869" s="1">
         <f t="shared" si="27"/>
         <v>868</v>
@@ -21934,7 +21937,7 @@
         <v>荣耀 Magic 5 Pro 16+512G</v>
       </c>
     </row>
-    <row r="870" spans="1:6" hidden="1">
+    <row r="870" spans="1:6">
       <c r="A870" s="1">
         <f t="shared" si="27"/>
         <v>869</v>
@@ -21956,7 +21959,7 @@
         <v>荣耀 Magic 5 8+256G</v>
       </c>
     </row>
-    <row r="871" spans="1:6" hidden="1">
+    <row r="871" spans="1:6">
       <c r="A871" s="1">
         <f t="shared" si="27"/>
         <v>870</v>
@@ -21978,7 +21981,7 @@
         <v>荣耀 Magic 5 12+256G</v>
       </c>
     </row>
-    <row r="872" spans="1:6" hidden="1">
+    <row r="872" spans="1:6">
       <c r="A872" s="1">
         <f t="shared" si="27"/>
         <v>871</v>
@@ -22000,7 +22003,7 @@
         <v>荣耀 Magic 5 16+256G</v>
       </c>
     </row>
-    <row r="873" spans="1:6" hidden="1">
+    <row r="873" spans="1:6">
       <c r="A873" s="1">
         <f t="shared" si="27"/>
         <v>872</v>
@@ -22022,7 +22025,7 @@
         <v>荣耀 Magic 5 16+512G</v>
       </c>
     </row>
-    <row r="874" spans="1:6" hidden="1">
+    <row r="874" spans="1:6">
       <c r="A874" s="1">
         <f t="shared" si="27"/>
         <v>873</v>
@@ -22044,7 +22047,7 @@
         <v>荣耀 平板 V8 Pro 8+128G</v>
       </c>
     </row>
-    <row r="875" spans="1:6" hidden="1">
+    <row r="875" spans="1:6">
       <c r="A875" s="1">
         <f t="shared" si="27"/>
         <v>874</v>
@@ -22066,7 +22069,7 @@
         <v>荣耀 平板 V8 8+128G</v>
       </c>
     </row>
-    <row r="876" spans="1:6" hidden="1">
+    <row r="876" spans="1:6">
       <c r="A876" s="1">
         <f t="shared" si="27"/>
         <v>875</v>
@@ -22088,7 +22091,7 @@
         <v>荣耀 平板 V7 Pro 8+128G</v>
       </c>
     </row>
-    <row r="877" spans="1:6" hidden="1">
+    <row r="877" spans="1:6">
       <c r="A877" s="1">
         <f t="shared" si="27"/>
         <v>876</v>
@@ -22110,7 +22113,7 @@
         <v>荣耀 平板 V7 Pro 8+256G</v>
       </c>
     </row>
-    <row r="878" spans="1:6" hidden="1">
+    <row r="878" spans="1:6">
       <c r="A878" s="1">
         <f t="shared" si="27"/>
         <v>877</v>
@@ -22132,7 +22135,7 @@
         <v>荣耀 平板 V7 6+128G</v>
       </c>
     </row>
-    <row r="879" spans="1:6" hidden="1">
+    <row r="879" spans="1:6">
       <c r="A879" s="1">
         <f t="shared" si="27"/>
         <v>878</v>
@@ -22154,7 +22157,7 @@
         <v>荣耀 平板 V7 8+128G</v>
       </c>
     </row>
-    <row r="880" spans="1:6" hidden="1">
+    <row r="880" spans="1:6">
       <c r="A880" s="1">
         <f t="shared" si="27"/>
         <v>879</v>
@@ -22176,7 +22179,7 @@
         <v>荣耀 平板 8 平板 8</v>
       </c>
     </row>
-    <row r="881" spans="1:6" hidden="1">
+    <row r="881" spans="1:6">
       <c r="A881" s="1">
         <f t="shared" si="27"/>
         <v>880</v>
@@ -22198,7 +22201,7 @@
         <v>荣耀 平板 7 平板 7</v>
       </c>
     </row>
-    <row r="882" spans="1:6" hidden="1">
+    <row r="882" spans="1:6">
       <c r="A882" s="1">
         <f t="shared" si="27"/>
         <v>881</v>
@@ -22220,7 +22223,7 @@
         <v>荣耀 平板 6 平板 6</v>
       </c>
     </row>
-    <row r="883" spans="1:6" hidden="1">
+    <row r="883" spans="1:6">
       <c r="A883" s="1">
         <f t="shared" si="27"/>
         <v>882</v>
@@ -22242,7 +22245,7 @@
         <v>荣耀 平板 MagicPad 2 8+256G</v>
       </c>
     </row>
-    <row r="884" spans="1:6" hidden="1">
+    <row r="884" spans="1:6">
       <c r="A884" s="1">
         <f t="shared" si="27"/>
         <v>883</v>
@@ -22264,7 +22267,7 @@
         <v>荣耀 平板 MagicPad 2 12+256G</v>
       </c>
     </row>
-    <row r="885" spans="1:6" hidden="1">
+    <row r="885" spans="1:6">
       <c r="A885" s="1">
         <f t="shared" si="27"/>
         <v>884</v>
@@ -22286,7 +22289,7 @@
         <v>荣耀 平板 MagicPad 2 16+512G</v>
       </c>
     </row>
-    <row r="886" spans="1:6" hidden="1">
+    <row r="886" spans="1:6">
       <c r="A886" s="1">
         <f t="shared" si="27"/>
         <v>885</v>
@@ -22308,7 +22311,7 @@
         <v>荣耀 平板 MagicPad 2 16+1T</v>
       </c>
     </row>
-    <row r="887" spans="1:6" hidden="1">
+    <row r="887" spans="1:6">
       <c r="A887" s="1">
         <f t="shared" si="27"/>
         <v>886</v>
@@ -22330,7 +22333,7 @@
         <v>荣耀 平板 MagicPad 8+256G</v>
       </c>
     </row>
-    <row r="888" spans="1:6" hidden="1">
+    <row r="888" spans="1:6">
       <c r="A888" s="1">
         <f t="shared" si="27"/>
         <v>887</v>
@@ -22352,7 +22355,7 @@
         <v>荣耀 平板 MagicPad 12+256G</v>
       </c>
     </row>
-    <row r="889" spans="1:6" hidden="1">
+    <row r="889" spans="1:6">
       <c r="A889" s="1">
         <f t="shared" si="27"/>
         <v>888</v>
@@ -22374,7 +22377,7 @@
         <v>荣耀 手表 4 曜石黑</v>
       </c>
     </row>
-    <row r="890" spans="1:6" hidden="1">
+    <row r="890" spans="1:6">
       <c r="A890" s="1">
         <f t="shared" si="27"/>
         <v>889</v>
@@ -22396,7 +22399,7 @@
         <v>荣耀 手表 4 晨辉金</v>
       </c>
     </row>
-    <row r="891" spans="1:6" hidden="1">
+    <row r="891" spans="1:6">
       <c r="A891" s="1">
         <f t="shared" si="27"/>
         <v>890</v>
@@ -22418,7 +22421,7 @@
         <v>荣耀 手表 4 云水蓝</v>
       </c>
     </row>
-    <row r="892" spans="1:6" hidden="1">
+    <row r="892" spans="1:6">
       <c r="A892" s="1">
         <f t="shared" si="27"/>
         <v>891</v>
@@ -22440,7 +22443,7 @@
         <v>荣耀 手表 GS3 环球远航</v>
       </c>
     </row>
-    <row r="893" spans="1:6" hidden="1">
+    <row r="893" spans="1:6">
       <c r="A893" s="1">
         <f t="shared" si="27"/>
         <v>892</v>
@@ -22462,7 +22465,7 @@
         <v>荣耀 手表 GS3 流光经典</v>
       </c>
     </row>
-    <row r="894" spans="1:6" hidden="1">
+    <row r="894" spans="1:6">
       <c r="A894" s="1">
         <f t="shared" si="27"/>
         <v>893</v>
@@ -22484,7 +22487,7 @@
         <v>荣耀 手表 GS3 竞速先锋</v>
       </c>
     </row>
-    <row r="895" spans="1:6" hidden="1">
+    <row r="895" spans="1:6">
       <c r="A895" s="1">
         <f t="shared" si="27"/>
         <v>894</v>
@@ -22506,7 +22509,7 @@
         <v>荣耀 手表 GS3 荣耀时刻</v>
       </c>
     </row>
-    <row r="896" spans="1:6" hidden="1">
+    <row r="896" spans="1:6">
       <c r="A896" s="1">
         <f t="shared" si="27"/>
         <v>895</v>
@@ -22528,7 +22531,7 @@
         <v>荣耀 手表 GS3 橙色夏日</v>
       </c>
     </row>
-    <row r="897" spans="1:6" hidden="1">
+    <row r="897" spans="1:6">
       <c r="A897" s="1">
         <f t="shared" si="27"/>
         <v>896</v>
@@ -22550,7 +22553,7 @@
         <v>荣耀 手表 GS Pro 灰蓝色迷彩尼龙表带</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1">
+    <row r="898" spans="1:6">
       <c r="A898" s="1">
         <f t="shared" si="27"/>
         <v>897</v>
@@ -22572,7 +22575,7 @@
         <v>荣耀 手表 GS Pro 砂色氟橡胶表带</v>
       </c>
     </row>
-    <row r="899" spans="1:6" hidden="1">
+    <row r="899" spans="1:6">
       <c r="A899" s="1">
         <f t="shared" si="27"/>
         <v>898</v>
@@ -22594,7 +22597,7 @@
         <v>荣耀 手表 GS Pro 沙砾色迷彩尼龙表带</v>
       </c>
     </row>
-    <row r="900" spans="1:6" hidden="1">
+    <row r="900" spans="1:6">
       <c r="A900" s="1">
         <f t="shared" ref="A900:A963" si="29">A899+1</f>
         <v>899</v>
@@ -22616,7 +22619,7 @@
         <v>荣耀 手表 GS Pro 黑色氟橡胶表带</v>
       </c>
     </row>
-    <row r="901" spans="1:6" hidden="1">
+    <row r="901" spans="1:6">
       <c r="A901" s="1">
         <f t="shared" si="29"/>
         <v>900</v>
@@ -23474,7 +23477,7 @@
         <v>联想 小新笔记本 Pro 14 2024 酷睿 Ultra 9 185H/32G/1T</v>
       </c>
     </row>
-    <row r="940" spans="1:6" hidden="1">
+    <row r="940" spans="1:6">
       <c r="A940" s="1">
         <f t="shared" si="29"/>
         <v>939</v>
@@ -23496,7 +23499,7 @@
         <v>联想 小新 Pad Pro 2025 舒视版 8+128G/WIFI</v>
       </c>
     </row>
-    <row r="941" spans="1:6" hidden="1">
+    <row r="941" spans="1:6">
       <c r="A941" s="1">
         <f t="shared" si="29"/>
         <v>940</v>
@@ -23518,7 +23521,7 @@
         <v>联想 小新 Pad 2024 6+128G/WIFI 鸽子灰</v>
       </c>
     </row>
-    <row r="942" spans="1:6" hidden="1">
+    <row r="942" spans="1:6">
       <c r="A942" s="1">
         <f t="shared" si="29"/>
         <v>941</v>
@@ -23540,7 +23543,7 @@
         <v>联想 小新 Pad 2024 6+128G/WIFI 烟霞紫</v>
       </c>
     </row>
-    <row r="943" spans="1:6" hidden="1">
+    <row r="943" spans="1:6">
       <c r="A943" s="1">
         <f t="shared" si="29"/>
         <v>942</v>
@@ -23562,7 +23565,7 @@
         <v>联想 小新 Pad 2024 8+128G/WIFI 鸽子灰</v>
       </c>
     </row>
-    <row r="944" spans="1:6" hidden="1">
+    <row r="944" spans="1:6">
       <c r="A944" s="1">
         <f t="shared" si="29"/>
         <v>943</v>
@@ -23584,7 +23587,7 @@
         <v>联想 小新 Pad 2024 8+128G/WIFI 烟霞紫</v>
       </c>
     </row>
-    <row r="945" spans="1:6" hidden="1">
+    <row r="945" spans="1:6">
       <c r="A945" s="1">
         <f t="shared" si="29"/>
         <v>944</v>
@@ -23606,7 +23609,7 @@
         <v>联想 小新 Pad 2024 8+256G/WIFI 鸽子灰</v>
       </c>
     </row>
-    <row r="946" spans="1:6" hidden="1">
+    <row r="946" spans="1:6">
       <c r="A946" s="1">
         <f t="shared" si="29"/>
         <v>945</v>
@@ -24004,7 +24007,7 @@
     </row>
     <row r="964" spans="1:6">
       <c r="A964" s="1">
-        <f t="shared" ref="A964:A1027" si="31">A963+1</f>
+        <f t="shared" ref="A964:A1028" si="31">A963+1</f>
         <v>963</v>
       </c>
       <c r="B964" s="1" t="s">
@@ -24464,7 +24467,7 @@
         <v>机械革命 无界 14 Pro 2024 酷睿 Ultra 5 125H/32G/2T</v>
       </c>
     </row>
-    <row r="985" spans="1:6" hidden="1">
+    <row r="985" spans="1:6">
       <c r="A985" s="1">
         <f t="shared" si="31"/>
         <v>984</v>
@@ -24486,7 +24489,7 @@
         <v>真我 Realme Neo 7 12+256G</v>
       </c>
     </row>
-    <row r="986" spans="1:6" hidden="1">
+    <row r="986" spans="1:6">
       <c r="A986" s="1">
         <f t="shared" si="31"/>
         <v>985</v>
@@ -24508,7 +24511,7 @@
         <v>真我 Realme Neo 7 12+512G</v>
       </c>
     </row>
-    <row r="987" spans="1:6" hidden="1">
+    <row r="987" spans="1:6">
       <c r="A987" s="1">
         <f t="shared" si="31"/>
         <v>986</v>
@@ -24530,7 +24533,7 @@
         <v>真我 Realme Neo 7 16+256G</v>
       </c>
     </row>
-    <row r="988" spans="1:6" hidden="1">
+    <row r="988" spans="1:6">
       <c r="A988" s="1">
         <f t="shared" si="31"/>
         <v>987</v>
@@ -24552,7 +24555,7 @@
         <v>真我 Realme Neo 7 16+512G</v>
       </c>
     </row>
-    <row r="989" spans="1:6" hidden="1">
+    <row r="989" spans="1:6">
       <c r="A989" s="1">
         <f t="shared" si="31"/>
         <v>988</v>
@@ -24574,7 +24577,7 @@
         <v>真我 Realme Neo 7 16G+1T</v>
       </c>
     </row>
-    <row r="990" spans="1:6" hidden="1">
+    <row r="990" spans="1:6">
       <c r="A990" s="1">
         <f t="shared" si="31"/>
         <v>989</v>
@@ -24596,7 +24599,7 @@
         <v>真我 Realme GT7 Pro 12+256G</v>
       </c>
     </row>
-    <row r="991" spans="1:6" hidden="1">
+    <row r="991" spans="1:6">
       <c r="A991" s="1">
         <f t="shared" si="31"/>
         <v>990</v>
@@ -24618,7 +24621,7 @@
         <v>真我 Realme GT7 Pro 12+512G</v>
       </c>
     </row>
-    <row r="992" spans="1:6" hidden="1">
+    <row r="992" spans="1:6">
       <c r="A992" s="1">
         <f t="shared" si="31"/>
         <v>991</v>
@@ -24640,7 +24643,7 @@
         <v>真我 Realme GT7 Pro 16+256G</v>
       </c>
     </row>
-    <row r="993" spans="1:6" hidden="1">
+    <row r="993" spans="1:6">
       <c r="A993" s="1">
         <f t="shared" si="31"/>
         <v>992</v>
@@ -24662,7 +24665,7 @@
         <v>真我 Realme GT7 Pro 16+512G</v>
       </c>
     </row>
-    <row r="994" spans="1:6" hidden="1">
+    <row r="994" spans="1:6">
       <c r="A994" s="1">
         <f t="shared" si="31"/>
         <v>993</v>
@@ -24684,7 +24687,7 @@
         <v>真我 Realme GT7 Pro 16G+1T</v>
       </c>
     </row>
-    <row r="995" spans="1:6" hidden="1">
+    <row r="995" spans="1:6">
       <c r="A995" s="1">
         <f t="shared" si="31"/>
         <v>994</v>
@@ -24706,7 +24709,7 @@
         <v>真我 Realme GT Neo 6 8+256G</v>
       </c>
     </row>
-    <row r="996" spans="1:6" hidden="1">
+    <row r="996" spans="1:6">
       <c r="A996" s="1">
         <f t="shared" si="31"/>
         <v>995</v>
@@ -24728,7 +24731,7 @@
         <v>真我 Realme GT Neo 6 12+256G</v>
       </c>
     </row>
-    <row r="997" spans="1:6" hidden="1">
+    <row r="997" spans="1:6">
       <c r="A997" s="1">
         <f t="shared" si="31"/>
         <v>996</v>
@@ -24750,7 +24753,7 @@
         <v>真我 Realme GT Neo 6 16+256G</v>
       </c>
     </row>
-    <row r="998" spans="1:6" hidden="1">
+    <row r="998" spans="1:6">
       <c r="A998" s="1">
         <f t="shared" si="31"/>
         <v>997</v>
@@ -24772,7 +24775,7 @@
         <v>真我 Realme GT Neo 6 16+512G</v>
       </c>
     </row>
-    <row r="999" spans="1:6" hidden="1">
+    <row r="999" spans="1:6">
       <c r="A999" s="1">
         <f t="shared" si="31"/>
         <v>998</v>
@@ -24794,7 +24797,7 @@
         <v>真我 Realme GT Neo 6 16G+1T</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" hidden="1">
+    <row r="1000" spans="1:6">
       <c r="A1000" s="1">
         <f t="shared" si="31"/>
         <v>999</v>
@@ -24816,7 +24819,7 @@
         <v>一加 Ace 5 12+256G</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" hidden="1">
+    <row r="1001" spans="1:6">
       <c r="A1001" s="1">
         <f t="shared" si="31"/>
         <v>1000</v>
@@ -24838,7 +24841,7 @@
         <v>一加 Ace 5 12+512G</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" hidden="1">
+    <row r="1002" spans="1:6">
       <c r="A1002" s="1">
         <f t="shared" si="31"/>
         <v>1001</v>
@@ -24860,7 +24863,7 @@
         <v>一加 Ace 5 16+256G</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" hidden="1">
+    <row r="1003" spans="1:6">
       <c r="A1003" s="1">
         <f t="shared" si="31"/>
         <v>1002</v>
@@ -24882,7 +24885,7 @@
         <v>一加 Ace 5 16+512G</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" hidden="1">
+    <row r="1004" spans="1:6">
       <c r="A1004" s="1">
         <f t="shared" si="31"/>
         <v>1003</v>
@@ -24904,7 +24907,7 @@
         <v>一加 Ace 5 16G+1T</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" hidden="1">
+    <row r="1005" spans="1:6">
       <c r="A1005" s="1">
         <f t="shared" si="31"/>
         <v>1004</v>
@@ -24926,7 +24929,7 @@
         <v>一加 Ace 3V 12+256G</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" hidden="1">
+    <row r="1006" spans="1:6">
       <c r="A1006" s="1">
         <f t="shared" si="31"/>
         <v>1005</v>
@@ -24948,7 +24951,7 @@
         <v>一加 Ace 3V 12+512G</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" hidden="1">
+    <row r="1007" spans="1:6">
       <c r="A1007" s="1">
         <f t="shared" si="31"/>
         <v>1006</v>
@@ -24970,7 +24973,7 @@
         <v>一加 Ace 3V 16+256G</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" hidden="1">
+    <row r="1008" spans="1:6">
       <c r="A1008" s="1">
         <f t="shared" si="31"/>
         <v>1007</v>
@@ -24992,7 +24995,7 @@
         <v>一加 13 12+256G</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" hidden="1">
+    <row r="1009" spans="1:6">
       <c r="A1009" s="1">
         <f t="shared" si="31"/>
         <v>1008</v>
@@ -25014,7 +25017,7 @@
         <v>一加 13 12+512G</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" hidden="1">
+    <row r="1010" spans="1:6">
       <c r="A1010" s="1">
         <f t="shared" si="31"/>
         <v>1009</v>
@@ -25036,7 +25039,7 @@
         <v>一加 13 16+256G</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" hidden="1">
+    <row r="1011" spans="1:6">
       <c r="A1011" s="1">
         <f t="shared" si="31"/>
         <v>1010</v>
@@ -25058,7 +25061,7 @@
         <v>一加 13 24+1T</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" hidden="1">
+    <row r="1012" spans="1:6">
       <c r="A1012" s="1">
         <f t="shared" si="31"/>
         <v>1011</v>
@@ -25080,7 +25083,7 @@
         <v>魅族 Lucky 08 12+256G</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" hidden="1">
+    <row r="1013" spans="1:6">
       <c r="A1013" s="1">
         <f t="shared" si="31"/>
         <v>1012</v>
@@ -25102,7 +25105,7 @@
         <v>魅族 Lucky 08 12+512G</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" hidden="1">
+    <row r="1014" spans="1:6">
       <c r="A1014" s="1">
         <f t="shared" si="31"/>
         <v>1013</v>
@@ -25124,7 +25127,7 @@
         <v>魅族 21 Note 16+256G</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" hidden="1">
+    <row r="1015" spans="1:6">
       <c r="A1015" s="1">
         <f t="shared" si="31"/>
         <v>1014</v>
@@ -25146,7 +25149,7 @@
         <v>魅族 21 Note 16+512G</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" hidden="1">
+    <row r="1016" spans="1:6">
       <c r="A1016" s="1">
         <f t="shared" si="31"/>
         <v>1015</v>
@@ -25168,7 +25171,7 @@
         <v>魅族 21 12+256G</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" hidden="1">
+    <row r="1017" spans="1:6">
       <c r="A1017" s="1">
         <f t="shared" si="31"/>
         <v>1016</v>
@@ -25190,7 +25193,7 @@
         <v>魅族 21 12+512G</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" hidden="1">
+    <row r="1018" spans="1:6">
       <c r="A1018" s="1">
         <f t="shared" si="31"/>
         <v>1017</v>
@@ -25212,7 +25215,7 @@
         <v>ROG 游戏手机 8 16+256G</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" hidden="1">
+    <row r="1019" spans="1:6">
       <c r="A1019" s="1">
         <f t="shared" si="31"/>
         <v>1018</v>
@@ -25234,7 +25237,7 @@
         <v>ROG 游戏手机 8 Pro 16+512G</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" hidden="1">
+    <row r="1020" spans="1:6">
       <c r="A1020" s="1">
         <f t="shared" si="31"/>
         <v>1019</v>
@@ -25256,7 +25259,7 @@
         <v>ROG 游戏手机 9 Pro 24+1T</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" hidden="1">
+    <row r="1021" spans="1:6">
       <c r="A1021" s="1">
         <f t="shared" si="31"/>
         <v>1020</v>
@@ -25278,7 +25281,7 @@
         <v>努比亚 nubia 红魔 9 Pro 12+512G</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" hidden="1">
+    <row r="1022" spans="1:6">
       <c r="A1022" s="1">
         <f t="shared" si="31"/>
         <v>1021</v>
@@ -25300,7 +25303,7 @@
         <v>努比亚 nubia 红魔 9 Pro+ 16+512G</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" hidden="1">
+    <row r="1023" spans="1:6">
       <c r="A1023" s="1">
         <f t="shared" si="31"/>
         <v>1022</v>
@@ -25322,7 +25325,7 @@
         <v>努比亚 nubia 红魔 10 Pro+ 16+512G</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" hidden="1">
+    <row r="1024" spans="1:6">
       <c r="A1024" s="1">
         <f t="shared" si="31"/>
         <v>1023</v>
@@ -25344,7 +25347,7 @@
         <v>努比亚 nubia 红魔 Flip 12+256G</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" hidden="1">
+    <row r="1025" spans="1:6">
       <c r="A1025" s="1">
         <f t="shared" si="31"/>
         <v>1024</v>
@@ -25366,7 +25369,7 @@
         <v>努比亚 nubia 红魔 Flip 2 12+512G</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" hidden="1">
+    <row r="1026" spans="1:6">
       <c r="A1026" s="1">
         <f t="shared" si="31"/>
         <v>1025</v>
@@ -25388,7 +25391,7 @@
         <v>努比亚 nubia 红魔 Z60 Ultra 24+1T</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" hidden="1">
+    <row r="1027" spans="1:6">
       <c r="A1027" s="1">
         <f t="shared" si="31"/>
         <v>1026</v>
@@ -25406,18 +25409,34 @@
         <v>16</v>
       </c>
       <c r="F1027" s="1" t="str">
-        <f t="shared" ref="F1027" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
+        <f t="shared" ref="F1027:F1028" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
         <v>努比亚 nubia 红魔 Z70 Ultra 16+512G</v>
       </c>
     </row>
+    <row r="1028" spans="1:6">
+      <c r="A1028" s="1">
+        <f t="shared" si="31"/>
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1028" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1028" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 Mate 40E 8+128G</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E1027" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="电脑"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F1027" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC41F64-0BF7-E743-8D8F-79BF9FD5F74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07029846-6D83-E04A-A366-19AA4BE819EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="14820" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="602">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2397,6 +2397,46 @@
   </si>
   <si>
     <t>Mate 40E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic V Flip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicBook X16 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5--13500H/16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 X8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Vs3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2805,20 +2845,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:F1028"/>
+  <dimension ref="A1:F1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1006" zoomScale="104" workbookViewId="0">
-      <selection activeCell="F1028" sqref="F1028"/>
+    <sheetView tabSelected="1" topLeftCell="A1011" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D1041" sqref="D1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="86.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -22168,15 +22208,12 @@
       <c r="C880" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D880" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="E880" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F880" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>荣耀 平板 8 平板 8</v>
+        <v xml:space="preserve">荣耀 平板 8 </v>
       </c>
     </row>
     <row r="881" spans="1:6">
@@ -22190,15 +22227,12 @@
       <c r="C881" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D881" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E881" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F881" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>荣耀 平板 7 平板 7</v>
+        <v xml:space="preserve">荣耀 平板 7 </v>
       </c>
     </row>
     <row r="882" spans="1:6">
@@ -22212,15 +22246,12 @@
       <c r="C882" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D882" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E882" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F882" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>荣耀 平板 6 平板 6</v>
+        <v xml:space="preserve">荣耀 平板 6 </v>
       </c>
     </row>
     <row r="883" spans="1:6">
@@ -24007,7 +24038,7 @@
     </row>
     <row r="964" spans="1:6">
       <c r="A964" s="1">
-        <f t="shared" ref="A964:A1028" si="31">A963+1</f>
+        <f t="shared" ref="A964:A1029" si="31">A963+1</f>
         <v>963</v>
       </c>
       <c r="B964" s="1" t="s">
@@ -25409,7 +25440,7 @@
         <v>16</v>
       </c>
       <c r="F1027" s="1" t="str">
-        <f t="shared" ref="F1027:F1028" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
+        <f t="shared" ref="F1027:F1038" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
         <v>努比亚 nubia 红魔 Z70 Ultra 16+512G</v>
       </c>
     </row>
@@ -25433,6 +25464,226 @@
       <c r="F1028" s="1" t="str">
         <f t="shared" si="32"/>
         <v>华为 Mate 40E 8+128G</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6">
+      <c r="A1029" s="1">
+        <f t="shared" si="31"/>
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1029" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1029" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 Magic V Flip 12+1T</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6">
+      <c r="A1030" s="1">
+        <f t="shared" ref="A1030:A1038" si="33">A1029+1</f>
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1030" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1030" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 平板 V8 Pro 8+256G</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6">
+      <c r="A1031" s="1">
+        <f t="shared" si="33"/>
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1031" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1031" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 MagicBook X16 2024 酷睿 i5--13500H/16+1T</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6">
+      <c r="A1032" s="1">
+        <f t="shared" si="33"/>
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1032" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1032" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 平板 X8 6+128G</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6">
+      <c r="A1033" s="1">
+        <f t="shared" si="33"/>
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1033" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1033" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1033" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 平板 9 12+512G</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6">
+      <c r="A1034" s="1">
+        <f t="shared" si="33"/>
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1034" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1034" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 Magic 7 16+1T</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6">
+      <c r="A1035" s="1">
+        <f t="shared" si="33"/>
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1035" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1035" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1035" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 畅玩 20 128G</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6">
+      <c r="A1036" s="1">
+        <f t="shared" si="33"/>
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D1036" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1036" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 Magic Vs3 /</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6">
+      <c r="A1037" s="1">
+        <f t="shared" si="33"/>
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1037" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1037" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 X60 /</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6">
+      <c r="A1038" s="1">
+        <f t="shared" si="33"/>
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1038" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1038" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1038" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>荣耀 X60 12+512G</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07029846-6D83-E04A-A366-19AA4BE819EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DF30F-2AAC-284C-A9F5-72257EAB12BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="14820" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="630">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2437,6 +2437,118 @@
   </si>
   <si>
     <t>X60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9-7940H/16+512G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-7435H/16+512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-8845H/16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7-13620H/16+512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-5800H/16+512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROG 幻 16 Air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 9/32+1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROG 魔霸 7 Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9-7845H/16+1T/RTX 4070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7-13620H/16+512G/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 9/32+1T/RTX 4070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 豆 14 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5-1335U/16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9-13900H/16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROG 幻 14 Air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9-8945HS/32+1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROG 幻 13 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9-7940HS/16+1T/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5-1335U/24+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏 16 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵耀 14 双屏 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 9/32+2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5-13500H/16+512G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 5/32+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 豆 14 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5-12450H/16G/512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9-8945HS/16+1T/RTX 4050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2845,10 +2957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:F1038"/>
+  <dimension ref="A1:F1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1011" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D1041" sqref="D1041"/>
+    <sheetView tabSelected="1" topLeftCell="A1031" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F1059" sqref="F1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25440,7 +25552,7 @@
         <v>16</v>
       </c>
       <c r="F1027" s="1" t="str">
-        <f t="shared" ref="F1027:F1038" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
+        <f t="shared" ref="F1027:F1059" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
         <v>努比亚 nubia 红魔 Z70 Ultra 16+512G</v>
       </c>
     </row>
@@ -25490,7 +25602,7 @@
     </row>
     <row r="1030" spans="1:6">
       <c r="A1030" s="1">
-        <f t="shared" ref="A1030:A1038" si="33">A1029+1</f>
+        <f t="shared" ref="A1030:A1059" si="33">A1029+1</f>
         <v>1029</v>
       </c>
       <c r="B1030" s="1" t="s">
@@ -25684,6 +25796,468 @@
       <c r="F1038" s="1" t="str">
         <f t="shared" si="32"/>
         <v>荣耀 X60 12+512G</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6">
+      <c r="A1039" s="1">
+        <f t="shared" si="33"/>
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1039" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1039" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1039" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 天选 4 R9-7940H/16+512G/RTX 4060</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6">
+      <c r="A1040" s="1">
+        <f t="shared" si="33"/>
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1040" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1040" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1040" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 天选 4 R7-7435H/16+512G/RTX 4050</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6">
+      <c r="A1041" s="1">
+        <f t="shared" si="33"/>
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1041" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1041" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 无畏 Pro 15 2024 R7-8845H/16+1T</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6">
+      <c r="A1042" s="1">
+        <f t="shared" si="33"/>
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1042" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 天选 4 酷睿 i7-13620H/16+512G/RTX 4050</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6">
+      <c r="A1043" s="1">
+        <f t="shared" si="33"/>
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1043" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1043" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1043" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 无畏 16 R7-5800H/16+512G</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6">
+      <c r="A1044" s="1">
+        <f t="shared" si="33"/>
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1044" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1044" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1044" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 ROG 幻 16 Air 酷睿 Ultra 9/32+1T/RTX 4060</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6">
+      <c r="A1045" s="1">
+        <f t="shared" si="33"/>
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1045" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1045" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1045" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 ROG 魔霸 7 Plus R9-7845H/16+1T/RTX 4070</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6">
+      <c r="A1046" s="1">
+        <f t="shared" si="33"/>
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1046" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1046" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1046" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 天选 4 酷睿 i7-13620H/16+512G/RTX 4060</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6">
+      <c r="A1047" s="1">
+        <f t="shared" si="33"/>
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1047" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1047" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1047" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 ROG 幻 16 Air 酷睿 Ultra 9/32+1T/RTX 4070</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6">
+      <c r="A1048" s="1">
+        <f t="shared" si="33"/>
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1048" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1048" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 a 豆 14 2024 酷睿 i5-1335U/16+1T</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6">
+      <c r="A1049" s="1">
+        <f t="shared" si="33"/>
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1049" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 灵耀 14 2024 酷睿 i9-13900H/16+1T</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6">
+      <c r="A1050" s="1">
+        <f t="shared" si="33"/>
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1050" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 ROG 幻 14 Air R9-8945HS/32+1T/RTX 4060</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6">
+      <c r="A1051" s="1">
+        <f t="shared" si="33"/>
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1051" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 ROG 幻 13 2023 R9-7940HS/16+1T/RTX 4050</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6">
+      <c r="A1052" s="1">
+        <f t="shared" si="33"/>
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1052" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 a 豆 14 2024 酷睿 i5-1335U/24+1T</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6">
+      <c r="A1053" s="1">
+        <f t="shared" si="33"/>
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1053" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 无畏 16 2023 酷睿 i9-13900H/16+1T</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6">
+      <c r="A1054" s="1">
+        <f t="shared" si="33"/>
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1054" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 灵耀 14 双屏 2024 酷睿 Ultra 9/32+2T</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6">
+      <c r="A1055" s="1">
+        <f t="shared" si="33"/>
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1055" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 天选 4 酷睿 i5-13500H/16+512G/RTX 4050</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6">
+      <c r="A1056" s="1">
+        <f t="shared" si="33"/>
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1056" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 无畏 Pro 15 2024 酷睿 Ultra 5/32+1T</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6">
+      <c r="A1057" s="1">
+        <f t="shared" si="33"/>
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1057" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 无畏 16 2023 酷睿 i5-13500H/16+512G/RTX 4050</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6">
+      <c r="A1058" s="1">
+        <f t="shared" si="33"/>
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1058" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 a 豆 14 2022 酷睿 i5-12450H/16G/512G</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6">
+      <c r="A1059" s="1">
+        <f t="shared" si="33"/>
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1059" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1059" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1059" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华硕 ROG 幻 14 Air R9-8945HS/16+1T/RTX 4050</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DF30F-2AAC-284C-A9F5-72257EAB12BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB0414-7F90-1C4D-9D4F-6E53DA819039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="14820" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
@@ -2959,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
   <dimension ref="A1:F1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1031" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F1059" sqref="F1059"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB0414-7F90-1C4D-9D4F-6E53DA819039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2973B-4B56-1947-9E62-DAC243380969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="14820" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="643">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2549,6 +2549,58 @@
   </si>
   <si>
     <t>R9-8945HS/16+1T/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatePad Pro 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatePad Air 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatePad 11' 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手环 B7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍穹灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅享 70 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatePad SE 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时尚款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeLace Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线充版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nova 11 SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatePad Air 12' 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatePad SE 11' 2024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2957,10 +3009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:F1059"/>
+  <dimension ref="A1:F1077"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F304" sqref="F304"/>
+    <sheetView tabSelected="1" topLeftCell="D1056" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F1077" sqref="F1077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25552,7 +25604,7 @@
         <v>16</v>
       </c>
       <c r="F1027" s="1" t="str">
-        <f t="shared" ref="F1027:F1059" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
+        <f t="shared" ref="F1027:F1077" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
         <v>努比亚 nubia 红魔 Z70 Ultra 16+512G</v>
       </c>
     </row>
@@ -25602,7 +25654,7 @@
     </row>
     <row r="1030" spans="1:6">
       <c r="A1030" s="1">
-        <f t="shared" ref="A1030:A1059" si="33">A1029+1</f>
+        <f t="shared" ref="A1030:A1071" si="33">A1029+1</f>
         <v>1029</v>
       </c>
       <c r="B1030" s="1" t="s">
@@ -26258,6 +26310,402 @@
       <c r="F1059" s="1" t="str">
         <f t="shared" si="32"/>
         <v>华硕 ROG 幻 14 Air R9-8945HS/16+1T/RTX 4050</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6">
+      <c r="A1060" s="1">
+        <f t="shared" si="33"/>
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1060" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Pro 2023 12+512G</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6">
+      <c r="A1061" s="1">
+        <f t="shared" si="33"/>
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1061" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Air 2023 12+512G</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6">
+      <c r="A1062" s="1">
+        <f t="shared" si="33"/>
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1062" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1062" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad 11' 2023 8+256G</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6">
+      <c r="A1063" s="1">
+        <f t="shared" si="33"/>
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E1063" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1063" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 手环 B7 苍穹灰</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6">
+      <c r="A1064" s="1">
+        <f t="shared" si="33"/>
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1064" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1064" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1064" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad 11' 2023 8+128G</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6">
+      <c r="A1065" s="1">
+        <f t="shared" si="33"/>
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1065" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 畅享 70 Pro 256G</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6">
+      <c r="A1066" s="1">
+        <f t="shared" si="33"/>
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1066" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1066" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Air 2023 8+256G</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6">
+      <c r="A1067" s="1">
+        <f t="shared" si="33"/>
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D1067" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1067" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad SE 2023 8+128G</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6">
+      <c r="A1068" s="1">
+        <f t="shared" si="33"/>
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D1068" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1068" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad SE 2023 6+128G</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6">
+      <c r="A1069" s="1">
+        <f t="shared" si="33"/>
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1069" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1069" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1069" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Air 2023 8+128G</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6">
+      <c r="A1070" s="1">
+        <f t="shared" si="33"/>
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1070" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E1070" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1070" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 Watch 3 Pro 时尚款</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6">
+      <c r="A1071" s="1">
+        <f t="shared" si="33"/>
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1071" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1071" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 畅享 70 Pro 128G</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6">
+      <c r="A1072" s="1">
+        <f>A1071+1</f>
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1072" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1072" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1072" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 FreeLace Pro 无线充版</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6">
+      <c r="A1073" s="1">
+        <f>A1072+1</f>
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1073" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1073" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1073" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 nova 11 SE 256G</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6">
+      <c r="A1074" s="1">
+        <f>A1073+1</f>
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1074" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1074" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1074" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 nova 11 SE 256G</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6">
+      <c r="A1075" s="1">
+        <f>A1074+1</f>
+        <v>1074</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1075" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1075" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1075" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Air 12' 2024 柔光版 12+256G</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6">
+      <c r="A1076" s="1">
+        <f>A1075+1</f>
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D1076" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1076" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1076" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad SE 11' 2024 8+128G</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6">
+      <c r="A1077" s="1">
+        <f>A1076+1</f>
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1077" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1077" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1077" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Air 12' 2024 8+256G</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2973B-4B56-1947-9E62-DAC243380969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5845AB-9182-0849-BECF-B1FAACEAE55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="14820" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="651">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2601,6 +2601,38 @@
   </si>
   <si>
     <t>MatePad SE 11' 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13代酷睿 i7/16G/1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MateBook 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5/16G/1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5/8G/512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擎云 S540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5-1240P/16+512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5/8G/256G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5/16G/512G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3009,10 +3041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:F1077"/>
+  <dimension ref="A1:F1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1056" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F1077" sqref="F1077"/>
+    <sheetView tabSelected="1" topLeftCell="C1063" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F1086" sqref="F1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25604,7 +25636,7 @@
         <v>16</v>
       </c>
       <c r="F1027" s="1" t="str">
-        <f t="shared" ref="F1027:F1077" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
+        <f t="shared" ref="F1027:F1086" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
         <v>努比亚 nubia 红魔 Z70 Ultra 16+512G</v>
       </c>
     </row>
@@ -26632,14 +26664,14 @@
         <v>640</v>
       </c>
       <c r="D1074" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1074" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1074" s="1" t="str">
         <f t="shared" si="32"/>
-        <v>华为 nova 11 SE 256G</v>
+        <v>华为 nova 11 SE 512G</v>
       </c>
     </row>
     <row r="1075" spans="1:6">
@@ -26706,6 +26738,200 @@
       <c r="F1077" s="1" t="str">
         <f t="shared" si="32"/>
         <v>华为 MatePad Air 12' 2024 8+256G</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6">
+      <c r="A1078" s="1">
+        <f>A1077+1</f>
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1078" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1078" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1078" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Air 12' 2024 柔光版 12+512G</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6">
+      <c r="A1079" s="1">
+        <f>A1078+1</f>
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1079" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1079" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1079" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Air 12' 2024 12+256G</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6">
+      <c r="A1080" s="1">
+        <f>A1079+1</f>
+        <v>1079</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1080" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1080" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Air 2023 12+256G</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6">
+      <c r="A1081" s="1">
+        <f>A1080+1</f>
+        <v>1080</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1081" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E1081" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1081" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MateBook D16 2024 13代酷睿 i7/16G/1T</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6">
+      <c r="A1082" s="1">
+        <f>A1081+1</f>
+        <v>1081</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E1082" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1082" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MateBook 14 酷睿 i5/8G/512G</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6">
+      <c r="A1083" s="1">
+        <f>A1082+1</f>
+        <v>1082</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1083" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E1083" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1083" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 擎云 S540 酷睿 i5-1240P/16+512G</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6">
+      <c r="A1084" s="1">
+        <f>A1083+1</f>
+        <v>1083</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1084" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1084" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1084" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MateBook 14 酷睿 i5/8G/256G</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="1">
+        <f>A1084+1</f>
+        <v>1084</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1085" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1085" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1085" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MateBook 14 酷睿 i5/16G/1T</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="B1086" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1086" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1086" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MateBook 14 酷睿 i5/16G/512G</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5845AB-9182-0849-BECF-B1FAACEAE55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9EB9D-70E5-AA41-9476-A19F45476826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="960" windowWidth="14820" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="662">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2412,6 +2412,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>电脑</t>
+  </si>
+  <si>
     <t>平板 X8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2633,6 +2636,46 @@
   </si>
   <si>
     <t>酷睿 i5/16G/512G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无界 14 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7-13620H/16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新笔记本 Pro 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-8745H/24+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESIM 47mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThinkPad T14P 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9-13900H/32+1T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3041,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:F1086"/>
+  <dimension ref="A1:F1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1063" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F1086" sqref="F1086"/>
+    <sheetView tabSelected="1" topLeftCell="D1069" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F1092" sqref="F1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25636,7 +25679,7 @@
         <v>16</v>
       </c>
       <c r="F1027" s="1" t="str">
-        <f t="shared" ref="F1027:F1086" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
+        <f t="shared" ref="F1027:F1092" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
         <v>努比亚 nubia 红魔 Z70 Ultra 16+512G</v>
       </c>
     </row>
@@ -25737,7 +25780,7 @@
         <v>389</v>
       </c>
       <c r="C1032" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D1032" s="1" t="s">
         <v>202</v>
@@ -25759,7 +25802,7 @@
         <v>389</v>
       </c>
       <c r="C1033" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D1033" s="1" t="s">
         <v>177</v>
@@ -25781,7 +25824,7 @@
         <v>389</v>
       </c>
       <c r="C1034" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D1034" s="1" t="s">
         <v>49</v>
@@ -25803,7 +25846,7 @@
         <v>389</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D1035" s="1" t="s">
         <v>3</v>
@@ -25825,10 +25868,10 @@
         <v>389</v>
       </c>
       <c r="C1036" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D1036" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E1036" s="1" t="s">
         <v>16</v>
@@ -25847,10 +25890,10 @@
         <v>389</v>
       </c>
       <c r="C1037" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1037" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="D1037" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="E1037" s="1" t="s">
         <v>16</v>
@@ -25869,7 +25912,7 @@
         <v>389</v>
       </c>
       <c r="C1038" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D1038" s="1" t="s">
         <v>177</v>
@@ -25894,7 +25937,7 @@
         <v>441</v>
       </c>
       <c r="D1039" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E1039" s="1" t="s">
         <v>54</v>
@@ -25916,7 +25959,7 @@
         <v>441</v>
       </c>
       <c r="D1040" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E1040" s="1" t="s">
         <v>54</v>
@@ -25938,7 +25981,7 @@
         <v>444</v>
       </c>
       <c r="D1041" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E1041" s="1" t="s">
         <v>54</v>
@@ -25960,7 +26003,7 @@
         <v>441</v>
       </c>
       <c r="D1042" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E1042" s="1" t="s">
         <v>54</v>
@@ -25979,10 +26022,10 @@
         <v>438</v>
       </c>
       <c r="C1043" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D1043" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E1043" s="1" t="s">
         <v>54</v>
@@ -26001,10 +26044,10 @@
         <v>438</v>
       </c>
       <c r="C1044" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D1044" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E1044" s="1" t="s">
         <v>54</v>
@@ -26023,10 +26066,10 @@
         <v>438</v>
       </c>
       <c r="C1045" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D1045" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E1045" s="1" t="s">
         <v>54</v>
@@ -26048,7 +26091,7 @@
         <v>441</v>
       </c>
       <c r="D1046" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E1046" s="1" t="s">
         <v>54</v>
@@ -26067,10 +26110,10 @@
         <v>438</v>
       </c>
       <c r="C1047" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D1047" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E1047" s="1" t="s">
         <v>54</v>
@@ -26089,10 +26132,10 @@
         <v>438</v>
       </c>
       <c r="C1048" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D1048" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E1048" s="1" t="s">
         <v>54</v>
@@ -26114,7 +26157,7 @@
         <v>445</v>
       </c>
       <c r="D1049" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E1049" s="1" t="s">
         <v>54</v>
@@ -26133,10 +26176,10 @@
         <v>438</v>
       </c>
       <c r="C1050" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D1050" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E1050" s="1" t="s">
         <v>54</v>
@@ -26155,10 +26198,10 @@
         <v>438</v>
       </c>
       <c r="C1051" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D1051" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E1051" s="1" t="s">
         <v>54</v>
@@ -26177,10 +26220,10 @@
         <v>438</v>
       </c>
       <c r="C1052" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D1052" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E1052" s="1" t="s">
         <v>54</v>
@@ -26199,10 +26242,10 @@
         <v>438</v>
       </c>
       <c r="C1053" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D1053" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E1053" s="1" t="s">
         <v>54</v>
@@ -26221,10 +26264,10 @@
         <v>438</v>
       </c>
       <c r="C1054" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D1054" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E1054" s="1" t="s">
         <v>54</v>
@@ -26246,7 +26289,7 @@
         <v>441</v>
       </c>
       <c r="D1055" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E1055" s="1" t="s">
         <v>54</v>
@@ -26268,7 +26311,7 @@
         <v>444</v>
       </c>
       <c r="D1056" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E1056" s="1" t="s">
         <v>54</v>
@@ -26287,10 +26330,10 @@
         <v>438</v>
       </c>
       <c r="C1057" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D1057" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E1057" s="1" t="s">
         <v>54</v>
@@ -26309,10 +26352,10 @@
         <v>438</v>
       </c>
       <c r="C1058" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E1058" s="1" t="s">
         <v>54</v>
@@ -26331,10 +26374,10 @@
         <v>438</v>
       </c>
       <c r="C1059" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D1059" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E1059" s="1" t="s">
         <v>54</v>
@@ -26353,7 +26396,7 @@
         <v>298</v>
       </c>
       <c r="C1060" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D1060" s="2" t="s">
         <v>177</v>
@@ -26375,7 +26418,7 @@
         <v>298</v>
       </c>
       <c r="C1061" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D1061" s="2" t="s">
         <v>177</v>
@@ -26397,7 +26440,7 @@
         <v>298</v>
       </c>
       <c r="C1062" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D1062" s="1" t="s">
         <v>41</v>
@@ -26419,10 +26462,10 @@
         <v>298</v>
       </c>
       <c r="C1063" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D1063" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E1063" s="1" t="s">
         <v>271</v>
@@ -26441,7 +26484,7 @@
         <v>298</v>
       </c>
       <c r="C1064" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D1064" s="1" t="s">
         <v>40</v>
@@ -26463,7 +26506,7 @@
         <v>298</v>
       </c>
       <c r="C1065" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D1065" s="1" t="s">
         <v>35</v>
@@ -26485,7 +26528,7 @@
         <v>298</v>
       </c>
       <c r="C1066" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D1066" s="1" t="s">
         <v>41</v>
@@ -26507,7 +26550,7 @@
         <v>298</v>
       </c>
       <c r="C1067" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D1067" s="1" t="s">
         <v>40</v>
@@ -26529,7 +26572,7 @@
         <v>298</v>
       </c>
       <c r="C1068" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D1068" s="1" t="s">
         <v>202</v>
@@ -26551,7 +26594,7 @@
         <v>298</v>
       </c>
       <c r="C1069" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D1069" s="1" t="s">
         <v>40</v>
@@ -26576,7 +26619,7 @@
         <v>335</v>
       </c>
       <c r="D1070" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E1070" s="1" t="s">
         <v>114</v>
@@ -26595,7 +26638,7 @@
         <v>298</v>
       </c>
       <c r="C1071" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D1071" s="1" t="s">
         <v>3</v>
@@ -26617,10 +26660,10 @@
         <v>298</v>
       </c>
       <c r="C1072" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D1072" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E1072" s="1" t="s">
         <v>143</v>
@@ -26639,7 +26682,7 @@
         <v>298</v>
       </c>
       <c r="C1073" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D1073" s="1" t="s">
         <v>35</v>
@@ -26661,7 +26704,7 @@
         <v>298</v>
       </c>
       <c r="C1074" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D1074" s="1" t="s">
         <v>36</v>
@@ -26683,7 +26726,7 @@
         <v>298</v>
       </c>
       <c r="C1075" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D1075" s="1" t="s">
         <v>280</v>
@@ -26705,7 +26748,7 @@
         <v>298</v>
       </c>
       <c r="C1076" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D1076" s="1" t="s">
         <v>40</v>
@@ -26727,7 +26770,7 @@
         <v>298</v>
       </c>
       <c r="C1077" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D1077" s="1" t="s">
         <v>41</v>
@@ -26749,7 +26792,7 @@
         <v>298</v>
       </c>
       <c r="C1078" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D1078" s="1" t="s">
         <v>281</v>
@@ -26771,7 +26814,7 @@
         <v>298</v>
       </c>
       <c r="C1079" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D1079" s="1" t="s">
         <v>176</v>
@@ -26793,7 +26836,7 @@
         <v>298</v>
       </c>
       <c r="C1080" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D1080" s="2" t="s">
         <v>176</v>
@@ -26818,7 +26861,7 @@
         <v>322</v>
       </c>
       <c r="D1081" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E1081" s="1" t="s">
         <v>54</v>
@@ -26837,10 +26880,10 @@
         <v>298</v>
       </c>
       <c r="C1082" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D1082" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E1082" s="1" t="s">
         <v>54</v>
@@ -26859,10 +26902,10 @@
         <v>298</v>
       </c>
       <c r="C1083" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D1083" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E1083" s="1" t="s">
         <v>54</v>
@@ -26881,10 +26924,10 @@
         <v>298</v>
       </c>
       <c r="C1084" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D1084" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E1084" s="1" t="s">
         <v>54</v>
@@ -26903,10 +26946,10 @@
         <v>298</v>
       </c>
       <c r="C1085" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D1085" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E1085" s="1" t="s">
         <v>54</v>
@@ -26917,14 +26960,18 @@
       </c>
     </row>
     <row r="1086" spans="1:6">
+      <c r="A1086" s="1">
+        <f t="shared" ref="A1086:A1092" si="34">A1085+1</f>
+        <v>1085</v>
+      </c>
       <c r="B1086" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C1086" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D1086" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E1086" s="1" t="s">
         <v>54</v>
@@ -26932,6 +26979,138 @@
       <c r="F1086" s="1" t="str">
         <f t="shared" si="32"/>
         <v>华为 MateBook 14 酷睿 i5/16G/512G</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="1">
+        <f t="shared" si="34"/>
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1087" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1087" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1087" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>三星 A55 12+256G</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="1">
+        <f t="shared" si="34"/>
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1088" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1088" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1088" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>红米 14C 4+64G</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="1">
+        <f t="shared" si="34"/>
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D1089" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1089" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1089" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>机械革命 无界 14 Pro 酷睿 i7-13620H/16+1T</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="1">
+        <f t="shared" si="34"/>
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1090" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1090" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1090" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想 小新笔记本 Pro 14 R7-8745H/24+1T</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="1">
+        <f t="shared" si="34"/>
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1091" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1091" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>小米 Watch S4 ESIM 47mm</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="1">
+        <f t="shared" si="34"/>
+        <v>1091</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1092" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1092" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想 ThinkPad T14P 2023 酷睿 i9-13900H/32+1T</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Equipments/机型表.xlsx
+++ b/Python/Equipments/机型表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyonglin/myCode/gitee/myWork/Python/Equipments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9EB9D-70E5-AA41-9476-A19F45476826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626A9E19-E43B-A541-AE6F-EE93A6735D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="960" windowWidth="14820" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
+    <workbookView xWindow="200" yWindow="960" windowWidth="29840" windowHeight="17240" xr2:uid="{3A676840-9203-4C46-A94A-E6318DD531B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4329" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="686">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2676,6 +2676,102 @@
   </si>
   <si>
     <t>酷睿 i9-13900H/32+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+256G/WIFI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新 Pad Pro 2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星Book Pro 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i5-13500H/16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小新笔记本 Pro 14 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBuds 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatePad Pro 13.2' 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7-13700H/16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThinkBook 14 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab S9+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 Ultra 7/32+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拯救者 Y700 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G16 7630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i9-13900HX/16G/1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星Book Pro 13 2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-7735U/16+1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛟龙 16K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7-7735H/16+1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光影精灵 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷睿 i7-14650HX/16+1T/RTX 4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拯救者 Y7000P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7-14650HX/16G/RTX 4050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7-13700H/16G/RTX 4060</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3084,20 +3180,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD244BC-C675-9348-A4C5-24F51B7E8F64}">
-  <dimension ref="A1:F1092"/>
+  <dimension ref="A1:F1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1069" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F1092" sqref="F1092"/>
+    <sheetView tabSelected="1" topLeftCell="A1093" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D1127" sqref="D1127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.1640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -25679,7 +25775,7 @@
         <v>16</v>
       </c>
       <c r="F1027" s="1" t="str">
-        <f t="shared" ref="F1027:F1092" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
+        <f t="shared" ref="F1027:F1111" si="32">B1027&amp;" "&amp;C1027&amp;" "&amp;D1027</f>
         <v>努比亚 nubia 红魔 Z70 Ultra 16+512G</v>
       </c>
     </row>
@@ -26961,7 +27057,7 @@
     </row>
     <row r="1086" spans="1:6">
       <c r="A1086" s="1">
-        <f t="shared" ref="A1086:A1092" si="34">A1085+1</f>
+        <f t="shared" ref="A1086:A1101" si="34">A1085+1</f>
         <v>1085</v>
       </c>
       <c r="B1086" s="1" t="s">
@@ -27111,6 +27207,424 @@
       <c r="F1092" s="1" t="str">
         <f t="shared" si="32"/>
         <v>联想 ThinkPad T14P 2023 酷睿 i9-13900H/32+1T</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="1">
+        <f t="shared" si="34"/>
+        <v>1092</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1093" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1093" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1093" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>小米 平板 6 8+128G</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="1">
+        <f t="shared" si="34"/>
+        <v>1093</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1094" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1094" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想 小新 Pad Pro 2025 8+256G/WIFI</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="1">
+        <f t="shared" si="34"/>
+        <v>1094</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1095" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1095" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>小米 平板 6 Pro 8+128G</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="1">
+        <f t="shared" si="34"/>
+        <v>1095</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D1096" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E1096" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1096" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>惠普 星Book Pro 14 酷睿 i5-13500H/16+1T</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="1">
+        <f t="shared" si="34"/>
+        <v>1096</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D1097" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E1097" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1097" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想 小新笔记本 Pro 14 2023 酷睿 i5-13500H/16+1T</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="1">
+        <f t="shared" si="34"/>
+        <v>1097</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1098" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1098" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 FreeBuds 5 至臻版 16+1T</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="1">
+        <f t="shared" si="34"/>
+        <v>1098</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D1099" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1099" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1099" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>华为 MatePad Pro 13.2' 2024 12+512G</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="1">
+        <f t="shared" si="34"/>
+        <v>1099</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1100" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>惠普 星Book Pro 14 酷睿 i7-13700H/16+1T</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="1">
+        <f>A1100+1</f>
+        <v>1100</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1101" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想 ThinkBook 14 2024 R7-8845H/16+1T</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="1">
+        <f>A1101+1</f>
+        <v>1101</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D1102" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1102" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>三星 Tab S9+ 12+512G</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="1">
+        <f>A1102+1</f>
+        <v>1102</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1103" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1103" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想 ThinkBook 14 2024 酷睿 Ultra 7/32+1T</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="1">
+        <f>A1103+1</f>
+        <v>1103</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1104" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想  拯救者 Y700 2023 12+256G</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="1">
+        <f>A1104+1</f>
+        <v>1104</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1105" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1105" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>戴尔 G16 7630 酷睿 i9-13900HX/16G/1T/RTX 4060</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="1">
+        <f>A1105+1</f>
+        <v>1105</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1106" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1106" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>惠普 星Book Pro 13 2023 R7-7735U/16+1T</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="1">
+        <f>A1106+1</f>
+        <v>1106</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1107" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1107" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1107" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>机械革命 蛟龙 16K R7-7735H/16+1T/RTX 4060</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="1">
+        <f>A1107+1</f>
+        <v>1107</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1108" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D1108" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E1108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1108" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>惠普 光影精灵 10 酷睿 i7-14650HX/16+1T/RTX 4060</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="1">
+        <f>A1108+1</f>
+        <v>1108</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1109" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E1109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1109" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想  拯救者 Y7000P i7-14650HX/16G/RTX 4050</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="1">
+        <f>A1109+1</f>
+        <v>1109</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1110" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1110" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想  拯救者 Y700 2023 16+512G</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="1">
+        <f>A1110+1</f>
+        <v>1110</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1111" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>联想  拯救者 Y7000P i7-13700H/16G/RTX 4060</v>
       </c>
     </row>
   </sheetData>
